--- a/Source/Document/Meeting minutes/Meeting minute.xlsx
+++ b/Source/Document/Meeting minutes/Meeting minute.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="53">
   <si>
     <t>MEETING MINUTES</t>
   </si>
@@ -165,6 +165,18 @@
   </si>
   <si>
     <t>Người ký gửi không nhất thiết phải là member</t>
+  </si>
+  <si>
+    <t>Phase 1 Post product - DucHC</t>
+  </si>
+  <si>
+    <t>Phase 2: Approve product - PhucTQ</t>
+  </si>
+  <si>
+    <t>Phase 3: confirm product - HoangNH</t>
+  </si>
+  <si>
+    <t>Amazon va paypal: DanQT</t>
   </si>
 </sst>
 </file>
@@ -358,15 +370,6 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -382,6 +385,15 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -704,22 +716,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="21"/>
-      <c r="I1" s="21"/>
-      <c r="J1" s="21"/>
-      <c r="K1" s="21"/>
-      <c r="L1" s="21"/>
-      <c r="M1" s="21"/>
-      <c r="N1" s="21"/>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+      <c r="I1" s="27"/>
+      <c r="J1" s="27"/>
+      <c r="K1" s="27"/>
+      <c r="L1" s="27"/>
+      <c r="M1" s="27"/>
+      <c r="N1" s="27"/>
       <c r="O1" s="4"/>
       <c r="P1" s="4"/>
       <c r="Q1" s="4"/>
@@ -728,20 +740,20 @@
       <c r="T1" s="4"/>
     </row>
     <row r="2" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="21"/>
-      <c r="B2" s="21"/>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="21"/>
-      <c r="G2" s="21"/>
-      <c r="H2" s="21"/>
-      <c r="I2" s="21"/>
-      <c r="J2" s="21"/>
-      <c r="K2" s="21"/>
-      <c r="L2" s="21"/>
-      <c r="M2" s="21"/>
-      <c r="N2" s="21"/>
+      <c r="A2" s="27"/>
+      <c r="B2" s="27"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="27"/>
+      <c r="I2" s="27"/>
+      <c r="J2" s="27"/>
+      <c r="K2" s="27"/>
+      <c r="L2" s="27"/>
+      <c r="M2" s="27"/>
+      <c r="N2" s="27"/>
       <c r="O2" s="4"/>
       <c r="P2" s="4"/>
       <c r="Q2" s="4"/>
@@ -750,20 +762,20 @@
       <c r="T2" s="4"/>
     </row>
     <row r="3" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="21"/>
-      <c r="B3" s="21"/>
-      <c r="C3" s="21"/>
-      <c r="D3" s="21"/>
-      <c r="E3" s="21"/>
-      <c r="F3" s="21"/>
-      <c r="G3" s="21"/>
-      <c r="H3" s="21"/>
-      <c r="I3" s="21"/>
-      <c r="J3" s="21"/>
-      <c r="K3" s="21"/>
-      <c r="L3" s="21"/>
-      <c r="M3" s="21"/>
-      <c r="N3" s="21"/>
+      <c r="A3" s="27"/>
+      <c r="B3" s="27"/>
+      <c r="C3" s="27"/>
+      <c r="D3" s="27"/>
+      <c r="E3" s="27"/>
+      <c r="F3" s="27"/>
+      <c r="G3" s="27"/>
+      <c r="H3" s="27"/>
+      <c r="I3" s="27"/>
+      <c r="J3" s="27"/>
+      <c r="K3" s="27"/>
+      <c r="L3" s="27"/>
+      <c r="M3" s="27"/>
+      <c r="N3" s="27"/>
       <c r="O3" s="4"/>
       <c r="P3" s="4"/>
       <c r="Q3" s="4"/>
@@ -772,20 +784,20 @@
       <c r="T3" s="4"/>
     </row>
     <row r="4" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="21"/>
-      <c r="B4" s="21"/>
-      <c r="C4" s="21"/>
-      <c r="D4" s="21"/>
-      <c r="E4" s="21"/>
-      <c r="F4" s="21"/>
-      <c r="G4" s="21"/>
-      <c r="H4" s="21"/>
-      <c r="I4" s="21"/>
-      <c r="J4" s="21"/>
-      <c r="K4" s="21"/>
-      <c r="L4" s="21"/>
-      <c r="M4" s="21"/>
-      <c r="N4" s="21"/>
+      <c r="A4" s="27"/>
+      <c r="B4" s="27"/>
+      <c r="C4" s="27"/>
+      <c r="D4" s="27"/>
+      <c r="E4" s="27"/>
+      <c r="F4" s="27"/>
+      <c r="G4" s="27"/>
+      <c r="H4" s="27"/>
+      <c r="I4" s="27"/>
+      <c r="J4" s="27"/>
+      <c r="K4" s="27"/>
+      <c r="L4" s="27"/>
+      <c r="M4" s="27"/>
+      <c r="N4" s="27"/>
       <c r="O4" s="4"/>
       <c r="P4" s="4"/>
       <c r="Q4" s="4"/>
@@ -798,42 +810,42 @@
         <v>1</v>
       </c>
       <c r="B5" s="5"/>
-      <c r="C5" s="19" t="s">
+      <c r="C5" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="20"/>
-      <c r="E5" s="19" t="s">
+      <c r="D5" s="26"/>
+      <c r="E5" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="F5" s="20"/>
-      <c r="G5" s="19" t="s">
+      <c r="F5" s="26"/>
+      <c r="G5" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="H5" s="20"/>
-      <c r="I5" s="19" t="s">
+      <c r="H5" s="26"/>
+      <c r="I5" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="J5" s="20"/>
-      <c r="K5" s="19" t="s">
+      <c r="J5" s="26"/>
+      <c r="K5" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="L5" s="20"/>
-      <c r="M5" s="19" t="s">
+      <c r="L5" s="26"/>
+      <c r="M5" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="N5" s="20"/>
-      <c r="O5" s="19" t="s">
+      <c r="N5" s="26"/>
+      <c r="O5" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="P5" s="20"/>
-      <c r="Q5" s="19" t="s">
+      <c r="P5" s="26"/>
+      <c r="Q5" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="R5" s="20"/>
-      <c r="S5" s="19" t="s">
+      <c r="R5" s="26"/>
+      <c r="S5" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="T5" s="20"/>
+      <c r="T5" s="26"/>
     </row>
     <row r="6" spans="1:20" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
@@ -1180,7 +1192,7 @@
       </c>
       <c r="C13" s="17"/>
     </row>
-    <row r="14" spans="1:3" s="22" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" s="19" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A14" s="16">
         <v>3</v>
       </c>
@@ -1191,11 +1203,11 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:3" s="22" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A15" s="23"/>
-    </row>
-    <row r="16" spans="1:3" s="22" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A16" s="23"/>
+    <row r="15" spans="1:3" s="19" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A15" s="20"/>
+    </row>
+    <row r="16" spans="1:3" s="19" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A16" s="20"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1205,16 +1217,16 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:C23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.7109375" customWidth="1"/>
-    <col min="2" max="2" width="91.5703125" style="24" customWidth="1"/>
+    <col min="2" max="2" width="91.5703125" style="21" customWidth="1"/>
     <col min="3" max="3" width="18.42578125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1227,7 +1239,7 @@
       <c r="A2" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="25" t="s">
+      <c r="B2" s="22" t="s">
         <v>24</v>
       </c>
       <c r="C2" s="15" t="s">
@@ -1238,7 +1250,7 @@
       <c r="A3" s="16">
         <v>1</v>
       </c>
-      <c r="B3" s="26" t="s">
+      <c r="B3" s="23" t="s">
         <v>30</v>
       </c>
       <c r="C3" s="17" t="s">
@@ -1249,7 +1261,7 @@
       <c r="A4" s="16">
         <v>2</v>
       </c>
-      <c r="B4" s="26" t="s">
+      <c r="B4" s="23" t="s">
         <v>41</v>
       </c>
       <c r="C4" s="17"/>
@@ -1258,7 +1270,7 @@
       <c r="A5" s="16">
         <v>3</v>
       </c>
-      <c r="B5" s="26" t="s">
+      <c r="B5" s="23" t="s">
         <v>32</v>
       </c>
       <c r="C5" s="17" t="s">
@@ -1269,7 +1281,7 @@
       <c r="A6" s="16">
         <v>4</v>
       </c>
-      <c r="B6" s="26" t="s">
+      <c r="B6" s="23" t="s">
         <v>39</v>
       </c>
       <c r="C6" s="17"/>
@@ -1278,7 +1290,7 @@
       <c r="A7" s="16">
         <v>5</v>
       </c>
-      <c r="B7" s="26" t="s">
+      <c r="B7" s="23" t="s">
         <v>40</v>
       </c>
       <c r="C7" s="17"/>
@@ -1287,7 +1299,7 @@
       <c r="A8" s="16">
         <v>6</v>
       </c>
-      <c r="B8" s="26" t="s">
+      <c r="B8" s="23" t="s">
         <v>42</v>
       </c>
       <c r="C8" s="17"/>
@@ -1296,14 +1308,14 @@
       <c r="A9" s="16">
         <v>7</v>
       </c>
-      <c r="B9" s="26" t="s">
+      <c r="B9" s="23" t="s">
         <v>47</v>
       </c>
       <c r="C9" s="17"/>
     </row>
     <row r="10" spans="1:3" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A10" s="16"/>
-      <c r="B10" s="26" t="s">
+      <c r="B10" s="23" t="s">
         <v>48</v>
       </c>
       <c r="C10" s="17"/>
@@ -1312,7 +1324,7 @@
       <c r="A11" s="16">
         <v>7</v>
       </c>
-      <c r="B11" s="26" t="s">
+      <c r="B11" s="23" t="s">
         <v>44</v>
       </c>
       <c r="C11" s="17"/>
@@ -1329,7 +1341,7 @@
       <c r="A14" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="B14" s="25" t="s">
+      <c r="B14" s="22" t="s">
         <v>24</v>
       </c>
       <c r="C14" s="15" t="s">
@@ -1340,7 +1352,7 @@
       <c r="A15" s="16">
         <v>1</v>
       </c>
-      <c r="B15" s="26" t="s">
+      <c r="B15" s="23" t="s">
         <v>46</v>
       </c>
       <c r="C15" s="17"/>
@@ -1349,7 +1361,7 @@
       <c r="A16" s="16">
         <v>3</v>
       </c>
-      <c r="B16" s="26" t="s">
+      <c r="B16" s="23" t="s">
         <v>45</v>
       </c>
       <c r="C16" s="17"/>
@@ -1358,13 +1370,52 @@
       <c r="A17" s="16">
         <v>2</v>
       </c>
-      <c r="B17" s="27" t="s">
+      <c r="B17" s="24" t="s">
         <v>43</v>
       </c>
       <c r="C17" s="17"/>
+    </row>
+    <row r="18" spans="1:3" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A18" s="17"/>
+      <c r="B18" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="C18" s="17"/>
+    </row>
+    <row r="19" spans="1:3" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A19" s="17"/>
+      <c r="B19" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="C19" s="17"/>
+    </row>
+    <row r="20" spans="1:3" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A20" s="17"/>
+      <c r="B20" s="23" t="s">
+        <v>51</v>
+      </c>
+      <c r="C20" s="17"/>
+    </row>
+    <row r="21" spans="1:3" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A21" s="17"/>
+      <c r="B21" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="C21" s="17"/>
+    </row>
+    <row r="22" spans="1:3" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A22" s="17"/>
+      <c r="B22" s="23"/>
+      <c r="C22" s="17"/>
+    </row>
+    <row r="23" spans="1:3" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A23" s="17"/>
+      <c r="B23" s="23"/>
+      <c r="C23" s="17"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/Source/Document/Meeting minutes/Meeting minute.xlsx
+++ b/Source/Document/Meeting minutes/Meeting minute.xlsx
@@ -4,21 +4,22 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
     <sheet name="W1_1" sheetId="2" r:id="rId2"/>
     <sheet name="W1_2" sheetId="3" r:id="rId3"/>
     <sheet name="W2_1" sheetId="4" r:id="rId4"/>
-    <sheet name="W2_2" sheetId="6" r:id="rId5"/>
+    <sheet name="chia task" sheetId="7" r:id="rId5"/>
+    <sheet name="W2_2" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="69">
   <si>
     <t>MEETING MINUTES</t>
   </si>
@@ -177,6 +178,54 @@
   </si>
   <si>
     <t>Amazon va paypal: DanQT</t>
+  </si>
+  <si>
+    <t>Sửa lại introduction rp1: giới thiệu chức năng của hệ thống</t>
+  </si>
+  <si>
+    <t>easy to use, reduce error: bỏ</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Feature function: thiếu actor: system, thống kê doanh thu, tìm kiếm của khách hàng, system support payment, advance product search</t>
+  </si>
+  <si>
+    <t>Hoàng</t>
+  </si>
+  <si>
+    <t>Dân</t>
+  </si>
+  <si>
+    <t>shopping online</t>
+  </si>
+  <si>
+    <t>price suggestion, payment online method</t>
+  </si>
+  <si>
+    <t>Đức</t>
+  </si>
+  <si>
+    <t>post product</t>
+  </si>
+  <si>
+    <t>Phúc</t>
+  </si>
+  <si>
+    <t>negotiation</t>
+  </si>
+  <si>
+    <t>Price suggestion</t>
+  </si>
+  <si>
+    <t>tracking sản phẩm, đưa sản phẩm lên đúng mùa</t>
+  </si>
+  <si>
+    <t>Chia lại task trong 6.functional requirement</t>
+  </si>
+  <si>
+    <t>Vẽ core flow của ứng dụng. Làm prototype của core flow</t>
   </si>
 </sst>
 </file>
@@ -246,7 +295,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -262,6 +311,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -320,7 +375,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -394,6 +449,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1219,8 +1277,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="B3" sqref="A1:C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1421,19 +1479,171 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="32.42578125" customWidth="1"/>
+    <col min="2" max="2" width="64.28515625" customWidth="1"/>
+    <col min="3" max="3" width="31.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A1" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="21"/>
+    </row>
+    <row r="2" spans="1:3" ht="39" x14ac:dyDescent="0.3">
+      <c r="A2" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" s="15" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="39" x14ac:dyDescent="0.3">
+      <c r="A3" s="16">
+        <v>1</v>
+      </c>
+      <c r="B3" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="C3" s="17" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="58.5" x14ac:dyDescent="0.3">
+      <c r="A4" s="16">
+        <v>2</v>
+      </c>
+      <c r="B4" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="C4" s="17" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A5" s="16">
+        <v>3</v>
+      </c>
+      <c r="B5" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="C5" s="17"/>
+    </row>
+    <row r="6" spans="1:3" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A6" s="16">
+        <v>4</v>
+      </c>
+      <c r="B6" s="23"/>
+      <c r="C6" s="17"/>
+    </row>
+    <row r="7" spans="1:3" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A7" s="16">
+        <v>5</v>
+      </c>
+      <c r="B7" s="23"/>
+      <c r="C7" s="17"/>
+    </row>
+    <row r="8" spans="1:3" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A8" s="16">
+        <v>6</v>
+      </c>
+      <c r="B8" s="23"/>
+      <c r="C8" s="17"/>
+    </row>
+    <row r="9" spans="1:3" ht="39" x14ac:dyDescent="0.3">
+      <c r="A9" s="16">
+        <v>7</v>
+      </c>
+      <c r="B9" s="28" t="s">
+        <v>68</v>
+      </c>
+      <c r="C9" s="17"/>
+    </row>
+    <row r="10" spans="1:3" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A10" s="16"/>
+      <c r="B10" s="23" t="s">
+        <v>66</v>
+      </c>
+      <c r="C10" s="17"/>
+    </row>
+    <row r="11" spans="1:3" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A11" s="16">
+        <v>7</v>
+      </c>
+      <c r="B11" s="23" t="s">
+        <v>67</v>
+      </c>
+      <c r="C11" s="17"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>65</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>

--- a/Source/Document/Meeting minutes/Meeting minute.xlsx
+++ b/Source/Document/Meeting minutes/Meeting minute.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="78">
   <si>
     <t>MEETING MINUTES</t>
   </si>
@@ -183,12 +183,6 @@
     <t>Sửa lại introduction rp1: giới thiệu chức năng của hệ thống</t>
   </si>
   <si>
-    <t>easy to use, reduce error: bỏ</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
     <t>Feature function: thiếu actor: system, thống kê doanh thu, tìm kiếm của khách hàng, system support payment, advance product search</t>
   </si>
   <si>
@@ -222,10 +216,43 @@
     <t>tracking sản phẩm, đưa sản phẩm lên đúng mùa</t>
   </si>
   <si>
-    <t>Chia lại task trong 6.functional requirement</t>
-  </si>
-  <si>
     <t>Vẽ core flow của ứng dụng. Làm prototype của core flow</t>
+  </si>
+  <si>
+    <t>Chia lại task trong 6.functional requirement của rp1</t>
+  </si>
+  <si>
+    <t>Sửa shop owner thành store owner</t>
+  </si>
+  <si>
+    <t>Phân biệt guest và customer</t>
+  </si>
+  <si>
+    <t>không dùng "easy to use" hay "reduce error". Chỉ viết những thứ làm được</t>
+  </si>
+  <si>
+    <t>Software Process Model trong rp2 chia lại điểm thành phần. Lưu ý: không ghi gì là max điểm, có lúc cả thành phần đều không đạt yêu cầu</t>
+  </si>
+  <si>
+    <t>Làm rõ phần bán hàng</t>
+  </si>
+  <si>
+    <t>Trong rp2 -&gt; Tool and Technique -&gt; Domain knowledge thêm consigment aspect</t>
+  </si>
+  <si>
+    <t>Coding convention: phần comment không nên ghi, những phần nào tuân thủ được thì để lại</t>
+  </si>
+  <si>
+    <t>duchc</t>
+  </si>
+  <si>
+    <t>danqt</t>
+  </si>
+  <si>
+    <t>phuctq</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> dantq, hoangnh</t>
   </si>
 </sst>
 </file>
@@ -441,6 +468,9 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -449,9 +479,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -774,22 +801,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
-      <c r="H1" s="27"/>
-      <c r="I1" s="27"/>
-      <c r="J1" s="27"/>
-      <c r="K1" s="27"/>
-      <c r="L1" s="27"/>
-      <c r="M1" s="27"/>
-      <c r="N1" s="27"/>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="28"/>
+      <c r="I1" s="28"/>
+      <c r="J1" s="28"/>
+      <c r="K1" s="28"/>
+      <c r="L1" s="28"/>
+      <c r="M1" s="28"/>
+      <c r="N1" s="28"/>
       <c r="O1" s="4"/>
       <c r="P1" s="4"/>
       <c r="Q1" s="4"/>
@@ -798,20 +825,20 @@
       <c r="T1" s="4"/>
     </row>
     <row r="2" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="27"/>
-      <c r="B2" s="27"/>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
-      <c r="F2" s="27"/>
-      <c r="G2" s="27"/>
-      <c r="H2" s="27"/>
-      <c r="I2" s="27"/>
-      <c r="J2" s="27"/>
-      <c r="K2" s="27"/>
-      <c r="L2" s="27"/>
-      <c r="M2" s="27"/>
-      <c r="N2" s="27"/>
+      <c r="A2" s="28"/>
+      <c r="B2" s="28"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="28"/>
+      <c r="H2" s="28"/>
+      <c r="I2" s="28"/>
+      <c r="J2" s="28"/>
+      <c r="K2" s="28"/>
+      <c r="L2" s="28"/>
+      <c r="M2" s="28"/>
+      <c r="N2" s="28"/>
       <c r="O2" s="4"/>
       <c r="P2" s="4"/>
       <c r="Q2" s="4"/>
@@ -820,20 +847,20 @@
       <c r="T2" s="4"/>
     </row>
     <row r="3" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="27"/>
-      <c r="B3" s="27"/>
-      <c r="C3" s="27"/>
-      <c r="D3" s="27"/>
-      <c r="E3" s="27"/>
-      <c r="F3" s="27"/>
-      <c r="G3" s="27"/>
-      <c r="H3" s="27"/>
-      <c r="I3" s="27"/>
-      <c r="J3" s="27"/>
-      <c r="K3" s="27"/>
-      <c r="L3" s="27"/>
-      <c r="M3" s="27"/>
-      <c r="N3" s="27"/>
+      <c r="A3" s="28"/>
+      <c r="B3" s="28"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="28"/>
+      <c r="F3" s="28"/>
+      <c r="G3" s="28"/>
+      <c r="H3" s="28"/>
+      <c r="I3" s="28"/>
+      <c r="J3" s="28"/>
+      <c r="K3" s="28"/>
+      <c r="L3" s="28"/>
+      <c r="M3" s="28"/>
+      <c r="N3" s="28"/>
       <c r="O3" s="4"/>
       <c r="P3" s="4"/>
       <c r="Q3" s="4"/>
@@ -842,20 +869,20 @@
       <c r="T3" s="4"/>
     </row>
     <row r="4" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="27"/>
-      <c r="B4" s="27"/>
-      <c r="C4" s="27"/>
-      <c r="D4" s="27"/>
-      <c r="E4" s="27"/>
-      <c r="F4" s="27"/>
-      <c r="G4" s="27"/>
-      <c r="H4" s="27"/>
-      <c r="I4" s="27"/>
-      <c r="J4" s="27"/>
-      <c r="K4" s="27"/>
-      <c r="L4" s="27"/>
-      <c r="M4" s="27"/>
-      <c r="N4" s="27"/>
+      <c r="A4" s="28"/>
+      <c r="B4" s="28"/>
+      <c r="C4" s="28"/>
+      <c r="D4" s="28"/>
+      <c r="E4" s="28"/>
+      <c r="F4" s="28"/>
+      <c r="G4" s="28"/>
+      <c r="H4" s="28"/>
+      <c r="I4" s="28"/>
+      <c r="J4" s="28"/>
+      <c r="K4" s="28"/>
+      <c r="L4" s="28"/>
+      <c r="M4" s="28"/>
+      <c r="N4" s="28"/>
       <c r="O4" s="4"/>
       <c r="P4" s="4"/>
       <c r="Q4" s="4"/>
@@ -868,42 +895,42 @@
         <v>1</v>
       </c>
       <c r="B5" s="5"/>
-      <c r="C5" s="25" t="s">
+      <c r="C5" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="26"/>
-      <c r="E5" s="25" t="s">
+      <c r="D5" s="27"/>
+      <c r="E5" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="F5" s="26"/>
-      <c r="G5" s="25" t="s">
+      <c r="F5" s="27"/>
+      <c r="G5" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="H5" s="26"/>
-      <c r="I5" s="25" t="s">
+      <c r="H5" s="27"/>
+      <c r="I5" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="J5" s="26"/>
-      <c r="K5" s="25" t="s">
+      <c r="J5" s="27"/>
+      <c r="K5" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="L5" s="26"/>
-      <c r="M5" s="25" t="s">
+      <c r="L5" s="27"/>
+      <c r="M5" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="N5" s="26"/>
-      <c r="O5" s="25" t="s">
+      <c r="N5" s="27"/>
+      <c r="O5" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="P5" s="26"/>
-      <c r="Q5" s="25" t="s">
+      <c r="P5" s="27"/>
+      <c r="Q5" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="R5" s="26"/>
-      <c r="S5" s="25" t="s">
+      <c r="R5" s="27"/>
+      <c r="S5" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="T5" s="26"/>
+      <c r="T5" s="27"/>
     </row>
     <row r="6" spans="1:20" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
@@ -1277,8 +1304,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C23"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="B3" sqref="A1:C11"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13:C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1479,10 +1506,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1525,69 +1552,145 @@
         <v>2</v>
       </c>
       <c r="B4" s="23" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C4" s="17" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="19.5" x14ac:dyDescent="0.3">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="39" x14ac:dyDescent="0.3">
       <c r="A5" s="16">
         <v>3</v>
       </c>
       <c r="B5" s="23" t="s">
-        <v>54</v>
-      </c>
-      <c r="C5" s="17"/>
+        <v>69</v>
+      </c>
+      <c r="C5" s="17" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="6" spans="1:3" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A6" s="16">
         <v>4</v>
       </c>
-      <c r="B6" s="23"/>
-      <c r="C6" s="17"/>
+      <c r="B6" s="23" t="s">
+        <v>67</v>
+      </c>
+      <c r="C6" s="17" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="7" spans="1:3" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A7" s="16">
         <v>5</v>
       </c>
-      <c r="B7" s="23"/>
-      <c r="C7" s="17"/>
-    </row>
-    <row r="8" spans="1:3" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="B7" s="23" t="s">
+        <v>68</v>
+      </c>
+      <c r="C7" s="17" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="58.5" x14ac:dyDescent="0.3">
       <c r="A8" s="16">
         <v>6</v>
       </c>
-      <c r="B8" s="23"/>
-      <c r="C8" s="17"/>
+      <c r="B8" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="C8" s="17" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="9" spans="1:3" ht="39" x14ac:dyDescent="0.3">
       <c r="A9" s="16">
         <v>7</v>
       </c>
-      <c r="B9" s="28" t="s">
-        <v>68</v>
-      </c>
-      <c r="C9" s="17"/>
+      <c r="B9" s="25" t="s">
+        <v>65</v>
+      </c>
+      <c r="C9" s="17" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="10" spans="1:3" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A10" s="16"/>
+      <c r="A10" s="16">
+        <v>8</v>
+      </c>
       <c r="B10" s="23" t="s">
+        <v>64</v>
+      </c>
+      <c r="C10" s="17"/>
+    </row>
+    <row r="11" spans="1:3" ht="39" x14ac:dyDescent="0.3">
+      <c r="A11" s="16">
+        <v>9</v>
+      </c>
+      <c r="B11" s="23" t="s">
         <v>66</v>
       </c>
-      <c r="C10" s="17"/>
-    </row>
-    <row r="11" spans="1:3" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A11" s="16">
-        <v>7</v>
-      </c>
-      <c r="B11" s="23" t="s">
-        <v>67</v>
-      </c>
-      <c r="C11" s="17"/>
+      <c r="C11" s="17" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A12" s="16">
+        <v>10</v>
+      </c>
+      <c r="B12" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="C12" s="17" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="39" x14ac:dyDescent="0.3">
+      <c r="A13" s="16">
+        <v>11</v>
+      </c>
+      <c r="B13" s="23" t="s">
+        <v>72</v>
+      </c>
+      <c r="C13" s="17" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="39" x14ac:dyDescent="0.3">
+      <c r="A14" s="16">
+        <v>12</v>
+      </c>
+      <c r="B14" s="23" t="s">
+        <v>73</v>
+      </c>
+      <c r="C14" s="17" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A15" s="16"/>
+      <c r="B15" s="23"/>
+      <c r="C15" s="17"/>
+    </row>
+    <row r="16" spans="1:3" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A16" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="B16" s="21"/>
+    </row>
+    <row r="17" spans="1:3" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A17" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" s="15" t="s">
+        <v>29</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1603,39 +1706,39 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B1" t="s">
         <v>57</v>
-      </c>
-      <c r="B1" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B2" t="s">
         <v>58</v>
-      </c>
-      <c r="B2" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B4" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>

--- a/Source/Document/Meeting minutes/Meeting minute.xlsx
+++ b/Source/Document/Meeting minutes/Meeting minute.xlsx
@@ -4,14 +4,14 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
-    <sheet name="W1_1" sheetId="2" r:id="rId2"/>
-    <sheet name="W1_2" sheetId="3" r:id="rId3"/>
-    <sheet name="W2_1" sheetId="4" r:id="rId4"/>
-    <sheet name="chia task" sheetId="7" r:id="rId5"/>
+    <sheet name="chia task" sheetId="7" r:id="rId2"/>
+    <sheet name="W1_1" sheetId="2" r:id="rId3"/>
+    <sheet name="W1_2" sheetId="3" r:id="rId4"/>
+    <sheet name="W2_1" sheetId="4" r:id="rId5"/>
     <sheet name="W2_2" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="152511"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="88">
   <si>
     <t>MEETING MINUTES</t>
   </si>
@@ -210,9 +210,6 @@
     <t>negotiation</t>
   </si>
   <si>
-    <t>Price suggestion</t>
-  </si>
-  <si>
     <t>tracking sản phẩm, đưa sản phẩm lên đúng mùa</t>
   </si>
   <si>
@@ -253,6 +250,39 @@
   </si>
   <si>
     <t xml:space="preserve"> dantq, hoangnh</t>
+  </si>
+  <si>
+    <t>18/5/2015</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>20/5/2015</t>
+  </si>
+  <si>
+    <t>Sửa lại report 1</t>
+  </si>
+  <si>
+    <t>DanQT, HoangNH</t>
+  </si>
+  <si>
+    <t>Sửa lại report 2</t>
+  </si>
+  <si>
+    <t>DucHC, PhucTQ</t>
+  </si>
+  <si>
+    <t>Core flow</t>
+  </si>
+  <si>
+    <t>Report 1</t>
+  </si>
+  <si>
+    <t>Report 2</t>
+  </si>
+  <si>
+    <t>Report 3</t>
   </si>
 </sst>
 </file>
@@ -402,7 +432,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -479,6 +509,21 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -788,7 +833,7 @@
   <dimension ref="A1:T12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -943,8 +988,12 @@
       <c r="D6" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
+      <c r="E6" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>79</v>
+      </c>
       <c r="G6" s="5"/>
       <c r="H6" s="5"/>
       <c r="I6" s="5"/>
@@ -999,7 +1048,9 @@
       <c r="D8" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E8" s="1"/>
+      <c r="E8" s="1" t="s">
+        <v>78</v>
+      </c>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
@@ -1029,7 +1080,9 @@
       <c r="D9" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E9" s="1"/>
+      <c r="E9" s="1" t="s">
+        <v>78</v>
+      </c>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
@@ -1057,7 +1110,9 @@
       <c r="D10" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E10" s="1"/>
+      <c r="E10" s="1" t="s">
+        <v>78</v>
+      </c>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
@@ -1085,7 +1140,9 @@
       <c r="D11" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E11" s="1"/>
+      <c r="E11" s="1" t="s">
+        <v>78</v>
+      </c>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
@@ -1113,7 +1170,9 @@
       <c r="D12" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E12" s="1"/>
+      <c r="E12" s="1" t="s">
+        <v>78</v>
+      </c>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
@@ -1146,6 +1205,8 @@
   <hyperlinks>
     <hyperlink ref="C6" location="W1_1!A1" display="11/5/2015"/>
     <hyperlink ref="D6" location="W1_2!A1" display="13/5/2015"/>
+    <hyperlink ref="E6" location="W2_1!A1" display="18/5/2015"/>
+    <hyperlink ref="F6" location="W2_2!A1" display="20/5/2015"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1153,6 +1214,130 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B24"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="19.5" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="28.7109375" style="31" customWidth="1"/>
+    <col min="2" max="2" width="82" style="32" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="31"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A1" s="33" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="29" t="s">
+        <v>55</v>
+      </c>
+      <c r="B2" s="29" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="29" t="s">
+        <v>56</v>
+      </c>
+      <c r="B3" s="29" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="29" t="s">
+        <v>59</v>
+      </c>
+      <c r="B4" s="29" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="29" t="s">
+        <v>61</v>
+      </c>
+      <c r="B5" s="29" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="31" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="30"/>
+      <c r="B8" s="29"/>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="30"/>
+      <c r="B9" s="29"/>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="30"/>
+      <c r="B10" s="29"/>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="30"/>
+      <c r="B11" s="29"/>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="30"/>
+      <c r="B12" s="29"/>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="31" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="30"/>
+      <c r="B15" s="29"/>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="30"/>
+      <c r="B16" s="29"/>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="30"/>
+      <c r="B17" s="29"/>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="30"/>
+      <c r="B18" s="29"/>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="31" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="30"/>
+      <c r="B21" s="29"/>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="30"/>
+      <c r="B22" s="29"/>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="30"/>
+      <c r="B23" s="29"/>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="30"/>
+      <c r="B24" s="29"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C16"/>
   <sheetViews>
@@ -1300,7 +1485,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C23"/>
   <sheetViews>
@@ -1504,18 +1689,18 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:C27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="32.42578125" customWidth="1"/>
-    <col min="2" max="2" width="64.28515625" customWidth="1"/>
+    <col min="2" max="2" width="64.28515625" style="21" customWidth="1"/>
     <col min="3" max="3" width="31.5703125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1523,9 +1708,8 @@
       <c r="A1" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="21"/>
-    </row>
-    <row r="2" spans="1:3" ht="39" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:3" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A2" s="14" t="s">
         <v>23</v>
       </c>
@@ -1555,7 +1739,7 @@
         <v>54</v>
       </c>
       <c r="C4" s="17" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="39" x14ac:dyDescent="0.3">
@@ -1563,10 +1747,10 @@
         <v>3</v>
       </c>
       <c r="B5" s="23" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C5" s="17" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="19.5" x14ac:dyDescent="0.3">
@@ -1574,10 +1758,10 @@
         <v>4</v>
       </c>
       <c r="B6" s="23" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C6" s="17" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="19.5" x14ac:dyDescent="0.3">
@@ -1585,10 +1769,10 @@
         <v>5</v>
       </c>
       <c r="B7" s="23" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C7" s="17" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="58.5" x14ac:dyDescent="0.3">
@@ -1596,10 +1780,10 @@
         <v>6</v>
       </c>
       <c r="B8" s="23" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C8" s="17" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="39" x14ac:dyDescent="0.3">
@@ -1607,7 +1791,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C9" s="17" t="s">
         <v>27</v>
@@ -1618,7 +1802,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="23" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C10" s="17"/>
     </row>
@@ -1627,21 +1811,21 @@
         <v>9</v>
       </c>
       <c r="B11" s="23" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C11" s="17" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A12" s="16">
         <v>10</v>
       </c>
-      <c r="B12" s="17" t="s">
-        <v>71</v>
+      <c r="B12" s="23" t="s">
+        <v>70</v>
       </c>
       <c r="C12" s="17" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="39" x14ac:dyDescent="0.3">
@@ -1649,10 +1833,10 @@
         <v>11</v>
       </c>
       <c r="B13" s="23" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C13" s="17" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="39" x14ac:dyDescent="0.3">
@@ -1660,10 +1844,10 @@
         <v>12</v>
       </c>
       <c r="B14" s="23" t="s">
+        <v>72</v>
+      </c>
+      <c r="C14" s="17" t="s">
         <v>73</v>
-      </c>
-      <c r="C14" s="17" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="19.5" x14ac:dyDescent="0.3">
@@ -1675,7 +1859,6 @@
       <c r="A16" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="B16" s="21"/>
     </row>
     <row r="17" spans="1:3" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A17" s="18" t="s">
@@ -1688,61 +1871,67 @@
         <v>29</v>
       </c>
     </row>
+    <row r="18" spans="1:3" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A18" s="17"/>
+      <c r="B18" s="23" t="s">
+        <v>80</v>
+      </c>
+      <c r="C18" s="17" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A19" s="17"/>
+      <c r="B19" s="23" t="s">
+        <v>82</v>
+      </c>
+      <c r="C19" s="17" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A20" s="17"/>
+      <c r="B20" s="23"/>
+      <c r="C20" s="17"/>
+    </row>
+    <row r="21" spans="1:3" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A21" s="17"/>
+      <c r="B21" s="23"/>
+      <c r="C21" s="17"/>
+    </row>
+    <row r="22" spans="1:3" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A22" s="17"/>
+      <c r="B22" s="23"/>
+      <c r="C22" s="17"/>
+    </row>
+    <row r="23" spans="1:3" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A23" s="17"/>
+      <c r="B23" s="23"/>
+      <c r="C23" s="17"/>
+    </row>
+    <row r="24" spans="1:3" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A24" s="17"/>
+      <c r="B24" s="23"/>
+      <c r="C24" s="17"/>
+    </row>
+    <row r="25" spans="1:3" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A25" s="17"/>
+      <c r="B25" s="23"/>
+      <c r="C25" s="17"/>
+    </row>
+    <row r="26" spans="1:3" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A26" s="17"/>
+      <c r="B26" s="23"/>
+      <c r="C26" s="17"/>
+    </row>
+    <row r="27" spans="1:3" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A27" s="17"/>
+      <c r="B27" s="23"/>
+      <c r="C27" s="17"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B9"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>55</v>
-      </c>
-      <c r="B1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>56</v>
-      </c>
-      <c r="B2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>59</v>
-      </c>
-      <c r="B3" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>61</v>
-      </c>
-      <c r="B4" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
-        <v>63</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 

--- a/Source/Document/Meeting minutes/Meeting minute.xlsx
+++ b/Source/Document/Meeting minutes/Meeting minute.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -13,13 +13,15 @@
     <sheet name="W1_2" sheetId="3" r:id="rId4"/>
     <sheet name="W2_1" sheetId="4" r:id="rId5"/>
     <sheet name="W2_2" sheetId="6" r:id="rId6"/>
+    <sheet name="Sheet1" sheetId="8" r:id="rId7"/>
+    <sheet name="Sheet2" sheetId="9" r:id="rId8"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="103">
   <si>
     <t>MEETING MINUTES</t>
   </si>
@@ -283,13 +285,70 @@
   </si>
   <si>
     <t>Report 3</t>
+  </si>
+  <si>
+    <t>Store owner side: thiếu ngày tháng</t>
+  </si>
+  <si>
+    <t>Nên có màu sắc cho những hàng xác thực được</t>
+  </si>
+  <si>
+    <t>Canh những trạng thái đều nhau</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Từ  status về sau nên bỏ đi vì ko phù hợp HCI - focus vào 1 chức năng mà ở đây là deal request. Khi check vào sp là đã đọc rồi. Khách hàng thường phải check sp trước khi mua, store owner cũng phải check xong mới lấy. </t>
+  </si>
+  <si>
+    <t>HCI sửa lại (thiết kế web, ko fải đt)</t>
+  </si>
+  <si>
+    <t>consign - đk món hàng -&gt; thông báo khách hàng -&gt; đồng ý thì điền thông tin cá nhân</t>
+  </si>
+  <si>
+    <t>Nếu món hàng phức tạp, thông khách hàng chờ vài ngày và chờ confirm, chọn store trước và cuối cùng confirm mới nhập thông tin cá nhân</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Home: panel thay thế bằng hàng hot, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>hai bên hông dùng quảng cáo</t>
+    </r>
+  </si>
+  <si>
+    <t>thuật toán đưa hàng hot nhất chớp chớp ngay đầu</t>
+  </si>
+  <si>
+    <t>Payment: on web link tới product. Action có sold -&gt; chuyyển wa paypal thanh toán luôn. Các action khác chỉ link tới sp. Có set thời gian trả hàng. Trang chỉ nên có item name và ngày gửi</t>
+  </si>
+  <si>
+    <t>Phải có cơ chế offline và online</t>
+  </si>
+  <si>
+    <t>Add to cart: để trong details -&gt; bắt ng dùng đọc để tránh phiền phức sau này</t>
+  </si>
+  <si>
+    <t>khi vào trang, cung cấp nhiều thông tin nhất có thể, hạn chế làm cho ng dùng kéo xuống</t>
+  </si>
+  <si>
+    <t>hướng kết hợp category ngang và dọc, hướng tới tối ưu giao diện cho ng dùng vào xem</t>
+  </si>
+  <si>
+    <t>Tâm lý người dùng: bán hàng nhanh nhất và mua hàng nhanh nhất</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -351,8 +410,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="15"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -374,6 +440,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -432,7 +504,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -501,6 +573,21 @@
     <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -510,20 +597,20 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -833,7 +920,7 @@
   <dimension ref="A1:T12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -846,22 +933,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="28"/>
-      <c r="I1" s="28"/>
-      <c r="J1" s="28"/>
-      <c r="K1" s="28"/>
-      <c r="L1" s="28"/>
-      <c r="M1" s="28"/>
-      <c r="N1" s="28"/>
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
+      <c r="H1" s="33"/>
+      <c r="I1" s="33"/>
+      <c r="J1" s="33"/>
+      <c r="K1" s="33"/>
+      <c r="L1" s="33"/>
+      <c r="M1" s="33"/>
+      <c r="N1" s="33"/>
       <c r="O1" s="4"/>
       <c r="P1" s="4"/>
       <c r="Q1" s="4"/>
@@ -870,20 +957,20 @@
       <c r="T1" s="4"/>
     </row>
     <row r="2" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="28"/>
-      <c r="B2" s="28"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="28"/>
-      <c r="G2" s="28"/>
-      <c r="H2" s="28"/>
-      <c r="I2" s="28"/>
-      <c r="J2" s="28"/>
-      <c r="K2" s="28"/>
-      <c r="L2" s="28"/>
-      <c r="M2" s="28"/>
-      <c r="N2" s="28"/>
+      <c r="A2" s="33"/>
+      <c r="B2" s="33"/>
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="33"/>
+      <c r="G2" s="33"/>
+      <c r="H2" s="33"/>
+      <c r="I2" s="33"/>
+      <c r="J2" s="33"/>
+      <c r="K2" s="33"/>
+      <c r="L2" s="33"/>
+      <c r="M2" s="33"/>
+      <c r="N2" s="33"/>
       <c r="O2" s="4"/>
       <c r="P2" s="4"/>
       <c r="Q2" s="4"/>
@@ -892,20 +979,20 @@
       <c r="T2" s="4"/>
     </row>
     <row r="3" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="28"/>
-      <c r="B3" s="28"/>
-      <c r="C3" s="28"/>
-      <c r="D3" s="28"/>
-      <c r="E3" s="28"/>
-      <c r="F3" s="28"/>
-      <c r="G3" s="28"/>
-      <c r="H3" s="28"/>
-      <c r="I3" s="28"/>
-      <c r="J3" s="28"/>
-      <c r="K3" s="28"/>
-      <c r="L3" s="28"/>
-      <c r="M3" s="28"/>
-      <c r="N3" s="28"/>
+      <c r="A3" s="33"/>
+      <c r="B3" s="33"/>
+      <c r="C3" s="33"/>
+      <c r="D3" s="33"/>
+      <c r="E3" s="33"/>
+      <c r="F3" s="33"/>
+      <c r="G3" s="33"/>
+      <c r="H3" s="33"/>
+      <c r="I3" s="33"/>
+      <c r="J3" s="33"/>
+      <c r="K3" s="33"/>
+      <c r="L3" s="33"/>
+      <c r="M3" s="33"/>
+      <c r="N3" s="33"/>
       <c r="O3" s="4"/>
       <c r="P3" s="4"/>
       <c r="Q3" s="4"/>
@@ -914,20 +1001,20 @@
       <c r="T3" s="4"/>
     </row>
     <row r="4" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="28"/>
-      <c r="B4" s="28"/>
-      <c r="C4" s="28"/>
-      <c r="D4" s="28"/>
-      <c r="E4" s="28"/>
-      <c r="F4" s="28"/>
-      <c r="G4" s="28"/>
-      <c r="H4" s="28"/>
-      <c r="I4" s="28"/>
-      <c r="J4" s="28"/>
-      <c r="K4" s="28"/>
-      <c r="L4" s="28"/>
-      <c r="M4" s="28"/>
-      <c r="N4" s="28"/>
+      <c r="A4" s="33"/>
+      <c r="B4" s="33"/>
+      <c r="C4" s="33"/>
+      <c r="D4" s="33"/>
+      <c r="E4" s="33"/>
+      <c r="F4" s="33"/>
+      <c r="G4" s="33"/>
+      <c r="H4" s="33"/>
+      <c r="I4" s="33"/>
+      <c r="J4" s="33"/>
+      <c r="K4" s="33"/>
+      <c r="L4" s="33"/>
+      <c r="M4" s="33"/>
+      <c r="N4" s="33"/>
       <c r="O4" s="4"/>
       <c r="P4" s="4"/>
       <c r="Q4" s="4"/>
@@ -940,42 +1027,42 @@
         <v>1</v>
       </c>
       <c r="B5" s="5"/>
-      <c r="C5" s="26" t="s">
+      <c r="C5" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="27"/>
-      <c r="E5" s="26" t="s">
+      <c r="D5" s="32"/>
+      <c r="E5" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="F5" s="27"/>
-      <c r="G5" s="26" t="s">
+      <c r="F5" s="32"/>
+      <c r="G5" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="H5" s="27"/>
-      <c r="I5" s="26" t="s">
+      <c r="H5" s="32"/>
+      <c r="I5" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="J5" s="27"/>
-      <c r="K5" s="26" t="s">
+      <c r="J5" s="32"/>
+      <c r="K5" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="L5" s="27"/>
-      <c r="M5" s="26" t="s">
+      <c r="L5" s="32"/>
+      <c r="M5" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="N5" s="27"/>
-      <c r="O5" s="26" t="s">
+      <c r="N5" s="32"/>
+      <c r="O5" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="P5" s="27"/>
-      <c r="Q5" s="26" t="s">
+      <c r="P5" s="32"/>
+      <c r="Q5" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="R5" s="27"/>
-      <c r="S5" s="26" t="s">
+      <c r="R5" s="32"/>
+      <c r="S5" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="T5" s="27"/>
+      <c r="T5" s="32"/>
     </row>
     <row r="6" spans="1:20" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
@@ -1051,7 +1138,9 @@
       <c r="E8" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="F8" s="1"/>
+      <c r="F8" s="1" t="s">
+        <v>78</v>
+      </c>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
@@ -1083,7 +1172,9 @@
       <c r="E9" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="F9" s="1"/>
+      <c r="F9" s="1" t="s">
+        <v>78</v>
+      </c>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
@@ -1113,7 +1204,9 @@
       <c r="E10" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="F10" s="1"/>
+      <c r="F10" s="1" t="s">
+        <v>78</v>
+      </c>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
@@ -1143,7 +1236,9 @@
       <c r="E11" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="F11" s="1"/>
+      <c r="F11" s="1" t="s">
+        <v>78</v>
+      </c>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
@@ -1173,7 +1268,9 @@
       <c r="E12" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="F12" s="1"/>
+      <c r="F12" s="1" t="s">
+        <v>78</v>
+      </c>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
@@ -1217,120 +1314,120 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+    <sheetView topLeftCell="A3" workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.7109375" style="31" customWidth="1"/>
-    <col min="2" max="2" width="82" style="32" customWidth="1"/>
-    <col min="3" max="16384" width="9.140625" style="31"/>
+    <col min="1" max="1" width="28.7109375" style="28" customWidth="1"/>
+    <col min="2" max="2" width="82" style="29" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="28"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="30" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="29" t="s">
+      <c r="A2" s="26" t="s">
         <v>55</v>
       </c>
-      <c r="B2" s="29" t="s">
+      <c r="B2" s="26" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="29" t="s">
+      <c r="A3" s="26" t="s">
         <v>56</v>
       </c>
-      <c r="B3" s="29" t="s">
+      <c r="B3" s="26" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="29" t="s">
+      <c r="A4" s="26" t="s">
         <v>59</v>
       </c>
-      <c r="B4" s="29" t="s">
+      <c r="B4" s="26" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="29" t="s">
+      <c r="A5" s="26" t="s">
         <v>61</v>
       </c>
-      <c r="B5" s="29" t="s">
+      <c r="B5" s="26" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="31" t="s">
+      <c r="A7" s="28" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="30"/>
-      <c r="B8" s="29"/>
+      <c r="A8" s="27"/>
+      <c r="B8" s="26"/>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="30"/>
-      <c r="B9" s="29"/>
+      <c r="A9" s="27"/>
+      <c r="B9" s="26"/>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="30"/>
-      <c r="B10" s="29"/>
+      <c r="A10" s="27"/>
+      <c r="B10" s="26"/>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="30"/>
-      <c r="B11" s="29"/>
+      <c r="A11" s="27"/>
+      <c r="B11" s="26"/>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="30"/>
-      <c r="B12" s="29"/>
+      <c r="A12" s="27"/>
+      <c r="B12" s="26"/>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="31" t="s">
+      <c r="A14" s="28" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="30"/>
-      <c r="B15" s="29"/>
+      <c r="A15" s="27"/>
+      <c r="B15" s="26"/>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="30"/>
-      <c r="B16" s="29"/>
+      <c r="A16" s="27"/>
+      <c r="B16" s="26"/>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="30"/>
-      <c r="B17" s="29"/>
+      <c r="A17" s="27"/>
+      <c r="B17" s="26"/>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="30"/>
-      <c r="B18" s="29"/>
+      <c r="A18" s="27"/>
+      <c r="B18" s="26"/>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="31" t="s">
+      <c r="A20" s="28" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="30"/>
-      <c r="B21" s="29"/>
+      <c r="A21" s="27"/>
+      <c r="B21" s="26"/>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="30"/>
-      <c r="B22" s="29"/>
+      <c r="A22" s="27"/>
+      <c r="B22" s="26"/>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="30"/>
-      <c r="B23" s="29"/>
+      <c r="A23" s="27"/>
+      <c r="B23" s="26"/>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="30"/>
-      <c r="B24" s="29"/>
+      <c r="A24" s="27"/>
+      <c r="B24" s="26"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1693,8 +1790,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C27"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView topLeftCell="A14" workbookViewId="0">
+      <selection sqref="A1:C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1937,11 +2034,451 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C32"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17.42578125" customWidth="1"/>
+    <col min="2" max="2" width="72.85546875" style="37" customWidth="1"/>
+    <col min="3" max="3" width="27.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A1" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="34"/>
+    </row>
+    <row r="2" spans="1:3" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A2" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" s="35" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" s="15" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A3" s="16">
+        <v>1</v>
+      </c>
+      <c r="B3" s="26" t="s">
+        <v>92</v>
+      </c>
+      <c r="C3" s="17"/>
+    </row>
+    <row r="4" spans="1:3" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A4" s="16">
+        <v>2</v>
+      </c>
+      <c r="B4" s="26" t="s">
+        <v>88</v>
+      </c>
+      <c r="C4" s="17"/>
+    </row>
+    <row r="5" spans="1:3" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A5" s="16">
+        <v>3</v>
+      </c>
+      <c r="B5" s="26" t="s">
+        <v>89</v>
+      </c>
+      <c r="C5" s="17"/>
+    </row>
+    <row r="6" spans="1:3" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A6" s="16">
+        <v>4</v>
+      </c>
+      <c r="B6" s="26" t="s">
+        <v>90</v>
+      </c>
+      <c r="C6" s="17"/>
+    </row>
+    <row r="7" spans="1:3" ht="78" x14ac:dyDescent="0.3">
+      <c r="A7" s="16">
+        <v>5</v>
+      </c>
+      <c r="B7" s="26" t="s">
+        <v>91</v>
+      </c>
+      <c r="C7" s="17"/>
+    </row>
+    <row r="8" spans="1:3" ht="39" x14ac:dyDescent="0.3">
+      <c r="A8" s="16">
+        <v>6</v>
+      </c>
+      <c r="B8" s="26" t="s">
+        <v>93</v>
+      </c>
+      <c r="C8" s="17"/>
+    </row>
+    <row r="9" spans="1:3" ht="58.5" x14ac:dyDescent="0.3">
+      <c r="A9" s="16">
+        <v>7</v>
+      </c>
+      <c r="B9" s="38" t="s">
+        <v>94</v>
+      </c>
+      <c r="C9" s="17"/>
+    </row>
+    <row r="10" spans="1:3" ht="39" x14ac:dyDescent="0.3">
+      <c r="A10" s="16">
+        <v>8</v>
+      </c>
+      <c r="B10" s="26" t="s">
+        <v>95</v>
+      </c>
+      <c r="C10" s="17"/>
+    </row>
+    <row r="11" spans="1:3" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A11" s="16">
+        <v>9</v>
+      </c>
+      <c r="B11" s="26" t="s">
+        <v>96</v>
+      </c>
+      <c r="C11" s="17"/>
+    </row>
+    <row r="12" spans="1:3" ht="78" x14ac:dyDescent="0.3">
+      <c r="A12" s="16">
+        <v>10</v>
+      </c>
+      <c r="B12" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="C12" s="17"/>
+    </row>
+    <row r="13" spans="1:3" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A13" s="16">
+        <v>11</v>
+      </c>
+      <c r="B13" s="26" t="s">
+        <v>98</v>
+      </c>
+      <c r="C13" s="17"/>
+    </row>
+    <row r="14" spans="1:3" ht="39" x14ac:dyDescent="0.3">
+      <c r="A14" s="16">
+        <v>12</v>
+      </c>
+      <c r="B14" s="26" t="s">
+        <v>99</v>
+      </c>
+      <c r="C14" s="17"/>
+    </row>
+    <row r="15" spans="1:3" ht="39" x14ac:dyDescent="0.3">
+      <c r="A15" s="16"/>
+      <c r="B15" s="26" t="s">
+        <v>100</v>
+      </c>
+      <c r="C15" s="17"/>
+    </row>
+    <row r="16" spans="1:3" ht="39" x14ac:dyDescent="0.3">
+      <c r="A16" s="16"/>
+      <c r="B16" s="26" t="s">
+        <v>101</v>
+      </c>
+      <c r="C16" s="17"/>
+    </row>
+    <row r="17" spans="1:3" ht="39" x14ac:dyDescent="0.3">
+      <c r="A17" s="16"/>
+      <c r="B17" s="26" t="s">
+        <v>102</v>
+      </c>
+      <c r="C17" s="17"/>
+    </row>
+    <row r="18" spans="1:3" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A18" s="16"/>
+      <c r="B18" s="26"/>
+      <c r="C18" s="17"/>
+    </row>
+    <row r="19" spans="1:3" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A19" s="16"/>
+      <c r="B19" s="26"/>
+      <c r="C19" s="17"/>
+    </row>
+    <row r="20" spans="1:3" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A20" s="16"/>
+      <c r="B20" s="26"/>
+      <c r="C20" s="17"/>
+    </row>
+    <row r="21" spans="1:3" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A21" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="B21" s="34"/>
+    </row>
+    <row r="22" spans="1:3" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A22" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" s="35" t="s">
+        <v>24</v>
+      </c>
+      <c r="C22" s="15" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A23" s="17"/>
+      <c r="B23" s="26"/>
+      <c r="C23" s="17"/>
+    </row>
+    <row r="24" spans="1:3" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A24" s="17"/>
+      <c r="B24" s="26"/>
+      <c r="C24" s="17"/>
+    </row>
+    <row r="25" spans="1:3" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A25" s="17"/>
+      <c r="B25" s="26"/>
+      <c r="C25" s="17"/>
+    </row>
+    <row r="26" spans="1:3" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A26" s="17"/>
+      <c r="B26" s="26"/>
+      <c r="C26" s="17"/>
+    </row>
+    <row r="27" spans="1:3" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A27" s="17"/>
+      <c r="B27" s="26"/>
+      <c r="C27" s="17"/>
+    </row>
+    <row r="28" spans="1:3" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A28" s="17"/>
+      <c r="B28" s="26"/>
+      <c r="C28" s="17"/>
+    </row>
+    <row r="29" spans="1:3" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A29" s="17"/>
+      <c r="B29" s="26"/>
+      <c r="C29" s="17"/>
+    </row>
+    <row r="30" spans="1:3" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A30" s="17"/>
+      <c r="B30" s="26"/>
+      <c r="C30" s="17"/>
+    </row>
+    <row r="31" spans="1:3" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A31" s="17"/>
+      <c r="B31" s="26"/>
+      <c r="C31" s="17"/>
+    </row>
+    <row r="32" spans="1:3" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A32" s="17"/>
+      <c r="B32" s="26"/>
+      <c r="C32" s="17"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C27"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="63.7109375" customWidth="1"/>
+    <col min="3" max="3" width="28" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A1" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="34"/>
+    </row>
+    <row r="2" spans="1:3" ht="39" x14ac:dyDescent="0.3">
+      <c r="A2" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" s="35" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" s="15" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A3" s="16">
+        <v>1</v>
+      </c>
+      <c r="B3" s="26"/>
+      <c r="C3" s="17"/>
+    </row>
+    <row r="4" spans="1:3" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A4" s="16">
+        <v>2</v>
+      </c>
+      <c r="B4" s="26"/>
+      <c r="C4" s="17"/>
+    </row>
+    <row r="5" spans="1:3" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A5" s="16">
+        <v>3</v>
+      </c>
+      <c r="B5" s="26"/>
+      <c r="C5" s="17"/>
+    </row>
+    <row r="6" spans="1:3" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A6" s="16">
+        <v>4</v>
+      </c>
+      <c r="B6" s="26"/>
+      <c r="C6" s="17"/>
+    </row>
+    <row r="7" spans="1:3" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A7" s="16">
+        <v>5</v>
+      </c>
+      <c r="B7" s="26"/>
+      <c r="C7" s="17"/>
+    </row>
+    <row r="8" spans="1:3" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A8" s="16">
+        <v>6</v>
+      </c>
+      <c r="B8" s="26"/>
+      <c r="C8" s="17"/>
+    </row>
+    <row r="9" spans="1:3" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A9" s="16">
+        <v>7</v>
+      </c>
+      <c r="B9" s="36"/>
+      <c r="C9" s="17"/>
+    </row>
+    <row r="10" spans="1:3" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A10" s="16">
+        <v>8</v>
+      </c>
+      <c r="B10" s="26"/>
+      <c r="C10" s="17"/>
+    </row>
+    <row r="11" spans="1:3" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A11" s="16">
+        <v>9</v>
+      </c>
+      <c r="B11" s="26"/>
+      <c r="C11" s="17"/>
+    </row>
+    <row r="12" spans="1:3" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A12" s="16">
+        <v>10</v>
+      </c>
+      <c r="B12" s="26"/>
+      <c r="C12" s="17"/>
+    </row>
+    <row r="13" spans="1:3" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A13" s="16">
+        <v>11</v>
+      </c>
+      <c r="B13" s="26"/>
+      <c r="C13" s="17"/>
+    </row>
+    <row r="14" spans="1:3" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A14" s="16">
+        <v>12</v>
+      </c>
+      <c r="B14" s="26"/>
+      <c r="C14" s="17"/>
+    </row>
+    <row r="15" spans="1:3" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A15" s="16"/>
+      <c r="B15" s="26"/>
+      <c r="C15" s="17"/>
+    </row>
+    <row r="16" spans="1:3" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A16" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="B16" s="34"/>
+    </row>
+    <row r="17" spans="1:3" ht="39" x14ac:dyDescent="0.3">
+      <c r="A17" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" s="35" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" s="15" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A18" s="17"/>
+      <c r="B18" s="26"/>
+      <c r="C18" s="17"/>
+    </row>
+    <row r="19" spans="1:3" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A19" s="17"/>
+      <c r="B19" s="26"/>
+      <c r="C19" s="17"/>
+    </row>
+    <row r="20" spans="1:3" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A20" s="17"/>
+      <c r="B20" s="26"/>
+      <c r="C20" s="17"/>
+    </row>
+    <row r="21" spans="1:3" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A21" s="17"/>
+      <c r="B21" s="26"/>
+      <c r="C21" s="17"/>
+    </row>
+    <row r="22" spans="1:3" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A22" s="17"/>
+      <c r="B22" s="26"/>
+      <c r="C22" s="17"/>
+    </row>
+    <row r="23" spans="1:3" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A23" s="17"/>
+      <c r="B23" s="26"/>
+      <c r="C23" s="17"/>
+    </row>
+    <row r="24" spans="1:3" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A24" s="17"/>
+      <c r="B24" s="26"/>
+      <c r="C24" s="17"/>
+    </row>
+    <row r="25" spans="1:3" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A25" s="17"/>
+      <c r="B25" s="26"/>
+      <c r="C25" s="17"/>
+    </row>
+    <row r="26" spans="1:3" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A26" s="17"/>
+      <c r="B26" s="26"/>
+      <c r="C26" s="17"/>
+    </row>
+    <row r="27" spans="1:3" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A27" s="17"/>
+      <c r="B27" s="26"/>
+      <c r="C27" s="17"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>

--- a/Source/Document/Meeting minutes/Meeting minute.xlsx
+++ b/Source/Document/Meeting minutes/Meeting minute.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="5"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -13,7 +13,7 @@
     <sheet name="W1_2" sheetId="3" r:id="rId4"/>
     <sheet name="W2_1" sheetId="4" r:id="rId5"/>
     <sheet name="W2_2" sheetId="6" r:id="rId6"/>
-    <sheet name="Sheet1" sheetId="8" r:id="rId7"/>
+    <sheet name="W3_1" sheetId="8" r:id="rId7"/>
     <sheet name="Sheet2" sheetId="9" r:id="rId8"/>
   </sheets>
   <calcPr calcId="152511"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="120">
   <si>
     <t>MEETING MINUTES</t>
   </si>
@@ -342,6 +342,57 @@
   </si>
   <si>
     <t>Tâm lý người dùng: bán hàng nhanh nhất và mua hàng nhanh nhất</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sửa lại css, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Khảo sát </t>
+  </si>
+  <si>
+    <t>Cửa hàng thêm giá riêng và độ tin cậy</t>
+  </si>
+  <si>
+    <t>Cho thêm Category lúc chọn sp và và xét category mà store muốn mua</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Không cung cấp CMND</t>
+  </si>
+  <si>
+    <t>Chọn email làm phương thức liên lạc chính, phone chỉ là option</t>
+  </si>
+  <si>
+    <t>Trang web làm ra để khách hàng cần mình</t>
+  </si>
+  <si>
+    <t>Address cũng không cần phải điền</t>
+  </si>
+  <si>
+    <t>Liên lạc phải verify đc mới có giá trị</t>
+  </si>
+  <si>
+    <t>Credit card ko cần điền, cho phép tới cửa hàng lấy tiền</t>
+  </si>
+  <si>
+    <t>Credit card phải thêm thông tin cửa người thụ hưởng</t>
+  </si>
+  <si>
+    <t>Màu sắc phải có màu chủ đạo, ko dùng nhiều màu</t>
+  </si>
+  <si>
+    <t>Use case phải là 2.0</t>
+  </si>
+  <si>
+    <t>Tên use case phải chính xác</t>
+  </si>
+  <si>
+    <t>Thêm new feed cho store owner</t>
+  </si>
+  <si>
+    <t>Bỏ hình ảnh trong list</t>
+  </si>
+  <si>
+    <t>Bỏ cột verify min price, max price</t>
   </si>
 </sst>
 </file>
@@ -504,7 +555,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -588,6 +639,18 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -596,21 +659,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -933,22 +981,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="33"/>
-      <c r="I1" s="33"/>
-      <c r="J1" s="33"/>
-      <c r="K1" s="33"/>
-      <c r="L1" s="33"/>
-      <c r="M1" s="33"/>
-      <c r="N1" s="33"/>
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="37"/>
+      <c r="H1" s="37"/>
+      <c r="I1" s="37"/>
+      <c r="J1" s="37"/>
+      <c r="K1" s="37"/>
+      <c r="L1" s="37"/>
+      <c r="M1" s="37"/>
+      <c r="N1" s="37"/>
       <c r="O1" s="4"/>
       <c r="P1" s="4"/>
       <c r="Q1" s="4"/>
@@ -957,20 +1005,20 @@
       <c r="T1" s="4"/>
     </row>
     <row r="2" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="33"/>
-      <c r="B2" s="33"/>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33"/>
-      <c r="E2" s="33"/>
-      <c r="F2" s="33"/>
-      <c r="G2" s="33"/>
-      <c r="H2" s="33"/>
-      <c r="I2" s="33"/>
-      <c r="J2" s="33"/>
-      <c r="K2" s="33"/>
-      <c r="L2" s="33"/>
-      <c r="M2" s="33"/>
-      <c r="N2" s="33"/>
+      <c r="A2" s="37"/>
+      <c r="B2" s="37"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="37"/>
+      <c r="H2" s="37"/>
+      <c r="I2" s="37"/>
+      <c r="J2" s="37"/>
+      <c r="K2" s="37"/>
+      <c r="L2" s="37"/>
+      <c r="M2" s="37"/>
+      <c r="N2" s="37"/>
       <c r="O2" s="4"/>
       <c r="P2" s="4"/>
       <c r="Q2" s="4"/>
@@ -979,20 +1027,20 @@
       <c r="T2" s="4"/>
     </row>
     <row r="3" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="33"/>
-      <c r="B3" s="33"/>
-      <c r="C3" s="33"/>
-      <c r="D3" s="33"/>
-      <c r="E3" s="33"/>
-      <c r="F3" s="33"/>
-      <c r="G3" s="33"/>
-      <c r="H3" s="33"/>
-      <c r="I3" s="33"/>
-      <c r="J3" s="33"/>
-      <c r="K3" s="33"/>
-      <c r="L3" s="33"/>
-      <c r="M3" s="33"/>
-      <c r="N3" s="33"/>
+      <c r="A3" s="37"/>
+      <c r="B3" s="37"/>
+      <c r="C3" s="37"/>
+      <c r="D3" s="37"/>
+      <c r="E3" s="37"/>
+      <c r="F3" s="37"/>
+      <c r="G3" s="37"/>
+      <c r="H3" s="37"/>
+      <c r="I3" s="37"/>
+      <c r="J3" s="37"/>
+      <c r="K3" s="37"/>
+      <c r="L3" s="37"/>
+      <c r="M3" s="37"/>
+      <c r="N3" s="37"/>
       <c r="O3" s="4"/>
       <c r="P3" s="4"/>
       <c r="Q3" s="4"/>
@@ -1001,20 +1049,20 @@
       <c r="T3" s="4"/>
     </row>
     <row r="4" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="33"/>
-      <c r="B4" s="33"/>
-      <c r="C4" s="33"/>
-      <c r="D4" s="33"/>
-      <c r="E4" s="33"/>
-      <c r="F4" s="33"/>
-      <c r="G4" s="33"/>
-      <c r="H4" s="33"/>
-      <c r="I4" s="33"/>
-      <c r="J4" s="33"/>
-      <c r="K4" s="33"/>
-      <c r="L4" s="33"/>
-      <c r="M4" s="33"/>
-      <c r="N4" s="33"/>
+      <c r="A4" s="37"/>
+      <c r="B4" s="37"/>
+      <c r="C4" s="37"/>
+      <c r="D4" s="37"/>
+      <c r="E4" s="37"/>
+      <c r="F4" s="37"/>
+      <c r="G4" s="37"/>
+      <c r="H4" s="37"/>
+      <c r="I4" s="37"/>
+      <c r="J4" s="37"/>
+      <c r="K4" s="37"/>
+      <c r="L4" s="37"/>
+      <c r="M4" s="37"/>
+      <c r="N4" s="37"/>
       <c r="O4" s="4"/>
       <c r="P4" s="4"/>
       <c r="Q4" s="4"/>
@@ -1027,42 +1075,42 @@
         <v>1</v>
       </c>
       <c r="B5" s="5"/>
-      <c r="C5" s="31" t="s">
+      <c r="C5" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="32"/>
-      <c r="E5" s="31" t="s">
+      <c r="D5" s="36"/>
+      <c r="E5" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="F5" s="32"/>
-      <c r="G5" s="31" t="s">
+      <c r="F5" s="36"/>
+      <c r="G5" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="H5" s="32"/>
-      <c r="I5" s="31" t="s">
+      <c r="H5" s="36"/>
+      <c r="I5" s="35" t="s">
         <v>14</v>
       </c>
-      <c r="J5" s="32"/>
-      <c r="K5" s="31" t="s">
+      <c r="J5" s="36"/>
+      <c r="K5" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="L5" s="32"/>
-      <c r="M5" s="31" t="s">
+      <c r="L5" s="36"/>
+      <c r="M5" s="35" t="s">
         <v>16</v>
       </c>
-      <c r="N5" s="32"/>
-      <c r="O5" s="31" t="s">
+      <c r="N5" s="36"/>
+      <c r="O5" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="P5" s="32"/>
-      <c r="Q5" s="31" t="s">
+      <c r="P5" s="36"/>
+      <c r="Q5" s="35" t="s">
         <v>18</v>
       </c>
-      <c r="R5" s="32"/>
-      <c r="S5" s="31" t="s">
+      <c r="R5" s="36"/>
+      <c r="S5" s="35" t="s">
         <v>19</v>
       </c>
-      <c r="T5" s="32"/>
+      <c r="T5" s="36"/>
     </row>
     <row r="6" spans="1:20" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
@@ -2036,14 +2084,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17.42578125" customWidth="1"/>
-    <col min="2" max="2" width="72.85546875" style="37" customWidth="1"/>
+    <col min="2" max="2" width="72.85546875" style="33" customWidth="1"/>
     <col min="3" max="3" width="27.28515625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2051,13 +2099,13 @@
       <c r="A1" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="34"/>
+      <c r="B1" s="31"/>
     </row>
     <row r="2" spans="1:3" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A2" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="35" t="s">
+      <c r="B2" s="32" t="s">
         <v>24</v>
       </c>
       <c r="C2" s="15" t="s">
@@ -2122,7 +2170,7 @@
       <c r="A9" s="16">
         <v>7</v>
       </c>
-      <c r="B9" s="38" t="s">
+      <c r="B9" s="34" t="s">
         <v>94</v>
       </c>
       <c r="C9" s="17"/>
@@ -2212,13 +2260,13 @@
       <c r="A21" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="B21" s="34"/>
+      <c r="B21" s="31"/>
     </row>
     <row r="22" spans="1:3" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A22" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="B22" s="35" t="s">
+      <c r="B22" s="32" t="s">
         <v>24</v>
       </c>
       <c r="C22" s="15" t="s">
@@ -2283,10 +2331,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C27"/>
+  <dimension ref="A1:C33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2300,13 +2348,13 @@
       <c r="A1" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="34"/>
+      <c r="B1" s="31"/>
     </row>
     <row r="2" spans="1:3" ht="39" x14ac:dyDescent="0.3">
       <c r="A2" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="35" t="s">
+      <c r="B2" s="32" t="s">
         <v>24</v>
       </c>
       <c r="C2" s="15" t="s">
@@ -2317,137 +2365,177 @@
       <c r="A3" s="16">
         <v>1</v>
       </c>
-      <c r="B3" s="26"/>
+      <c r="B3" s="26" t="s">
+        <v>103</v>
+      </c>
       <c r="C3" s="17"/>
     </row>
     <row r="4" spans="1:3" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A4" s="16">
         <v>2</v>
       </c>
-      <c r="B4" s="26"/>
+      <c r="B4" s="26" t="s">
+        <v>104</v>
+      </c>
       <c r="C4" s="17"/>
     </row>
     <row r="5" spans="1:3" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A5" s="16">
         <v>3</v>
       </c>
-      <c r="B5" s="26"/>
+      <c r="B5" s="26" t="s">
+        <v>105</v>
+      </c>
       <c r="C5" s="17"/>
     </row>
-    <row r="6" spans="1:3" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" ht="39" x14ac:dyDescent="0.3">
       <c r="A6" s="16">
         <v>4</v>
       </c>
-      <c r="B6" s="26"/>
+      <c r="B6" s="26" t="s">
+        <v>106</v>
+      </c>
       <c r="C6" s="17"/>
     </row>
     <row r="7" spans="1:3" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A7" s="16">
         <v>5</v>
       </c>
-      <c r="B7" s="26"/>
+      <c r="B7" s="26" t="s">
+        <v>107</v>
+      </c>
       <c r="C7" s="17"/>
     </row>
-    <row r="8" spans="1:3" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" ht="39" x14ac:dyDescent="0.3">
       <c r="A8" s="16">
         <v>6</v>
       </c>
-      <c r="B8" s="26"/>
+      <c r="B8" s="26" t="s">
+        <v>108</v>
+      </c>
       <c r="C8" s="17"/>
     </row>
     <row r="9" spans="1:3" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A9" s="16">
         <v>7</v>
       </c>
-      <c r="B9" s="36"/>
+      <c r="B9" s="34" t="s">
+        <v>109</v>
+      </c>
       <c r="C9" s="17"/>
     </row>
     <row r="10" spans="1:3" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A10" s="16">
         <v>8</v>
       </c>
-      <c r="B10" s="26"/>
+      <c r="B10" s="26" t="s">
+        <v>110</v>
+      </c>
       <c r="C10" s="17"/>
     </row>
     <row r="11" spans="1:3" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A11" s="16">
         <v>9</v>
       </c>
-      <c r="B11" s="26"/>
+      <c r="B11" s="26" t="s">
+        <v>111</v>
+      </c>
       <c r="C11" s="17"/>
     </row>
-    <row r="12" spans="1:3" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" ht="39" x14ac:dyDescent="0.3">
       <c r="A12" s="16">
         <v>10</v>
       </c>
-      <c r="B12" s="26"/>
+      <c r="B12" s="26" t="s">
+        <v>112</v>
+      </c>
       <c r="C12" s="17"/>
     </row>
-    <row r="13" spans="1:3" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" ht="39" x14ac:dyDescent="0.3">
       <c r="A13" s="16">
         <v>11</v>
       </c>
-      <c r="B13" s="26"/>
+      <c r="B13" s="26" t="s">
+        <v>113</v>
+      </c>
       <c r="C13" s="17"/>
     </row>
     <row r="14" spans="1:3" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A14" s="16">
         <v>12</v>
       </c>
-      <c r="B14" s="26"/>
+      <c r="B14" s="26" t="s">
+        <v>114</v>
+      </c>
       <c r="C14" s="17"/>
     </row>
     <row r="15" spans="1:3" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A15" s="16"/>
+      <c r="A15" s="16">
+        <v>13</v>
+      </c>
       <c r="B15" s="26"/>
       <c r="C15" s="17"/>
     </row>
-    <row r="16" spans="1:3" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A16" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="B16" s="34"/>
-    </row>
-    <row r="17" spans="1:3" ht="39" x14ac:dyDescent="0.3">
-      <c r="A17" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="B17" s="35" t="s">
-        <v>24</v>
-      </c>
-      <c r="C17" s="15" t="s">
-        <v>29</v>
-      </c>
+    <row r="16" spans="1:3" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A16" s="16">
+        <v>14</v>
+      </c>
+      <c r="B16" s="26" t="s">
+        <v>115</v>
+      </c>
+      <c r="C16" s="17"/>
+    </row>
+    <row r="17" spans="1:3" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A17" s="16">
+        <v>15</v>
+      </c>
+      <c r="B17" s="26" t="s">
+        <v>116</v>
+      </c>
+      <c r="C17" s="17"/>
     </row>
     <row r="18" spans="1:3" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A18" s="17"/>
-      <c r="B18" s="26"/>
+      <c r="A18" s="16"/>
+      <c r="B18" s="26" t="s">
+        <v>117</v>
+      </c>
       <c r="C18" s="17"/>
     </row>
     <row r="19" spans="1:3" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A19" s="17"/>
-      <c r="B19" s="26"/>
+      <c r="A19" s="16"/>
+      <c r="B19" s="26" t="s">
+        <v>118</v>
+      </c>
       <c r="C19" s="17"/>
     </row>
     <row r="20" spans="1:3" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A20" s="17"/>
-      <c r="B20" s="26"/>
+      <c r="A20" s="16"/>
+      <c r="B20" s="26" t="s">
+        <v>119</v>
+      </c>
       <c r="C20" s="17"/>
     </row>
     <row r="21" spans="1:3" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A21" s="17"/>
+      <c r="A21" s="16"/>
       <c r="B21" s="26"/>
       <c r="C21" s="17"/>
     </row>
-    <row r="22" spans="1:3" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A22" s="17"/>
-      <c r="B22" s="26"/>
-      <c r="C22" s="17"/>
-    </row>
-    <row r="23" spans="1:3" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A23" s="17"/>
-      <c r="B23" s="26"/>
-      <c r="C23" s="17"/>
+    <row r="22" spans="1:3" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A22" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="B22" s="31"/>
+    </row>
+    <row r="23" spans="1:3" ht="39" x14ac:dyDescent="0.3">
+      <c r="A23" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" s="32" t="s">
+        <v>24</v>
+      </c>
+      <c r="C23" s="15" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="24" spans="1:3" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A24" s="17"/>
@@ -2468,6 +2556,36 @@
       <c r="A27" s="17"/>
       <c r="B27" s="26"/>
       <c r="C27" s="17"/>
+    </row>
+    <row r="28" spans="1:3" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A28" s="17"/>
+      <c r="B28" s="26"/>
+      <c r="C28" s="17"/>
+    </row>
+    <row r="29" spans="1:3" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A29" s="17"/>
+      <c r="B29" s="26"/>
+      <c r="C29" s="17"/>
+    </row>
+    <row r="30" spans="1:3" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A30" s="17"/>
+      <c r="B30" s="26"/>
+      <c r="C30" s="17"/>
+    </row>
+    <row r="31" spans="1:3" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A31" s="17"/>
+      <c r="B31" s="26"/>
+      <c r="C31" s="17"/>
+    </row>
+    <row r="32" spans="1:3" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A32" s="17"/>
+      <c r="B32" s="26"/>
+      <c r="C32" s="17"/>
+    </row>
+    <row r="33" spans="1:3" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A33" s="17"/>
+      <c r="B33" s="26"/>
+      <c r="C33" s="17"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Source/Document/Meeting minutes/Meeting minute.xlsx
+++ b/Source/Document/Meeting minutes/Meeting minute.xlsx
@@ -14,14 +14,14 @@
     <sheet name="W2_1" sheetId="4" r:id="rId5"/>
     <sheet name="W2_2" sheetId="6" r:id="rId6"/>
     <sheet name="W3_1" sheetId="8" r:id="rId7"/>
-    <sheet name="Sheet2" sheetId="9" r:id="rId8"/>
+    <sheet name="W3_2" sheetId="9" r:id="rId8"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="125">
   <si>
     <t>MEETING MINUTES</t>
   </si>
@@ -350,18 +350,9 @@
     <t xml:space="preserve">Khảo sát </t>
   </si>
   <si>
-    <t>Cửa hàng thêm giá riêng và độ tin cậy</t>
-  </si>
-  <si>
-    <t>Cho thêm Category lúc chọn sp và và xét category mà store muốn mua</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Không cung cấp CMND</t>
   </si>
   <si>
-    <t>Chọn email làm phương thức liên lạc chính, phone chỉ là option</t>
-  </si>
-  <si>
     <t>Trang web làm ra để khách hàng cần mình</t>
   </si>
   <si>
@@ -393,6 +384,30 @@
   </si>
   <si>
     <t>Bỏ cột verify min price, max price</t>
+  </si>
+  <si>
+    <t>Bữa sau nếu sai nhóm trưởng bị trừ điểm</t>
+  </si>
+  <si>
+    <t>Sửa lại usecase diagram</t>
+  </si>
+  <si>
+    <t>extent khi thỏa đk nào đó mới thực hiện</t>
+  </si>
+  <si>
+    <t>Chọn email làm phương thức liên lạc chính, phone chỉ là option hoặc do ng dùng lựa chọn</t>
+  </si>
+  <si>
+    <t>Chọn cửa hàng thêm giá riêng và độ tin cậy</t>
+  </si>
+  <si>
+    <t>Cho thêm Category lúc điền thông tin sp và và xét category mà store muốn mua</t>
+  </si>
+  <si>
+    <t>25/5/2015</t>
+  </si>
+  <si>
+    <t>27/5/2015</t>
   </si>
 </sst>
 </file>
@@ -555,7 +570,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -659,6 +674,18 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -968,7 +995,7 @@
   <dimension ref="A1:T12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1129,8 +1156,12 @@
       <c r="F6" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
+      <c r="G6" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="H6" s="8" t="s">
+        <v>124</v>
+      </c>
       <c r="I6" s="5"/>
       <c r="J6" s="5"/>
       <c r="K6" s="5"/>
@@ -1156,7 +1187,9 @@
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
+      <c r="H7" s="1">
+        <v>105</v>
+      </c>
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
@@ -1189,8 +1222,12 @@
       <c r="F8" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
+      <c r="G8" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>78</v>
+      </c>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
@@ -1223,8 +1260,12 @@
       <c r="F9" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
+      <c r="G9" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>78</v>
+      </c>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
@@ -1255,8 +1296,12 @@
       <c r="F10" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
+      <c r="G10" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>78</v>
+      </c>
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
@@ -1287,8 +1332,12 @@
       <c r="F11" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
+      <c r="G11" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>78</v>
+      </c>
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
@@ -1319,8 +1368,12 @@
       <c r="F12" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
+      <c r="G12" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>78</v>
+      </c>
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
@@ -1352,6 +1405,8 @@
     <hyperlink ref="D6" location="W1_2!A1" display="13/5/2015"/>
     <hyperlink ref="E6" location="W2_1!A1" display="18/5/2015"/>
     <hyperlink ref="F6" location="W2_2!A1" display="20/5/2015"/>
+    <hyperlink ref="G6" location="W3_1!A1" display="25/5/2015"/>
+    <hyperlink ref="H6" location="W3_2!A1" display="27/5/2015"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2331,10 +2386,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C33"/>
+  <dimension ref="A1:C32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2384,7 +2439,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="26" t="s">
-        <v>105</v>
+        <v>121</v>
       </c>
       <c r="C5" s="17"/>
     </row>
@@ -2393,7 +2448,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="26" t="s">
-        <v>106</v>
+        <v>122</v>
       </c>
       <c r="C6" s="17"/>
     </row>
@@ -2402,7 +2457,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="26" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C7" s="17"/>
     </row>
@@ -2411,7 +2466,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="26" t="s">
-        <v>108</v>
+        <v>120</v>
       </c>
       <c r="C8" s="17"/>
     </row>
@@ -2420,7 +2475,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="34" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C9" s="17"/>
     </row>
@@ -2429,7 +2484,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="26" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C10" s="17"/>
     </row>
@@ -2438,7 +2493,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="26" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C11" s="17"/>
     </row>
@@ -2447,7 +2502,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="26" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C12" s="17"/>
     </row>
@@ -2456,7 +2511,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="26" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C13" s="17"/>
     </row>
@@ -2465,7 +2520,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="26" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C14" s="17"/>
     </row>
@@ -2473,7 +2528,9 @@
       <c r="A15" s="16">
         <v>13</v>
       </c>
-      <c r="B15" s="26"/>
+      <c r="B15" s="26" t="s">
+        <v>112</v>
+      </c>
       <c r="C15" s="17"/>
     </row>
     <row r="16" spans="1:3" ht="19.5" x14ac:dyDescent="0.3">
@@ -2481,7 +2538,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="26" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C16" s="17"/>
     </row>
@@ -2490,52 +2547,54 @@
         <v>15</v>
       </c>
       <c r="B17" s="26" t="s">
+        <v>114</v>
+      </c>
+      <c r="C17" s="17"/>
+    </row>
+    <row r="18" spans="1:3" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A18" s="16">
+        <v>16</v>
+      </c>
+      <c r="B18" s="26" t="s">
+        <v>115</v>
+      </c>
+      <c r="C18" s="17"/>
+    </row>
+    <row r="19" spans="1:3" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A19" s="16">
+        <v>17</v>
+      </c>
+      <c r="B19" s="26" t="s">
         <v>116</v>
-      </c>
-      <c r="C17" s="17"/>
-    </row>
-    <row r="18" spans="1:3" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A18" s="16"/>
-      <c r="B18" s="26" t="s">
-        <v>117</v>
-      </c>
-      <c r="C18" s="17"/>
-    </row>
-    <row r="19" spans="1:3" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A19" s="16"/>
-      <c r="B19" s="26" t="s">
-        <v>118</v>
       </c>
       <c r="C19" s="17"/>
     </row>
     <row r="20" spans="1:3" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A20" s="16"/>
-      <c r="B20" s="26" t="s">
-        <v>119</v>
-      </c>
+      <c r="B20" s="26"/>
       <c r="C20" s="17"/>
     </row>
-    <row r="21" spans="1:3" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A21" s="16"/>
-      <c r="B21" s="26"/>
-      <c r="C21" s="17"/>
-    </row>
-    <row r="22" spans="1:3" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A22" s="12" t="s">
+    <row r="21" spans="1:3" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A21" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="B22" s="31"/>
-    </row>
-    <row r="23" spans="1:3" ht="39" x14ac:dyDescent="0.3">
-      <c r="A23" s="18" t="s">
+      <c r="B21" s="31"/>
+    </row>
+    <row r="22" spans="1:3" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A22" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="B23" s="32" t="s">
+      <c r="B22" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="C23" s="15" t="s">
+      <c r="C22" s="15" t="s">
         <v>29</v>
       </c>
+    </row>
+    <row r="23" spans="1:3" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A23" s="17"/>
+      <c r="B23" s="26"/>
+      <c r="C23" s="17"/>
     </row>
     <row r="24" spans="1:3" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A24" s="17"/>
@@ -2581,11 +2640,6 @@
       <c r="A32" s="17"/>
       <c r="B32" s="26"/>
       <c r="C32" s="17"/>
-    </row>
-    <row r="33" spans="1:3" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A33" s="17"/>
-      <c r="B33" s="26"/>
-      <c r="C33" s="17"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2594,12 +2648,235 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:C33"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="55" style="13" customWidth="1"/>
+    <col min="3" max="3" width="36.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A1" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="38"/>
+    </row>
+    <row r="2" spans="1:3" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A2" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" s="15" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A3" s="16">
+        <v>1</v>
+      </c>
+      <c r="B3" s="40" t="s">
+        <v>117</v>
+      </c>
+      <c r="C3" s="17"/>
+    </row>
+    <row r="4" spans="1:3" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A4" s="16">
+        <v>2</v>
+      </c>
+      <c r="B4" s="40" t="s">
+        <v>118</v>
+      </c>
+      <c r="C4" s="17"/>
+    </row>
+    <row r="5" spans="1:3" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A5" s="16">
+        <v>3</v>
+      </c>
+      <c r="B5" s="40" t="s">
+        <v>119</v>
+      </c>
+      <c r="C5" s="17"/>
+    </row>
+    <row r="6" spans="1:3" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A6" s="16">
+        <v>4</v>
+      </c>
+      <c r="B6" s="40"/>
+      <c r="C6" s="17"/>
+    </row>
+    <row r="7" spans="1:3" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A7" s="16">
+        <v>5</v>
+      </c>
+      <c r="B7" s="40"/>
+      <c r="C7" s="17"/>
+    </row>
+    <row r="8" spans="1:3" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A8" s="16">
+        <v>6</v>
+      </c>
+      <c r="B8" s="40"/>
+      <c r="C8" s="17"/>
+    </row>
+    <row r="9" spans="1:3" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A9" s="16">
+        <v>7</v>
+      </c>
+      <c r="B9" s="41"/>
+      <c r="C9" s="17"/>
+    </row>
+    <row r="10" spans="1:3" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A10" s="16">
+        <v>8</v>
+      </c>
+      <c r="B10" s="40"/>
+      <c r="C10" s="17"/>
+    </row>
+    <row r="11" spans="1:3" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A11" s="16">
+        <v>9</v>
+      </c>
+      <c r="B11" s="40"/>
+      <c r="C11" s="17"/>
+    </row>
+    <row r="12" spans="1:3" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A12" s="16">
+        <v>10</v>
+      </c>
+      <c r="B12" s="40"/>
+      <c r="C12" s="17"/>
+    </row>
+    <row r="13" spans="1:3" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A13" s="16">
+        <v>11</v>
+      </c>
+      <c r="B13" s="40"/>
+      <c r="C13" s="17"/>
+    </row>
+    <row r="14" spans="1:3" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A14" s="16">
+        <v>12</v>
+      </c>
+      <c r="B14" s="40"/>
+      <c r="C14" s="17"/>
+    </row>
+    <row r="15" spans="1:3" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A15" s="16">
+        <v>13</v>
+      </c>
+      <c r="B15" s="40"/>
+      <c r="C15" s="17"/>
+    </row>
+    <row r="16" spans="1:3" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A16" s="16">
+        <v>14</v>
+      </c>
+      <c r="B16" s="40"/>
+      <c r="C16" s="17"/>
+    </row>
+    <row r="17" spans="1:3" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A17" s="16">
+        <v>15</v>
+      </c>
+      <c r="B17" s="40"/>
+      <c r="C17" s="17"/>
+    </row>
+    <row r="18" spans="1:3" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A18" s="16"/>
+      <c r="B18" s="40"/>
+      <c r="C18" s="17"/>
+    </row>
+    <row r="19" spans="1:3" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A19" s="16"/>
+      <c r="B19" s="40"/>
+      <c r="C19" s="17"/>
+    </row>
+    <row r="20" spans="1:3" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A20" s="16"/>
+      <c r="B20" s="40"/>
+      <c r="C20" s="17"/>
+    </row>
+    <row r="21" spans="1:3" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A21" s="16"/>
+      <c r="B21" s="40"/>
+      <c r="C21" s="17"/>
+    </row>
+    <row r="22" spans="1:3" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A22" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="B22" s="38"/>
+    </row>
+    <row r="23" spans="1:3" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A23" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="C23" s="15" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A24" s="17"/>
+      <c r="B24" s="40"/>
+      <c r="C24" s="17"/>
+    </row>
+    <row r="25" spans="1:3" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A25" s="17"/>
+      <c r="B25" s="40"/>
+      <c r="C25" s="17"/>
+    </row>
+    <row r="26" spans="1:3" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A26" s="17"/>
+      <c r="B26" s="40"/>
+      <c r="C26" s="17"/>
+    </row>
+    <row r="27" spans="1:3" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A27" s="17"/>
+      <c r="B27" s="40"/>
+      <c r="C27" s="17"/>
+    </row>
+    <row r="28" spans="1:3" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A28" s="17"/>
+      <c r="B28" s="40"/>
+      <c r="C28" s="17"/>
+    </row>
+    <row r="29" spans="1:3" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A29" s="17"/>
+      <c r="B29" s="40"/>
+      <c r="C29" s="17"/>
+    </row>
+    <row r="30" spans="1:3" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A30" s="17"/>
+      <c r="B30" s="40"/>
+      <c r="C30" s="17"/>
+    </row>
+    <row r="31" spans="1:3" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A31" s="17"/>
+      <c r="B31" s="40"/>
+      <c r="C31" s="17"/>
+    </row>
+    <row r="32" spans="1:3" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A32" s="17"/>
+      <c r="B32" s="40"/>
+      <c r="C32" s="17"/>
+    </row>
+    <row r="33" spans="1:3" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A33" s="17"/>
+      <c r="B33" s="40"/>
+      <c r="C33" s="17"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Source/Document/Meeting minutes/Meeting minute.xlsx
+++ b/Source/Document/Meeting minutes/Meeting minute.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="6"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -15,13 +15,21 @@
     <sheet name="W2_2" sheetId="6" r:id="rId6"/>
     <sheet name="W3_1" sheetId="8" r:id="rId7"/>
     <sheet name="W3_2" sheetId="9" r:id="rId8"/>
+    <sheet name="W4_1" sheetId="11" r:id="rId9"/>
+    <sheet name="W4_2" sheetId="12" r:id="rId10"/>
+    <sheet name="W5_1" sheetId="13" r:id="rId11"/>
+    <sheet name="W5_2" sheetId="14" r:id="rId12"/>
+    <sheet name="W6_1" sheetId="15" r:id="rId13"/>
+    <sheet name="W6_2" sheetId="16" r:id="rId14"/>
+    <sheet name="W7_1" sheetId="17" r:id="rId15"/>
+    <sheet name="W7_2" sheetId="18" r:id="rId16"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="148">
   <si>
     <t>MEETING MINUTES</t>
   </si>
@@ -409,12 +417,93 @@
   <si>
     <t>27/5/2015</t>
   </si>
+  <si>
+    <t>Chuyện hiển nhiên là phải redirect qua paypal</t>
+  </si>
+  <si>
+    <t>Số series là do nhà sx cung cấp không phải amazon.</t>
+  </si>
+  <si>
+    <t>Lập trình phải xài access code và code cứng để hiện thực ý tưởng. Khi nào chạy thật mới mua service của nó. Phải ứng trước được tiền của sp bao gồm phí liên kết dịch vụ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Activate - Deactivate là 1 use case và gom use case của admin lại 1 abstract usecase </t>
+  </si>
+  <si>
+    <t>Usecase không phải giao diện, không nói click button mà phải nói hành động cụ thể</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Usecase không dùng "amazon service" "paypal service" mà nên dùng "payment service" nói chung không dùng cụ thể. </t>
+  </si>
+  <si>
+    <t>textbox -&gt; Free text input</t>
+  </si>
+  <si>
+    <t>dropdownlist -&gt; option</t>
+  </si>
+  <si>
+    <t>Category -&gt; liệt kê vài cái cụ thể</t>
+  </si>
+  <si>
+    <t>Name: text -&gt; label</t>
+  </si>
+  <si>
+    <t>Choose: radio button -&gt; cho chọn.</t>
+  </si>
+  <si>
+    <t>Dùng ngôn ngữ cơ bản để miêu tả</t>
+  </si>
+  <si>
+    <t>Bỏ hết "page"</t>
+  </si>
+  <si>
+    <t>Các quy luật field phải được thông qua</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hệ thống tự thông báo mail cho 3 hàng, </t>
+  </si>
+  <si>
+    <t>Business rule là back end, quy trình của nó</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Conceptual diagram không có thuộc tính. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Không có ký hiệu.</t>
+    </r>
+  </si>
+  <si>
+    <t>Conceptual duoc dua ra tu dau. Phai lua chon mot …de chuyen thanh mot thuc the trong conceptual diagram. Khong ton tai quan he trung gian.</t>
+  </si>
+  <si>
+    <t>Consigment la mot thuc the vi phai quan ly trang thai, doi tuong cua no.</t>
+  </si>
+  <si>
+    <t>Sửa lại requirement để suy ra concept</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Business rule: Dang ky access token để xử lí và get token từ nó. </t>
+  </si>
+  <si>
+    <t>[Ban chat mot trang la mot hoa don]</t>
+  </si>
+  <si>
+    <t>Tập ký hiệu sai phải đổi sang uml &gt; 5.0</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -477,6 +566,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="15"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="15"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
@@ -570,7 +667,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -666,15 +763,6 @@
     <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -685,6 +773,36 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -995,7 +1113,7 @@
   <dimension ref="A1:T12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1008,22 +1126,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="37"/>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
-      <c r="F1" s="37"/>
-      <c r="G1" s="37"/>
-      <c r="H1" s="37"/>
-      <c r="I1" s="37"/>
-      <c r="J1" s="37"/>
-      <c r="K1" s="37"/>
-      <c r="L1" s="37"/>
-      <c r="M1" s="37"/>
-      <c r="N1" s="37"/>
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="41"/>
+      <c r="G1" s="41"/>
+      <c r="H1" s="41"/>
+      <c r="I1" s="41"/>
+      <c r="J1" s="41"/>
+      <c r="K1" s="41"/>
+      <c r="L1" s="41"/>
+      <c r="M1" s="41"/>
+      <c r="N1" s="41"/>
       <c r="O1" s="4"/>
       <c r="P1" s="4"/>
       <c r="Q1" s="4"/>
@@ -1032,20 +1150,20 @@
       <c r="T1" s="4"/>
     </row>
     <row r="2" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="37"/>
-      <c r="B2" s="37"/>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="37"/>
-      <c r="H2" s="37"/>
-      <c r="I2" s="37"/>
-      <c r="J2" s="37"/>
-      <c r="K2" s="37"/>
-      <c r="L2" s="37"/>
-      <c r="M2" s="37"/>
-      <c r="N2" s="37"/>
+      <c r="A2" s="41"/>
+      <c r="B2" s="41"/>
+      <c r="C2" s="41"/>
+      <c r="D2" s="41"/>
+      <c r="E2" s="41"/>
+      <c r="F2" s="41"/>
+      <c r="G2" s="41"/>
+      <c r="H2" s="41"/>
+      <c r="I2" s="41"/>
+      <c r="J2" s="41"/>
+      <c r="K2" s="41"/>
+      <c r="L2" s="41"/>
+      <c r="M2" s="41"/>
+      <c r="N2" s="41"/>
       <c r="O2" s="4"/>
       <c r="P2" s="4"/>
       <c r="Q2" s="4"/>
@@ -1054,20 +1172,20 @@
       <c r="T2" s="4"/>
     </row>
     <row r="3" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="37"/>
-      <c r="B3" s="37"/>
-      <c r="C3" s="37"/>
-      <c r="D3" s="37"/>
-      <c r="E3" s="37"/>
-      <c r="F3" s="37"/>
-      <c r="G3" s="37"/>
-      <c r="H3" s="37"/>
-      <c r="I3" s="37"/>
-      <c r="J3" s="37"/>
-      <c r="K3" s="37"/>
-      <c r="L3" s="37"/>
-      <c r="M3" s="37"/>
-      <c r="N3" s="37"/>
+      <c r="A3" s="41"/>
+      <c r="B3" s="41"/>
+      <c r="C3" s="41"/>
+      <c r="D3" s="41"/>
+      <c r="E3" s="41"/>
+      <c r="F3" s="41"/>
+      <c r="G3" s="41"/>
+      <c r="H3" s="41"/>
+      <c r="I3" s="41"/>
+      <c r="J3" s="41"/>
+      <c r="K3" s="41"/>
+      <c r="L3" s="41"/>
+      <c r="M3" s="41"/>
+      <c r="N3" s="41"/>
       <c r="O3" s="4"/>
       <c r="P3" s="4"/>
       <c r="Q3" s="4"/>
@@ -1076,20 +1194,20 @@
       <c r="T3" s="4"/>
     </row>
     <row r="4" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="37"/>
-      <c r="B4" s="37"/>
-      <c r="C4" s="37"/>
-      <c r="D4" s="37"/>
-      <c r="E4" s="37"/>
-      <c r="F4" s="37"/>
-      <c r="G4" s="37"/>
-      <c r="H4" s="37"/>
-      <c r="I4" s="37"/>
-      <c r="J4" s="37"/>
-      <c r="K4" s="37"/>
-      <c r="L4" s="37"/>
-      <c r="M4" s="37"/>
-      <c r="N4" s="37"/>
+      <c r="A4" s="41"/>
+      <c r="B4" s="41"/>
+      <c r="C4" s="41"/>
+      <c r="D4" s="41"/>
+      <c r="E4" s="41"/>
+      <c r="F4" s="41"/>
+      <c r="G4" s="41"/>
+      <c r="H4" s="41"/>
+      <c r="I4" s="41"/>
+      <c r="J4" s="41"/>
+      <c r="K4" s="41"/>
+      <c r="L4" s="41"/>
+      <c r="M4" s="41"/>
+      <c r="N4" s="41"/>
       <c r="O4" s="4"/>
       <c r="P4" s="4"/>
       <c r="Q4" s="4"/>
@@ -1102,42 +1220,42 @@
         <v>1</v>
       </c>
       <c r="B5" s="5"/>
-      <c r="C5" s="35" t="s">
+      <c r="C5" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="36"/>
-      <c r="E5" s="35" t="s">
+      <c r="D5" s="40"/>
+      <c r="E5" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="F5" s="36"/>
-      <c r="G5" s="35" t="s">
+      <c r="F5" s="40"/>
+      <c r="G5" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="H5" s="36"/>
-      <c r="I5" s="35" t="s">
+      <c r="H5" s="40"/>
+      <c r="I5" s="39" t="s">
         <v>14</v>
       </c>
-      <c r="J5" s="36"/>
-      <c r="K5" s="35" t="s">
+      <c r="J5" s="40"/>
+      <c r="K5" s="39" t="s">
         <v>15</v>
       </c>
-      <c r="L5" s="36"/>
-      <c r="M5" s="35" t="s">
+      <c r="L5" s="40"/>
+      <c r="M5" s="39" t="s">
         <v>16</v>
       </c>
-      <c r="N5" s="36"/>
-      <c r="O5" s="35" t="s">
+      <c r="N5" s="40"/>
+      <c r="O5" s="39" t="s">
         <v>17</v>
       </c>
-      <c r="P5" s="36"/>
-      <c r="Q5" s="35" t="s">
+      <c r="P5" s="40"/>
+      <c r="Q5" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="R5" s="36"/>
-      <c r="S5" s="35" t="s">
+      <c r="R5" s="40"/>
+      <c r="S5" s="39" t="s">
         <v>19</v>
       </c>
-      <c r="T5" s="36"/>
+      <c r="T5" s="40"/>
     </row>
     <row r="6" spans="1:20" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
@@ -1162,8 +1280,12 @@
       <c r="H6" s="8" t="s">
         <v>124</v>
       </c>
-      <c r="I6" s="5"/>
-      <c r="J6" s="5"/>
+      <c r="I6" s="7">
+        <v>42010</v>
+      </c>
+      <c r="J6" s="7">
+        <v>42069</v>
+      </c>
       <c r="K6" s="5"/>
       <c r="L6" s="5"/>
       <c r="M6" s="5"/>
@@ -1187,7 +1309,7 @@
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
-      <c r="H7" s="1">
+      <c r="H7" s="2">
         <v>105</v>
       </c>
       <c r="I7" s="1"/>
@@ -1228,7 +1350,9 @@
       <c r="H8" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="I8" s="1"/>
+      <c r="I8" s="1" t="s">
+        <v>78</v>
+      </c>
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
       <c r="L8" s="1"/>
@@ -1266,7 +1390,9 @@
       <c r="H9" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="I9" s="1"/>
+      <c r="I9" s="1" t="s">
+        <v>78</v>
+      </c>
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
@@ -1302,7 +1428,9 @@
       <c r="H10" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="I10" s="1"/>
+      <c r="I10" s="1" t="s">
+        <v>78</v>
+      </c>
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
@@ -1338,7 +1466,9 @@
       <c r="H11" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="I11" s="1"/>
+      <c r="I11" s="1" t="s">
+        <v>78</v>
+      </c>
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
       <c r="L11" s="1"/>
@@ -1374,7 +1504,9 @@
       <c r="H12" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="I12" s="1"/>
+      <c r="I12" s="1" t="s">
+        <v>78</v>
+      </c>
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
       <c r="L12" s="1"/>
@@ -1407,9 +1539,1621 @@
     <hyperlink ref="F6" location="W2_2!A1" display="20/5/2015"/>
     <hyperlink ref="G6" location="W3_1!A1" display="25/5/2015"/>
     <hyperlink ref="H6" location="W3_2!A1" display="27/5/2015"/>
+    <hyperlink ref="I6" location="W4_1!A1" display="1/6/2015"/>
+    <hyperlink ref="J6" location="W4_2!A1" display="3/6/2015"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C33"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.85546875" style="33" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="64" style="33" customWidth="1"/>
+    <col min="3" max="3" width="27.42578125" style="33" customWidth="1"/>
+    <col min="4" max="16384" width="9.140625" style="33"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A1" s="42" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="35"/>
+    </row>
+    <row r="2" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="43" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" s="36" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" s="44" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A3" s="45">
+        <v>1</v>
+      </c>
+      <c r="B3" s="37"/>
+      <c r="C3" s="27"/>
+    </row>
+    <row r="4" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A4" s="45">
+        <v>2</v>
+      </c>
+      <c r="B4" s="37"/>
+      <c r="C4" s="27"/>
+    </row>
+    <row r="5" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A5" s="45">
+        <v>3</v>
+      </c>
+      <c r="B5" s="37"/>
+      <c r="C5" s="27"/>
+    </row>
+    <row r="6" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A6" s="45">
+        <v>4</v>
+      </c>
+      <c r="B6" s="37"/>
+      <c r="C6" s="27"/>
+    </row>
+    <row r="7" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A7" s="45">
+        <v>5</v>
+      </c>
+      <c r="B7" s="37"/>
+      <c r="C7" s="27"/>
+    </row>
+    <row r="8" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A8" s="45">
+        <v>6</v>
+      </c>
+      <c r="B8" s="37"/>
+      <c r="C8" s="27"/>
+    </row>
+    <row r="9" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A9" s="45">
+        <v>7</v>
+      </c>
+      <c r="B9" s="38"/>
+      <c r="C9" s="27"/>
+    </row>
+    <row r="10" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A10" s="45">
+        <v>8</v>
+      </c>
+      <c r="B10" s="37"/>
+      <c r="C10" s="27"/>
+    </row>
+    <row r="11" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A11" s="45">
+        <v>9</v>
+      </c>
+      <c r="B11" s="37"/>
+      <c r="C11" s="27"/>
+    </row>
+    <row r="12" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A12" s="45">
+        <v>10</v>
+      </c>
+      <c r="B12" s="37"/>
+      <c r="C12" s="27"/>
+    </row>
+    <row r="13" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A13" s="45">
+        <v>11</v>
+      </c>
+      <c r="B13" s="37"/>
+      <c r="C13" s="27"/>
+    </row>
+    <row r="14" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A14" s="45">
+        <v>12</v>
+      </c>
+      <c r="B14" s="37"/>
+      <c r="C14" s="27"/>
+    </row>
+    <row r="15" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A15" s="45">
+        <v>13</v>
+      </c>
+      <c r="B15" s="37"/>
+      <c r="C15" s="27"/>
+    </row>
+    <row r="16" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A16" s="45">
+        <v>14</v>
+      </c>
+      <c r="B16" s="37"/>
+      <c r="C16" s="27"/>
+    </row>
+    <row r="17" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A17" s="45">
+        <v>15</v>
+      </c>
+      <c r="B17" s="37"/>
+      <c r="C17" s="27"/>
+    </row>
+    <row r="18" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A18" s="45"/>
+      <c r="B18" s="37"/>
+      <c r="C18" s="27"/>
+    </row>
+    <row r="19" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A19" s="45"/>
+      <c r="B19" s="37"/>
+      <c r="C19" s="27"/>
+    </row>
+    <row r="20" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A20" s="45"/>
+      <c r="B20" s="37"/>
+      <c r="C20" s="27"/>
+    </row>
+    <row r="21" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A21" s="45"/>
+      <c r="B21" s="37"/>
+      <c r="C21" s="27"/>
+    </row>
+    <row r="22" spans="1:3" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A22" s="42" t="s">
+        <v>28</v>
+      </c>
+      <c r="B22" s="35"/>
+    </row>
+    <row r="23" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A23" s="46" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" s="36" t="s">
+        <v>24</v>
+      </c>
+      <c r="C23" s="44" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A24" s="27"/>
+      <c r="B24" s="37"/>
+      <c r="C24" s="27"/>
+    </row>
+    <row r="25" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A25" s="27"/>
+      <c r="B25" s="37"/>
+      <c r="C25" s="27"/>
+    </row>
+    <row r="26" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A26" s="27"/>
+      <c r="B26" s="37"/>
+      <c r="C26" s="27"/>
+    </row>
+    <row r="27" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A27" s="27"/>
+      <c r="B27" s="37"/>
+      <c r="C27" s="27"/>
+    </row>
+    <row r="28" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A28" s="27"/>
+      <c r="B28" s="37"/>
+      <c r="C28" s="27"/>
+    </row>
+    <row r="29" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A29" s="27"/>
+      <c r="B29" s="37"/>
+      <c r="C29" s="27"/>
+    </row>
+    <row r="30" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A30" s="27"/>
+      <c r="B30" s="37"/>
+      <c r="C30" s="27"/>
+    </row>
+    <row r="31" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A31" s="27"/>
+      <c r="B31" s="37"/>
+      <c r="C31" s="27"/>
+    </row>
+    <row r="32" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A32" s="27"/>
+      <c r="B32" s="37"/>
+      <c r="C32" s="27"/>
+    </row>
+    <row r="33" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A33" s="27"/>
+      <c r="B33" s="37"/>
+      <c r="C33" s="27"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C33"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.85546875" style="33" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="64" style="33" customWidth="1"/>
+    <col min="3" max="3" width="27.42578125" style="33" customWidth="1"/>
+    <col min="4" max="16384" width="9.140625" style="33"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A1" s="42" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="35"/>
+    </row>
+    <row r="2" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="43" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" s="36" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" s="44" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A3" s="45">
+        <v>1</v>
+      </c>
+      <c r="B3" s="37"/>
+      <c r="C3" s="27"/>
+    </row>
+    <row r="4" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A4" s="45">
+        <v>2</v>
+      </c>
+      <c r="B4" s="37"/>
+      <c r="C4" s="27"/>
+    </row>
+    <row r="5" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A5" s="45">
+        <v>3</v>
+      </c>
+      <c r="B5" s="37"/>
+      <c r="C5" s="27"/>
+    </row>
+    <row r="6" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A6" s="45">
+        <v>4</v>
+      </c>
+      <c r="B6" s="37"/>
+      <c r="C6" s="27"/>
+    </row>
+    <row r="7" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A7" s="45">
+        <v>5</v>
+      </c>
+      <c r="B7" s="37"/>
+      <c r="C7" s="27"/>
+    </row>
+    <row r="8" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A8" s="45">
+        <v>6</v>
+      </c>
+      <c r="B8" s="37"/>
+      <c r="C8" s="27"/>
+    </row>
+    <row r="9" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A9" s="45">
+        <v>7</v>
+      </c>
+      <c r="B9" s="38"/>
+      <c r="C9" s="27"/>
+    </row>
+    <row r="10" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A10" s="45">
+        <v>8</v>
+      </c>
+      <c r="B10" s="37"/>
+      <c r="C10" s="27"/>
+    </row>
+    <row r="11" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A11" s="45">
+        <v>9</v>
+      </c>
+      <c r="B11" s="37"/>
+      <c r="C11" s="27"/>
+    </row>
+    <row r="12" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A12" s="45">
+        <v>10</v>
+      </c>
+      <c r="B12" s="37"/>
+      <c r="C12" s="27"/>
+    </row>
+    <row r="13" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A13" s="45">
+        <v>11</v>
+      </c>
+      <c r="B13" s="37"/>
+      <c r="C13" s="27"/>
+    </row>
+    <row r="14" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A14" s="45">
+        <v>12</v>
+      </c>
+      <c r="B14" s="37"/>
+      <c r="C14" s="27"/>
+    </row>
+    <row r="15" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A15" s="45">
+        <v>13</v>
+      </c>
+      <c r="B15" s="37"/>
+      <c r="C15" s="27"/>
+    </row>
+    <row r="16" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A16" s="45">
+        <v>14</v>
+      </c>
+      <c r="B16" s="37"/>
+      <c r="C16" s="27"/>
+    </row>
+    <row r="17" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A17" s="45">
+        <v>15</v>
+      </c>
+      <c r="B17" s="37"/>
+      <c r="C17" s="27"/>
+    </row>
+    <row r="18" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A18" s="45"/>
+      <c r="B18" s="37"/>
+      <c r="C18" s="27"/>
+    </row>
+    <row r="19" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A19" s="45"/>
+      <c r="B19" s="37"/>
+      <c r="C19" s="27"/>
+    </row>
+    <row r="20" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A20" s="45"/>
+      <c r="B20" s="37"/>
+      <c r="C20" s="27"/>
+    </row>
+    <row r="21" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A21" s="45"/>
+      <c r="B21" s="37"/>
+      <c r="C21" s="27"/>
+    </row>
+    <row r="22" spans="1:3" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A22" s="42" t="s">
+        <v>28</v>
+      </c>
+      <c r="B22" s="35"/>
+    </row>
+    <row r="23" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A23" s="46" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" s="36" t="s">
+        <v>24</v>
+      </c>
+      <c r="C23" s="44" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A24" s="27"/>
+      <c r="B24" s="37"/>
+      <c r="C24" s="27"/>
+    </row>
+    <row r="25" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A25" s="27"/>
+      <c r="B25" s="37"/>
+      <c r="C25" s="27"/>
+    </row>
+    <row r="26" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A26" s="27"/>
+      <c r="B26" s="37"/>
+      <c r="C26" s="27"/>
+    </row>
+    <row r="27" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A27" s="27"/>
+      <c r="B27" s="37"/>
+      <c r="C27" s="27"/>
+    </row>
+    <row r="28" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A28" s="27"/>
+      <c r="B28" s="37"/>
+      <c r="C28" s="27"/>
+    </row>
+    <row r="29" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A29" s="27"/>
+      <c r="B29" s="37"/>
+      <c r="C29" s="27"/>
+    </row>
+    <row r="30" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A30" s="27"/>
+      <c r="B30" s="37"/>
+      <c r="C30" s="27"/>
+    </row>
+    <row r="31" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A31" s="27"/>
+      <c r="B31" s="37"/>
+      <c r="C31" s="27"/>
+    </row>
+    <row r="32" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A32" s="27"/>
+      <c r="B32" s="37"/>
+      <c r="C32" s="27"/>
+    </row>
+    <row r="33" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A33" s="27"/>
+      <c r="B33" s="37"/>
+      <c r="C33" s="27"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C33"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.85546875" style="33" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="64" style="33" customWidth="1"/>
+    <col min="3" max="3" width="27.42578125" style="33" customWidth="1"/>
+    <col min="4" max="16384" width="9.140625" style="33"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A1" s="42" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="35"/>
+    </row>
+    <row r="2" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="43" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" s="36" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" s="44" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A3" s="45">
+        <v>1</v>
+      </c>
+      <c r="B3" s="37"/>
+      <c r="C3" s="27"/>
+    </row>
+    <row r="4" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A4" s="45">
+        <v>2</v>
+      </c>
+      <c r="B4" s="37"/>
+      <c r="C4" s="27"/>
+    </row>
+    <row r="5" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A5" s="45">
+        <v>3</v>
+      </c>
+      <c r="B5" s="37"/>
+      <c r="C5" s="27"/>
+    </row>
+    <row r="6" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A6" s="45">
+        <v>4</v>
+      </c>
+      <c r="B6" s="37"/>
+      <c r="C6" s="27"/>
+    </row>
+    <row r="7" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A7" s="45">
+        <v>5</v>
+      </c>
+      <c r="B7" s="37"/>
+      <c r="C7" s="27"/>
+    </row>
+    <row r="8" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A8" s="45">
+        <v>6</v>
+      </c>
+      <c r="B8" s="37"/>
+      <c r="C8" s="27"/>
+    </row>
+    <row r="9" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A9" s="45">
+        <v>7</v>
+      </c>
+      <c r="B9" s="38"/>
+      <c r="C9" s="27"/>
+    </row>
+    <row r="10" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A10" s="45">
+        <v>8</v>
+      </c>
+      <c r="B10" s="37"/>
+      <c r="C10" s="27"/>
+    </row>
+    <row r="11" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A11" s="45">
+        <v>9</v>
+      </c>
+      <c r="B11" s="37"/>
+      <c r="C11" s="27"/>
+    </row>
+    <row r="12" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A12" s="45">
+        <v>10</v>
+      </c>
+      <c r="B12" s="37"/>
+      <c r="C12" s="27"/>
+    </row>
+    <row r="13" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A13" s="45">
+        <v>11</v>
+      </c>
+      <c r="B13" s="37"/>
+      <c r="C13" s="27"/>
+    </row>
+    <row r="14" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A14" s="45">
+        <v>12</v>
+      </c>
+      <c r="B14" s="37"/>
+      <c r="C14" s="27"/>
+    </row>
+    <row r="15" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A15" s="45">
+        <v>13</v>
+      </c>
+      <c r="B15" s="37"/>
+      <c r="C15" s="27"/>
+    </row>
+    <row r="16" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A16" s="45">
+        <v>14</v>
+      </c>
+      <c r="B16" s="37"/>
+      <c r="C16" s="27"/>
+    </row>
+    <row r="17" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A17" s="45">
+        <v>15</v>
+      </c>
+      <c r="B17" s="37"/>
+      <c r="C17" s="27"/>
+    </row>
+    <row r="18" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A18" s="45"/>
+      <c r="B18" s="37"/>
+      <c r="C18" s="27"/>
+    </row>
+    <row r="19" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A19" s="45"/>
+      <c r="B19" s="37"/>
+      <c r="C19" s="27"/>
+    </row>
+    <row r="20" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A20" s="45"/>
+      <c r="B20" s="37"/>
+      <c r="C20" s="27"/>
+    </row>
+    <row r="21" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A21" s="45"/>
+      <c r="B21" s="37"/>
+      <c r="C21" s="27"/>
+    </row>
+    <row r="22" spans="1:3" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A22" s="42" t="s">
+        <v>28</v>
+      </c>
+      <c r="B22" s="35"/>
+    </row>
+    <row r="23" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A23" s="46" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" s="36" t="s">
+        <v>24</v>
+      </c>
+      <c r="C23" s="44" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A24" s="27"/>
+      <c r="B24" s="37"/>
+      <c r="C24" s="27"/>
+    </row>
+    <row r="25" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A25" s="27"/>
+      <c r="B25" s="37"/>
+      <c r="C25" s="27"/>
+    </row>
+    <row r="26" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A26" s="27"/>
+      <c r="B26" s="37"/>
+      <c r="C26" s="27"/>
+    </row>
+    <row r="27" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A27" s="27"/>
+      <c r="B27" s="37"/>
+      <c r="C27" s="27"/>
+    </row>
+    <row r="28" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A28" s="27"/>
+      <c r="B28" s="37"/>
+      <c r="C28" s="27"/>
+    </row>
+    <row r="29" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A29" s="27"/>
+      <c r="B29" s="37"/>
+      <c r="C29" s="27"/>
+    </row>
+    <row r="30" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A30" s="27"/>
+      <c r="B30" s="37"/>
+      <c r="C30" s="27"/>
+    </row>
+    <row r="31" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A31" s="27"/>
+      <c r="B31" s="37"/>
+      <c r="C31" s="27"/>
+    </row>
+    <row r="32" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A32" s="27"/>
+      <c r="B32" s="37"/>
+      <c r="C32" s="27"/>
+    </row>
+    <row r="33" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A33" s="27"/>
+      <c r="B33" s="37"/>
+      <c r="C33" s="27"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C33"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.85546875" style="33" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="64" style="33" customWidth="1"/>
+    <col min="3" max="3" width="27.42578125" style="33" customWidth="1"/>
+    <col min="4" max="16384" width="9.140625" style="33"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A1" s="42" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="35"/>
+    </row>
+    <row r="2" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="43" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" s="36" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" s="44" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A3" s="45">
+        <v>1</v>
+      </c>
+      <c r="B3" s="37"/>
+      <c r="C3" s="27"/>
+    </row>
+    <row r="4" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A4" s="45">
+        <v>2</v>
+      </c>
+      <c r="B4" s="37"/>
+      <c r="C4" s="27"/>
+    </row>
+    <row r="5" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A5" s="45">
+        <v>3</v>
+      </c>
+      <c r="B5" s="37"/>
+      <c r="C5" s="27"/>
+    </row>
+    <row r="6" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A6" s="45">
+        <v>4</v>
+      </c>
+      <c r="B6" s="37"/>
+      <c r="C6" s="27"/>
+    </row>
+    <row r="7" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A7" s="45">
+        <v>5</v>
+      </c>
+      <c r="B7" s="37"/>
+      <c r="C7" s="27"/>
+    </row>
+    <row r="8" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A8" s="45">
+        <v>6</v>
+      </c>
+      <c r="B8" s="37"/>
+      <c r="C8" s="27"/>
+    </row>
+    <row r="9" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A9" s="45">
+        <v>7</v>
+      </c>
+      <c r="B9" s="38"/>
+      <c r="C9" s="27"/>
+    </row>
+    <row r="10" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A10" s="45">
+        <v>8</v>
+      </c>
+      <c r="B10" s="37"/>
+      <c r="C10" s="27"/>
+    </row>
+    <row r="11" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A11" s="45">
+        <v>9</v>
+      </c>
+      <c r="B11" s="37"/>
+      <c r="C11" s="27"/>
+    </row>
+    <row r="12" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A12" s="45">
+        <v>10</v>
+      </c>
+      <c r="B12" s="37"/>
+      <c r="C12" s="27"/>
+    </row>
+    <row r="13" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A13" s="45">
+        <v>11</v>
+      </c>
+      <c r="B13" s="37"/>
+      <c r="C13" s="27"/>
+    </row>
+    <row r="14" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A14" s="45">
+        <v>12</v>
+      </c>
+      <c r="B14" s="37"/>
+      <c r="C14" s="27"/>
+    </row>
+    <row r="15" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A15" s="45">
+        <v>13</v>
+      </c>
+      <c r="B15" s="37"/>
+      <c r="C15" s="27"/>
+    </row>
+    <row r="16" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A16" s="45">
+        <v>14</v>
+      </c>
+      <c r="B16" s="37"/>
+      <c r="C16" s="27"/>
+    </row>
+    <row r="17" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A17" s="45">
+        <v>15</v>
+      </c>
+      <c r="B17" s="37"/>
+      <c r="C17" s="27"/>
+    </row>
+    <row r="18" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A18" s="45"/>
+      <c r="B18" s="37"/>
+      <c r="C18" s="27"/>
+    </row>
+    <row r="19" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A19" s="45"/>
+      <c r="B19" s="37"/>
+      <c r="C19" s="27"/>
+    </row>
+    <row r="20" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A20" s="45"/>
+      <c r="B20" s="37"/>
+      <c r="C20" s="27"/>
+    </row>
+    <row r="21" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A21" s="45"/>
+      <c r="B21" s="37"/>
+      <c r="C21" s="27"/>
+    </row>
+    <row r="22" spans="1:3" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A22" s="42" t="s">
+        <v>28</v>
+      </c>
+      <c r="B22" s="35"/>
+    </row>
+    <row r="23" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A23" s="46" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" s="36" t="s">
+        <v>24</v>
+      </c>
+      <c r="C23" s="44" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A24" s="27"/>
+      <c r="B24" s="37"/>
+      <c r="C24" s="27"/>
+    </row>
+    <row r="25" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A25" s="27"/>
+      <c r="B25" s="37"/>
+      <c r="C25" s="27"/>
+    </row>
+    <row r="26" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A26" s="27"/>
+      <c r="B26" s="37"/>
+      <c r="C26" s="27"/>
+    </row>
+    <row r="27" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A27" s="27"/>
+      <c r="B27" s="37"/>
+      <c r="C27" s="27"/>
+    </row>
+    <row r="28" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A28" s="27"/>
+      <c r="B28" s="37"/>
+      <c r="C28" s="27"/>
+    </row>
+    <row r="29" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A29" s="27"/>
+      <c r="B29" s="37"/>
+      <c r="C29" s="27"/>
+    </row>
+    <row r="30" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A30" s="27"/>
+      <c r="B30" s="37"/>
+      <c r="C30" s="27"/>
+    </row>
+    <row r="31" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A31" s="27"/>
+      <c r="B31" s="37"/>
+      <c r="C31" s="27"/>
+    </row>
+    <row r="32" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A32" s="27"/>
+      <c r="B32" s="37"/>
+      <c r="C32" s="27"/>
+    </row>
+    <row r="33" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A33" s="27"/>
+      <c r="B33" s="37"/>
+      <c r="C33" s="27"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C33"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.85546875" style="33" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="64" style="33" customWidth="1"/>
+    <col min="3" max="3" width="27.42578125" style="33" customWidth="1"/>
+    <col min="4" max="16384" width="9.140625" style="33"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A1" s="42" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="35"/>
+    </row>
+    <row r="2" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="43" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" s="36" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" s="44" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A3" s="45">
+        <v>1</v>
+      </c>
+      <c r="B3" s="37"/>
+      <c r="C3" s="27"/>
+    </row>
+    <row r="4" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A4" s="45">
+        <v>2</v>
+      </c>
+      <c r="B4" s="37"/>
+      <c r="C4" s="27"/>
+    </row>
+    <row r="5" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A5" s="45">
+        <v>3</v>
+      </c>
+      <c r="B5" s="37"/>
+      <c r="C5" s="27"/>
+    </row>
+    <row r="6" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A6" s="45">
+        <v>4</v>
+      </c>
+      <c r="B6" s="37"/>
+      <c r="C6" s="27"/>
+    </row>
+    <row r="7" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A7" s="45">
+        <v>5</v>
+      </c>
+      <c r="B7" s="37"/>
+      <c r="C7" s="27"/>
+    </row>
+    <row r="8" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A8" s="45">
+        <v>6</v>
+      </c>
+      <c r="B8" s="37"/>
+      <c r="C8" s="27"/>
+    </row>
+    <row r="9" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A9" s="45">
+        <v>7</v>
+      </c>
+      <c r="B9" s="38"/>
+      <c r="C9" s="27"/>
+    </row>
+    <row r="10" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A10" s="45">
+        <v>8</v>
+      </c>
+      <c r="B10" s="37"/>
+      <c r="C10" s="27"/>
+    </row>
+    <row r="11" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A11" s="45">
+        <v>9</v>
+      </c>
+      <c r="B11" s="37"/>
+      <c r="C11" s="27"/>
+    </row>
+    <row r="12" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A12" s="45">
+        <v>10</v>
+      </c>
+      <c r="B12" s="37"/>
+      <c r="C12" s="27"/>
+    </row>
+    <row r="13" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A13" s="45">
+        <v>11</v>
+      </c>
+      <c r="B13" s="37"/>
+      <c r="C13" s="27"/>
+    </row>
+    <row r="14" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A14" s="45">
+        <v>12</v>
+      </c>
+      <c r="B14" s="37"/>
+      <c r="C14" s="27"/>
+    </row>
+    <row r="15" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A15" s="45">
+        <v>13</v>
+      </c>
+      <c r="B15" s="37"/>
+      <c r="C15" s="27"/>
+    </row>
+    <row r="16" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A16" s="45">
+        <v>14</v>
+      </c>
+      <c r="B16" s="37"/>
+      <c r="C16" s="27"/>
+    </row>
+    <row r="17" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A17" s="45">
+        <v>15</v>
+      </c>
+      <c r="B17" s="37"/>
+      <c r="C17" s="27"/>
+    </row>
+    <row r="18" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A18" s="45"/>
+      <c r="B18" s="37"/>
+      <c r="C18" s="27"/>
+    </row>
+    <row r="19" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A19" s="45"/>
+      <c r="B19" s="37"/>
+      <c r="C19" s="27"/>
+    </row>
+    <row r="20" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A20" s="45"/>
+      <c r="B20" s="37"/>
+      <c r="C20" s="27"/>
+    </row>
+    <row r="21" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A21" s="45"/>
+      <c r="B21" s="37"/>
+      <c r="C21" s="27"/>
+    </row>
+    <row r="22" spans="1:3" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A22" s="42" t="s">
+        <v>28</v>
+      </c>
+      <c r="B22" s="35"/>
+    </row>
+    <row r="23" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A23" s="46" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" s="36" t="s">
+        <v>24</v>
+      </c>
+      <c r="C23" s="44" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A24" s="27"/>
+      <c r="B24" s="37"/>
+      <c r="C24" s="27"/>
+    </row>
+    <row r="25" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A25" s="27"/>
+      <c r="B25" s="37"/>
+      <c r="C25" s="27"/>
+    </row>
+    <row r="26" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A26" s="27"/>
+      <c r="B26" s="37"/>
+      <c r="C26" s="27"/>
+    </row>
+    <row r="27" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A27" s="27"/>
+      <c r="B27" s="37"/>
+      <c r="C27" s="27"/>
+    </row>
+    <row r="28" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A28" s="27"/>
+      <c r="B28" s="37"/>
+      <c r="C28" s="27"/>
+    </row>
+    <row r="29" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A29" s="27"/>
+      <c r="B29" s="37"/>
+      <c r="C29" s="27"/>
+    </row>
+    <row r="30" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A30" s="27"/>
+      <c r="B30" s="37"/>
+      <c r="C30" s="27"/>
+    </row>
+    <row r="31" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A31" s="27"/>
+      <c r="B31" s="37"/>
+      <c r="C31" s="27"/>
+    </row>
+    <row r="32" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A32" s="27"/>
+      <c r="B32" s="37"/>
+      <c r="C32" s="27"/>
+    </row>
+    <row r="33" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A33" s="27"/>
+      <c r="B33" s="37"/>
+      <c r="C33" s="27"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C33"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.85546875" style="33" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="64" style="33" customWidth="1"/>
+    <col min="3" max="3" width="27.42578125" style="33" customWidth="1"/>
+    <col min="4" max="16384" width="9.140625" style="33"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A1" s="42" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="35"/>
+    </row>
+    <row r="2" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="43" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" s="36" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" s="44" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A3" s="45">
+        <v>1</v>
+      </c>
+      <c r="B3" s="37"/>
+      <c r="C3" s="27"/>
+    </row>
+    <row r="4" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A4" s="45">
+        <v>2</v>
+      </c>
+      <c r="B4" s="37"/>
+      <c r="C4" s="27"/>
+    </row>
+    <row r="5" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A5" s="45">
+        <v>3</v>
+      </c>
+      <c r="B5" s="37"/>
+      <c r="C5" s="27"/>
+    </row>
+    <row r="6" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A6" s="45">
+        <v>4</v>
+      </c>
+      <c r="B6" s="37"/>
+      <c r="C6" s="27"/>
+    </row>
+    <row r="7" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A7" s="45">
+        <v>5</v>
+      </c>
+      <c r="B7" s="37"/>
+      <c r="C7" s="27"/>
+    </row>
+    <row r="8" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A8" s="45">
+        <v>6</v>
+      </c>
+      <c r="B8" s="37"/>
+      <c r="C8" s="27"/>
+    </row>
+    <row r="9" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A9" s="45">
+        <v>7</v>
+      </c>
+      <c r="B9" s="38"/>
+      <c r="C9" s="27"/>
+    </row>
+    <row r="10" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A10" s="45">
+        <v>8</v>
+      </c>
+      <c r="B10" s="37"/>
+      <c r="C10" s="27"/>
+    </row>
+    <row r="11" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A11" s="45">
+        <v>9</v>
+      </c>
+      <c r="B11" s="37"/>
+      <c r="C11" s="27"/>
+    </row>
+    <row r="12" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A12" s="45">
+        <v>10</v>
+      </c>
+      <c r="B12" s="37"/>
+      <c r="C12" s="27"/>
+    </row>
+    <row r="13" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A13" s="45">
+        <v>11</v>
+      </c>
+      <c r="B13" s="37"/>
+      <c r="C13" s="27"/>
+    </row>
+    <row r="14" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A14" s="45">
+        <v>12</v>
+      </c>
+      <c r="B14" s="37"/>
+      <c r="C14" s="27"/>
+    </row>
+    <row r="15" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A15" s="45">
+        <v>13</v>
+      </c>
+      <c r="B15" s="37"/>
+      <c r="C15" s="27"/>
+    </row>
+    <row r="16" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A16" s="45">
+        <v>14</v>
+      </c>
+      <c r="B16" s="37"/>
+      <c r="C16" s="27"/>
+    </row>
+    <row r="17" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A17" s="45">
+        <v>15</v>
+      </c>
+      <c r="B17" s="37"/>
+      <c r="C17" s="27"/>
+    </row>
+    <row r="18" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A18" s="45"/>
+      <c r="B18" s="37"/>
+      <c r="C18" s="27"/>
+    </row>
+    <row r="19" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A19" s="45"/>
+      <c r="B19" s="37"/>
+      <c r="C19" s="27"/>
+    </row>
+    <row r="20" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A20" s="45"/>
+      <c r="B20" s="37"/>
+      <c r="C20" s="27"/>
+    </row>
+    <row r="21" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A21" s="45"/>
+      <c r="B21" s="37"/>
+      <c r="C21" s="27"/>
+    </row>
+    <row r="22" spans="1:3" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A22" s="42" t="s">
+        <v>28</v>
+      </c>
+      <c r="B22" s="35"/>
+    </row>
+    <row r="23" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A23" s="46" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" s="36" t="s">
+        <v>24</v>
+      </c>
+      <c r="C23" s="44" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A24" s="27"/>
+      <c r="B24" s="37"/>
+      <c r="C24" s="27"/>
+    </row>
+    <row r="25" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A25" s="27"/>
+      <c r="B25" s="37"/>
+      <c r="C25" s="27"/>
+    </row>
+    <row r="26" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A26" s="27"/>
+      <c r="B26" s="37"/>
+      <c r="C26" s="27"/>
+    </row>
+    <row r="27" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A27" s="27"/>
+      <c r="B27" s="37"/>
+      <c r="C27" s="27"/>
+    </row>
+    <row r="28" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A28" s="27"/>
+      <c r="B28" s="37"/>
+      <c r="C28" s="27"/>
+    </row>
+    <row r="29" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A29" s="27"/>
+      <c r="B29" s="37"/>
+      <c r="C29" s="27"/>
+    </row>
+    <row r="30" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A30" s="27"/>
+      <c r="B30" s="37"/>
+      <c r="C30" s="27"/>
+    </row>
+    <row r="31" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A31" s="27"/>
+      <c r="B31" s="37"/>
+      <c r="C31" s="27"/>
+    </row>
+    <row r="32" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A32" s="27"/>
+      <c r="B32" s="37"/>
+      <c r="C32" s="27"/>
+    </row>
+    <row r="33" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A33" s="27"/>
+      <c r="B33" s="37"/>
+      <c r="C33" s="27"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C33"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.85546875" style="33" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="64" style="33" customWidth="1"/>
+    <col min="3" max="3" width="27.42578125" style="33" customWidth="1"/>
+    <col min="4" max="16384" width="9.140625" style="33"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A1" s="42" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="35"/>
+    </row>
+    <row r="2" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="43" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" s="36" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" s="44" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A3" s="45">
+        <v>1</v>
+      </c>
+      <c r="B3" s="37"/>
+      <c r="C3" s="27"/>
+    </row>
+    <row r="4" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A4" s="45">
+        <v>2</v>
+      </c>
+      <c r="B4" s="37"/>
+      <c r="C4" s="27"/>
+    </row>
+    <row r="5" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A5" s="45">
+        <v>3</v>
+      </c>
+      <c r="B5" s="37"/>
+      <c r="C5" s="27"/>
+    </row>
+    <row r="6" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A6" s="45">
+        <v>4</v>
+      </c>
+      <c r="B6" s="37"/>
+      <c r="C6" s="27"/>
+    </row>
+    <row r="7" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A7" s="45">
+        <v>5</v>
+      </c>
+      <c r="B7" s="37"/>
+      <c r="C7" s="27"/>
+    </row>
+    <row r="8" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A8" s="45">
+        <v>6</v>
+      </c>
+      <c r="B8" s="37"/>
+      <c r="C8" s="27"/>
+    </row>
+    <row r="9" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A9" s="45">
+        <v>7</v>
+      </c>
+      <c r="B9" s="38"/>
+      <c r="C9" s="27"/>
+    </row>
+    <row r="10" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A10" s="45">
+        <v>8</v>
+      </c>
+      <c r="B10" s="37"/>
+      <c r="C10" s="27"/>
+    </row>
+    <row r="11" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A11" s="45">
+        <v>9</v>
+      </c>
+      <c r="B11" s="37"/>
+      <c r="C11" s="27"/>
+    </row>
+    <row r="12" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A12" s="45">
+        <v>10</v>
+      </c>
+      <c r="B12" s="37"/>
+      <c r="C12" s="27"/>
+    </row>
+    <row r="13" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A13" s="45">
+        <v>11</v>
+      </c>
+      <c r="B13" s="37"/>
+      <c r="C13" s="27"/>
+    </row>
+    <row r="14" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A14" s="45">
+        <v>12</v>
+      </c>
+      <c r="B14" s="37"/>
+      <c r="C14" s="27"/>
+    </row>
+    <row r="15" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A15" s="45">
+        <v>13</v>
+      </c>
+      <c r="B15" s="37"/>
+      <c r="C15" s="27"/>
+    </row>
+    <row r="16" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A16" s="45">
+        <v>14</v>
+      </c>
+      <c r="B16" s="37"/>
+      <c r="C16" s="27"/>
+    </row>
+    <row r="17" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A17" s="45">
+        <v>15</v>
+      </c>
+      <c r="B17" s="37"/>
+      <c r="C17" s="27"/>
+    </row>
+    <row r="18" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A18" s="45"/>
+      <c r="B18" s="37"/>
+      <c r="C18" s="27"/>
+    </row>
+    <row r="19" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A19" s="45"/>
+      <c r="B19" s="37"/>
+      <c r="C19" s="27"/>
+    </row>
+    <row r="20" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A20" s="45"/>
+      <c r="B20" s="37"/>
+      <c r="C20" s="27"/>
+    </row>
+    <row r="21" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A21" s="45"/>
+      <c r="B21" s="37"/>
+      <c r="C21" s="27"/>
+    </row>
+    <row r="22" spans="1:3" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A22" s="42" t="s">
+        <v>28</v>
+      </c>
+      <c r="B22" s="35"/>
+    </row>
+    <row r="23" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A23" s="46" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" s="36" t="s">
+        <v>24</v>
+      </c>
+      <c r="C23" s="44" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A24" s="27"/>
+      <c r="B24" s="37"/>
+      <c r="C24" s="27"/>
+    </row>
+    <row r="25" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A25" s="27"/>
+      <c r="B25" s="37"/>
+      <c r="C25" s="27"/>
+    </row>
+    <row r="26" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A26" s="27"/>
+      <c r="B26" s="37"/>
+      <c r="C26" s="27"/>
+    </row>
+    <row r="27" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A27" s="27"/>
+      <c r="B27" s="37"/>
+      <c r="C27" s="27"/>
+    </row>
+    <row r="28" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A28" s="27"/>
+      <c r="B28" s="37"/>
+      <c r="C28" s="27"/>
+    </row>
+    <row r="29" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A29" s="27"/>
+      <c r="B29" s="37"/>
+      <c r="C29" s="27"/>
+    </row>
+    <row r="30" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A30" s="27"/>
+      <c r="B30" s="37"/>
+      <c r="C30" s="27"/>
+    </row>
+    <row r="31" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A31" s="27"/>
+      <c r="B31" s="37"/>
+      <c r="C31" s="27"/>
+    </row>
+    <row r="32" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A32" s="27"/>
+      <c r="B32" s="37"/>
+      <c r="C32" s="27"/>
+    </row>
+    <row r="33" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A33" s="27"/>
+      <c r="B33" s="37"/>
+      <c r="C33" s="27"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -2388,7 +4132,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
@@ -2650,8 +4394,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView topLeftCell="A17" workbookViewId="0">
+      <selection sqref="A1:C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2665,13 +4409,13 @@
       <c r="A1" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="38"/>
+      <c r="B1" s="35"/>
     </row>
     <row r="2" spans="1:3" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A2" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="39" t="s">
+      <c r="B2" s="36" t="s">
         <v>24</v>
       </c>
       <c r="C2" s="15" t="s">
@@ -2682,7 +4426,7 @@
       <c r="A3" s="16">
         <v>1</v>
       </c>
-      <c r="B3" s="40" t="s">
+      <c r="B3" s="37" t="s">
         <v>117</v>
       </c>
       <c r="C3" s="17"/>
@@ -2691,7 +4435,7 @@
       <c r="A4" s="16">
         <v>2</v>
       </c>
-      <c r="B4" s="40" t="s">
+      <c r="B4" s="37" t="s">
         <v>118</v>
       </c>
       <c r="C4" s="17"/>
@@ -2700,7 +4444,7 @@
       <c r="A5" s="16">
         <v>3</v>
       </c>
-      <c r="B5" s="40" t="s">
+      <c r="B5" s="37" t="s">
         <v>119</v>
       </c>
       <c r="C5" s="17"/>
@@ -2709,117 +4453,117 @@
       <c r="A6" s="16">
         <v>4</v>
       </c>
-      <c r="B6" s="40"/>
+      <c r="B6" s="37"/>
       <c r="C6" s="17"/>
     </row>
     <row r="7" spans="1:3" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A7" s="16">
         <v>5</v>
       </c>
-      <c r="B7" s="40"/>
+      <c r="B7" s="37"/>
       <c r="C7" s="17"/>
     </row>
     <row r="8" spans="1:3" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A8" s="16">
         <v>6</v>
       </c>
-      <c r="B8" s="40"/>
+      <c r="B8" s="37"/>
       <c r="C8" s="17"/>
     </row>
     <row r="9" spans="1:3" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A9" s="16">
         <v>7</v>
       </c>
-      <c r="B9" s="41"/>
+      <c r="B9" s="38"/>
       <c r="C9" s="17"/>
     </row>
     <row r="10" spans="1:3" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A10" s="16">
         <v>8</v>
       </c>
-      <c r="B10" s="40"/>
+      <c r="B10" s="37"/>
       <c r="C10" s="17"/>
     </row>
     <row r="11" spans="1:3" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A11" s="16">
         <v>9</v>
       </c>
-      <c r="B11" s="40"/>
+      <c r="B11" s="37"/>
       <c r="C11" s="17"/>
     </row>
     <row r="12" spans="1:3" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A12" s="16">
         <v>10</v>
       </c>
-      <c r="B12" s="40"/>
+      <c r="B12" s="37"/>
       <c r="C12" s="17"/>
     </row>
     <row r="13" spans="1:3" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A13" s="16">
         <v>11</v>
       </c>
-      <c r="B13" s="40"/>
+      <c r="B13" s="37"/>
       <c r="C13" s="17"/>
     </row>
     <row r="14" spans="1:3" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A14" s="16">
         <v>12</v>
       </c>
-      <c r="B14" s="40"/>
+      <c r="B14" s="37"/>
       <c r="C14" s="17"/>
     </row>
     <row r="15" spans="1:3" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A15" s="16">
         <v>13</v>
       </c>
-      <c r="B15" s="40"/>
+      <c r="B15" s="37"/>
       <c r="C15" s="17"/>
     </row>
     <row r="16" spans="1:3" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A16" s="16">
         <v>14</v>
       </c>
-      <c r="B16" s="40"/>
+      <c r="B16" s="37"/>
       <c r="C16" s="17"/>
     </row>
     <row r="17" spans="1:3" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A17" s="16">
         <v>15</v>
       </c>
-      <c r="B17" s="40"/>
+      <c r="B17" s="37"/>
       <c r="C17" s="17"/>
     </row>
     <row r="18" spans="1:3" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A18" s="16"/>
-      <c r="B18" s="40"/>
+      <c r="B18" s="37"/>
       <c r="C18" s="17"/>
     </row>
     <row r="19" spans="1:3" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A19" s="16"/>
-      <c r="B19" s="40"/>
+      <c r="B19" s="37"/>
       <c r="C19" s="17"/>
     </row>
     <row r="20" spans="1:3" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A20" s="16"/>
-      <c r="B20" s="40"/>
+      <c r="B20" s="37"/>
       <c r="C20" s="17"/>
     </row>
     <row r="21" spans="1:3" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A21" s="16"/>
-      <c r="B21" s="40"/>
+      <c r="B21" s="37"/>
       <c r="C21" s="17"/>
     </row>
     <row r="22" spans="1:3" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A22" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="B22" s="38"/>
+      <c r="B22" s="35"/>
     </row>
     <row r="23" spans="1:3" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A23" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="B23" s="39" t="s">
+      <c r="B23" s="36" t="s">
         <v>24</v>
       </c>
       <c r="C23" s="15" t="s">
@@ -2828,55 +4572,352 @@
     </row>
     <row r="24" spans="1:3" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A24" s="17"/>
-      <c r="B24" s="40"/>
+      <c r="B24" s="37"/>
       <c r="C24" s="17"/>
     </row>
     <row r="25" spans="1:3" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A25" s="17"/>
-      <c r="B25" s="40"/>
+      <c r="B25" s="37"/>
       <c r="C25" s="17"/>
     </row>
     <row r="26" spans="1:3" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A26" s="17"/>
-      <c r="B26" s="40"/>
+      <c r="B26" s="37"/>
       <c r="C26" s="17"/>
     </row>
     <row r="27" spans="1:3" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A27" s="17"/>
-      <c r="B27" s="40"/>
+      <c r="B27" s="37"/>
       <c r="C27" s="17"/>
     </row>
     <row r="28" spans="1:3" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A28" s="17"/>
-      <c r="B28" s="40"/>
+      <c r="B28" s="37"/>
       <c r="C28" s="17"/>
     </row>
     <row r="29" spans="1:3" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A29" s="17"/>
-      <c r="B29" s="40"/>
+      <c r="B29" s="37"/>
       <c r="C29" s="17"/>
     </row>
     <row r="30" spans="1:3" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A30" s="17"/>
-      <c r="B30" s="40"/>
+      <c r="B30" s="37"/>
       <c r="C30" s="17"/>
     </row>
     <row r="31" spans="1:3" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A31" s="17"/>
-      <c r="B31" s="40"/>
+      <c r="B31" s="37"/>
       <c r="C31" s="17"/>
     </row>
     <row r="32" spans="1:3" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A32" s="17"/>
-      <c r="B32" s="40"/>
+      <c r="B32" s="37"/>
       <c r="C32" s="17"/>
     </row>
     <row r="33" spans="1:3" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A33" s="17"/>
-      <c r="B33" s="40"/>
+      <c r="B33" s="37"/>
       <c r="C33" s="17"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C37"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.85546875" style="33" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="63" style="33" customWidth="1"/>
+    <col min="3" max="3" width="36.85546875" style="33" customWidth="1"/>
+    <col min="4" max="16384" width="9.140625" style="33"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A1" s="42" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="35"/>
+    </row>
+    <row r="2" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="43" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" s="36" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" s="44" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A3" s="45">
+        <v>1</v>
+      </c>
+      <c r="B3" s="37" t="s">
+        <v>125</v>
+      </c>
+      <c r="C3" s="27"/>
+    </row>
+    <row r="4" spans="1:3" ht="39" x14ac:dyDescent="0.25">
+      <c r="A4" s="45">
+        <v>2</v>
+      </c>
+      <c r="B4" s="37" t="s">
+        <v>126</v>
+      </c>
+      <c r="C4" s="27"/>
+    </row>
+    <row r="5" spans="1:3" ht="78" x14ac:dyDescent="0.25">
+      <c r="A5" s="45">
+        <v>3</v>
+      </c>
+      <c r="B5" s="37" t="s">
+        <v>127</v>
+      </c>
+      <c r="C5" s="27"/>
+    </row>
+    <row r="6" spans="1:3" ht="39" x14ac:dyDescent="0.25">
+      <c r="A6" s="45">
+        <v>4</v>
+      </c>
+      <c r="B6" s="37" t="s">
+        <v>128</v>
+      </c>
+      <c r="C6" s="27"/>
+    </row>
+    <row r="7" spans="1:3" ht="39" x14ac:dyDescent="0.25">
+      <c r="A7" s="45">
+        <v>5</v>
+      </c>
+      <c r="B7" s="37" t="s">
+        <v>129</v>
+      </c>
+      <c r="C7" s="27"/>
+    </row>
+    <row r="8" spans="1:3" ht="58.5" x14ac:dyDescent="0.25">
+      <c r="A8" s="45">
+        <v>6</v>
+      </c>
+      <c r="B8" s="37" t="s">
+        <v>130</v>
+      </c>
+      <c r="C8" s="27"/>
+    </row>
+    <row r="9" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A9" s="45">
+        <v>7</v>
+      </c>
+      <c r="B9" s="38" t="s">
+        <v>131</v>
+      </c>
+      <c r="C9" s="27"/>
+    </row>
+    <row r="10" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A10" s="45">
+        <v>8</v>
+      </c>
+      <c r="B10" s="37" t="s">
+        <v>132</v>
+      </c>
+      <c r="C10" s="27"/>
+    </row>
+    <row r="11" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A11" s="45">
+        <v>9</v>
+      </c>
+      <c r="B11" s="37" t="s">
+        <v>133</v>
+      </c>
+      <c r="C11" s="27"/>
+    </row>
+    <row r="12" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A12" s="45">
+        <v>10</v>
+      </c>
+      <c r="B12" s="37" t="s">
+        <v>134</v>
+      </c>
+      <c r="C12" s="27"/>
+    </row>
+    <row r="13" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A13" s="45">
+        <v>11</v>
+      </c>
+      <c r="B13" s="37" t="s">
+        <v>135</v>
+      </c>
+      <c r="C13" s="27"/>
+    </row>
+    <row r="14" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A14" s="45">
+        <v>12</v>
+      </c>
+      <c r="B14" s="37" t="s">
+        <v>136</v>
+      </c>
+      <c r="C14" s="27"/>
+    </row>
+    <row r="15" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A15" s="45">
+        <v>13</v>
+      </c>
+      <c r="B15" s="37" t="s">
+        <v>137</v>
+      </c>
+      <c r="C15" s="27"/>
+    </row>
+    <row r="16" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A16" s="45">
+        <v>14</v>
+      </c>
+      <c r="B16" s="37" t="s">
+        <v>138</v>
+      </c>
+      <c r="C16" s="27"/>
+    </row>
+    <row r="17" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A17" s="45">
+        <v>15</v>
+      </c>
+      <c r="B17" s="37" t="s">
+        <v>139</v>
+      </c>
+      <c r="C17" s="27"/>
+    </row>
+    <row r="18" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A18" s="45"/>
+      <c r="B18" s="48" t="s">
+        <v>140</v>
+      </c>
+      <c r="C18" s="27"/>
+    </row>
+    <row r="19" spans="1:3" ht="39" x14ac:dyDescent="0.25">
+      <c r="A19" s="45"/>
+      <c r="B19" s="47" t="s">
+        <v>141</v>
+      </c>
+      <c r="C19" s="27"/>
+    </row>
+    <row r="20" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A20" s="45"/>
+      <c r="B20" s="37" t="s">
+        <v>147</v>
+      </c>
+      <c r="C20" s="27"/>
+    </row>
+    <row r="21" spans="1:3" ht="78" x14ac:dyDescent="0.25">
+      <c r="A21" s="45"/>
+      <c r="B21" s="37" t="s">
+        <v>142</v>
+      </c>
+      <c r="C21" s="27"/>
+    </row>
+    <row r="22" spans="1:3" ht="39" x14ac:dyDescent="0.25">
+      <c r="A22" s="45"/>
+      <c r="B22" s="37" t="s">
+        <v>143</v>
+      </c>
+      <c r="C22" s="27"/>
+    </row>
+    <row r="23" spans="1:3" ht="39" x14ac:dyDescent="0.25">
+      <c r="A23" s="45"/>
+      <c r="B23" s="37" t="s">
+        <v>145</v>
+      </c>
+      <c r="C23" s="27"/>
+    </row>
+    <row r="24" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A24" s="45"/>
+      <c r="B24" s="37" t="s">
+        <v>146</v>
+      </c>
+      <c r="C24" s="27"/>
+    </row>
+    <row r="25" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A25" s="45"/>
+      <c r="B25" s="37"/>
+      <c r="C25" s="27"/>
+    </row>
+    <row r="26" spans="1:3" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A26" s="42" t="s">
+        <v>28</v>
+      </c>
+      <c r="B26" s="35"/>
+    </row>
+    <row r="27" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A27" s="46" t="s">
+        <v>23</v>
+      </c>
+      <c r="B27" s="36" t="s">
+        <v>24</v>
+      </c>
+      <c r="C27" s="44" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A28" s="27"/>
+      <c r="B28" s="37" t="s">
+        <v>144</v>
+      </c>
+      <c r="C28" s="27"/>
+    </row>
+    <row r="29" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A29" s="27"/>
+      <c r="B29" s="37"/>
+      <c r="C29" s="27"/>
+    </row>
+    <row r="30" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A30" s="27"/>
+      <c r="B30" s="37"/>
+      <c r="C30" s="27"/>
+    </row>
+    <row r="31" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A31" s="27"/>
+      <c r="B31" s="37"/>
+      <c r="C31" s="27"/>
+    </row>
+    <row r="32" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A32" s="27"/>
+      <c r="B32" s="37"/>
+      <c r="C32" s="27"/>
+    </row>
+    <row r="33" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A33" s="27"/>
+      <c r="B33" s="37"/>
+      <c r="C33" s="27"/>
+    </row>
+    <row r="34" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A34" s="27"/>
+      <c r="B34" s="37"/>
+      <c r="C34" s="27"/>
+    </row>
+    <row r="35" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A35" s="27"/>
+      <c r="B35" s="37"/>
+      <c r="C35" s="27"/>
+    </row>
+    <row r="36" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A36" s="27"/>
+      <c r="B36" s="37"/>
+      <c r="C36" s="27"/>
+    </row>
+    <row r="37" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A37" s="27"/>
+      <c r="B37" s="37"/>
+      <c r="C37" s="27"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Source/Document/Meeting minutes/Meeting minute.xlsx
+++ b/Source/Document/Meeting minutes/Meeting minute.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="8"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="153">
   <si>
     <t>MEETING MINUTES</t>
   </si>
@@ -497,6 +497,21 @@
   </si>
   <si>
     <t>Tập ký hiệu sai phải đổi sang uml &gt; 5.0</t>
+  </si>
+  <si>
+    <t>Week 10</t>
+  </si>
+  <si>
+    <t>Week 11</t>
+  </si>
+  <si>
+    <t>Week 12</t>
+  </si>
+  <si>
+    <t>Week 13</t>
+  </si>
+  <si>
+    <t>Week 14</t>
   </si>
 </sst>
 </file>
@@ -613,7 +628,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -662,6 +677,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -676,9 +700,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -804,6 +825,9 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1110,10 +1134,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T12"/>
+  <dimension ref="A1:AD12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1125,179 +1149,249 @@
     <col min="5" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="41" t="s">
+    <row r="1" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
-      <c r="F1" s="41"/>
-      <c r="G1" s="41"/>
-      <c r="H1" s="41"/>
-      <c r="I1" s="41"/>
-      <c r="J1" s="41"/>
-      <c r="K1" s="41"/>
-      <c r="L1" s="41"/>
-      <c r="M1" s="41"/>
-      <c r="N1" s="41"/>
-      <c r="O1" s="4"/>
-      <c r="P1" s="4"/>
-      <c r="Q1" s="4"/>
-      <c r="R1" s="4"/>
-      <c r="S1" s="4"/>
-      <c r="T1" s="4"/>
-    </row>
-    <row r="2" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="41"/>
-      <c r="B2" s="41"/>
-      <c r="C2" s="41"/>
-      <c r="D2" s="41"/>
-      <c r="E2" s="41"/>
-      <c r="F2" s="41"/>
-      <c r="G2" s="41"/>
-      <c r="H2" s="41"/>
-      <c r="I2" s="41"/>
-      <c r="J2" s="41"/>
-      <c r="K2" s="41"/>
-      <c r="L2" s="41"/>
-      <c r="M2" s="41"/>
-      <c r="N2" s="41"/>
-      <c r="O2" s="4"/>
-      <c r="P2" s="4"/>
-      <c r="Q2" s="4"/>
-      <c r="R2" s="4"/>
-      <c r="S2" s="4"/>
-      <c r="T2" s="4"/>
-    </row>
-    <row r="3" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="41"/>
-      <c r="B3" s="41"/>
-      <c r="C3" s="41"/>
-      <c r="D3" s="41"/>
-      <c r="E3" s="41"/>
-      <c r="F3" s="41"/>
-      <c r="G3" s="41"/>
-      <c r="H3" s="41"/>
-      <c r="I3" s="41"/>
-      <c r="J3" s="41"/>
-      <c r="K3" s="41"/>
-      <c r="L3" s="41"/>
-      <c r="M3" s="41"/>
-      <c r="N3" s="41"/>
-      <c r="O3" s="4"/>
-      <c r="P3" s="4"/>
-      <c r="Q3" s="4"/>
-      <c r="R3" s="4"/>
-      <c r="S3" s="4"/>
-      <c r="T3" s="4"/>
-    </row>
-    <row r="4" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="41"/>
-      <c r="B4" s="41"/>
-      <c r="C4" s="41"/>
-      <c r="D4" s="41"/>
-      <c r="E4" s="41"/>
-      <c r="F4" s="41"/>
-      <c r="G4" s="41"/>
-      <c r="H4" s="41"/>
-      <c r="I4" s="41"/>
-      <c r="J4" s="41"/>
-      <c r="K4" s="41"/>
-      <c r="L4" s="41"/>
-      <c r="M4" s="41"/>
-      <c r="N4" s="41"/>
-      <c r="O4" s="4"/>
-      <c r="P4" s="4"/>
-      <c r="Q4" s="4"/>
-      <c r="R4" s="4"/>
-      <c r="S4" s="4"/>
-      <c r="T4" s="4"/>
-    </row>
-    <row r="5" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="40"/>
+      <c r="G1" s="40"/>
+      <c r="H1" s="40"/>
+      <c r="I1" s="40"/>
+      <c r="J1" s="40"/>
+      <c r="K1" s="40"/>
+      <c r="L1" s="40"/>
+      <c r="M1" s="40"/>
+      <c r="N1" s="40"/>
+      <c r="O1" s="40"/>
+      <c r="P1" s="40"/>
+      <c r="Q1" s="40"/>
+      <c r="R1" s="40"/>
+      <c r="S1" s="40"/>
+      <c r="T1" s="40"/>
+      <c r="U1" s="40"/>
+      <c r="V1" s="40"/>
+      <c r="W1" s="40"/>
+      <c r="X1" s="40"/>
+      <c r="Y1" s="40"/>
+      <c r="Z1" s="40"/>
+      <c r="AA1" s="40"/>
+      <c r="AB1" s="40"/>
+      <c r="AC1" s="40"/>
+      <c r="AD1" s="40"/>
+    </row>
+    <row r="2" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="40"/>
+      <c r="B2" s="40"/>
+      <c r="C2" s="40"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="40"/>
+      <c r="G2" s="40"/>
+      <c r="H2" s="40"/>
+      <c r="I2" s="40"/>
+      <c r="J2" s="40"/>
+      <c r="K2" s="40"/>
+      <c r="L2" s="40"/>
+      <c r="M2" s="40"/>
+      <c r="N2" s="40"/>
+      <c r="O2" s="40"/>
+      <c r="P2" s="40"/>
+      <c r="Q2" s="40"/>
+      <c r="R2" s="40"/>
+      <c r="S2" s="40"/>
+      <c r="T2" s="40"/>
+      <c r="U2" s="40"/>
+      <c r="V2" s="40"/>
+      <c r="W2" s="40"/>
+      <c r="X2" s="40"/>
+      <c r="Y2" s="40"/>
+      <c r="Z2" s="40"/>
+      <c r="AA2" s="40"/>
+      <c r="AB2" s="40"/>
+      <c r="AC2" s="40"/>
+      <c r="AD2" s="40"/>
+    </row>
+    <row r="3" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="40"/>
+      <c r="B3" s="40"/>
+      <c r="C3" s="40"/>
+      <c r="D3" s="40"/>
+      <c r="E3" s="40"/>
+      <c r="F3" s="40"/>
+      <c r="G3" s="40"/>
+      <c r="H3" s="40"/>
+      <c r="I3" s="40"/>
+      <c r="J3" s="40"/>
+      <c r="K3" s="40"/>
+      <c r="L3" s="40"/>
+      <c r="M3" s="40"/>
+      <c r="N3" s="40"/>
+      <c r="O3" s="40"/>
+      <c r="P3" s="40"/>
+      <c r="Q3" s="40"/>
+      <c r="R3" s="40"/>
+      <c r="S3" s="40"/>
+      <c r="T3" s="40"/>
+      <c r="U3" s="40"/>
+      <c r="V3" s="40"/>
+      <c r="W3" s="40"/>
+      <c r="X3" s="40"/>
+      <c r="Y3" s="40"/>
+      <c r="Z3" s="40"/>
+      <c r="AA3" s="40"/>
+      <c r="AB3" s="40"/>
+      <c r="AC3" s="40"/>
+      <c r="AD3" s="40"/>
+    </row>
+    <row r="4" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="48"/>
+      <c r="B4" s="48"/>
+      <c r="C4" s="48"/>
+      <c r="D4" s="48"/>
+      <c r="E4" s="48"/>
+      <c r="F4" s="48"/>
+      <c r="G4" s="48"/>
+      <c r="H4" s="48"/>
+      <c r="I4" s="48"/>
+      <c r="J4" s="48"/>
+      <c r="K4" s="48"/>
+      <c r="L4" s="48"/>
+      <c r="M4" s="48"/>
+      <c r="N4" s="48"/>
+      <c r="O4" s="48"/>
+      <c r="P4" s="48"/>
+      <c r="Q4" s="48"/>
+      <c r="R4" s="48"/>
+      <c r="S4" s="48"/>
+      <c r="T4" s="48"/>
+      <c r="U4" s="48"/>
+      <c r="V4" s="48"/>
+      <c r="W4" s="48"/>
+      <c r="X4" s="48"/>
+      <c r="Y4" s="48"/>
+      <c r="Z4" s="48"/>
+      <c r="AA4" s="48"/>
+      <c r="AB4" s="48"/>
+      <c r="AC4" s="48"/>
+      <c r="AD4" s="48"/>
+    </row>
+    <row r="5" spans="1:30" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="5"/>
-      <c r="C5" s="39" t="s">
+      <c r="B5" s="4"/>
+      <c r="C5" s="38" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="40"/>
-      <c r="E5" s="39" t="s">
+      <c r="D5" s="39"/>
+      <c r="E5" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="F5" s="40"/>
-      <c r="G5" s="39" t="s">
+      <c r="F5" s="39"/>
+      <c r="G5" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="H5" s="40"/>
-      <c r="I5" s="39" t="s">
+      <c r="H5" s="39"/>
+      <c r="I5" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="J5" s="40"/>
-      <c r="K5" s="39" t="s">
+      <c r="J5" s="39"/>
+      <c r="K5" s="38" t="s">
         <v>15</v>
       </c>
-      <c r="L5" s="40"/>
-      <c r="M5" s="39" t="s">
+      <c r="L5" s="39"/>
+      <c r="M5" s="38" t="s">
         <v>16</v>
       </c>
-      <c r="N5" s="40"/>
-      <c r="O5" s="39" t="s">
+      <c r="N5" s="39"/>
+      <c r="O5" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="P5" s="40"/>
-      <c r="Q5" s="39" t="s">
+      <c r="P5" s="39"/>
+      <c r="Q5" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="R5" s="40"/>
-      <c r="S5" s="39" t="s">
+      <c r="R5" s="39"/>
+      <c r="S5" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="T5" s="40"/>
-    </row>
-    <row r="6" spans="1:20" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
+      <c r="T5" s="39"/>
+      <c r="U5" s="38" t="s">
+        <v>148</v>
+      </c>
+      <c r="V5" s="39"/>
+      <c r="W5" s="38" t="s">
+        <v>149</v>
+      </c>
+      <c r="X5" s="39"/>
+      <c r="Y5" s="38" t="s">
+        <v>150</v>
+      </c>
+      <c r="Z5" s="39"/>
+      <c r="AA5" s="38" t="s">
+        <v>151</v>
+      </c>
+      <c r="AB5" s="39"/>
+      <c r="AC5" s="38" t="s">
+        <v>152</v>
+      </c>
+      <c r="AD5" s="39"/>
+    </row>
+    <row r="6" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="5"/>
-      <c r="C6" s="7">
+      <c r="B6" s="4"/>
+      <c r="C6" s="6">
         <v>42313</v>
       </c>
-      <c r="D6" s="8" t="s">
+      <c r="D6" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="E6" s="8" t="s">
+      <c r="E6" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="F6" s="8" t="s">
+      <c r="F6" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="G6" s="8" t="s">
+      <c r="G6" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="H6" s="8" t="s">
+      <c r="H6" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="I6" s="7">
+      <c r="I6" s="6">
         <v>42010</v>
       </c>
-      <c r="J6" s="7">
+      <c r="J6" s="6">
         <v>42069</v>
       </c>
-      <c r="K6" s="5"/>
-      <c r="L6" s="5"/>
-      <c r="M6" s="5"/>
-      <c r="N6" s="5"/>
-      <c r="O6" s="9"/>
-      <c r="P6" s="9"/>
-      <c r="Q6" s="9"/>
-      <c r="R6" s="9"/>
-      <c r="S6" s="9"/>
-      <c r="T6" s="9"/>
-    </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
+      <c r="N6" s="4"/>
+      <c r="O6" s="8"/>
+      <c r="P6" s="8"/>
+      <c r="Q6" s="8"/>
+      <c r="R6" s="8"/>
+      <c r="S6" s="8"/>
+      <c r="T6" s="8"/>
+      <c r="U6" s="8"/>
+      <c r="V6" s="8"/>
+      <c r="W6" s="8"/>
+      <c r="X6" s="8"/>
+      <c r="Y6" s="8"/>
+      <c r="Z6" s="8"/>
+      <c r="AA6" s="8"/>
+      <c r="AB6" s="8"/>
+      <c r="AC6" s="8"/>
+      <c r="AD6" s="8"/>
+    </row>
+    <row r="7" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>3</v>
       </c>
@@ -1324,8 +1418,18 @@
       <c r="R7" s="1"/>
       <c r="S7" s="1"/>
       <c r="T7" s="1"/>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U7" s="1"/>
+      <c r="V7" s="1"/>
+      <c r="W7" s="1"/>
+      <c r="X7" s="1"/>
+      <c r="Y7" s="1"/>
+      <c r="Z7" s="1"/>
+      <c r="AA7" s="1"/>
+      <c r="AB7" s="1"/>
+      <c r="AC7" s="1"/>
+      <c r="AD7" s="1"/>
+    </row>
+    <row r="8" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>4</v>
       </c>
@@ -1364,8 +1468,18 @@
       <c r="R8" s="1"/>
       <c r="S8" s="1"/>
       <c r="T8" s="1"/>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U8" s="1"/>
+      <c r="V8" s="1"/>
+      <c r="W8" s="1"/>
+      <c r="X8" s="1"/>
+      <c r="Y8" s="1"/>
+      <c r="Z8" s="1"/>
+      <c r="AA8" s="1"/>
+      <c r="AB8" s="1"/>
+      <c r="AC8" s="1"/>
+      <c r="AD8" s="1"/>
+    </row>
+    <row r="9" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>5</v>
       </c>
@@ -1404,8 +1518,18 @@
       <c r="R9" s="1"/>
       <c r="S9" s="1"/>
       <c r="T9" s="1"/>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U9" s="1"/>
+      <c r="V9" s="1"/>
+      <c r="W9" s="1"/>
+      <c r="X9" s="1"/>
+      <c r="Y9" s="1"/>
+      <c r="Z9" s="1"/>
+      <c r="AA9" s="1"/>
+      <c r="AB9" s="1"/>
+      <c r="AC9" s="1"/>
+      <c r="AD9" s="1"/>
+    </row>
+    <row r="10" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
       <c r="B10" s="1" t="s">
         <v>8</v>
@@ -1442,8 +1566,18 @@
       <c r="R10" s="1"/>
       <c r="S10" s="1"/>
       <c r="T10" s="1"/>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U10" s="1"/>
+      <c r="V10" s="1"/>
+      <c r="W10" s="1"/>
+      <c r="X10" s="1"/>
+      <c r="Y10" s="1"/>
+      <c r="Z10" s="1"/>
+      <c r="AA10" s="1"/>
+      <c r="AB10" s="1"/>
+      <c r="AC10" s="1"/>
+      <c r="AD10" s="1"/>
+    </row>
+    <row r="11" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
       <c r="B11" s="1" t="s">
         <v>9</v>
@@ -1480,8 +1614,18 @@
       <c r="R11" s="1"/>
       <c r="S11" s="1"/>
       <c r="T11" s="1"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U11" s="1"/>
+      <c r="V11" s="1"/>
+      <c r="W11" s="1"/>
+      <c r="X11" s="1"/>
+      <c r="Y11" s="1"/>
+      <c r="Z11" s="1"/>
+      <c r="AA11" s="1"/>
+      <c r="AB11" s="1"/>
+      <c r="AC11" s="1"/>
+      <c r="AD11" s="1"/>
+    </row>
+    <row r="12" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="B12" s="1" t="s">
         <v>10</v>
@@ -1518,19 +1662,34 @@
       <c r="R12" s="1"/>
       <c r="S12" s="1"/>
       <c r="T12" s="1"/>
+      <c r="U12" s="1"/>
+      <c r="V12" s="1"/>
+      <c r="W12" s="1"/>
+      <c r="X12" s="1"/>
+      <c r="Y12" s="1"/>
+      <c r="Z12" s="1"/>
+      <c r="AA12" s="1"/>
+      <c r="AB12" s="1"/>
+      <c r="AC12" s="1"/>
+      <c r="AD12" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="15">
+    <mergeCell ref="U5:V5"/>
+    <mergeCell ref="W5:X5"/>
+    <mergeCell ref="Y5:Z5"/>
+    <mergeCell ref="AA5:AB5"/>
+    <mergeCell ref="AC5:AD5"/>
     <mergeCell ref="O5:P5"/>
     <mergeCell ref="Q5:R5"/>
     <mergeCell ref="S5:T5"/>
-    <mergeCell ref="A1:N4"/>
     <mergeCell ref="C5:D5"/>
     <mergeCell ref="E5:F5"/>
     <mergeCell ref="G5:H5"/>
     <mergeCell ref="I5:J5"/>
     <mergeCell ref="K5:L5"/>
     <mergeCell ref="M5:N5"/>
+    <mergeCell ref="A1:AD4"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C6" location="W1_1!A1" display="11/5/2015"/>
@@ -1557,220 +1716,220 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.85546875" style="33" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="64" style="33" customWidth="1"/>
-    <col min="3" max="3" width="27.42578125" style="33" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="33"/>
+    <col min="1" max="1" width="18.85546875" style="32" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="64" style="32" customWidth="1"/>
+    <col min="3" max="3" width="27.42578125" style="32" customWidth="1"/>
+    <col min="4" max="16384" width="9.140625" style="32"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="41" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="35"/>
+      <c r="B1" s="34"/>
     </row>
     <row r="2" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="43" t="s">
+      <c r="A2" s="42" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="36" t="s">
+      <c r="B2" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="44" t="s">
+      <c r="C2" s="43" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A3" s="45">
+      <c r="A3" s="44">
         <v>1</v>
       </c>
-      <c r="B3" s="37"/>
-      <c r="C3" s="27"/>
+      <c r="B3" s="36"/>
+      <c r="C3" s="26"/>
     </row>
     <row r="4" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A4" s="45">
+      <c r="A4" s="44">
         <v>2</v>
       </c>
-      <c r="B4" s="37"/>
-      <c r="C4" s="27"/>
+      <c r="B4" s="36"/>
+      <c r="C4" s="26"/>
     </row>
     <row r="5" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="45">
+      <c r="A5" s="44">
         <v>3</v>
       </c>
-      <c r="B5" s="37"/>
-      <c r="C5" s="27"/>
+      <c r="B5" s="36"/>
+      <c r="C5" s="26"/>
     </row>
     <row r="6" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A6" s="45">
+      <c r="A6" s="44">
         <v>4</v>
       </c>
-      <c r="B6" s="37"/>
-      <c r="C6" s="27"/>
+      <c r="B6" s="36"/>
+      <c r="C6" s="26"/>
     </row>
     <row r="7" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A7" s="45">
+      <c r="A7" s="44">
         <v>5</v>
       </c>
-      <c r="B7" s="37"/>
-      <c r="C7" s="27"/>
+      <c r="B7" s="36"/>
+      <c r="C7" s="26"/>
     </row>
     <row r="8" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A8" s="45">
+      <c r="A8" s="44">
         <v>6</v>
       </c>
-      <c r="B8" s="37"/>
-      <c r="C8" s="27"/>
+      <c r="B8" s="36"/>
+      <c r="C8" s="26"/>
     </row>
     <row r="9" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A9" s="45">
+      <c r="A9" s="44">
         <v>7</v>
       </c>
-      <c r="B9" s="38"/>
-      <c r="C9" s="27"/>
+      <c r="B9" s="37"/>
+      <c r="C9" s="26"/>
     </row>
     <row r="10" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A10" s="45">
+      <c r="A10" s="44">
         <v>8</v>
       </c>
-      <c r="B10" s="37"/>
-      <c r="C10" s="27"/>
+      <c r="B10" s="36"/>
+      <c r="C10" s="26"/>
     </row>
     <row r="11" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A11" s="45">
+      <c r="A11" s="44">
         <v>9</v>
       </c>
-      <c r="B11" s="37"/>
-      <c r="C11" s="27"/>
+      <c r="B11" s="36"/>
+      <c r="C11" s="26"/>
     </row>
     <row r="12" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A12" s="45">
+      <c r="A12" s="44">
         <v>10</v>
       </c>
-      <c r="B12" s="37"/>
-      <c r="C12" s="27"/>
+      <c r="B12" s="36"/>
+      <c r="C12" s="26"/>
     </row>
     <row r="13" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A13" s="45">
+      <c r="A13" s="44">
         <v>11</v>
       </c>
-      <c r="B13" s="37"/>
-      <c r="C13" s="27"/>
+      <c r="B13" s="36"/>
+      <c r="C13" s="26"/>
     </row>
     <row r="14" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A14" s="45">
+      <c r="A14" s="44">
         <v>12</v>
       </c>
-      <c r="B14" s="37"/>
-      <c r="C14" s="27"/>
+      <c r="B14" s="36"/>
+      <c r="C14" s="26"/>
     </row>
     <row r="15" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A15" s="45">
+      <c r="A15" s="44">
         <v>13</v>
       </c>
-      <c r="B15" s="37"/>
-      <c r="C15" s="27"/>
+      <c r="B15" s="36"/>
+      <c r="C15" s="26"/>
     </row>
     <row r="16" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A16" s="45">
+      <c r="A16" s="44">
         <v>14</v>
       </c>
-      <c r="B16" s="37"/>
-      <c r="C16" s="27"/>
+      <c r="B16" s="36"/>
+      <c r="C16" s="26"/>
     </row>
     <row r="17" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A17" s="45">
+      <c r="A17" s="44">
         <v>15</v>
       </c>
-      <c r="B17" s="37"/>
-      <c r="C17" s="27"/>
+      <c r="B17" s="36"/>
+      <c r="C17" s="26"/>
     </row>
     <row r="18" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A18" s="45"/>
-      <c r="B18" s="37"/>
-      <c r="C18" s="27"/>
+      <c r="A18" s="44"/>
+      <c r="B18" s="36"/>
+      <c r="C18" s="26"/>
     </row>
     <row r="19" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A19" s="45"/>
-      <c r="B19" s="37"/>
-      <c r="C19" s="27"/>
+      <c r="A19" s="44"/>
+      <c r="B19" s="36"/>
+      <c r="C19" s="26"/>
     </row>
     <row r="20" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A20" s="45"/>
-      <c r="B20" s="37"/>
-      <c r="C20" s="27"/>
+      <c r="A20" s="44"/>
+      <c r="B20" s="36"/>
+      <c r="C20" s="26"/>
     </row>
     <row r="21" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A21" s="45"/>
-      <c r="B21" s="37"/>
-      <c r="C21" s="27"/>
+      <c r="A21" s="44"/>
+      <c r="B21" s="36"/>
+      <c r="C21" s="26"/>
     </row>
     <row r="22" spans="1:3" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A22" s="42" t="s">
+      <c r="A22" s="41" t="s">
         <v>28</v>
       </c>
-      <c r="B22" s="35"/>
+      <c r="B22" s="34"/>
     </row>
     <row r="23" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A23" s="46" t="s">
+      <c r="A23" s="45" t="s">
         <v>23</v>
       </c>
-      <c r="B23" s="36" t="s">
+      <c r="B23" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="C23" s="44" t="s">
+      <c r="C23" s="43" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A24" s="27"/>
-      <c r="B24" s="37"/>
-      <c r="C24" s="27"/>
+      <c r="A24" s="26"/>
+      <c r="B24" s="36"/>
+      <c r="C24" s="26"/>
     </row>
     <row r="25" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A25" s="27"/>
-      <c r="B25" s="37"/>
-      <c r="C25" s="27"/>
+      <c r="A25" s="26"/>
+      <c r="B25" s="36"/>
+      <c r="C25" s="26"/>
     </row>
     <row r="26" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A26" s="27"/>
-      <c r="B26" s="37"/>
-      <c r="C26" s="27"/>
+      <c r="A26" s="26"/>
+      <c r="B26" s="36"/>
+      <c r="C26" s="26"/>
     </row>
     <row r="27" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A27" s="27"/>
-      <c r="B27" s="37"/>
-      <c r="C27" s="27"/>
+      <c r="A27" s="26"/>
+      <c r="B27" s="36"/>
+      <c r="C27" s="26"/>
     </row>
     <row r="28" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A28" s="27"/>
-      <c r="B28" s="37"/>
-      <c r="C28" s="27"/>
+      <c r="A28" s="26"/>
+      <c r="B28" s="36"/>
+      <c r="C28" s="26"/>
     </row>
     <row r="29" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A29" s="27"/>
-      <c r="B29" s="37"/>
-      <c r="C29" s="27"/>
+      <c r="A29" s="26"/>
+      <c r="B29" s="36"/>
+      <c r="C29" s="26"/>
     </row>
     <row r="30" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A30" s="27"/>
-      <c r="B30" s="37"/>
-      <c r="C30" s="27"/>
+      <c r="A30" s="26"/>
+      <c r="B30" s="36"/>
+      <c r="C30" s="26"/>
     </row>
     <row r="31" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A31" s="27"/>
-      <c r="B31" s="37"/>
-      <c r="C31" s="27"/>
+      <c r="A31" s="26"/>
+      <c r="B31" s="36"/>
+      <c r="C31" s="26"/>
     </row>
     <row r="32" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A32" s="27"/>
-      <c r="B32" s="37"/>
-      <c r="C32" s="27"/>
+      <c r="A32" s="26"/>
+      <c r="B32" s="36"/>
+      <c r="C32" s="26"/>
     </row>
     <row r="33" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A33" s="27"/>
-      <c r="B33" s="37"/>
-      <c r="C33" s="27"/>
+      <c r="A33" s="26"/>
+      <c r="B33" s="36"/>
+      <c r="C33" s="26"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1787,220 +1946,220 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.85546875" style="33" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="64" style="33" customWidth="1"/>
-    <col min="3" max="3" width="27.42578125" style="33" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="33"/>
+    <col min="1" max="1" width="18.85546875" style="32" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="64" style="32" customWidth="1"/>
+    <col min="3" max="3" width="27.42578125" style="32" customWidth="1"/>
+    <col min="4" max="16384" width="9.140625" style="32"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="41" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="35"/>
+      <c r="B1" s="34"/>
     </row>
     <row r="2" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="43" t="s">
+      <c r="A2" s="42" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="36" t="s">
+      <c r="B2" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="44" t="s">
+      <c r="C2" s="43" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A3" s="45">
+      <c r="A3" s="44">
         <v>1</v>
       </c>
-      <c r="B3" s="37"/>
-      <c r="C3" s="27"/>
+      <c r="B3" s="36"/>
+      <c r="C3" s="26"/>
     </row>
     <row r="4" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A4" s="45">
+      <c r="A4" s="44">
         <v>2</v>
       </c>
-      <c r="B4" s="37"/>
-      <c r="C4" s="27"/>
+      <c r="B4" s="36"/>
+      <c r="C4" s="26"/>
     </row>
     <row r="5" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="45">
+      <c r="A5" s="44">
         <v>3</v>
       </c>
-      <c r="B5" s="37"/>
-      <c r="C5" s="27"/>
+      <c r="B5" s="36"/>
+      <c r="C5" s="26"/>
     </row>
     <row r="6" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A6" s="45">
+      <c r="A6" s="44">
         <v>4</v>
       </c>
-      <c r="B6" s="37"/>
-      <c r="C6" s="27"/>
+      <c r="B6" s="36"/>
+      <c r="C6" s="26"/>
     </row>
     <row r="7" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A7" s="45">
+      <c r="A7" s="44">
         <v>5</v>
       </c>
-      <c r="B7" s="37"/>
-      <c r="C7" s="27"/>
+      <c r="B7" s="36"/>
+      <c r="C7" s="26"/>
     </row>
     <row r="8" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A8" s="45">
+      <c r="A8" s="44">
         <v>6</v>
       </c>
-      <c r="B8" s="37"/>
-      <c r="C8" s="27"/>
+      <c r="B8" s="36"/>
+      <c r="C8" s="26"/>
     </row>
     <row r="9" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A9" s="45">
+      <c r="A9" s="44">
         <v>7</v>
       </c>
-      <c r="B9" s="38"/>
-      <c r="C9" s="27"/>
+      <c r="B9" s="37"/>
+      <c r="C9" s="26"/>
     </row>
     <row r="10" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A10" s="45">
+      <c r="A10" s="44">
         <v>8</v>
       </c>
-      <c r="B10" s="37"/>
-      <c r="C10" s="27"/>
+      <c r="B10" s="36"/>
+      <c r="C10" s="26"/>
     </row>
     <row r="11" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A11" s="45">
+      <c r="A11" s="44">
         <v>9</v>
       </c>
-      <c r="B11" s="37"/>
-      <c r="C11" s="27"/>
+      <c r="B11" s="36"/>
+      <c r="C11" s="26"/>
     </row>
     <row r="12" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A12" s="45">
+      <c r="A12" s="44">
         <v>10</v>
       </c>
-      <c r="B12" s="37"/>
-      <c r="C12" s="27"/>
+      <c r="B12" s="36"/>
+      <c r="C12" s="26"/>
     </row>
     <row r="13" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A13" s="45">
+      <c r="A13" s="44">
         <v>11</v>
       </c>
-      <c r="B13" s="37"/>
-      <c r="C13" s="27"/>
+      <c r="B13" s="36"/>
+      <c r="C13" s="26"/>
     </row>
     <row r="14" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A14" s="45">
+      <c r="A14" s="44">
         <v>12</v>
       </c>
-      <c r="B14" s="37"/>
-      <c r="C14" s="27"/>
+      <c r="B14" s="36"/>
+      <c r="C14" s="26"/>
     </row>
     <row r="15" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A15" s="45">
+      <c r="A15" s="44">
         <v>13</v>
       </c>
-      <c r="B15" s="37"/>
-      <c r="C15" s="27"/>
+      <c r="B15" s="36"/>
+      <c r="C15" s="26"/>
     </row>
     <row r="16" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A16" s="45">
+      <c r="A16" s="44">
         <v>14</v>
       </c>
-      <c r="B16" s="37"/>
-      <c r="C16" s="27"/>
+      <c r="B16" s="36"/>
+      <c r="C16" s="26"/>
     </row>
     <row r="17" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A17" s="45">
+      <c r="A17" s="44">
         <v>15</v>
       </c>
-      <c r="B17" s="37"/>
-      <c r="C17" s="27"/>
+      <c r="B17" s="36"/>
+      <c r="C17" s="26"/>
     </row>
     <row r="18" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A18" s="45"/>
-      <c r="B18" s="37"/>
-      <c r="C18" s="27"/>
+      <c r="A18" s="44"/>
+      <c r="B18" s="36"/>
+      <c r="C18" s="26"/>
     </row>
     <row r="19" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A19" s="45"/>
-      <c r="B19" s="37"/>
-      <c r="C19" s="27"/>
+      <c r="A19" s="44"/>
+      <c r="B19" s="36"/>
+      <c r="C19" s="26"/>
     </row>
     <row r="20" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A20" s="45"/>
-      <c r="B20" s="37"/>
-      <c r="C20" s="27"/>
+      <c r="A20" s="44"/>
+      <c r="B20" s="36"/>
+      <c r="C20" s="26"/>
     </row>
     <row r="21" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A21" s="45"/>
-      <c r="B21" s="37"/>
-      <c r="C21" s="27"/>
+      <c r="A21" s="44"/>
+      <c r="B21" s="36"/>
+      <c r="C21" s="26"/>
     </row>
     <row r="22" spans="1:3" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A22" s="42" t="s">
+      <c r="A22" s="41" t="s">
         <v>28</v>
       </c>
-      <c r="B22" s="35"/>
+      <c r="B22" s="34"/>
     </row>
     <row r="23" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A23" s="46" t="s">
+      <c r="A23" s="45" t="s">
         <v>23</v>
       </c>
-      <c r="B23" s="36" t="s">
+      <c r="B23" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="C23" s="44" t="s">
+      <c r="C23" s="43" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A24" s="27"/>
-      <c r="B24" s="37"/>
-      <c r="C24" s="27"/>
+      <c r="A24" s="26"/>
+      <c r="B24" s="36"/>
+      <c r="C24" s="26"/>
     </row>
     <row r="25" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A25" s="27"/>
-      <c r="B25" s="37"/>
-      <c r="C25" s="27"/>
+      <c r="A25" s="26"/>
+      <c r="B25" s="36"/>
+      <c r="C25" s="26"/>
     </row>
     <row r="26" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A26" s="27"/>
-      <c r="B26" s="37"/>
-      <c r="C26" s="27"/>
+      <c r="A26" s="26"/>
+      <c r="B26" s="36"/>
+      <c r="C26" s="26"/>
     </row>
     <row r="27" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A27" s="27"/>
-      <c r="B27" s="37"/>
-      <c r="C27" s="27"/>
+      <c r="A27" s="26"/>
+      <c r="B27" s="36"/>
+      <c r="C27" s="26"/>
     </row>
     <row r="28" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A28" s="27"/>
-      <c r="B28" s="37"/>
-      <c r="C28" s="27"/>
+      <c r="A28" s="26"/>
+      <c r="B28" s="36"/>
+      <c r="C28" s="26"/>
     </row>
     <row r="29" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A29" s="27"/>
-      <c r="B29" s="37"/>
-      <c r="C29" s="27"/>
+      <c r="A29" s="26"/>
+      <c r="B29" s="36"/>
+      <c r="C29" s="26"/>
     </row>
     <row r="30" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A30" s="27"/>
-      <c r="B30" s="37"/>
-      <c r="C30" s="27"/>
+      <c r="A30" s="26"/>
+      <c r="B30" s="36"/>
+      <c r="C30" s="26"/>
     </row>
     <row r="31" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A31" s="27"/>
-      <c r="B31" s="37"/>
-      <c r="C31" s="27"/>
+      <c r="A31" s="26"/>
+      <c r="B31" s="36"/>
+      <c r="C31" s="26"/>
     </row>
     <row r="32" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A32" s="27"/>
-      <c r="B32" s="37"/>
-      <c r="C32" s="27"/>
+      <c r="A32" s="26"/>
+      <c r="B32" s="36"/>
+      <c r="C32" s="26"/>
     </row>
     <row r="33" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A33" s="27"/>
-      <c r="B33" s="37"/>
-      <c r="C33" s="27"/>
+      <c r="A33" s="26"/>
+      <c r="B33" s="36"/>
+      <c r="C33" s="26"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2017,220 +2176,220 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.85546875" style="33" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="64" style="33" customWidth="1"/>
-    <col min="3" max="3" width="27.42578125" style="33" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="33"/>
+    <col min="1" max="1" width="18.85546875" style="32" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="64" style="32" customWidth="1"/>
+    <col min="3" max="3" width="27.42578125" style="32" customWidth="1"/>
+    <col min="4" max="16384" width="9.140625" style="32"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="41" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="35"/>
+      <c r="B1" s="34"/>
     </row>
     <row r="2" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="43" t="s">
+      <c r="A2" s="42" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="36" t="s">
+      <c r="B2" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="44" t="s">
+      <c r="C2" s="43" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A3" s="45">
+      <c r="A3" s="44">
         <v>1</v>
       </c>
-      <c r="B3" s="37"/>
-      <c r="C3" s="27"/>
+      <c r="B3" s="36"/>
+      <c r="C3" s="26"/>
     </row>
     <row r="4" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A4" s="45">
+      <c r="A4" s="44">
         <v>2</v>
       </c>
-      <c r="B4" s="37"/>
-      <c r="C4" s="27"/>
+      <c r="B4" s="36"/>
+      <c r="C4" s="26"/>
     </row>
     <row r="5" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="45">
+      <c r="A5" s="44">
         <v>3</v>
       </c>
-      <c r="B5" s="37"/>
-      <c r="C5" s="27"/>
+      <c r="B5" s="36"/>
+      <c r="C5" s="26"/>
     </row>
     <row r="6" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A6" s="45">
+      <c r="A6" s="44">
         <v>4</v>
       </c>
-      <c r="B6" s="37"/>
-      <c r="C6" s="27"/>
+      <c r="B6" s="36"/>
+      <c r="C6" s="26"/>
     </row>
     <row r="7" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A7" s="45">
+      <c r="A7" s="44">
         <v>5</v>
       </c>
-      <c r="B7" s="37"/>
-      <c r="C7" s="27"/>
+      <c r="B7" s="36"/>
+      <c r="C7" s="26"/>
     </row>
     <row r="8" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A8" s="45">
+      <c r="A8" s="44">
         <v>6</v>
       </c>
-      <c r="B8" s="37"/>
-      <c r="C8" s="27"/>
+      <c r="B8" s="36"/>
+      <c r="C8" s="26"/>
     </row>
     <row r="9" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A9" s="45">
+      <c r="A9" s="44">
         <v>7</v>
       </c>
-      <c r="B9" s="38"/>
-      <c r="C9" s="27"/>
+      <c r="B9" s="37"/>
+      <c r="C9" s="26"/>
     </row>
     <row r="10" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A10" s="45">
+      <c r="A10" s="44">
         <v>8</v>
       </c>
-      <c r="B10" s="37"/>
-      <c r="C10" s="27"/>
+      <c r="B10" s="36"/>
+      <c r="C10" s="26"/>
     </row>
     <row r="11" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A11" s="45">
+      <c r="A11" s="44">
         <v>9</v>
       </c>
-      <c r="B11" s="37"/>
-      <c r="C11" s="27"/>
+      <c r="B11" s="36"/>
+      <c r="C11" s="26"/>
     </row>
     <row r="12" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A12" s="45">
+      <c r="A12" s="44">
         <v>10</v>
       </c>
-      <c r="B12" s="37"/>
-      <c r="C12" s="27"/>
+      <c r="B12" s="36"/>
+      <c r="C12" s="26"/>
     </row>
     <row r="13" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A13" s="45">
+      <c r="A13" s="44">
         <v>11</v>
       </c>
-      <c r="B13" s="37"/>
-      <c r="C13" s="27"/>
+      <c r="B13" s="36"/>
+      <c r="C13" s="26"/>
     </row>
     <row r="14" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A14" s="45">
+      <c r="A14" s="44">
         <v>12</v>
       </c>
-      <c r="B14" s="37"/>
-      <c r="C14" s="27"/>
+      <c r="B14" s="36"/>
+      <c r="C14" s="26"/>
     </row>
     <row r="15" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A15" s="45">
+      <c r="A15" s="44">
         <v>13</v>
       </c>
-      <c r="B15" s="37"/>
-      <c r="C15" s="27"/>
+      <c r="B15" s="36"/>
+      <c r="C15" s="26"/>
     </row>
     <row r="16" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A16" s="45">
+      <c r="A16" s="44">
         <v>14</v>
       </c>
-      <c r="B16" s="37"/>
-      <c r="C16" s="27"/>
+      <c r="B16" s="36"/>
+      <c r="C16" s="26"/>
     </row>
     <row r="17" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A17" s="45">
+      <c r="A17" s="44">
         <v>15</v>
       </c>
-      <c r="B17" s="37"/>
-      <c r="C17" s="27"/>
+      <c r="B17" s="36"/>
+      <c r="C17" s="26"/>
     </row>
     <row r="18" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A18" s="45"/>
-      <c r="B18" s="37"/>
-      <c r="C18" s="27"/>
+      <c r="A18" s="44"/>
+      <c r="B18" s="36"/>
+      <c r="C18" s="26"/>
     </row>
     <row r="19" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A19" s="45"/>
-      <c r="B19" s="37"/>
-      <c r="C19" s="27"/>
+      <c r="A19" s="44"/>
+      <c r="B19" s="36"/>
+      <c r="C19" s="26"/>
     </row>
     <row r="20" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A20" s="45"/>
-      <c r="B20" s="37"/>
-      <c r="C20" s="27"/>
+      <c r="A20" s="44"/>
+      <c r="B20" s="36"/>
+      <c r="C20" s="26"/>
     </row>
     <row r="21" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A21" s="45"/>
-      <c r="B21" s="37"/>
-      <c r="C21" s="27"/>
+      <c r="A21" s="44"/>
+      <c r="B21" s="36"/>
+      <c r="C21" s="26"/>
     </row>
     <row r="22" spans="1:3" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A22" s="42" t="s">
+      <c r="A22" s="41" t="s">
         <v>28</v>
       </c>
-      <c r="B22" s="35"/>
+      <c r="B22" s="34"/>
     </row>
     <row r="23" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A23" s="46" t="s">
+      <c r="A23" s="45" t="s">
         <v>23</v>
       </c>
-      <c r="B23" s="36" t="s">
+      <c r="B23" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="C23" s="44" t="s">
+      <c r="C23" s="43" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A24" s="27"/>
-      <c r="B24" s="37"/>
-      <c r="C24" s="27"/>
+      <c r="A24" s="26"/>
+      <c r="B24" s="36"/>
+      <c r="C24" s="26"/>
     </row>
     <row r="25" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A25" s="27"/>
-      <c r="B25" s="37"/>
-      <c r="C25" s="27"/>
+      <c r="A25" s="26"/>
+      <c r="B25" s="36"/>
+      <c r="C25" s="26"/>
     </row>
     <row r="26" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A26" s="27"/>
-      <c r="B26" s="37"/>
-      <c r="C26" s="27"/>
+      <c r="A26" s="26"/>
+      <c r="B26" s="36"/>
+      <c r="C26" s="26"/>
     </row>
     <row r="27" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A27" s="27"/>
-      <c r="B27" s="37"/>
-      <c r="C27" s="27"/>
+      <c r="A27" s="26"/>
+      <c r="B27" s="36"/>
+      <c r="C27" s="26"/>
     </row>
     <row r="28" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A28" s="27"/>
-      <c r="B28" s="37"/>
-      <c r="C28" s="27"/>
+      <c r="A28" s="26"/>
+      <c r="B28" s="36"/>
+      <c r="C28" s="26"/>
     </row>
     <row r="29" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A29" s="27"/>
-      <c r="B29" s="37"/>
-      <c r="C29" s="27"/>
+      <c r="A29" s="26"/>
+      <c r="B29" s="36"/>
+      <c r="C29" s="26"/>
     </row>
     <row r="30" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A30" s="27"/>
-      <c r="B30" s="37"/>
-      <c r="C30" s="27"/>
+      <c r="A30" s="26"/>
+      <c r="B30" s="36"/>
+      <c r="C30" s="26"/>
     </row>
     <row r="31" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A31" s="27"/>
-      <c r="B31" s="37"/>
-      <c r="C31" s="27"/>
+      <c r="A31" s="26"/>
+      <c r="B31" s="36"/>
+      <c r="C31" s="26"/>
     </row>
     <row r="32" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A32" s="27"/>
-      <c r="B32" s="37"/>
-      <c r="C32" s="27"/>
+      <c r="A32" s="26"/>
+      <c r="B32" s="36"/>
+      <c r="C32" s="26"/>
     </row>
     <row r="33" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A33" s="27"/>
-      <c r="B33" s="37"/>
-      <c r="C33" s="27"/>
+      <c r="A33" s="26"/>
+      <c r="B33" s="36"/>
+      <c r="C33" s="26"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2247,220 +2406,220 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.85546875" style="33" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="64" style="33" customWidth="1"/>
-    <col min="3" max="3" width="27.42578125" style="33" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="33"/>
+    <col min="1" max="1" width="18.85546875" style="32" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="64" style="32" customWidth="1"/>
+    <col min="3" max="3" width="27.42578125" style="32" customWidth="1"/>
+    <col min="4" max="16384" width="9.140625" style="32"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="41" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="35"/>
+      <c r="B1" s="34"/>
     </row>
     <row r="2" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="43" t="s">
+      <c r="A2" s="42" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="36" t="s">
+      <c r="B2" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="44" t="s">
+      <c r="C2" s="43" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A3" s="45">
+      <c r="A3" s="44">
         <v>1</v>
       </c>
-      <c r="B3" s="37"/>
-      <c r="C3" s="27"/>
+      <c r="B3" s="36"/>
+      <c r="C3" s="26"/>
     </row>
     <row r="4" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A4" s="45">
+      <c r="A4" s="44">
         <v>2</v>
       </c>
-      <c r="B4" s="37"/>
-      <c r="C4" s="27"/>
+      <c r="B4" s="36"/>
+      <c r="C4" s="26"/>
     </row>
     <row r="5" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="45">
+      <c r="A5" s="44">
         <v>3</v>
       </c>
-      <c r="B5" s="37"/>
-      <c r="C5" s="27"/>
+      <c r="B5" s="36"/>
+      <c r="C5" s="26"/>
     </row>
     <row r="6" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A6" s="45">
+      <c r="A6" s="44">
         <v>4</v>
       </c>
-      <c r="B6" s="37"/>
-      <c r="C6" s="27"/>
+      <c r="B6" s="36"/>
+      <c r="C6" s="26"/>
     </row>
     <row r="7" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A7" s="45">
+      <c r="A7" s="44">
         <v>5</v>
       </c>
-      <c r="B7" s="37"/>
-      <c r="C7" s="27"/>
+      <c r="B7" s="36"/>
+      <c r="C7" s="26"/>
     </row>
     <row r="8" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A8" s="45">
+      <c r="A8" s="44">
         <v>6</v>
       </c>
-      <c r="B8" s="37"/>
-      <c r="C8" s="27"/>
+      <c r="B8" s="36"/>
+      <c r="C8" s="26"/>
     </row>
     <row r="9" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A9" s="45">
+      <c r="A9" s="44">
         <v>7</v>
       </c>
-      <c r="B9" s="38"/>
-      <c r="C9" s="27"/>
+      <c r="B9" s="37"/>
+      <c r="C9" s="26"/>
     </row>
     <row r="10" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A10" s="45">
+      <c r="A10" s="44">
         <v>8</v>
       </c>
-      <c r="B10" s="37"/>
-      <c r="C10" s="27"/>
+      <c r="B10" s="36"/>
+      <c r="C10" s="26"/>
     </row>
     <row r="11" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A11" s="45">
+      <c r="A11" s="44">
         <v>9</v>
       </c>
-      <c r="B11" s="37"/>
-      <c r="C11" s="27"/>
+      <c r="B11" s="36"/>
+      <c r="C11" s="26"/>
     </row>
     <row r="12" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A12" s="45">
+      <c r="A12" s="44">
         <v>10</v>
       </c>
-      <c r="B12" s="37"/>
-      <c r="C12" s="27"/>
+      <c r="B12" s="36"/>
+      <c r="C12" s="26"/>
     </row>
     <row r="13" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A13" s="45">
+      <c r="A13" s="44">
         <v>11</v>
       </c>
-      <c r="B13" s="37"/>
-      <c r="C13" s="27"/>
+      <c r="B13" s="36"/>
+      <c r="C13" s="26"/>
     </row>
     <row r="14" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A14" s="45">
+      <c r="A14" s="44">
         <v>12</v>
       </c>
-      <c r="B14" s="37"/>
-      <c r="C14" s="27"/>
+      <c r="B14" s="36"/>
+      <c r="C14" s="26"/>
     </row>
     <row r="15" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A15" s="45">
+      <c r="A15" s="44">
         <v>13</v>
       </c>
-      <c r="B15" s="37"/>
-      <c r="C15" s="27"/>
+      <c r="B15" s="36"/>
+      <c r="C15" s="26"/>
     </row>
     <row r="16" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A16" s="45">
+      <c r="A16" s="44">
         <v>14</v>
       </c>
-      <c r="B16" s="37"/>
-      <c r="C16" s="27"/>
+      <c r="B16" s="36"/>
+      <c r="C16" s="26"/>
     </row>
     <row r="17" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A17" s="45">
+      <c r="A17" s="44">
         <v>15</v>
       </c>
-      <c r="B17" s="37"/>
-      <c r="C17" s="27"/>
+      <c r="B17" s="36"/>
+      <c r="C17" s="26"/>
     </row>
     <row r="18" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A18" s="45"/>
-      <c r="B18" s="37"/>
-      <c r="C18" s="27"/>
+      <c r="A18" s="44"/>
+      <c r="B18" s="36"/>
+      <c r="C18" s="26"/>
     </row>
     <row r="19" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A19" s="45"/>
-      <c r="B19" s="37"/>
-      <c r="C19" s="27"/>
+      <c r="A19" s="44"/>
+      <c r="B19" s="36"/>
+      <c r="C19" s="26"/>
     </row>
     <row r="20" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A20" s="45"/>
-      <c r="B20" s="37"/>
-      <c r="C20" s="27"/>
+      <c r="A20" s="44"/>
+      <c r="B20" s="36"/>
+      <c r="C20" s="26"/>
     </row>
     <row r="21" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A21" s="45"/>
-      <c r="B21" s="37"/>
-      <c r="C21" s="27"/>
+      <c r="A21" s="44"/>
+      <c r="B21" s="36"/>
+      <c r="C21" s="26"/>
     </row>
     <row r="22" spans="1:3" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A22" s="42" t="s">
+      <c r="A22" s="41" t="s">
         <v>28</v>
       </c>
-      <c r="B22" s="35"/>
+      <c r="B22" s="34"/>
     </row>
     <row r="23" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A23" s="46" t="s">
+      <c r="A23" s="45" t="s">
         <v>23</v>
       </c>
-      <c r="B23" s="36" t="s">
+      <c r="B23" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="C23" s="44" t="s">
+      <c r="C23" s="43" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A24" s="27"/>
-      <c r="B24" s="37"/>
-      <c r="C24" s="27"/>
+      <c r="A24" s="26"/>
+      <c r="B24" s="36"/>
+      <c r="C24" s="26"/>
     </row>
     <row r="25" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A25" s="27"/>
-      <c r="B25" s="37"/>
-      <c r="C25" s="27"/>
+      <c r="A25" s="26"/>
+      <c r="B25" s="36"/>
+      <c r="C25" s="26"/>
     </row>
     <row r="26" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A26" s="27"/>
-      <c r="B26" s="37"/>
-      <c r="C26" s="27"/>
+      <c r="A26" s="26"/>
+      <c r="B26" s="36"/>
+      <c r="C26" s="26"/>
     </row>
     <row r="27" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A27" s="27"/>
-      <c r="B27" s="37"/>
-      <c r="C27" s="27"/>
+      <c r="A27" s="26"/>
+      <c r="B27" s="36"/>
+      <c r="C27" s="26"/>
     </row>
     <row r="28" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A28" s="27"/>
-      <c r="B28" s="37"/>
-      <c r="C28" s="27"/>
+      <c r="A28" s="26"/>
+      <c r="B28" s="36"/>
+      <c r="C28" s="26"/>
     </row>
     <row r="29" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A29" s="27"/>
-      <c r="B29" s="37"/>
-      <c r="C29" s="27"/>
+      <c r="A29" s="26"/>
+      <c r="B29" s="36"/>
+      <c r="C29" s="26"/>
     </row>
     <row r="30" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A30" s="27"/>
-      <c r="B30" s="37"/>
-      <c r="C30" s="27"/>
+      <c r="A30" s="26"/>
+      <c r="B30" s="36"/>
+      <c r="C30" s="26"/>
     </row>
     <row r="31" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A31" s="27"/>
-      <c r="B31" s="37"/>
-      <c r="C31" s="27"/>
+      <c r="A31" s="26"/>
+      <c r="B31" s="36"/>
+      <c r="C31" s="26"/>
     </row>
     <row r="32" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A32" s="27"/>
-      <c r="B32" s="37"/>
-      <c r="C32" s="27"/>
+      <c r="A32" s="26"/>
+      <c r="B32" s="36"/>
+      <c r="C32" s="26"/>
     </row>
     <row r="33" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A33" s="27"/>
-      <c r="B33" s="37"/>
-      <c r="C33" s="27"/>
+      <c r="A33" s="26"/>
+      <c r="B33" s="36"/>
+      <c r="C33" s="26"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2477,220 +2636,220 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.85546875" style="33" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="64" style="33" customWidth="1"/>
-    <col min="3" max="3" width="27.42578125" style="33" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="33"/>
+    <col min="1" max="1" width="18.85546875" style="32" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="64" style="32" customWidth="1"/>
+    <col min="3" max="3" width="27.42578125" style="32" customWidth="1"/>
+    <col min="4" max="16384" width="9.140625" style="32"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="41" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="35"/>
+      <c r="B1" s="34"/>
     </row>
     <row r="2" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="43" t="s">
+      <c r="A2" s="42" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="36" t="s">
+      <c r="B2" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="44" t="s">
+      <c r="C2" s="43" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A3" s="45">
+      <c r="A3" s="44">
         <v>1</v>
       </c>
-      <c r="B3" s="37"/>
-      <c r="C3" s="27"/>
+      <c r="B3" s="36"/>
+      <c r="C3" s="26"/>
     </row>
     <row r="4" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A4" s="45">
+      <c r="A4" s="44">
         <v>2</v>
       </c>
-      <c r="B4" s="37"/>
-      <c r="C4" s="27"/>
+      <c r="B4" s="36"/>
+      <c r="C4" s="26"/>
     </row>
     <row r="5" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="45">
+      <c r="A5" s="44">
         <v>3</v>
       </c>
-      <c r="B5" s="37"/>
-      <c r="C5" s="27"/>
+      <c r="B5" s="36"/>
+      <c r="C5" s="26"/>
     </row>
     <row r="6" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A6" s="45">
+      <c r="A6" s="44">
         <v>4</v>
       </c>
-      <c r="B6" s="37"/>
-      <c r="C6" s="27"/>
+      <c r="B6" s="36"/>
+      <c r="C6" s="26"/>
     </row>
     <row r="7" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A7" s="45">
+      <c r="A7" s="44">
         <v>5</v>
       </c>
-      <c r="B7" s="37"/>
-      <c r="C7" s="27"/>
+      <c r="B7" s="36"/>
+      <c r="C7" s="26"/>
     </row>
     <row r="8" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A8" s="45">
+      <c r="A8" s="44">
         <v>6</v>
       </c>
-      <c r="B8" s="37"/>
-      <c r="C8" s="27"/>
+      <c r="B8" s="36"/>
+      <c r="C8" s="26"/>
     </row>
     <row r="9" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A9" s="45">
+      <c r="A9" s="44">
         <v>7</v>
       </c>
-      <c r="B9" s="38"/>
-      <c r="C9" s="27"/>
+      <c r="B9" s="37"/>
+      <c r="C9" s="26"/>
     </row>
     <row r="10" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A10" s="45">
+      <c r="A10" s="44">
         <v>8</v>
       </c>
-      <c r="B10" s="37"/>
-      <c r="C10" s="27"/>
+      <c r="B10" s="36"/>
+      <c r="C10" s="26"/>
     </row>
     <row r="11" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A11" s="45">
+      <c r="A11" s="44">
         <v>9</v>
       </c>
-      <c r="B11" s="37"/>
-      <c r="C11" s="27"/>
+      <c r="B11" s="36"/>
+      <c r="C11" s="26"/>
     </row>
     <row r="12" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A12" s="45">
+      <c r="A12" s="44">
         <v>10</v>
       </c>
-      <c r="B12" s="37"/>
-      <c r="C12" s="27"/>
+      <c r="B12" s="36"/>
+      <c r="C12" s="26"/>
     </row>
     <row r="13" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A13" s="45">
+      <c r="A13" s="44">
         <v>11</v>
       </c>
-      <c r="B13" s="37"/>
-      <c r="C13" s="27"/>
+      <c r="B13" s="36"/>
+      <c r="C13" s="26"/>
     </row>
     <row r="14" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A14" s="45">
+      <c r="A14" s="44">
         <v>12</v>
       </c>
-      <c r="B14" s="37"/>
-      <c r="C14" s="27"/>
+      <c r="B14" s="36"/>
+      <c r="C14" s="26"/>
     </row>
     <row r="15" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A15" s="45">
+      <c r="A15" s="44">
         <v>13</v>
       </c>
-      <c r="B15" s="37"/>
-      <c r="C15" s="27"/>
+      <c r="B15" s="36"/>
+      <c r="C15" s="26"/>
     </row>
     <row r="16" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A16" s="45">
+      <c r="A16" s="44">
         <v>14</v>
       </c>
-      <c r="B16" s="37"/>
-      <c r="C16" s="27"/>
+      <c r="B16" s="36"/>
+      <c r="C16" s="26"/>
     </row>
     <row r="17" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A17" s="45">
+      <c r="A17" s="44">
         <v>15</v>
       </c>
-      <c r="B17" s="37"/>
-      <c r="C17" s="27"/>
+      <c r="B17" s="36"/>
+      <c r="C17" s="26"/>
     </row>
     <row r="18" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A18" s="45"/>
-      <c r="B18" s="37"/>
-      <c r="C18" s="27"/>
+      <c r="A18" s="44"/>
+      <c r="B18" s="36"/>
+      <c r="C18" s="26"/>
     </row>
     <row r="19" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A19" s="45"/>
-      <c r="B19" s="37"/>
-      <c r="C19" s="27"/>
+      <c r="A19" s="44"/>
+      <c r="B19" s="36"/>
+      <c r="C19" s="26"/>
     </row>
     <row r="20" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A20" s="45"/>
-      <c r="B20" s="37"/>
-      <c r="C20" s="27"/>
+      <c r="A20" s="44"/>
+      <c r="B20" s="36"/>
+      <c r="C20" s="26"/>
     </row>
     <row r="21" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A21" s="45"/>
-      <c r="B21" s="37"/>
-      <c r="C21" s="27"/>
+      <c r="A21" s="44"/>
+      <c r="B21" s="36"/>
+      <c r="C21" s="26"/>
     </row>
     <row r="22" spans="1:3" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A22" s="42" t="s">
+      <c r="A22" s="41" t="s">
         <v>28</v>
       </c>
-      <c r="B22" s="35"/>
+      <c r="B22" s="34"/>
     </row>
     <row r="23" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A23" s="46" t="s">
+      <c r="A23" s="45" t="s">
         <v>23</v>
       </c>
-      <c r="B23" s="36" t="s">
+      <c r="B23" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="C23" s="44" t="s">
+      <c r="C23" s="43" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A24" s="27"/>
-      <c r="B24" s="37"/>
-      <c r="C24" s="27"/>
+      <c r="A24" s="26"/>
+      <c r="B24" s="36"/>
+      <c r="C24" s="26"/>
     </row>
     <row r="25" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A25" s="27"/>
-      <c r="B25" s="37"/>
-      <c r="C25" s="27"/>
+      <c r="A25" s="26"/>
+      <c r="B25" s="36"/>
+      <c r="C25" s="26"/>
     </row>
     <row r="26" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A26" s="27"/>
-      <c r="B26" s="37"/>
-      <c r="C26" s="27"/>
+      <c r="A26" s="26"/>
+      <c r="B26" s="36"/>
+      <c r="C26" s="26"/>
     </row>
     <row r="27" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A27" s="27"/>
-      <c r="B27" s="37"/>
-      <c r="C27" s="27"/>
+      <c r="A27" s="26"/>
+      <c r="B27" s="36"/>
+      <c r="C27" s="26"/>
     </row>
     <row r="28" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A28" s="27"/>
-      <c r="B28" s="37"/>
-      <c r="C28" s="27"/>
+      <c r="A28" s="26"/>
+      <c r="B28" s="36"/>
+      <c r="C28" s="26"/>
     </row>
     <row r="29" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A29" s="27"/>
-      <c r="B29" s="37"/>
-      <c r="C29" s="27"/>
+      <c r="A29" s="26"/>
+      <c r="B29" s="36"/>
+      <c r="C29" s="26"/>
     </row>
     <row r="30" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A30" s="27"/>
-      <c r="B30" s="37"/>
-      <c r="C30" s="27"/>
+      <c r="A30" s="26"/>
+      <c r="B30" s="36"/>
+      <c r="C30" s="26"/>
     </row>
     <row r="31" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A31" s="27"/>
-      <c r="B31" s="37"/>
-      <c r="C31" s="27"/>
+      <c r="A31" s="26"/>
+      <c r="B31" s="36"/>
+      <c r="C31" s="26"/>
     </row>
     <row r="32" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A32" s="27"/>
-      <c r="B32" s="37"/>
-      <c r="C32" s="27"/>
+      <c r="A32" s="26"/>
+      <c r="B32" s="36"/>
+      <c r="C32" s="26"/>
     </row>
     <row r="33" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A33" s="27"/>
-      <c r="B33" s="37"/>
-      <c r="C33" s="27"/>
+      <c r="A33" s="26"/>
+      <c r="B33" s="36"/>
+      <c r="C33" s="26"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2707,220 +2866,220 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.85546875" style="33" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="64" style="33" customWidth="1"/>
-    <col min="3" max="3" width="27.42578125" style="33" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="33"/>
+    <col min="1" max="1" width="18.85546875" style="32" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="64" style="32" customWidth="1"/>
+    <col min="3" max="3" width="27.42578125" style="32" customWidth="1"/>
+    <col min="4" max="16384" width="9.140625" style="32"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="41" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="35"/>
+      <c r="B1" s="34"/>
     </row>
     <row r="2" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="43" t="s">
+      <c r="A2" s="42" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="36" t="s">
+      <c r="B2" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="44" t="s">
+      <c r="C2" s="43" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A3" s="45">
+      <c r="A3" s="44">
         <v>1</v>
       </c>
-      <c r="B3" s="37"/>
-      <c r="C3" s="27"/>
+      <c r="B3" s="36"/>
+      <c r="C3" s="26"/>
     </row>
     <row r="4" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A4" s="45">
+      <c r="A4" s="44">
         <v>2</v>
       </c>
-      <c r="B4" s="37"/>
-      <c r="C4" s="27"/>
+      <c r="B4" s="36"/>
+      <c r="C4" s="26"/>
     </row>
     <row r="5" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="45">
+      <c r="A5" s="44">
         <v>3</v>
       </c>
-      <c r="B5" s="37"/>
-      <c r="C5" s="27"/>
+      <c r="B5" s="36"/>
+      <c r="C5" s="26"/>
     </row>
     <row r="6" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A6" s="45">
+      <c r="A6" s="44">
         <v>4</v>
       </c>
-      <c r="B6" s="37"/>
-      <c r="C6" s="27"/>
+      <c r="B6" s="36"/>
+      <c r="C6" s="26"/>
     </row>
     <row r="7" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A7" s="45">
+      <c r="A7" s="44">
         <v>5</v>
       </c>
-      <c r="B7" s="37"/>
-      <c r="C7" s="27"/>
+      <c r="B7" s="36"/>
+      <c r="C7" s="26"/>
     </row>
     <row r="8" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A8" s="45">
+      <c r="A8" s="44">
         <v>6</v>
       </c>
-      <c r="B8" s="37"/>
-      <c r="C8" s="27"/>
+      <c r="B8" s="36"/>
+      <c r="C8" s="26"/>
     </row>
     <row r="9" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A9" s="45">
+      <c r="A9" s="44">
         <v>7</v>
       </c>
-      <c r="B9" s="38"/>
-      <c r="C9" s="27"/>
+      <c r="B9" s="37"/>
+      <c r="C9" s="26"/>
     </row>
     <row r="10" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A10" s="45">
+      <c r="A10" s="44">
         <v>8</v>
       </c>
-      <c r="B10" s="37"/>
-      <c r="C10" s="27"/>
+      <c r="B10" s="36"/>
+      <c r="C10" s="26"/>
     </row>
     <row r="11" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A11" s="45">
+      <c r="A11" s="44">
         <v>9</v>
       </c>
-      <c r="B11" s="37"/>
-      <c r="C11" s="27"/>
+      <c r="B11" s="36"/>
+      <c r="C11" s="26"/>
     </row>
     <row r="12" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A12" s="45">
+      <c r="A12" s="44">
         <v>10</v>
       </c>
-      <c r="B12" s="37"/>
-      <c r="C12" s="27"/>
+      <c r="B12" s="36"/>
+      <c r="C12" s="26"/>
     </row>
     <row r="13" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A13" s="45">
+      <c r="A13" s="44">
         <v>11</v>
       </c>
-      <c r="B13" s="37"/>
-      <c r="C13" s="27"/>
+      <c r="B13" s="36"/>
+      <c r="C13" s="26"/>
     </row>
     <row r="14" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A14" s="45">
+      <c r="A14" s="44">
         <v>12</v>
       </c>
-      <c r="B14" s="37"/>
-      <c r="C14" s="27"/>
+      <c r="B14" s="36"/>
+      <c r="C14" s="26"/>
     </row>
     <row r="15" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A15" s="45">
+      <c r="A15" s="44">
         <v>13</v>
       </c>
-      <c r="B15" s="37"/>
-      <c r="C15" s="27"/>
+      <c r="B15" s="36"/>
+      <c r="C15" s="26"/>
     </row>
     <row r="16" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A16" s="45">
+      <c r="A16" s="44">
         <v>14</v>
       </c>
-      <c r="B16" s="37"/>
-      <c r="C16" s="27"/>
+      <c r="B16" s="36"/>
+      <c r="C16" s="26"/>
     </row>
     <row r="17" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A17" s="45">
+      <c r="A17" s="44">
         <v>15</v>
       </c>
-      <c r="B17" s="37"/>
-      <c r="C17" s="27"/>
+      <c r="B17" s="36"/>
+      <c r="C17" s="26"/>
     </row>
     <row r="18" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A18" s="45"/>
-      <c r="B18" s="37"/>
-      <c r="C18" s="27"/>
+      <c r="A18" s="44"/>
+      <c r="B18" s="36"/>
+      <c r="C18" s="26"/>
     </row>
     <row r="19" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A19" s="45"/>
-      <c r="B19" s="37"/>
-      <c r="C19" s="27"/>
+      <c r="A19" s="44"/>
+      <c r="B19" s="36"/>
+      <c r="C19" s="26"/>
     </row>
     <row r="20" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A20" s="45"/>
-      <c r="B20" s="37"/>
-      <c r="C20" s="27"/>
+      <c r="A20" s="44"/>
+      <c r="B20" s="36"/>
+      <c r="C20" s="26"/>
     </row>
     <row r="21" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A21" s="45"/>
-      <c r="B21" s="37"/>
-      <c r="C21" s="27"/>
+      <c r="A21" s="44"/>
+      <c r="B21" s="36"/>
+      <c r="C21" s="26"/>
     </row>
     <row r="22" spans="1:3" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A22" s="42" t="s">
+      <c r="A22" s="41" t="s">
         <v>28</v>
       </c>
-      <c r="B22" s="35"/>
+      <c r="B22" s="34"/>
     </row>
     <row r="23" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A23" s="46" t="s">
+      <c r="A23" s="45" t="s">
         <v>23</v>
       </c>
-      <c r="B23" s="36" t="s">
+      <c r="B23" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="C23" s="44" t="s">
+      <c r="C23" s="43" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A24" s="27"/>
-      <c r="B24" s="37"/>
-      <c r="C24" s="27"/>
+      <c r="A24" s="26"/>
+      <c r="B24" s="36"/>
+      <c r="C24" s="26"/>
     </row>
     <row r="25" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A25" s="27"/>
-      <c r="B25" s="37"/>
-      <c r="C25" s="27"/>
+      <c r="A25" s="26"/>
+      <c r="B25" s="36"/>
+      <c r="C25" s="26"/>
     </row>
     <row r="26" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A26" s="27"/>
-      <c r="B26" s="37"/>
-      <c r="C26" s="27"/>
+      <c r="A26" s="26"/>
+      <c r="B26" s="36"/>
+      <c r="C26" s="26"/>
     </row>
     <row r="27" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A27" s="27"/>
-      <c r="B27" s="37"/>
-      <c r="C27" s="27"/>
+      <c r="A27" s="26"/>
+      <c r="B27" s="36"/>
+      <c r="C27" s="26"/>
     </row>
     <row r="28" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A28" s="27"/>
-      <c r="B28" s="37"/>
-      <c r="C28" s="27"/>
+      <c r="A28" s="26"/>
+      <c r="B28" s="36"/>
+      <c r="C28" s="26"/>
     </row>
     <row r="29" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A29" s="27"/>
-      <c r="B29" s="37"/>
-      <c r="C29" s="27"/>
+      <c r="A29" s="26"/>
+      <c r="B29" s="36"/>
+      <c r="C29" s="26"/>
     </row>
     <row r="30" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A30" s="27"/>
-      <c r="B30" s="37"/>
-      <c r="C30" s="27"/>
+      <c r="A30" s="26"/>
+      <c r="B30" s="36"/>
+      <c r="C30" s="26"/>
     </row>
     <row r="31" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A31" s="27"/>
-      <c r="B31" s="37"/>
-      <c r="C31" s="27"/>
+      <c r="A31" s="26"/>
+      <c r="B31" s="36"/>
+      <c r="C31" s="26"/>
     </row>
     <row r="32" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A32" s="27"/>
-      <c r="B32" s="37"/>
-      <c r="C32" s="27"/>
+      <c r="A32" s="26"/>
+      <c r="B32" s="36"/>
+      <c r="C32" s="26"/>
     </row>
     <row r="33" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A33" s="27"/>
-      <c r="B33" s="37"/>
-      <c r="C33" s="27"/>
+      <c r="A33" s="26"/>
+      <c r="B33" s="36"/>
+      <c r="C33" s="26"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2937,220 +3096,220 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.85546875" style="33" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="64" style="33" customWidth="1"/>
-    <col min="3" max="3" width="27.42578125" style="33" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="33"/>
+    <col min="1" max="1" width="18.85546875" style="32" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="64" style="32" customWidth="1"/>
+    <col min="3" max="3" width="27.42578125" style="32" customWidth="1"/>
+    <col min="4" max="16384" width="9.140625" style="32"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="41" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="35"/>
+      <c r="B1" s="34"/>
     </row>
     <row r="2" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="43" t="s">
+      <c r="A2" s="42" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="36" t="s">
+      <c r="B2" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="44" t="s">
+      <c r="C2" s="43" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A3" s="45">
+      <c r="A3" s="44">
         <v>1</v>
       </c>
-      <c r="B3" s="37"/>
-      <c r="C3" s="27"/>
+      <c r="B3" s="36"/>
+      <c r="C3" s="26"/>
     </row>
     <row r="4" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A4" s="45">
+      <c r="A4" s="44">
         <v>2</v>
       </c>
-      <c r="B4" s="37"/>
-      <c r="C4" s="27"/>
+      <c r="B4" s="36"/>
+      <c r="C4" s="26"/>
     </row>
     <row r="5" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="45">
+      <c r="A5" s="44">
         <v>3</v>
       </c>
-      <c r="B5" s="37"/>
-      <c r="C5" s="27"/>
+      <c r="B5" s="36"/>
+      <c r="C5" s="26"/>
     </row>
     <row r="6" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A6" s="45">
+      <c r="A6" s="44">
         <v>4</v>
       </c>
-      <c r="B6" s="37"/>
-      <c r="C6" s="27"/>
+      <c r="B6" s="36"/>
+      <c r="C6" s="26"/>
     </row>
     <row r="7" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A7" s="45">
+      <c r="A7" s="44">
         <v>5</v>
       </c>
-      <c r="B7" s="37"/>
-      <c r="C7" s="27"/>
+      <c r="B7" s="36"/>
+      <c r="C7" s="26"/>
     </row>
     <row r="8" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A8" s="45">
+      <c r="A8" s="44">
         <v>6</v>
       </c>
-      <c r="B8" s="37"/>
-      <c r="C8" s="27"/>
+      <c r="B8" s="36"/>
+      <c r="C8" s="26"/>
     </row>
     <row r="9" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A9" s="45">
+      <c r="A9" s="44">
         <v>7</v>
       </c>
-      <c r="B9" s="38"/>
-      <c r="C9" s="27"/>
+      <c r="B9" s="37"/>
+      <c r="C9" s="26"/>
     </row>
     <row r="10" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A10" s="45">
+      <c r="A10" s="44">
         <v>8</v>
       </c>
-      <c r="B10" s="37"/>
-      <c r="C10" s="27"/>
+      <c r="B10" s="36"/>
+      <c r="C10" s="26"/>
     </row>
     <row r="11" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A11" s="45">
+      <c r="A11" s="44">
         <v>9</v>
       </c>
-      <c r="B11" s="37"/>
-      <c r="C11" s="27"/>
+      <c r="B11" s="36"/>
+      <c r="C11" s="26"/>
     </row>
     <row r="12" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A12" s="45">
+      <c r="A12" s="44">
         <v>10</v>
       </c>
-      <c r="B12" s="37"/>
-      <c r="C12" s="27"/>
+      <c r="B12" s="36"/>
+      <c r="C12" s="26"/>
     </row>
     <row r="13" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A13" s="45">
+      <c r="A13" s="44">
         <v>11</v>
       </c>
-      <c r="B13" s="37"/>
-      <c r="C13" s="27"/>
+      <c r="B13" s="36"/>
+      <c r="C13" s="26"/>
     </row>
     <row r="14" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A14" s="45">
+      <c r="A14" s="44">
         <v>12</v>
       </c>
-      <c r="B14" s="37"/>
-      <c r="C14" s="27"/>
+      <c r="B14" s="36"/>
+      <c r="C14" s="26"/>
     </row>
     <row r="15" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A15" s="45">
+      <c r="A15" s="44">
         <v>13</v>
       </c>
-      <c r="B15" s="37"/>
-      <c r="C15" s="27"/>
+      <c r="B15" s="36"/>
+      <c r="C15" s="26"/>
     </row>
     <row r="16" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A16" s="45">
+      <c r="A16" s="44">
         <v>14</v>
       </c>
-      <c r="B16" s="37"/>
-      <c r="C16" s="27"/>
+      <c r="B16" s="36"/>
+      <c r="C16" s="26"/>
     </row>
     <row r="17" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A17" s="45">
+      <c r="A17" s="44">
         <v>15</v>
       </c>
-      <c r="B17" s="37"/>
-      <c r="C17" s="27"/>
+      <c r="B17" s="36"/>
+      <c r="C17" s="26"/>
     </row>
     <row r="18" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A18" s="45"/>
-      <c r="B18" s="37"/>
-      <c r="C18" s="27"/>
+      <c r="A18" s="44"/>
+      <c r="B18" s="36"/>
+      <c r="C18" s="26"/>
     </row>
     <row r="19" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A19" s="45"/>
-      <c r="B19" s="37"/>
-      <c r="C19" s="27"/>
+      <c r="A19" s="44"/>
+      <c r="B19" s="36"/>
+      <c r="C19" s="26"/>
     </row>
     <row r="20" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A20" s="45"/>
-      <c r="B20" s="37"/>
-      <c r="C20" s="27"/>
+      <c r="A20" s="44"/>
+      <c r="B20" s="36"/>
+      <c r="C20" s="26"/>
     </row>
     <row r="21" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A21" s="45"/>
-      <c r="B21" s="37"/>
-      <c r="C21" s="27"/>
+      <c r="A21" s="44"/>
+      <c r="B21" s="36"/>
+      <c r="C21" s="26"/>
     </row>
     <row r="22" spans="1:3" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A22" s="42" t="s">
+      <c r="A22" s="41" t="s">
         <v>28</v>
       </c>
-      <c r="B22" s="35"/>
+      <c r="B22" s="34"/>
     </row>
     <row r="23" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A23" s="46" t="s">
+      <c r="A23" s="45" t="s">
         <v>23</v>
       </c>
-      <c r="B23" s="36" t="s">
+      <c r="B23" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="C23" s="44" t="s">
+      <c r="C23" s="43" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A24" s="27"/>
-      <c r="B24" s="37"/>
-      <c r="C24" s="27"/>
+      <c r="A24" s="26"/>
+      <c r="B24" s="36"/>
+      <c r="C24" s="26"/>
     </row>
     <row r="25" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A25" s="27"/>
-      <c r="B25" s="37"/>
-      <c r="C25" s="27"/>
+      <c r="A25" s="26"/>
+      <c r="B25" s="36"/>
+      <c r="C25" s="26"/>
     </row>
     <row r="26" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A26" s="27"/>
-      <c r="B26" s="37"/>
-      <c r="C26" s="27"/>
+      <c r="A26" s="26"/>
+      <c r="B26" s="36"/>
+      <c r="C26" s="26"/>
     </row>
     <row r="27" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A27" s="27"/>
-      <c r="B27" s="37"/>
-      <c r="C27" s="27"/>
+      <c r="A27" s="26"/>
+      <c r="B27" s="36"/>
+      <c r="C27" s="26"/>
     </row>
     <row r="28" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A28" s="27"/>
-      <c r="B28" s="37"/>
-      <c r="C28" s="27"/>
+      <c r="A28" s="26"/>
+      <c r="B28" s="36"/>
+      <c r="C28" s="26"/>
     </row>
     <row r="29" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A29" s="27"/>
-      <c r="B29" s="37"/>
-      <c r="C29" s="27"/>
+      <c r="A29" s="26"/>
+      <c r="B29" s="36"/>
+      <c r="C29" s="26"/>
     </row>
     <row r="30" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A30" s="27"/>
-      <c r="B30" s="37"/>
-      <c r="C30" s="27"/>
+      <c r="A30" s="26"/>
+      <c r="B30" s="36"/>
+      <c r="C30" s="26"/>
     </row>
     <row r="31" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A31" s="27"/>
-      <c r="B31" s="37"/>
-      <c r="C31" s="27"/>
+      <c r="A31" s="26"/>
+      <c r="B31" s="36"/>
+      <c r="C31" s="26"/>
     </row>
     <row r="32" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A32" s="27"/>
-      <c r="B32" s="37"/>
-      <c r="C32" s="27"/>
+      <c r="A32" s="26"/>
+      <c r="B32" s="36"/>
+      <c r="C32" s="26"/>
     </row>
     <row r="33" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A33" s="27"/>
-      <c r="B33" s="37"/>
-      <c r="C33" s="27"/>
+      <c r="A33" s="26"/>
+      <c r="B33" s="36"/>
+      <c r="C33" s="26"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3167,114 +3326,114 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.7109375" style="28" customWidth="1"/>
-    <col min="2" max="2" width="82" style="29" customWidth="1"/>
-    <col min="3" max="16384" width="9.140625" style="28"/>
+    <col min="1" max="1" width="28.7109375" style="27" customWidth="1"/>
+    <col min="2" max="2" width="82" style="28" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="27"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="29" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="26" t="s">
+      <c r="A2" s="25" t="s">
         <v>55</v>
       </c>
-      <c r="B2" s="26" t="s">
+      <c r="B2" s="25" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="26" t="s">
+      <c r="A3" s="25" t="s">
         <v>56</v>
       </c>
-      <c r="B3" s="26" t="s">
+      <c r="B3" s="25" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="26" t="s">
+      <c r="A4" s="25" t="s">
         <v>59</v>
       </c>
-      <c r="B4" s="26" t="s">
+      <c r="B4" s="25" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="26" t="s">
+      <c r="A5" s="25" t="s">
         <v>61</v>
       </c>
-      <c r="B5" s="26" t="s">
+      <c r="B5" s="25" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="28" t="s">
+      <c r="A7" s="27" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="27"/>
-      <c r="B8" s="26"/>
+      <c r="A8" s="26"/>
+      <c r="B8" s="25"/>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="27"/>
-      <c r="B9" s="26"/>
+      <c r="A9" s="26"/>
+      <c r="B9" s="25"/>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="27"/>
-      <c r="B10" s="26"/>
+      <c r="A10" s="26"/>
+      <c r="B10" s="25"/>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="27"/>
-      <c r="B11" s="26"/>
+      <c r="A11" s="26"/>
+      <c r="B11" s="25"/>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="27"/>
-      <c r="B12" s="26"/>
+      <c r="A12" s="26"/>
+      <c r="B12" s="25"/>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="28" t="s">
+      <c r="A14" s="27" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="27"/>
-      <c r="B15" s="26"/>
+      <c r="A15" s="26"/>
+      <c r="B15" s="25"/>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="27"/>
-      <c r="B16" s="26"/>
+      <c r="A16" s="26"/>
+      <c r="B16" s="25"/>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="27"/>
-      <c r="B17" s="26"/>
+      <c r="A17" s="26"/>
+      <c r="B17" s="25"/>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="27"/>
-      <c r="B18" s="26"/>
+      <c r="A18" s="26"/>
+      <c r="B18" s="25"/>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="28" t="s">
+      <c r="A20" s="27" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="27"/>
-      <c r="B21" s="26"/>
+      <c r="A21" s="26"/>
+      <c r="B21" s="25"/>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="27"/>
-      <c r="B22" s="26"/>
+      <c r="A22" s="26"/>
+      <c r="B22" s="25"/>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="27"/>
-      <c r="B23" s="26"/>
+      <c r="A23" s="26"/>
+      <c r="B23" s="25"/>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="27"/>
-      <c r="B24" s="26"/>
+      <c r="A24" s="26"/>
+      <c r="B24" s="25"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3291,137 +3450,137 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.5703125" style="13" customWidth="1"/>
+    <col min="1" max="1" width="13.5703125" style="12" customWidth="1"/>
     <col min="2" max="2" width="100.5703125" customWidth="1"/>
     <col min="3" max="3" width="18.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="11" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:3" s="11" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A2" s="14" t="s">
+    <row r="2" spans="1:3" s="10" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A2" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="15" t="s">
+      <c r="C2" s="14" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A3" s="16">
+      <c r="A3" s="15">
         <v>1</v>
       </c>
-      <c r="B3" s="17" t="s">
+      <c r="B3" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="C3" s="17" t="s">
+      <c r="C3" s="16" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A4" s="16">
+      <c r="A4" s="15">
         <v>2</v>
       </c>
-      <c r="B4" s="17" t="s">
+      <c r="B4" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="C4" s="17" t="s">
+      <c r="C4" s="16" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A5" s="16">
+      <c r="A5" s="15">
         <v>3</v>
       </c>
-      <c r="B5" s="17" t="s">
+      <c r="B5" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="C5" s="17" t="s">
+      <c r="C5" s="16" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A6" s="16">
+      <c r="A6" s="15">
         <v>4</v>
       </c>
-      <c r="B6" s="17" t="s">
+      <c r="B6" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="C6" s="17"/>
+      <c r="C6" s="16"/>
     </row>
     <row r="7" spans="1:3" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A7" s="16">
+      <c r="A7" s="15">
         <v>5</v>
       </c>
-      <c r="B7" s="17" t="s">
+      <c r="B7" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="C7" s="17" t="s">
+      <c r="C7" s="16" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A8" s="16">
+      <c r="A8" s="15">
         <v>6</v>
       </c>
-      <c r="B8" s="17"/>
-      <c r="C8" s="17"/>
+      <c r="B8" s="16"/>
+      <c r="C8" s="16"/>
     </row>
     <row r="10" spans="1:3" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A10" s="12" t="s">
+      <c r="A10" s="11" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A11" s="18" t="s">
+      <c r="A11" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="B11" s="15" t="s">
+      <c r="B11" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="C11" s="15" t="s">
+      <c r="C11" s="14" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A12" s="16">
+      <c r="A12" s="15">
         <v>1</v>
       </c>
-      <c r="B12" s="17" t="s">
+      <c r="B12" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="C12" s="17"/>
+      <c r="C12" s="16"/>
     </row>
     <row r="13" spans="1:3" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A13" s="16">
+      <c r="A13" s="15">
         <v>2</v>
       </c>
-      <c r="B13" s="16" t="s">
+      <c r="B13" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="C13" s="17"/>
-    </row>
-    <row r="14" spans="1:3" s="19" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A14" s="16">
+      <c r="C13" s="16"/>
+    </row>
+    <row r="14" spans="1:3" s="18" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A14" s="15">
         <v>3</v>
       </c>
-      <c r="B14" s="17" t="s">
+      <c r="B14" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="C14" s="17" t="s">
+      <c r="C14" s="16" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:3" s="19" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A15" s="20"/>
-    </row>
-    <row r="16" spans="1:3" s="19" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A16" s="20"/>
+    <row r="15" spans="1:3" s="18" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A15" s="19"/>
+    </row>
+    <row r="16" spans="1:3" s="18" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A16" s="19"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3440,192 +3599,192 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.7109375" customWidth="1"/>
-    <col min="2" max="2" width="91.5703125" style="21" customWidth="1"/>
+    <col min="2" max="2" width="91.5703125" style="20" customWidth="1"/>
     <col min="3" max="3" width="18.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="11" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="22" t="s">
+      <c r="B2" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="15" t="s">
+      <c r="C2" s="14" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A3" s="16">
+      <c r="A3" s="15">
         <v>1</v>
       </c>
-      <c r="B3" s="23" t="s">
+      <c r="B3" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="C3" s="17" t="s">
+      <c r="C3" s="16" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="39" x14ac:dyDescent="0.3">
-      <c r="A4" s="16">
+      <c r="A4" s="15">
         <v>2</v>
       </c>
-      <c r="B4" s="23" t="s">
+      <c r="B4" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="C4" s="17"/>
+      <c r="C4" s="16"/>
     </row>
     <row r="5" spans="1:3" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A5" s="16">
+      <c r="A5" s="15">
         <v>3</v>
       </c>
-      <c r="B5" s="23" t="s">
+      <c r="B5" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="C5" s="17" t="s">
+      <c r="C5" s="16" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A6" s="16">
+      <c r="A6" s="15">
         <v>4</v>
       </c>
-      <c r="B6" s="23" t="s">
+      <c r="B6" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="C6" s="17"/>
+      <c r="C6" s="16"/>
     </row>
     <row r="7" spans="1:3" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A7" s="16">
+      <c r="A7" s="15">
         <v>5</v>
       </c>
-      <c r="B7" s="23" t="s">
+      <c r="B7" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="C7" s="17"/>
+      <c r="C7" s="16"/>
     </row>
     <row r="8" spans="1:3" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A8" s="16">
+      <c r="A8" s="15">
         <v>6</v>
       </c>
-      <c r="B8" s="23" t="s">
+      <c r="B8" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="C8" s="17"/>
+      <c r="C8" s="16"/>
     </row>
     <row r="9" spans="1:3" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A9" s="16">
+      <c r="A9" s="15">
         <v>7</v>
       </c>
-      <c r="B9" s="23" t="s">
+      <c r="B9" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="C9" s="17"/>
+      <c r="C9" s="16"/>
     </row>
     <row r="10" spans="1:3" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A10" s="16"/>
-      <c r="B10" s="23" t="s">
+      <c r="A10" s="15"/>
+      <c r="B10" s="22" t="s">
         <v>48</v>
       </c>
-      <c r="C10" s="17"/>
+      <c r="C10" s="16"/>
     </row>
     <row r="11" spans="1:3" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A11" s="16">
+      <c r="A11" s="15">
         <v>7</v>
       </c>
-      <c r="B11" s="23" t="s">
+      <c r="B11" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="C11" s="17"/>
+      <c r="C11" s="16"/>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="13"/>
+      <c r="A12" s="12"/>
     </row>
     <row r="13" spans="1:3" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A13" s="12" t="s">
+      <c r="A13" s="11" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A14" s="18" t="s">
+      <c r="A14" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="B14" s="22" t="s">
+      <c r="B14" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="C14" s="15" t="s">
+      <c r="C14" s="14" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A15" s="16">
+      <c r="A15" s="15">
         <v>1</v>
       </c>
-      <c r="B15" s="23" t="s">
+      <c r="B15" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="C15" s="17"/>
+      <c r="C15" s="16"/>
     </row>
     <row r="16" spans="1:3" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A16" s="16">
+      <c r="A16" s="15">
         <v>3</v>
       </c>
-      <c r="B16" s="23" t="s">
+      <c r="B16" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="C16" s="17"/>
+      <c r="C16" s="16"/>
     </row>
     <row r="17" spans="1:3" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A17" s="16">
+      <c r="A17" s="15">
         <v>2</v>
       </c>
-      <c r="B17" s="24" t="s">
+      <c r="B17" s="23" t="s">
         <v>43</v>
       </c>
-      <c r="C17" s="17"/>
+      <c r="C17" s="16"/>
     </row>
     <row r="18" spans="1:3" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A18" s="17"/>
-      <c r="B18" s="23" t="s">
+      <c r="A18" s="16"/>
+      <c r="B18" s="22" t="s">
         <v>49</v>
       </c>
-      <c r="C18" s="17"/>
+      <c r="C18" s="16"/>
     </row>
     <row r="19" spans="1:3" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A19" s="17"/>
-      <c r="B19" s="23" t="s">
+      <c r="A19" s="16"/>
+      <c r="B19" s="22" t="s">
         <v>50</v>
       </c>
-      <c r="C19" s="17"/>
+      <c r="C19" s="16"/>
     </row>
     <row r="20" spans="1:3" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A20" s="17"/>
-      <c r="B20" s="23" t="s">
+      <c r="A20" s="16"/>
+      <c r="B20" s="22" t="s">
         <v>51</v>
       </c>
-      <c r="C20" s="17"/>
+      <c r="C20" s="16"/>
     </row>
     <row r="21" spans="1:3" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A21" s="17"/>
-      <c r="B21" s="23" t="s">
+      <c r="A21" s="16"/>
+      <c r="B21" s="22" t="s">
         <v>52</v>
       </c>
-      <c r="C21" s="17"/>
+      <c r="C21" s="16"/>
     </row>
     <row r="22" spans="1:3" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A22" s="17"/>
-      <c r="B22" s="23"/>
-      <c r="C22" s="17"/>
+      <c r="A22" s="16"/>
+      <c r="B22" s="22"/>
+      <c r="C22" s="16"/>
     </row>
     <row r="23" spans="1:3" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A23" s="17"/>
-      <c r="B23" s="23"/>
-      <c r="C23" s="17"/>
+      <c r="A23" s="16"/>
+      <c r="B23" s="22"/>
+      <c r="C23" s="16"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3644,234 +3803,234 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="32.42578125" customWidth="1"/>
-    <col min="2" max="2" width="64.28515625" style="21" customWidth="1"/>
+    <col min="2" max="2" width="64.28515625" style="20" customWidth="1"/>
     <col min="3" max="3" width="31.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="11" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="22" t="s">
+      <c r="B2" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="15" t="s">
+      <c r="C2" s="14" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="39" x14ac:dyDescent="0.3">
-      <c r="A3" s="16">
+      <c r="A3" s="15">
         <v>1</v>
       </c>
-      <c r="B3" s="23" t="s">
+      <c r="B3" s="22" t="s">
         <v>53</v>
       </c>
-      <c r="C3" s="17" t="s">
+      <c r="C3" s="16" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="58.5" x14ac:dyDescent="0.3">
-      <c r="A4" s="16">
+      <c r="A4" s="15">
         <v>2</v>
       </c>
-      <c r="B4" s="23" t="s">
+      <c r="B4" s="22" t="s">
         <v>54</v>
       </c>
-      <c r="C4" s="17" t="s">
+      <c r="C4" s="16" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="39" x14ac:dyDescent="0.3">
-      <c r="A5" s="16">
+      <c r="A5" s="15">
         <v>3</v>
       </c>
-      <c r="B5" s="23" t="s">
+      <c r="B5" s="22" t="s">
         <v>68</v>
       </c>
-      <c r="C5" s="17" t="s">
+      <c r="C5" s="16" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A6" s="16">
+      <c r="A6" s="15">
         <v>4</v>
       </c>
-      <c r="B6" s="23" t="s">
+      <c r="B6" s="22" t="s">
         <v>66</v>
       </c>
-      <c r="C6" s="17" t="s">
+      <c r="C6" s="16" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A7" s="16">
+      <c r="A7" s="15">
         <v>5</v>
       </c>
-      <c r="B7" s="23" t="s">
+      <c r="B7" s="22" t="s">
         <v>67</v>
       </c>
-      <c r="C7" s="17" t="s">
+      <c r="C7" s="16" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="58.5" x14ac:dyDescent="0.3">
-      <c r="A8" s="16">
+      <c r="A8" s="15">
         <v>6</v>
       </c>
-      <c r="B8" s="23" t="s">
+      <c r="B8" s="22" t="s">
         <v>69</v>
       </c>
-      <c r="C8" s="17" t="s">
+      <c r="C8" s="16" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="39" x14ac:dyDescent="0.3">
-      <c r="A9" s="16">
+      <c r="A9" s="15">
         <v>7</v>
       </c>
-      <c r="B9" s="25" t="s">
+      <c r="B9" s="24" t="s">
         <v>64</v>
       </c>
-      <c r="C9" s="17" t="s">
+      <c r="C9" s="16" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A10" s="16">
+      <c r="A10" s="15">
         <v>8</v>
       </c>
-      <c r="B10" s="23" t="s">
+      <c r="B10" s="22" t="s">
         <v>63</v>
       </c>
-      <c r="C10" s="17"/>
+      <c r="C10" s="16"/>
     </row>
     <row r="11" spans="1:3" ht="39" x14ac:dyDescent="0.3">
-      <c r="A11" s="16">
+      <c r="A11" s="15">
         <v>9</v>
       </c>
-      <c r="B11" s="23" t="s">
+      <c r="B11" s="22" t="s">
         <v>65</v>
       </c>
-      <c r="C11" s="17" t="s">
+      <c r="C11" s="16" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A12" s="16">
+      <c r="A12" s="15">
         <v>10</v>
       </c>
-      <c r="B12" s="23" t="s">
+      <c r="B12" s="22" t="s">
         <v>70</v>
       </c>
-      <c r="C12" s="17" t="s">
+      <c r="C12" s="16" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="39" x14ac:dyDescent="0.3">
-      <c r="A13" s="16">
+      <c r="A13" s="15">
         <v>11</v>
       </c>
-      <c r="B13" s="23" t="s">
+      <c r="B13" s="22" t="s">
         <v>71</v>
       </c>
-      <c r="C13" s="17" t="s">
+      <c r="C13" s="16" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="39" x14ac:dyDescent="0.3">
-      <c r="A14" s="16">
+      <c r="A14" s="15">
         <v>12</v>
       </c>
-      <c r="B14" s="23" t="s">
+      <c r="B14" s="22" t="s">
         <v>72</v>
       </c>
-      <c r="C14" s="17" t="s">
+      <c r="C14" s="16" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A15" s="16"/>
-      <c r="B15" s="23"/>
-      <c r="C15" s="17"/>
+      <c r="A15" s="15"/>
+      <c r="B15" s="22"/>
+      <c r="C15" s="16"/>
     </row>
     <row r="16" spans="1:3" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A16" s="12" t="s">
+      <c r="A16" s="11" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A17" s="18" t="s">
+      <c r="A17" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="B17" s="22" t="s">
+      <c r="B17" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="C17" s="15" t="s">
+      <c r="C17" s="14" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A18" s="17"/>
-      <c r="B18" s="23" t="s">
+      <c r="A18" s="16"/>
+      <c r="B18" s="22" t="s">
         <v>80</v>
       </c>
-      <c r="C18" s="17" t="s">
+      <c r="C18" s="16" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A19" s="17"/>
-      <c r="B19" s="23" t="s">
+      <c r="A19" s="16"/>
+      <c r="B19" s="22" t="s">
         <v>82</v>
       </c>
-      <c r="C19" s="17" t="s">
+      <c r="C19" s="16" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A20" s="17"/>
-      <c r="B20" s="23"/>
-      <c r="C20" s="17"/>
+      <c r="A20" s="16"/>
+      <c r="B20" s="22"/>
+      <c r="C20" s="16"/>
     </row>
     <row r="21" spans="1:3" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A21" s="17"/>
-      <c r="B21" s="23"/>
-      <c r="C21" s="17"/>
+      <c r="A21" s="16"/>
+      <c r="B21" s="22"/>
+      <c r="C21" s="16"/>
     </row>
     <row r="22" spans="1:3" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A22" s="17"/>
-      <c r="B22" s="23"/>
-      <c r="C22" s="17"/>
+      <c r="A22" s="16"/>
+      <c r="B22" s="22"/>
+      <c r="C22" s="16"/>
     </row>
     <row r="23" spans="1:3" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A23" s="17"/>
-      <c r="B23" s="23"/>
-      <c r="C23" s="17"/>
+      <c r="A23" s="16"/>
+      <c r="B23" s="22"/>
+      <c r="C23" s="16"/>
     </row>
     <row r="24" spans="1:3" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A24" s="17"/>
-      <c r="B24" s="23"/>
-      <c r="C24" s="17"/>
+      <c r="A24" s="16"/>
+      <c r="B24" s="22"/>
+      <c r="C24" s="16"/>
     </row>
     <row r="25" spans="1:3" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A25" s="17"/>
-      <c r="B25" s="23"/>
-      <c r="C25" s="17"/>
+      <c r="A25" s="16"/>
+      <c r="B25" s="22"/>
+      <c r="C25" s="16"/>
     </row>
     <row r="26" spans="1:3" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A26" s="17"/>
-      <c r="B26" s="23"/>
-      <c r="C26" s="17"/>
+      <c r="A26" s="16"/>
+      <c r="B26" s="22"/>
+      <c r="C26" s="16"/>
     </row>
     <row r="27" spans="1:3" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A27" s="17"/>
-      <c r="B27" s="23"/>
-      <c r="C27" s="17"/>
+      <c r="A27" s="16"/>
+      <c r="B27" s="22"/>
+      <c r="C27" s="16"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3890,237 +4049,237 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17.42578125" customWidth="1"/>
-    <col min="2" max="2" width="72.85546875" style="33" customWidth="1"/>
+    <col min="2" max="2" width="72.85546875" style="32" customWidth="1"/>
     <col min="3" max="3" width="27.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="31"/>
+      <c r="B1" s="30"/>
     </row>
     <row r="2" spans="1:3" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="32" t="s">
+      <c r="B2" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="15" t="s">
+      <c r="C2" s="14" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A3" s="16">
+      <c r="A3" s="15">
         <v>1</v>
       </c>
-      <c r="B3" s="26" t="s">
+      <c r="B3" s="25" t="s">
         <v>92</v>
       </c>
-      <c r="C3" s="17"/>
+      <c r="C3" s="16"/>
     </row>
     <row r="4" spans="1:3" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A4" s="16">
+      <c r="A4" s="15">
         <v>2</v>
       </c>
-      <c r="B4" s="26" t="s">
+      <c r="B4" s="25" t="s">
         <v>88</v>
       </c>
-      <c r="C4" s="17"/>
+      <c r="C4" s="16"/>
     </row>
     <row r="5" spans="1:3" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A5" s="16">
+      <c r="A5" s="15">
         <v>3</v>
       </c>
-      <c r="B5" s="26" t="s">
+      <c r="B5" s="25" t="s">
         <v>89</v>
       </c>
-      <c r="C5" s="17"/>
+      <c r="C5" s="16"/>
     </row>
     <row r="6" spans="1:3" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A6" s="16">
+      <c r="A6" s="15">
         <v>4</v>
       </c>
-      <c r="B6" s="26" t="s">
+      <c r="B6" s="25" t="s">
         <v>90</v>
       </c>
-      <c r="C6" s="17"/>
+      <c r="C6" s="16"/>
     </row>
     <row r="7" spans="1:3" ht="78" x14ac:dyDescent="0.3">
-      <c r="A7" s="16">
+      <c r="A7" s="15">
         <v>5</v>
       </c>
-      <c r="B7" s="26" t="s">
+      <c r="B7" s="25" t="s">
         <v>91</v>
       </c>
-      <c r="C7" s="17"/>
+      <c r="C7" s="16"/>
     </row>
     <row r="8" spans="1:3" ht="39" x14ac:dyDescent="0.3">
-      <c r="A8" s="16">
+      <c r="A8" s="15">
         <v>6</v>
       </c>
-      <c r="B8" s="26" t="s">
+      <c r="B8" s="25" t="s">
         <v>93</v>
       </c>
-      <c r="C8" s="17"/>
+      <c r="C8" s="16"/>
     </row>
     <row r="9" spans="1:3" ht="58.5" x14ac:dyDescent="0.3">
-      <c r="A9" s="16">
+      <c r="A9" s="15">
         <v>7</v>
       </c>
-      <c r="B9" s="34" t="s">
+      <c r="B9" s="33" t="s">
         <v>94</v>
       </c>
-      <c r="C9" s="17"/>
+      <c r="C9" s="16"/>
     </row>
     <row r="10" spans="1:3" ht="39" x14ac:dyDescent="0.3">
-      <c r="A10" s="16">
+      <c r="A10" s="15">
         <v>8</v>
       </c>
-      <c r="B10" s="26" t="s">
+      <c r="B10" s="25" t="s">
         <v>95</v>
       </c>
-      <c r="C10" s="17"/>
+      <c r="C10" s="16"/>
     </row>
     <row r="11" spans="1:3" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A11" s="16">
+      <c r="A11" s="15">
         <v>9</v>
       </c>
-      <c r="B11" s="26" t="s">
+      <c r="B11" s="25" t="s">
         <v>96</v>
       </c>
-      <c r="C11" s="17"/>
+      <c r="C11" s="16"/>
     </row>
     <row r="12" spans="1:3" ht="78" x14ac:dyDescent="0.3">
-      <c r="A12" s="16">
+      <c r="A12" s="15">
         <v>10</v>
       </c>
-      <c r="B12" s="26" t="s">
+      <c r="B12" s="25" t="s">
         <v>97</v>
       </c>
-      <c r="C12" s="17"/>
+      <c r="C12" s="16"/>
     </row>
     <row r="13" spans="1:3" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A13" s="16">
+      <c r="A13" s="15">
         <v>11</v>
       </c>
-      <c r="B13" s="26" t="s">
+      <c r="B13" s="25" t="s">
         <v>98</v>
       </c>
-      <c r="C13" s="17"/>
+      <c r="C13" s="16"/>
     </row>
     <row r="14" spans="1:3" ht="39" x14ac:dyDescent="0.3">
-      <c r="A14" s="16">
+      <c r="A14" s="15">
         <v>12</v>
       </c>
-      <c r="B14" s="26" t="s">
+      <c r="B14" s="25" t="s">
         <v>99</v>
       </c>
-      <c r="C14" s="17"/>
+      <c r="C14" s="16"/>
     </row>
     <row r="15" spans="1:3" ht="39" x14ac:dyDescent="0.3">
-      <c r="A15" s="16"/>
-      <c r="B15" s="26" t="s">
+      <c r="A15" s="15"/>
+      <c r="B15" s="25" t="s">
         <v>100</v>
       </c>
-      <c r="C15" s="17"/>
+      <c r="C15" s="16"/>
     </row>
     <row r="16" spans="1:3" ht="39" x14ac:dyDescent="0.3">
-      <c r="A16" s="16"/>
-      <c r="B16" s="26" t="s">
+      <c r="A16" s="15"/>
+      <c r="B16" s="25" t="s">
         <v>101</v>
       </c>
-      <c r="C16" s="17"/>
+      <c r="C16" s="16"/>
     </row>
     <row r="17" spans="1:3" ht="39" x14ac:dyDescent="0.3">
-      <c r="A17" s="16"/>
-      <c r="B17" s="26" t="s">
+      <c r="A17" s="15"/>
+      <c r="B17" s="25" t="s">
         <v>102</v>
       </c>
-      <c r="C17" s="17"/>
+      <c r="C17" s="16"/>
     </row>
     <row r="18" spans="1:3" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A18" s="16"/>
-      <c r="B18" s="26"/>
-      <c r="C18" s="17"/>
+      <c r="A18" s="15"/>
+      <c r="B18" s="25"/>
+      <c r="C18" s="16"/>
     </row>
     <row r="19" spans="1:3" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A19" s="16"/>
-      <c r="B19" s="26"/>
-      <c r="C19" s="17"/>
+      <c r="A19" s="15"/>
+      <c r="B19" s="25"/>
+      <c r="C19" s="16"/>
     </row>
     <row r="20" spans="1:3" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A20" s="16"/>
-      <c r="B20" s="26"/>
-      <c r="C20" s="17"/>
+      <c r="A20" s="15"/>
+      <c r="B20" s="25"/>
+      <c r="C20" s="16"/>
     </row>
     <row r="21" spans="1:3" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A21" s="12" t="s">
+      <c r="A21" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="B21" s="31"/>
+      <c r="B21" s="30"/>
     </row>
     <row r="22" spans="1:3" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A22" s="18" t="s">
+      <c r="A22" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="B22" s="32" t="s">
+      <c r="B22" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="C22" s="15" t="s">
+      <c r="C22" s="14" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A23" s="17"/>
-      <c r="B23" s="26"/>
-      <c r="C23" s="17"/>
+      <c r="A23" s="16"/>
+      <c r="B23" s="25"/>
+      <c r="C23" s="16"/>
     </row>
     <row r="24" spans="1:3" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A24" s="17"/>
-      <c r="B24" s="26"/>
-      <c r="C24" s="17"/>
+      <c r="A24" s="16"/>
+      <c r="B24" s="25"/>
+      <c r="C24" s="16"/>
     </row>
     <row r="25" spans="1:3" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A25" s="17"/>
-      <c r="B25" s="26"/>
-      <c r="C25" s="17"/>
+      <c r="A25" s="16"/>
+      <c r="B25" s="25"/>
+      <c r="C25" s="16"/>
     </row>
     <row r="26" spans="1:3" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A26" s="17"/>
-      <c r="B26" s="26"/>
-      <c r="C26" s="17"/>
+      <c r="A26" s="16"/>
+      <c r="B26" s="25"/>
+      <c r="C26" s="16"/>
     </row>
     <row r="27" spans="1:3" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A27" s="17"/>
-      <c r="B27" s="26"/>
-      <c r="C27" s="17"/>
+      <c r="A27" s="16"/>
+      <c r="B27" s="25"/>
+      <c r="C27" s="16"/>
     </row>
     <row r="28" spans="1:3" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A28" s="17"/>
-      <c r="B28" s="26"/>
-      <c r="C28" s="17"/>
+      <c r="A28" s="16"/>
+      <c r="B28" s="25"/>
+      <c r="C28" s="16"/>
     </row>
     <row r="29" spans="1:3" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A29" s="17"/>
-      <c r="B29" s="26"/>
-      <c r="C29" s="17"/>
+      <c r="A29" s="16"/>
+      <c r="B29" s="25"/>
+      <c r="C29" s="16"/>
     </row>
     <row r="30" spans="1:3" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A30" s="17"/>
-      <c r="B30" s="26"/>
-      <c r="C30" s="17"/>
+      <c r="A30" s="16"/>
+      <c r="B30" s="25"/>
+      <c r="C30" s="16"/>
     </row>
     <row r="31" spans="1:3" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A31" s="17"/>
-      <c r="B31" s="26"/>
-      <c r="C31" s="17"/>
+      <c r="A31" s="16"/>
+      <c r="B31" s="25"/>
+      <c r="C31" s="16"/>
     </row>
     <row r="32" spans="1:3" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A32" s="17"/>
-      <c r="B32" s="26"/>
-      <c r="C32" s="17"/>
+      <c r="A32" s="16"/>
+      <c r="B32" s="25"/>
+      <c r="C32" s="16"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4144,246 +4303,246 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="31"/>
+      <c r="B1" s="30"/>
     </row>
     <row r="2" spans="1:3" ht="39" x14ac:dyDescent="0.3">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="32" t="s">
+      <c r="B2" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="15" t="s">
+      <c r="C2" s="14" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A3" s="16">
+      <c r="A3" s="15">
         <v>1</v>
       </c>
-      <c r="B3" s="26" t="s">
+      <c r="B3" s="25" t="s">
         <v>103</v>
       </c>
-      <c r="C3" s="17"/>
+      <c r="C3" s="16"/>
     </row>
     <row r="4" spans="1:3" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A4" s="16">
+      <c r="A4" s="15">
         <v>2</v>
       </c>
-      <c r="B4" s="26" t="s">
+      <c r="B4" s="25" t="s">
         <v>104</v>
       </c>
-      <c r="C4" s="17"/>
+      <c r="C4" s="16"/>
     </row>
     <row r="5" spans="1:3" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A5" s="16">
+      <c r="A5" s="15">
         <v>3</v>
       </c>
-      <c r="B5" s="26" t="s">
+      <c r="B5" s="25" t="s">
         <v>121</v>
       </c>
-      <c r="C5" s="17"/>
+      <c r="C5" s="16"/>
     </row>
     <row r="6" spans="1:3" ht="39" x14ac:dyDescent="0.3">
-      <c r="A6" s="16">
+      <c r="A6" s="15">
         <v>4</v>
       </c>
-      <c r="B6" s="26" t="s">
+      <c r="B6" s="25" t="s">
         <v>122</v>
       </c>
-      <c r="C6" s="17"/>
+      <c r="C6" s="16"/>
     </row>
     <row r="7" spans="1:3" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A7" s="16">
+      <c r="A7" s="15">
         <v>5</v>
       </c>
-      <c r="B7" s="26" t="s">
+      <c r="B7" s="25" t="s">
         <v>105</v>
       </c>
-      <c r="C7" s="17"/>
+      <c r="C7" s="16"/>
     </row>
     <row r="8" spans="1:3" ht="39" x14ac:dyDescent="0.3">
-      <c r="A8" s="16">
+      <c r="A8" s="15">
         <v>6</v>
       </c>
-      <c r="B8" s="26" t="s">
+      <c r="B8" s="25" t="s">
         <v>120</v>
       </c>
-      <c r="C8" s="17"/>
+      <c r="C8" s="16"/>
     </row>
     <row r="9" spans="1:3" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A9" s="16">
+      <c r="A9" s="15">
         <v>7</v>
       </c>
-      <c r="B9" s="34" t="s">
+      <c r="B9" s="33" t="s">
         <v>106</v>
       </c>
-      <c r="C9" s="17"/>
+      <c r="C9" s="16"/>
     </row>
     <row r="10" spans="1:3" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A10" s="16">
+      <c r="A10" s="15">
         <v>8</v>
       </c>
-      <c r="B10" s="26" t="s">
+      <c r="B10" s="25" t="s">
         <v>107</v>
       </c>
-      <c r="C10" s="17"/>
+      <c r="C10" s="16"/>
     </row>
     <row r="11" spans="1:3" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A11" s="16">
+      <c r="A11" s="15">
         <v>9</v>
       </c>
-      <c r="B11" s="26" t="s">
+      <c r="B11" s="25" t="s">
         <v>108</v>
       </c>
-      <c r="C11" s="17"/>
+      <c r="C11" s="16"/>
     </row>
     <row r="12" spans="1:3" ht="39" x14ac:dyDescent="0.3">
-      <c r="A12" s="16">
+      <c r="A12" s="15">
         <v>10</v>
       </c>
-      <c r="B12" s="26" t="s">
+      <c r="B12" s="25" t="s">
         <v>109</v>
       </c>
-      <c r="C12" s="17"/>
+      <c r="C12" s="16"/>
     </row>
     <row r="13" spans="1:3" ht="39" x14ac:dyDescent="0.3">
-      <c r="A13" s="16">
+      <c r="A13" s="15">
         <v>11</v>
       </c>
-      <c r="B13" s="26" t="s">
+      <c r="B13" s="25" t="s">
         <v>110</v>
       </c>
-      <c r="C13" s="17"/>
+      <c r="C13" s="16"/>
     </row>
     <row r="14" spans="1:3" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A14" s="16">
+      <c r="A14" s="15">
         <v>12</v>
       </c>
-      <c r="B14" s="26" t="s">
+      <c r="B14" s="25" t="s">
         <v>111</v>
       </c>
-      <c r="C14" s="17"/>
+      <c r="C14" s="16"/>
     </row>
     <row r="15" spans="1:3" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A15" s="16">
+      <c r="A15" s="15">
         <v>13</v>
       </c>
-      <c r="B15" s="26" t="s">
+      <c r="B15" s="25" t="s">
         <v>112</v>
       </c>
-      <c r="C15" s="17"/>
+      <c r="C15" s="16"/>
     </row>
     <row r="16" spans="1:3" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A16" s="16">
+      <c r="A16" s="15">
         <v>14</v>
       </c>
-      <c r="B16" s="26" t="s">
+      <c r="B16" s="25" t="s">
         <v>113</v>
       </c>
-      <c r="C16" s="17"/>
+      <c r="C16" s="16"/>
     </row>
     <row r="17" spans="1:3" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A17" s="16">
+      <c r="A17" s="15">
         <v>15</v>
       </c>
-      <c r="B17" s="26" t="s">
+      <c r="B17" s="25" t="s">
         <v>114</v>
       </c>
-      <c r="C17" s="17"/>
+      <c r="C17" s="16"/>
     </row>
     <row r="18" spans="1:3" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A18" s="16">
+      <c r="A18" s="15">
         <v>16</v>
       </c>
-      <c r="B18" s="26" t="s">
+      <c r="B18" s="25" t="s">
         <v>115</v>
       </c>
-      <c r="C18" s="17"/>
+      <c r="C18" s="16"/>
     </row>
     <row r="19" spans="1:3" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A19" s="16">
+      <c r="A19" s="15">
         <v>17</v>
       </c>
-      <c r="B19" s="26" t="s">
+      <c r="B19" s="25" t="s">
         <v>116</v>
       </c>
-      <c r="C19" s="17"/>
+      <c r="C19" s="16"/>
     </row>
     <row r="20" spans="1:3" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A20" s="16"/>
-      <c r="B20" s="26"/>
-      <c r="C20" s="17"/>
+      <c r="A20" s="15"/>
+      <c r="B20" s="25"/>
+      <c r="C20" s="16"/>
     </row>
     <row r="21" spans="1:3" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A21" s="12" t="s">
+      <c r="A21" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="B21" s="31"/>
+      <c r="B21" s="30"/>
     </row>
     <row r="22" spans="1:3" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A22" s="18" t="s">
+      <c r="A22" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="B22" s="32" t="s">
+      <c r="B22" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="C22" s="15" t="s">
+      <c r="C22" s="14" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A23" s="17"/>
-      <c r="B23" s="26"/>
-      <c r="C23" s="17"/>
+      <c r="A23" s="16"/>
+      <c r="B23" s="25"/>
+      <c r="C23" s="16"/>
     </row>
     <row r="24" spans="1:3" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A24" s="17"/>
-      <c r="B24" s="26"/>
-      <c r="C24" s="17"/>
+      <c r="A24" s="16"/>
+      <c r="B24" s="25"/>
+      <c r="C24" s="16"/>
     </row>
     <row r="25" spans="1:3" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A25" s="17"/>
-      <c r="B25" s="26"/>
-      <c r="C25" s="17"/>
+      <c r="A25" s="16"/>
+      <c r="B25" s="25"/>
+      <c r="C25" s="16"/>
     </row>
     <row r="26" spans="1:3" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A26" s="17"/>
-      <c r="B26" s="26"/>
-      <c r="C26" s="17"/>
+      <c r="A26" s="16"/>
+      <c r="B26" s="25"/>
+      <c r="C26" s="16"/>
     </row>
     <row r="27" spans="1:3" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A27" s="17"/>
-      <c r="B27" s="26"/>
-      <c r="C27" s="17"/>
+      <c r="A27" s="16"/>
+      <c r="B27" s="25"/>
+      <c r="C27" s="16"/>
     </row>
     <row r="28" spans="1:3" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A28" s="17"/>
-      <c r="B28" s="26"/>
-      <c r="C28" s="17"/>
+      <c r="A28" s="16"/>
+      <c r="B28" s="25"/>
+      <c r="C28" s="16"/>
     </row>
     <row r="29" spans="1:3" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A29" s="17"/>
-      <c r="B29" s="26"/>
-      <c r="C29" s="17"/>
+      <c r="A29" s="16"/>
+      <c r="B29" s="25"/>
+      <c r="C29" s="16"/>
     </row>
     <row r="30" spans="1:3" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A30" s="17"/>
-      <c r="B30" s="26"/>
-      <c r="C30" s="17"/>
+      <c r="A30" s="16"/>
+      <c r="B30" s="25"/>
+      <c r="C30" s="16"/>
     </row>
     <row r="31" spans="1:3" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A31" s="17"/>
-      <c r="B31" s="26"/>
-      <c r="C31" s="17"/>
+      <c r="A31" s="16"/>
+      <c r="B31" s="25"/>
+      <c r="C31" s="16"/>
     </row>
     <row r="32" spans="1:3" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A32" s="17"/>
-      <c r="B32" s="26"/>
-      <c r="C32" s="17"/>
+      <c r="A32" s="16"/>
+      <c r="B32" s="25"/>
+      <c r="C32" s="16"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4401,224 +4560,224 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="55" style="13" customWidth="1"/>
+    <col min="2" max="2" width="55" style="12" customWidth="1"/>
     <col min="3" max="3" width="36.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="35"/>
+      <c r="B1" s="34"/>
     </row>
     <row r="2" spans="1:3" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="36" t="s">
+      <c r="B2" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="15" t="s">
+      <c r="C2" s="14" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A3" s="16">
+      <c r="A3" s="15">
         <v>1</v>
       </c>
-      <c r="B3" s="37" t="s">
+      <c r="B3" s="36" t="s">
         <v>117</v>
       </c>
-      <c r="C3" s="17"/>
+      <c r="C3" s="16"/>
     </row>
     <row r="4" spans="1:3" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A4" s="16">
+      <c r="A4" s="15">
         <v>2</v>
       </c>
-      <c r="B4" s="37" t="s">
+      <c r="B4" s="36" t="s">
         <v>118</v>
       </c>
-      <c r="C4" s="17"/>
+      <c r="C4" s="16"/>
     </row>
     <row r="5" spans="1:3" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A5" s="16">
+      <c r="A5" s="15">
         <v>3</v>
       </c>
-      <c r="B5" s="37" t="s">
+      <c r="B5" s="36" t="s">
         <v>119</v>
       </c>
-      <c r="C5" s="17"/>
+      <c r="C5" s="16"/>
     </row>
     <row r="6" spans="1:3" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A6" s="16">
+      <c r="A6" s="15">
         <v>4</v>
       </c>
-      <c r="B6" s="37"/>
-      <c r="C6" s="17"/>
+      <c r="B6" s="36"/>
+      <c r="C6" s="16"/>
     </row>
     <row r="7" spans="1:3" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A7" s="16">
+      <c r="A7" s="15">
         <v>5</v>
       </c>
-      <c r="B7" s="37"/>
-      <c r="C7" s="17"/>
+      <c r="B7" s="36"/>
+      <c r="C7" s="16"/>
     </row>
     <row r="8" spans="1:3" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A8" s="16">
+      <c r="A8" s="15">
         <v>6</v>
       </c>
-      <c r="B8" s="37"/>
-      <c r="C8" s="17"/>
+      <c r="B8" s="36"/>
+      <c r="C8" s="16"/>
     </row>
     <row r="9" spans="1:3" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A9" s="16">
+      <c r="A9" s="15">
         <v>7</v>
       </c>
-      <c r="B9" s="38"/>
-      <c r="C9" s="17"/>
+      <c r="B9" s="37"/>
+      <c r="C9" s="16"/>
     </row>
     <row r="10" spans="1:3" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A10" s="16">
+      <c r="A10" s="15">
         <v>8</v>
       </c>
-      <c r="B10" s="37"/>
-      <c r="C10" s="17"/>
+      <c r="B10" s="36"/>
+      <c r="C10" s="16"/>
     </row>
     <row r="11" spans="1:3" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A11" s="16">
+      <c r="A11" s="15">
         <v>9</v>
       </c>
-      <c r="B11" s="37"/>
-      <c r="C11" s="17"/>
+      <c r="B11" s="36"/>
+      <c r="C11" s="16"/>
     </row>
     <row r="12" spans="1:3" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A12" s="16">
+      <c r="A12" s="15">
         <v>10</v>
       </c>
-      <c r="B12" s="37"/>
-      <c r="C12" s="17"/>
+      <c r="B12" s="36"/>
+      <c r="C12" s="16"/>
     </row>
     <row r="13" spans="1:3" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A13" s="16">
+      <c r="A13" s="15">
         <v>11</v>
       </c>
-      <c r="B13" s="37"/>
-      <c r="C13" s="17"/>
+      <c r="B13" s="36"/>
+      <c r="C13" s="16"/>
     </row>
     <row r="14" spans="1:3" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A14" s="16">
+      <c r="A14" s="15">
         <v>12</v>
       </c>
-      <c r="B14" s="37"/>
-      <c r="C14" s="17"/>
+      <c r="B14" s="36"/>
+      <c r="C14" s="16"/>
     </row>
     <row r="15" spans="1:3" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A15" s="16">
+      <c r="A15" s="15">
         <v>13</v>
       </c>
-      <c r="B15" s="37"/>
-      <c r="C15" s="17"/>
+      <c r="B15" s="36"/>
+      <c r="C15" s="16"/>
     </row>
     <row r="16" spans="1:3" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A16" s="16">
+      <c r="A16" s="15">
         <v>14</v>
       </c>
-      <c r="B16" s="37"/>
-      <c r="C16" s="17"/>
+      <c r="B16" s="36"/>
+      <c r="C16" s="16"/>
     </row>
     <row r="17" spans="1:3" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A17" s="16">
+      <c r="A17" s="15">
         <v>15</v>
       </c>
-      <c r="B17" s="37"/>
-      <c r="C17" s="17"/>
+      <c r="B17" s="36"/>
+      <c r="C17" s="16"/>
     </row>
     <row r="18" spans="1:3" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A18" s="16"/>
-      <c r="B18" s="37"/>
-      <c r="C18" s="17"/>
+      <c r="A18" s="15"/>
+      <c r="B18" s="36"/>
+      <c r="C18" s="16"/>
     </row>
     <row r="19" spans="1:3" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A19" s="16"/>
-      <c r="B19" s="37"/>
-      <c r="C19" s="17"/>
+      <c r="A19" s="15"/>
+      <c r="B19" s="36"/>
+      <c r="C19" s="16"/>
     </row>
     <row r="20" spans="1:3" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A20" s="16"/>
-      <c r="B20" s="37"/>
-      <c r="C20" s="17"/>
+      <c r="A20" s="15"/>
+      <c r="B20" s="36"/>
+      <c r="C20" s="16"/>
     </row>
     <row r="21" spans="1:3" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A21" s="16"/>
-      <c r="B21" s="37"/>
-      <c r="C21" s="17"/>
+      <c r="A21" s="15"/>
+      <c r="B21" s="36"/>
+      <c r="C21" s="16"/>
     </row>
     <row r="22" spans="1:3" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A22" s="12" t="s">
+      <c r="A22" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="B22" s="35"/>
+      <c r="B22" s="34"/>
     </row>
     <row r="23" spans="1:3" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A23" s="18" t="s">
+      <c r="A23" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="B23" s="36" t="s">
+      <c r="B23" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="C23" s="15" t="s">
+      <c r="C23" s="14" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A24" s="17"/>
-      <c r="B24" s="37"/>
-      <c r="C24" s="17"/>
+      <c r="A24" s="16"/>
+      <c r="B24" s="36"/>
+      <c r="C24" s="16"/>
     </row>
     <row r="25" spans="1:3" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A25" s="17"/>
-      <c r="B25" s="37"/>
-      <c r="C25" s="17"/>
+      <c r="A25" s="16"/>
+      <c r="B25" s="36"/>
+      <c r="C25" s="16"/>
     </row>
     <row r="26" spans="1:3" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A26" s="17"/>
-      <c r="B26" s="37"/>
-      <c r="C26" s="17"/>
+      <c r="A26" s="16"/>
+      <c r="B26" s="36"/>
+      <c r="C26" s="16"/>
     </row>
     <row r="27" spans="1:3" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A27" s="17"/>
-      <c r="B27" s="37"/>
-      <c r="C27" s="17"/>
+      <c r="A27" s="16"/>
+      <c r="B27" s="36"/>
+      <c r="C27" s="16"/>
     </row>
     <row r="28" spans="1:3" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A28" s="17"/>
-      <c r="B28" s="37"/>
-      <c r="C28" s="17"/>
+      <c r="A28" s="16"/>
+      <c r="B28" s="36"/>
+      <c r="C28" s="16"/>
     </row>
     <row r="29" spans="1:3" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A29" s="17"/>
-      <c r="B29" s="37"/>
-      <c r="C29" s="17"/>
+      <c r="A29" s="16"/>
+      <c r="B29" s="36"/>
+      <c r="C29" s="16"/>
     </row>
     <row r="30" spans="1:3" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A30" s="17"/>
-      <c r="B30" s="37"/>
-      <c r="C30" s="17"/>
+      <c r="A30" s="16"/>
+      <c r="B30" s="36"/>
+      <c r="C30" s="16"/>
     </row>
     <row r="31" spans="1:3" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A31" s="17"/>
-      <c r="B31" s="37"/>
-      <c r="C31" s="17"/>
+      <c r="A31" s="16"/>
+      <c r="B31" s="36"/>
+      <c r="C31" s="16"/>
     </row>
     <row r="32" spans="1:3" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A32" s="17"/>
-      <c r="B32" s="37"/>
-      <c r="C32" s="17"/>
+      <c r="A32" s="16"/>
+      <c r="B32" s="36"/>
+      <c r="C32" s="16"/>
     </row>
     <row r="33" spans="1:3" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A33" s="17"/>
-      <c r="B33" s="37"/>
-      <c r="C33" s="17"/>
+      <c r="A33" s="16"/>
+      <c r="B33" s="36"/>
+      <c r="C33" s="16"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4629,292 +4788,292 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.85546875" style="33" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="63" style="33" customWidth="1"/>
-    <col min="3" max="3" width="36.85546875" style="33" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="33"/>
+    <col min="1" max="1" width="18.85546875" style="32" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="63" style="32" customWidth="1"/>
+    <col min="3" max="3" width="36.85546875" style="32" customWidth="1"/>
+    <col min="4" max="16384" width="9.140625" style="32"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="41" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="35"/>
+      <c r="B1" s="34"/>
     </row>
     <row r="2" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="43" t="s">
+      <c r="A2" s="42" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="36" t="s">
+      <c r="B2" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="44" t="s">
+      <c r="C2" s="43" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A3" s="45">
+      <c r="A3" s="44">
         <v>1</v>
       </c>
-      <c r="B3" s="37" t="s">
+      <c r="B3" s="36" t="s">
         <v>125</v>
       </c>
-      <c r="C3" s="27"/>
+      <c r="C3" s="26"/>
     </row>
     <row r="4" spans="1:3" ht="39" x14ac:dyDescent="0.25">
-      <c r="A4" s="45">
+      <c r="A4" s="44">
         <v>2</v>
       </c>
-      <c r="B4" s="37" t="s">
+      <c r="B4" s="36" t="s">
         <v>126</v>
       </c>
-      <c r="C4" s="27"/>
+      <c r="C4" s="26"/>
     </row>
     <row r="5" spans="1:3" ht="78" x14ac:dyDescent="0.25">
-      <c r="A5" s="45">
+      <c r="A5" s="44">
         <v>3</v>
       </c>
-      <c r="B5" s="37" t="s">
+      <c r="B5" s="36" t="s">
         <v>127</v>
       </c>
-      <c r="C5" s="27"/>
+      <c r="C5" s="26"/>
     </row>
     <row r="6" spans="1:3" ht="39" x14ac:dyDescent="0.25">
-      <c r="A6" s="45">
+      <c r="A6" s="44">
         <v>4</v>
       </c>
-      <c r="B6" s="37" t="s">
+      <c r="B6" s="36" t="s">
         <v>128</v>
       </c>
-      <c r="C6" s="27"/>
+      <c r="C6" s="26"/>
     </row>
     <row r="7" spans="1:3" ht="39" x14ac:dyDescent="0.25">
-      <c r="A7" s="45">
+      <c r="A7" s="44">
         <v>5</v>
       </c>
-      <c r="B7" s="37" t="s">
+      <c r="B7" s="36" t="s">
         <v>129</v>
       </c>
-      <c r="C7" s="27"/>
+      <c r="C7" s="26"/>
     </row>
     <row r="8" spans="1:3" ht="58.5" x14ac:dyDescent="0.25">
-      <c r="A8" s="45">
+      <c r="A8" s="44">
         <v>6</v>
       </c>
-      <c r="B8" s="37" t="s">
+      <c r="B8" s="36" t="s">
         <v>130</v>
       </c>
-      <c r="C8" s="27"/>
+      <c r="C8" s="26"/>
     </row>
     <row r="9" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A9" s="45">
+      <c r="A9" s="44">
         <v>7</v>
       </c>
-      <c r="B9" s="38" t="s">
+      <c r="B9" s="37" t="s">
         <v>131</v>
       </c>
-      <c r="C9" s="27"/>
+      <c r="C9" s="26"/>
     </row>
     <row r="10" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A10" s="45">
+      <c r="A10" s="44">
         <v>8</v>
       </c>
-      <c r="B10" s="37" t="s">
+      <c r="B10" s="36" t="s">
         <v>132</v>
       </c>
-      <c r="C10" s="27"/>
+      <c r="C10" s="26"/>
     </row>
     <row r="11" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A11" s="45">
+      <c r="A11" s="44">
         <v>9</v>
       </c>
-      <c r="B11" s="37" t="s">
+      <c r="B11" s="36" t="s">
         <v>133</v>
       </c>
-      <c r="C11" s="27"/>
+      <c r="C11" s="26"/>
     </row>
     <row r="12" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A12" s="45">
+      <c r="A12" s="44">
         <v>10</v>
       </c>
-      <c r="B12" s="37" t="s">
+      <c r="B12" s="36" t="s">
         <v>134</v>
       </c>
-      <c r="C12" s="27"/>
+      <c r="C12" s="26"/>
     </row>
     <row r="13" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A13" s="45">
+      <c r="A13" s="44">
         <v>11</v>
       </c>
-      <c r="B13" s="37" t="s">
+      <c r="B13" s="36" t="s">
         <v>135</v>
       </c>
-      <c r="C13" s="27"/>
+      <c r="C13" s="26"/>
     </row>
     <row r="14" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A14" s="45">
+      <c r="A14" s="44">
         <v>12</v>
       </c>
-      <c r="B14" s="37" t="s">
+      <c r="B14" s="36" t="s">
         <v>136</v>
       </c>
-      <c r="C14" s="27"/>
+      <c r="C14" s="26"/>
     </row>
     <row r="15" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A15" s="45">
+      <c r="A15" s="44">
         <v>13</v>
       </c>
-      <c r="B15" s="37" t="s">
+      <c r="B15" s="36" t="s">
         <v>137</v>
       </c>
-      <c r="C15" s="27"/>
+      <c r="C15" s="26"/>
     </row>
     <row r="16" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A16" s="45">
+      <c r="A16" s="44">
         <v>14</v>
       </c>
-      <c r="B16" s="37" t="s">
+      <c r="B16" s="36" t="s">
         <v>138</v>
       </c>
-      <c r="C16" s="27"/>
+      <c r="C16" s="26"/>
     </row>
     <row r="17" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A17" s="45">
+      <c r="A17" s="44">
         <v>15</v>
       </c>
-      <c r="B17" s="37" t="s">
+      <c r="B17" s="36" t="s">
         <v>139</v>
       </c>
-      <c r="C17" s="27"/>
+      <c r="C17" s="26"/>
     </row>
     <row r="18" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A18" s="45"/>
-      <c r="B18" s="48" t="s">
+      <c r="A18" s="44"/>
+      <c r="B18" s="47" t="s">
         <v>140</v>
       </c>
-      <c r="C18" s="27"/>
+      <c r="C18" s="26"/>
     </row>
     <row r="19" spans="1:3" ht="39" x14ac:dyDescent="0.25">
-      <c r="A19" s="45"/>
-      <c r="B19" s="47" t="s">
+      <c r="A19" s="44"/>
+      <c r="B19" s="46" t="s">
         <v>141</v>
       </c>
-      <c r="C19" s="27"/>
+      <c r="C19" s="26"/>
     </row>
     <row r="20" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A20" s="45"/>
-      <c r="B20" s="37" t="s">
+      <c r="A20" s="44"/>
+      <c r="B20" s="36" t="s">
         <v>147</v>
       </c>
-      <c r="C20" s="27"/>
+      <c r="C20" s="26"/>
     </row>
     <row r="21" spans="1:3" ht="78" x14ac:dyDescent="0.25">
-      <c r="A21" s="45"/>
-      <c r="B21" s="37" t="s">
+      <c r="A21" s="44"/>
+      <c r="B21" s="36" t="s">
         <v>142</v>
       </c>
-      <c r="C21" s="27"/>
+      <c r="C21" s="26"/>
     </row>
     <row r="22" spans="1:3" ht="39" x14ac:dyDescent="0.25">
-      <c r="A22" s="45"/>
-      <c r="B22" s="37" t="s">
+      <c r="A22" s="44"/>
+      <c r="B22" s="36" t="s">
         <v>143</v>
       </c>
-      <c r="C22" s="27"/>
+      <c r="C22" s="26"/>
     </row>
     <row r="23" spans="1:3" ht="39" x14ac:dyDescent="0.25">
-      <c r="A23" s="45"/>
-      <c r="B23" s="37" t="s">
+      <c r="A23" s="44"/>
+      <c r="B23" s="36" t="s">
         <v>145</v>
       </c>
-      <c r="C23" s="27"/>
+      <c r="C23" s="26"/>
     </row>
     <row r="24" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A24" s="45"/>
-      <c r="B24" s="37" t="s">
+      <c r="A24" s="44"/>
+      <c r="B24" s="36" t="s">
         <v>146</v>
       </c>
-      <c r="C24" s="27"/>
+      <c r="C24" s="26"/>
     </row>
     <row r="25" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A25" s="45"/>
-      <c r="B25" s="37"/>
-      <c r="C25" s="27"/>
+      <c r="A25" s="44"/>
+      <c r="B25" s="36"/>
+      <c r="C25" s="26"/>
     </row>
     <row r="26" spans="1:3" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A26" s="42" t="s">
+      <c r="A26" s="41" t="s">
         <v>28</v>
       </c>
-      <c r="B26" s="35"/>
+      <c r="B26" s="34"/>
     </row>
     <row r="27" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A27" s="46" t="s">
+      <c r="A27" s="45" t="s">
         <v>23</v>
       </c>
-      <c r="B27" s="36" t="s">
+      <c r="B27" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="C27" s="44" t="s">
+      <c r="C27" s="43" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A28" s="27"/>
-      <c r="B28" s="37" t="s">
+      <c r="A28" s="26"/>
+      <c r="B28" s="36" t="s">
         <v>144</v>
       </c>
-      <c r="C28" s="27"/>
+      <c r="C28" s="26"/>
     </row>
     <row r="29" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A29" s="27"/>
-      <c r="B29" s="37"/>
-      <c r="C29" s="27"/>
+      <c r="A29" s="26"/>
+      <c r="B29" s="36"/>
+      <c r="C29" s="26"/>
     </row>
     <row r="30" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A30" s="27"/>
-      <c r="B30" s="37"/>
-      <c r="C30" s="27"/>
+      <c r="A30" s="26"/>
+      <c r="B30" s="36"/>
+      <c r="C30" s="26"/>
     </row>
     <row r="31" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A31" s="27"/>
-      <c r="B31" s="37"/>
-      <c r="C31" s="27"/>
+      <c r="A31" s="26"/>
+      <c r="B31" s="36"/>
+      <c r="C31" s="26"/>
     </row>
     <row r="32" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A32" s="27"/>
-      <c r="B32" s="37"/>
-      <c r="C32" s="27"/>
+      <c r="A32" s="26"/>
+      <c r="B32" s="36"/>
+      <c r="C32" s="26"/>
     </row>
     <row r="33" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A33" s="27"/>
-      <c r="B33" s="37"/>
-      <c r="C33" s="27"/>
+      <c r="A33" s="26"/>
+      <c r="B33" s="36"/>
+      <c r="C33" s="26"/>
     </row>
     <row r="34" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A34" s="27"/>
-      <c r="B34" s="37"/>
-      <c r="C34" s="27"/>
+      <c r="A34" s="26"/>
+      <c r="B34" s="36"/>
+      <c r="C34" s="26"/>
     </row>
     <row r="35" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A35" s="27"/>
-      <c r="B35" s="37"/>
-      <c r="C35" s="27"/>
+      <c r="A35" s="26"/>
+      <c r="B35" s="36"/>
+      <c r="C35" s="26"/>
     </row>
     <row r="36" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A36" s="27"/>
-      <c r="B36" s="37"/>
-      <c r="C36" s="27"/>
+      <c r="A36" s="26"/>
+      <c r="B36" s="36"/>
+      <c r="C36" s="26"/>
     </row>
     <row r="37" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A37" s="27"/>
-      <c r="B37" s="37"/>
-      <c r="C37" s="27"/>
+      <c r="A37" s="26"/>
+      <c r="B37" s="36"/>
+      <c r="C37" s="26"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Source/Document/Meeting minutes/Meeting minute.xlsx
+++ b/Source/Document/Meeting minutes/Meeting minute.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="166">
   <si>
     <t>MEETING MINUTES</t>
   </si>
@@ -512,6 +512,45 @@
   </si>
   <si>
     <t>Week 14</t>
+  </si>
+  <si>
+    <t>Order có tên khách hàng và địa chỉ</t>
+  </si>
+  <si>
+    <t>Customer nên đổi thành Member?</t>
+  </si>
+  <si>
+    <t>Guest ko có trong concept</t>
+  </si>
+  <si>
+    <t>Ko co OrderDetails</t>
+  </si>
+  <si>
+    <t>FullName trong Consigment đổi tên thành ProductOwner</t>
+  </si>
+  <si>
+    <t>FullName trong Order đổi tên thành CustomerOrder</t>
+  </si>
+  <si>
+    <t>Nghien cuu lai the Visa cac buoc thanh toaan</t>
+  </si>
+  <si>
+    <t>Thiếu Price trong Consignment và Product</t>
+  </si>
+  <si>
+    <t>Giá recommend trong Consign process đổi thành range.</t>
+  </si>
+  <si>
+    <t>[Rating, wishlist… thích thì làm] khùng ^^!</t>
+  </si>
+  <si>
+    <t>Alternative chuc nang load du lieu</t>
+  </si>
+  <si>
+    <t>Today -&gt; current date</t>
+  </si>
+  <si>
+    <t>Button -&gt; send command to…</t>
   </si>
 </sst>
 </file>
@@ -796,15 +835,6 @@
     <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -825,6 +855,15 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1136,8 +1175,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AD12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1150,102 +1189,102 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="40"/>
-      <c r="C1" s="40"/>
-      <c r="D1" s="40"/>
-      <c r="E1" s="40"/>
-      <c r="F1" s="40"/>
-      <c r="G1" s="40"/>
-      <c r="H1" s="40"/>
-      <c r="I1" s="40"/>
-      <c r="J1" s="40"/>
-      <c r="K1" s="40"/>
-      <c r="L1" s="40"/>
-      <c r="M1" s="40"/>
-      <c r="N1" s="40"/>
-      <c r="O1" s="40"/>
-      <c r="P1" s="40"/>
-      <c r="Q1" s="40"/>
-      <c r="R1" s="40"/>
-      <c r="S1" s="40"/>
-      <c r="T1" s="40"/>
-      <c r="U1" s="40"/>
-      <c r="V1" s="40"/>
-      <c r="W1" s="40"/>
-      <c r="X1" s="40"/>
-      <c r="Y1" s="40"/>
-      <c r="Z1" s="40"/>
-      <c r="AA1" s="40"/>
-      <c r="AB1" s="40"/>
-      <c r="AC1" s="40"/>
-      <c r="AD1" s="40"/>
+      <c r="B1" s="47"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="47"/>
+      <c r="F1" s="47"/>
+      <c r="G1" s="47"/>
+      <c r="H1" s="47"/>
+      <c r="I1" s="47"/>
+      <c r="J1" s="47"/>
+      <c r="K1" s="47"/>
+      <c r="L1" s="47"/>
+      <c r="M1" s="47"/>
+      <c r="N1" s="47"/>
+      <c r="O1" s="47"/>
+      <c r="P1" s="47"/>
+      <c r="Q1" s="47"/>
+      <c r="R1" s="47"/>
+      <c r="S1" s="47"/>
+      <c r="T1" s="47"/>
+      <c r="U1" s="47"/>
+      <c r="V1" s="47"/>
+      <c r="W1" s="47"/>
+      <c r="X1" s="47"/>
+      <c r="Y1" s="47"/>
+      <c r="Z1" s="47"/>
+      <c r="AA1" s="47"/>
+      <c r="AB1" s="47"/>
+      <c r="AC1" s="47"/>
+      <c r="AD1" s="47"/>
     </row>
     <row r="2" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="40"/>
-      <c r="B2" s="40"/>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40"/>
-      <c r="E2" s="40"/>
-      <c r="F2" s="40"/>
-      <c r="G2" s="40"/>
-      <c r="H2" s="40"/>
-      <c r="I2" s="40"/>
-      <c r="J2" s="40"/>
-      <c r="K2" s="40"/>
-      <c r="L2" s="40"/>
-      <c r="M2" s="40"/>
-      <c r="N2" s="40"/>
-      <c r="O2" s="40"/>
-      <c r="P2" s="40"/>
-      <c r="Q2" s="40"/>
-      <c r="R2" s="40"/>
-      <c r="S2" s="40"/>
-      <c r="T2" s="40"/>
-      <c r="U2" s="40"/>
-      <c r="V2" s="40"/>
-      <c r="W2" s="40"/>
-      <c r="X2" s="40"/>
-      <c r="Y2" s="40"/>
-      <c r="Z2" s="40"/>
-      <c r="AA2" s="40"/>
-      <c r="AB2" s="40"/>
-      <c r="AC2" s="40"/>
-      <c r="AD2" s="40"/>
+      <c r="A2" s="47"/>
+      <c r="B2" s="47"/>
+      <c r="C2" s="47"/>
+      <c r="D2" s="47"/>
+      <c r="E2" s="47"/>
+      <c r="F2" s="47"/>
+      <c r="G2" s="47"/>
+      <c r="H2" s="47"/>
+      <c r="I2" s="47"/>
+      <c r="J2" s="47"/>
+      <c r="K2" s="47"/>
+      <c r="L2" s="47"/>
+      <c r="M2" s="47"/>
+      <c r="N2" s="47"/>
+      <c r="O2" s="47"/>
+      <c r="P2" s="47"/>
+      <c r="Q2" s="47"/>
+      <c r="R2" s="47"/>
+      <c r="S2" s="47"/>
+      <c r="T2" s="47"/>
+      <c r="U2" s="47"/>
+      <c r="V2" s="47"/>
+      <c r="W2" s="47"/>
+      <c r="X2" s="47"/>
+      <c r="Y2" s="47"/>
+      <c r="Z2" s="47"/>
+      <c r="AA2" s="47"/>
+      <c r="AB2" s="47"/>
+      <c r="AC2" s="47"/>
+      <c r="AD2" s="47"/>
     </row>
     <row r="3" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="40"/>
-      <c r="B3" s="40"/>
-      <c r="C3" s="40"/>
-      <c r="D3" s="40"/>
-      <c r="E3" s="40"/>
-      <c r="F3" s="40"/>
-      <c r="G3" s="40"/>
-      <c r="H3" s="40"/>
-      <c r="I3" s="40"/>
-      <c r="J3" s="40"/>
-      <c r="K3" s="40"/>
-      <c r="L3" s="40"/>
-      <c r="M3" s="40"/>
-      <c r="N3" s="40"/>
-      <c r="O3" s="40"/>
-      <c r="P3" s="40"/>
-      <c r="Q3" s="40"/>
-      <c r="R3" s="40"/>
-      <c r="S3" s="40"/>
-      <c r="T3" s="40"/>
-      <c r="U3" s="40"/>
-      <c r="V3" s="40"/>
-      <c r="W3" s="40"/>
-      <c r="X3" s="40"/>
-      <c r="Y3" s="40"/>
-      <c r="Z3" s="40"/>
-      <c r="AA3" s="40"/>
-      <c r="AB3" s="40"/>
-      <c r="AC3" s="40"/>
-      <c r="AD3" s="40"/>
+      <c r="A3" s="47"/>
+      <c r="B3" s="47"/>
+      <c r="C3" s="47"/>
+      <c r="D3" s="47"/>
+      <c r="E3" s="47"/>
+      <c r="F3" s="47"/>
+      <c r="G3" s="47"/>
+      <c r="H3" s="47"/>
+      <c r="I3" s="47"/>
+      <c r="J3" s="47"/>
+      <c r="K3" s="47"/>
+      <c r="L3" s="47"/>
+      <c r="M3" s="47"/>
+      <c r="N3" s="47"/>
+      <c r="O3" s="47"/>
+      <c r="P3" s="47"/>
+      <c r="Q3" s="47"/>
+      <c r="R3" s="47"/>
+      <c r="S3" s="47"/>
+      <c r="T3" s="47"/>
+      <c r="U3" s="47"/>
+      <c r="V3" s="47"/>
+      <c r="W3" s="47"/>
+      <c r="X3" s="47"/>
+      <c r="Y3" s="47"/>
+      <c r="Z3" s="47"/>
+      <c r="AA3" s="47"/>
+      <c r="AB3" s="47"/>
+      <c r="AC3" s="47"/>
+      <c r="AD3" s="47"/>
     </row>
     <row r="4" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="48"/>
@@ -1284,62 +1323,62 @@
         <v>1</v>
       </c>
       <c r="B5" s="4"/>
-      <c r="C5" s="38" t="s">
+      <c r="C5" s="45" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="39"/>
-      <c r="E5" s="38" t="s">
+      <c r="D5" s="46"/>
+      <c r="E5" s="45" t="s">
         <v>12</v>
       </c>
-      <c r="F5" s="39"/>
-      <c r="G5" s="38" t="s">
+      <c r="F5" s="46"/>
+      <c r="G5" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="H5" s="39"/>
-      <c r="I5" s="38" t="s">
+      <c r="H5" s="46"/>
+      <c r="I5" s="45" t="s">
         <v>14</v>
       </c>
-      <c r="J5" s="39"/>
-      <c r="K5" s="38" t="s">
+      <c r="J5" s="46"/>
+      <c r="K5" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="L5" s="39"/>
-      <c r="M5" s="38" t="s">
+      <c r="L5" s="46"/>
+      <c r="M5" s="45" t="s">
         <v>16</v>
       </c>
-      <c r="N5" s="39"/>
-      <c r="O5" s="38" t="s">
+      <c r="N5" s="46"/>
+      <c r="O5" s="45" t="s">
         <v>17</v>
       </c>
-      <c r="P5" s="39"/>
-      <c r="Q5" s="38" t="s">
+      <c r="P5" s="46"/>
+      <c r="Q5" s="45" t="s">
         <v>18</v>
       </c>
-      <c r="R5" s="39"/>
-      <c r="S5" s="38" t="s">
+      <c r="R5" s="46"/>
+      <c r="S5" s="45" t="s">
         <v>19</v>
       </c>
-      <c r="T5" s="39"/>
-      <c r="U5" s="38" t="s">
+      <c r="T5" s="46"/>
+      <c r="U5" s="45" t="s">
         <v>148</v>
       </c>
-      <c r="V5" s="39"/>
-      <c r="W5" s="38" t="s">
+      <c r="V5" s="46"/>
+      <c r="W5" s="45" t="s">
         <v>149</v>
       </c>
-      <c r="X5" s="39"/>
-      <c r="Y5" s="38" t="s">
+      <c r="X5" s="46"/>
+      <c r="Y5" s="45" t="s">
         <v>150</v>
       </c>
-      <c r="Z5" s="39"/>
-      <c r="AA5" s="38" t="s">
+      <c r="Z5" s="46"/>
+      <c r="AA5" s="45" t="s">
         <v>151</v>
       </c>
-      <c r="AB5" s="39"/>
-      <c r="AC5" s="38" t="s">
+      <c r="AB5" s="46"/>
+      <c r="AC5" s="45" t="s">
         <v>152</v>
       </c>
-      <c r="AD5" s="39"/>
+      <c r="AD5" s="46"/>
     </row>
     <row r="6" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
@@ -1457,7 +1496,9 @@
       <c r="I8" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="J8" s="1"/>
+      <c r="J8" s="1" t="s">
+        <v>78</v>
+      </c>
       <c r="K8" s="1"/>
       <c r="L8" s="1"/>
       <c r="M8" s="1"/>
@@ -1507,7 +1548,9 @@
       <c r="I9" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="J9" s="1"/>
+      <c r="J9" s="1" t="s">
+        <v>78</v>
+      </c>
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
       <c r="M9" s="1"/>
@@ -1555,7 +1598,9 @@
       <c r="I10" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="J10" s="1"/>
+      <c r="J10" s="1" t="s">
+        <v>78</v>
+      </c>
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
       <c r="M10" s="1"/>
@@ -1603,7 +1648,9 @@
       <c r="I11" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="J11" s="1"/>
+      <c r="J11" s="1" t="s">
+        <v>78</v>
+      </c>
       <c r="K11" s="1"/>
       <c r="L11" s="1"/>
       <c r="M11" s="1"/>
@@ -1651,7 +1698,9 @@
       <c r="I12" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="J12" s="1"/>
+      <c r="J12" s="1" t="s">
+        <v>78</v>
+      </c>
       <c r="K12" s="1"/>
       <c r="L12" s="1"/>
       <c r="M12" s="1"/>
@@ -1675,11 +1724,7 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="U5:V5"/>
-    <mergeCell ref="W5:X5"/>
-    <mergeCell ref="Y5:Z5"/>
-    <mergeCell ref="AA5:AB5"/>
-    <mergeCell ref="AC5:AD5"/>
+    <mergeCell ref="A1:AD4"/>
     <mergeCell ref="O5:P5"/>
     <mergeCell ref="Q5:R5"/>
     <mergeCell ref="S5:T5"/>
@@ -1689,7 +1734,11 @@
     <mergeCell ref="I5:J5"/>
     <mergeCell ref="K5:L5"/>
     <mergeCell ref="M5:N5"/>
-    <mergeCell ref="A1:AD4"/>
+    <mergeCell ref="U5:V5"/>
+    <mergeCell ref="W5:X5"/>
+    <mergeCell ref="Y5:Z5"/>
+    <mergeCell ref="AA5:AB5"/>
+    <mergeCell ref="AC5:AD5"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C6" location="W1_1!A1" display="11/5/2015"/>
@@ -1710,8 +1759,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1723,161 +1772,187 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="38" t="s">
         <v>22</v>
       </c>
       <c r="B1" s="34"/>
     </row>
     <row r="2" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="42" t="s">
+      <c r="A2" s="39" t="s">
         <v>23</v>
       </c>
       <c r="B2" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="43" t="s">
+      <c r="C2" s="40" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A3" s="44">
+      <c r="A3" s="41">
         <v>1</v>
       </c>
-      <c r="B3" s="36"/>
+      <c r="B3" s="36" t="s">
+        <v>153</v>
+      </c>
       <c r="C3" s="26"/>
     </row>
     <row r="4" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A4" s="44">
+      <c r="A4" s="41">
         <v>2</v>
       </c>
-      <c r="B4" s="36"/>
+      <c r="B4" s="43" t="s">
+        <v>154</v>
+      </c>
       <c r="C4" s="26"/>
     </row>
     <row r="5" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="44">
+      <c r="A5" s="41">
         <v>3</v>
       </c>
-      <c r="B5" s="36"/>
+      <c r="B5" s="36" t="s">
+        <v>155</v>
+      </c>
       <c r="C5" s="26"/>
     </row>
     <row r="6" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A6" s="44">
+      <c r="A6" s="41">
         <v>4</v>
       </c>
-      <c r="B6" s="36"/>
+      <c r="B6" s="36" t="s">
+        <v>156</v>
+      </c>
       <c r="C6" s="26"/>
     </row>
-    <row r="7" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A7" s="44">
+    <row r="7" spans="1:3" ht="39" x14ac:dyDescent="0.25">
+      <c r="A7" s="41">
         <v>5</v>
       </c>
-      <c r="B7" s="36"/>
+      <c r="B7" s="36" t="s">
+        <v>157</v>
+      </c>
       <c r="C7" s="26"/>
     </row>
-    <row r="8" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A8" s="44">
+    <row r="8" spans="1:3" ht="39" x14ac:dyDescent="0.25">
+      <c r="A8" s="41">
         <v>6</v>
       </c>
-      <c r="B8" s="36"/>
+      <c r="B8" s="37" t="s">
+        <v>158</v>
+      </c>
       <c r="C8" s="26"/>
     </row>
     <row r="9" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A9" s="44">
+      <c r="A9" s="41">
         <v>7</v>
       </c>
-      <c r="B9" s="37"/>
+      <c r="B9" s="37" t="s">
+        <v>159</v>
+      </c>
       <c r="C9" s="26"/>
     </row>
     <row r="10" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A10" s="44">
+      <c r="A10" s="41">
         <v>8</v>
       </c>
-      <c r="B10" s="36"/>
+      <c r="B10" s="36" t="s">
+        <v>160</v>
+      </c>
       <c r="C10" s="26"/>
     </row>
-    <row r="11" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A11" s="44">
+    <row r="11" spans="1:3" ht="39" x14ac:dyDescent="0.25">
+      <c r="A11" s="41">
         <v>9</v>
       </c>
-      <c r="B11" s="36"/>
+      <c r="B11" s="36" t="s">
+        <v>161</v>
+      </c>
       <c r="C11" s="26"/>
     </row>
     <row r="12" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A12" s="44">
+      <c r="A12" s="41">
         <v>10</v>
       </c>
-      <c r="B12" s="36"/>
+      <c r="B12" s="36" t="s">
+        <v>162</v>
+      </c>
       <c r="C12" s="26"/>
     </row>
     <row r="13" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A13" s="44">
+      <c r="A13" s="41">
         <v>11</v>
       </c>
-      <c r="B13" s="36"/>
+      <c r="B13" s="36" t="s">
+        <v>163</v>
+      </c>
       <c r="C13" s="26"/>
     </row>
     <row r="14" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A14" s="44">
+      <c r="A14" s="41">
         <v>12</v>
       </c>
-      <c r="B14" s="36"/>
+      <c r="B14" s="36" t="s">
+        <v>164</v>
+      </c>
       <c r="C14" s="26"/>
     </row>
     <row r="15" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A15" s="44">
+      <c r="A15" s="41">
         <v>13</v>
       </c>
-      <c r="B15" s="36"/>
+      <c r="B15" s="36" t="s">
+        <v>165</v>
+      </c>
       <c r="C15" s="26"/>
     </row>
     <row r="16" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A16" s="44">
+      <c r="A16" s="41">
         <v>14</v>
       </c>
       <c r="B16" s="36"/>
       <c r="C16" s="26"/>
     </row>
     <row r="17" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A17" s="44">
+      <c r="A17" s="41">
         <v>15</v>
       </c>
       <c r="B17" s="36"/>
       <c r="C17" s="26"/>
     </row>
     <row r="18" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A18" s="44"/>
+      <c r="A18" s="41"/>
       <c r="B18" s="36"/>
       <c r="C18" s="26"/>
     </row>
     <row r="19" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A19" s="44"/>
+      <c r="A19" s="41"/>
       <c r="B19" s="36"/>
       <c r="C19" s="26"/>
     </row>
     <row r="20" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A20" s="44"/>
+      <c r="A20" s="41"/>
       <c r="B20" s="36"/>
       <c r="C20" s="26"/>
     </row>
     <row r="21" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A21" s="44"/>
+      <c r="A21" s="41"/>
       <c r="B21" s="36"/>
       <c r="C21" s="26"/>
     </row>
     <row r="22" spans="1:3" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A22" s="41" t="s">
+      <c r="A22" s="38" t="s">
         <v>28</v>
       </c>
       <c r="B22" s="34"/>
     </row>
     <row r="23" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A23" s="45" t="s">
+      <c r="A23" s="42" t="s">
         <v>23</v>
       </c>
       <c r="B23" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="C23" s="43" t="s">
+      <c r="C23" s="40" t="s">
         <v>29</v>
       </c>
     </row>
@@ -1933,6 +2008,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1953,161 +2029,161 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="38" t="s">
         <v>22</v>
       </c>
       <c r="B1" s="34"/>
     </row>
     <row r="2" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="42" t="s">
+      <c r="A2" s="39" t="s">
         <v>23</v>
       </c>
       <c r="B2" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="43" t="s">
+      <c r="C2" s="40" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A3" s="44">
+      <c r="A3" s="41">
         <v>1</v>
       </c>
       <c r="B3" s="36"/>
       <c r="C3" s="26"/>
     </row>
     <row r="4" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A4" s="44">
+      <c r="A4" s="41">
         <v>2</v>
       </c>
       <c r="B4" s="36"/>
       <c r="C4" s="26"/>
     </row>
     <row r="5" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="44">
+      <c r="A5" s="41">
         <v>3</v>
       </c>
       <c r="B5" s="36"/>
       <c r="C5" s="26"/>
     </row>
     <row r="6" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A6" s="44">
+      <c r="A6" s="41">
         <v>4</v>
       </c>
       <c r="B6" s="36"/>
       <c r="C6" s="26"/>
     </row>
     <row r="7" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A7" s="44">
+      <c r="A7" s="41">
         <v>5</v>
       </c>
       <c r="B7" s="36"/>
       <c r="C7" s="26"/>
     </row>
     <row r="8" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A8" s="44">
+      <c r="A8" s="41">
         <v>6</v>
       </c>
       <c r="B8" s="36"/>
       <c r="C8" s="26"/>
     </row>
     <row r="9" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A9" s="44">
+      <c r="A9" s="41">
         <v>7</v>
       </c>
       <c r="B9" s="37"/>
       <c r="C9" s="26"/>
     </row>
     <row r="10" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A10" s="44">
+      <c r="A10" s="41">
         <v>8</v>
       </c>
       <c r="B10" s="36"/>
       <c r="C10" s="26"/>
     </row>
     <row r="11" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A11" s="44">
+      <c r="A11" s="41">
         <v>9</v>
       </c>
       <c r="B11" s="36"/>
       <c r="C11" s="26"/>
     </row>
     <row r="12" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A12" s="44">
+      <c r="A12" s="41">
         <v>10</v>
       </c>
       <c r="B12" s="36"/>
       <c r="C12" s="26"/>
     </row>
     <row r="13" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A13" s="44">
+      <c r="A13" s="41">
         <v>11</v>
       </c>
       <c r="B13" s="36"/>
       <c r="C13" s="26"/>
     </row>
     <row r="14" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A14" s="44">
+      <c r="A14" s="41">
         <v>12</v>
       </c>
       <c r="B14" s="36"/>
       <c r="C14" s="26"/>
     </row>
     <row r="15" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A15" s="44">
+      <c r="A15" s="41">
         <v>13</v>
       </c>
       <c r="B15" s="36"/>
       <c r="C15" s="26"/>
     </row>
     <row r="16" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A16" s="44">
+      <c r="A16" s="41">
         <v>14</v>
       </c>
       <c r="B16" s="36"/>
       <c r="C16" s="26"/>
     </row>
     <row r="17" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A17" s="44">
+      <c r="A17" s="41">
         <v>15</v>
       </c>
       <c r="B17" s="36"/>
       <c r="C17" s="26"/>
     </row>
     <row r="18" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A18" s="44"/>
+      <c r="A18" s="41"/>
       <c r="B18" s="36"/>
       <c r="C18" s="26"/>
     </row>
     <row r="19" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A19" s="44"/>
+      <c r="A19" s="41"/>
       <c r="B19" s="36"/>
       <c r="C19" s="26"/>
     </row>
     <row r="20" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A20" s="44"/>
+      <c r="A20" s="41"/>
       <c r="B20" s="36"/>
       <c r="C20" s="26"/>
     </row>
     <row r="21" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A21" s="44"/>
+      <c r="A21" s="41"/>
       <c r="B21" s="36"/>
       <c r="C21" s="26"/>
     </row>
     <row r="22" spans="1:3" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A22" s="41" t="s">
+      <c r="A22" s="38" t="s">
         <v>28</v>
       </c>
       <c r="B22" s="34"/>
     </row>
     <row r="23" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A23" s="45" t="s">
+      <c r="A23" s="42" t="s">
         <v>23</v>
       </c>
       <c r="B23" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="C23" s="43" t="s">
+      <c r="C23" s="40" t="s">
         <v>29</v>
       </c>
     </row>
@@ -2183,161 +2259,161 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="38" t="s">
         <v>22</v>
       </c>
       <c r="B1" s="34"/>
     </row>
     <row r="2" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="42" t="s">
+      <c r="A2" s="39" t="s">
         <v>23</v>
       </c>
       <c r="B2" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="43" t="s">
+      <c r="C2" s="40" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A3" s="44">
+      <c r="A3" s="41">
         <v>1</v>
       </c>
       <c r="B3" s="36"/>
       <c r="C3" s="26"/>
     </row>
     <row r="4" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A4" s="44">
+      <c r="A4" s="41">
         <v>2</v>
       </c>
       <c r="B4" s="36"/>
       <c r="C4" s="26"/>
     </row>
     <row r="5" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="44">
+      <c r="A5" s="41">
         <v>3</v>
       </c>
       <c r="B5" s="36"/>
       <c r="C5" s="26"/>
     </row>
     <row r="6" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A6" s="44">
+      <c r="A6" s="41">
         <v>4</v>
       </c>
       <c r="B6" s="36"/>
       <c r="C6" s="26"/>
     </row>
     <row r="7" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A7" s="44">
+      <c r="A7" s="41">
         <v>5</v>
       </c>
       <c r="B7" s="36"/>
       <c r="C7" s="26"/>
     </row>
     <row r="8" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A8" s="44">
+      <c r="A8" s="41">
         <v>6</v>
       </c>
       <c r="B8" s="36"/>
       <c r="C8" s="26"/>
     </row>
     <row r="9" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A9" s="44">
+      <c r="A9" s="41">
         <v>7</v>
       </c>
       <c r="B9" s="37"/>
       <c r="C9" s="26"/>
     </row>
     <row r="10" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A10" s="44">
+      <c r="A10" s="41">
         <v>8</v>
       </c>
       <c r="B10" s="36"/>
       <c r="C10" s="26"/>
     </row>
     <row r="11" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A11" s="44">
+      <c r="A11" s="41">
         <v>9</v>
       </c>
       <c r="B11" s="36"/>
       <c r="C11" s="26"/>
     </row>
     <row r="12" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A12" s="44">
+      <c r="A12" s="41">
         <v>10</v>
       </c>
       <c r="B12" s="36"/>
       <c r="C12" s="26"/>
     </row>
     <row r="13" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A13" s="44">
+      <c r="A13" s="41">
         <v>11</v>
       </c>
       <c r="B13" s="36"/>
       <c r="C13" s="26"/>
     </row>
     <row r="14" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A14" s="44">
+      <c r="A14" s="41">
         <v>12</v>
       </c>
       <c r="B14" s="36"/>
       <c r="C14" s="26"/>
     </row>
     <row r="15" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A15" s="44">
+      <c r="A15" s="41">
         <v>13</v>
       </c>
       <c r="B15" s="36"/>
       <c r="C15" s="26"/>
     </row>
     <row r="16" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A16" s="44">
+      <c r="A16" s="41">
         <v>14</v>
       </c>
       <c r="B16" s="36"/>
       <c r="C16" s="26"/>
     </row>
     <row r="17" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A17" s="44">
+      <c r="A17" s="41">
         <v>15</v>
       </c>
       <c r="B17" s="36"/>
       <c r="C17" s="26"/>
     </row>
     <row r="18" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A18" s="44"/>
+      <c r="A18" s="41"/>
       <c r="B18" s="36"/>
       <c r="C18" s="26"/>
     </row>
     <row r="19" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A19" s="44"/>
+      <c r="A19" s="41"/>
       <c r="B19" s="36"/>
       <c r="C19" s="26"/>
     </row>
     <row r="20" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A20" s="44"/>
+      <c r="A20" s="41"/>
       <c r="B20" s="36"/>
       <c r="C20" s="26"/>
     </row>
     <row r="21" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A21" s="44"/>
+      <c r="A21" s="41"/>
       <c r="B21" s="36"/>
       <c r="C21" s="26"/>
     </row>
     <row r="22" spans="1:3" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A22" s="41" t="s">
+      <c r="A22" s="38" t="s">
         <v>28</v>
       </c>
       <c r="B22" s="34"/>
     </row>
     <row r="23" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A23" s="45" t="s">
+      <c r="A23" s="42" t="s">
         <v>23</v>
       </c>
       <c r="B23" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="C23" s="43" t="s">
+      <c r="C23" s="40" t="s">
         <v>29</v>
       </c>
     </row>
@@ -2413,161 +2489,161 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="38" t="s">
         <v>22</v>
       </c>
       <c r="B1" s="34"/>
     </row>
     <row r="2" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="42" t="s">
+      <c r="A2" s="39" t="s">
         <v>23</v>
       </c>
       <c r="B2" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="43" t="s">
+      <c r="C2" s="40" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A3" s="44">
+      <c r="A3" s="41">
         <v>1</v>
       </c>
       <c r="B3" s="36"/>
       <c r="C3" s="26"/>
     </row>
     <row r="4" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A4" s="44">
+      <c r="A4" s="41">
         <v>2</v>
       </c>
       <c r="B4" s="36"/>
       <c r="C4" s="26"/>
     </row>
     <row r="5" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="44">
+      <c r="A5" s="41">
         <v>3</v>
       </c>
       <c r="B5" s="36"/>
       <c r="C5" s="26"/>
     </row>
     <row r="6" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A6" s="44">
+      <c r="A6" s="41">
         <v>4</v>
       </c>
       <c r="B6" s="36"/>
       <c r="C6" s="26"/>
     </row>
     <row r="7" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A7" s="44">
+      <c r="A7" s="41">
         <v>5</v>
       </c>
       <c r="B7" s="36"/>
       <c r="C7" s="26"/>
     </row>
     <row r="8" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A8" s="44">
+      <c r="A8" s="41">
         <v>6</v>
       </c>
       <c r="B8" s="36"/>
       <c r="C8" s="26"/>
     </row>
     <row r="9" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A9" s="44">
+      <c r="A9" s="41">
         <v>7</v>
       </c>
       <c r="B9" s="37"/>
       <c r="C9" s="26"/>
     </row>
     <row r="10" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A10" s="44">
+      <c r="A10" s="41">
         <v>8</v>
       </c>
       <c r="B10" s="36"/>
       <c r="C10" s="26"/>
     </row>
     <row r="11" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A11" s="44">
+      <c r="A11" s="41">
         <v>9</v>
       </c>
       <c r="B11" s="36"/>
       <c r="C11" s="26"/>
     </row>
     <row r="12" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A12" s="44">
+      <c r="A12" s="41">
         <v>10</v>
       </c>
       <c r="B12" s="36"/>
       <c r="C12" s="26"/>
     </row>
     <row r="13" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A13" s="44">
+      <c r="A13" s="41">
         <v>11</v>
       </c>
       <c r="B13" s="36"/>
       <c r="C13" s="26"/>
     </row>
     <row r="14" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A14" s="44">
+      <c r="A14" s="41">
         <v>12</v>
       </c>
       <c r="B14" s="36"/>
       <c r="C14" s="26"/>
     </row>
     <row r="15" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A15" s="44">
+      <c r="A15" s="41">
         <v>13</v>
       </c>
       <c r="B15" s="36"/>
       <c r="C15" s="26"/>
     </row>
     <row r="16" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A16" s="44">
+      <c r="A16" s="41">
         <v>14</v>
       </c>
       <c r="B16" s="36"/>
       <c r="C16" s="26"/>
     </row>
     <row r="17" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A17" s="44">
+      <c r="A17" s="41">
         <v>15</v>
       </c>
       <c r="B17" s="36"/>
       <c r="C17" s="26"/>
     </row>
     <row r="18" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A18" s="44"/>
+      <c r="A18" s="41"/>
       <c r="B18" s="36"/>
       <c r="C18" s="26"/>
     </row>
     <row r="19" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A19" s="44"/>
+      <c r="A19" s="41"/>
       <c r="B19" s="36"/>
       <c r="C19" s="26"/>
     </row>
     <row r="20" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A20" s="44"/>
+      <c r="A20" s="41"/>
       <c r="B20" s="36"/>
       <c r="C20" s="26"/>
     </row>
     <row r="21" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A21" s="44"/>
+      <c r="A21" s="41"/>
       <c r="B21" s="36"/>
       <c r="C21" s="26"/>
     </row>
     <row r="22" spans="1:3" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A22" s="41" t="s">
+      <c r="A22" s="38" t="s">
         <v>28</v>
       </c>
       <c r="B22" s="34"/>
     </row>
     <row r="23" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A23" s="45" t="s">
+      <c r="A23" s="42" t="s">
         <v>23</v>
       </c>
       <c r="B23" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="C23" s="43" t="s">
+      <c r="C23" s="40" t="s">
         <v>29</v>
       </c>
     </row>
@@ -2643,161 +2719,161 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="38" t="s">
         <v>22</v>
       </c>
       <c r="B1" s="34"/>
     </row>
     <row r="2" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="42" t="s">
+      <c r="A2" s="39" t="s">
         <v>23</v>
       </c>
       <c r="B2" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="43" t="s">
+      <c r="C2" s="40" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A3" s="44">
+      <c r="A3" s="41">
         <v>1</v>
       </c>
       <c r="B3" s="36"/>
       <c r="C3" s="26"/>
     </row>
     <row r="4" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A4" s="44">
+      <c r="A4" s="41">
         <v>2</v>
       </c>
       <c r="B4" s="36"/>
       <c r="C4" s="26"/>
     </row>
     <row r="5" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="44">
+      <c r="A5" s="41">
         <v>3</v>
       </c>
       <c r="B5" s="36"/>
       <c r="C5" s="26"/>
     </row>
     <row r="6" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A6" s="44">
+      <c r="A6" s="41">
         <v>4</v>
       </c>
       <c r="B6" s="36"/>
       <c r="C6" s="26"/>
     </row>
     <row r="7" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A7" s="44">
+      <c r="A7" s="41">
         <v>5</v>
       </c>
       <c r="B7" s="36"/>
       <c r="C7" s="26"/>
     </row>
     <row r="8" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A8" s="44">
+      <c r="A8" s="41">
         <v>6</v>
       </c>
       <c r="B8" s="36"/>
       <c r="C8" s="26"/>
     </row>
     <row r="9" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A9" s="44">
+      <c r="A9" s="41">
         <v>7</v>
       </c>
       <c r="B9" s="37"/>
       <c r="C9" s="26"/>
     </row>
     <row r="10" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A10" s="44">
+      <c r="A10" s="41">
         <v>8</v>
       </c>
       <c r="B10" s="36"/>
       <c r="C10" s="26"/>
     </row>
     <row r="11" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A11" s="44">
+      <c r="A11" s="41">
         <v>9</v>
       </c>
       <c r="B11" s="36"/>
       <c r="C11" s="26"/>
     </row>
     <row r="12" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A12" s="44">
+      <c r="A12" s="41">
         <v>10</v>
       </c>
       <c r="B12" s="36"/>
       <c r="C12" s="26"/>
     </row>
     <row r="13" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A13" s="44">
+      <c r="A13" s="41">
         <v>11</v>
       </c>
       <c r="B13" s="36"/>
       <c r="C13" s="26"/>
     </row>
     <row r="14" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A14" s="44">
+      <c r="A14" s="41">
         <v>12</v>
       </c>
       <c r="B14" s="36"/>
       <c r="C14" s="26"/>
     </row>
     <row r="15" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A15" s="44">
+      <c r="A15" s="41">
         <v>13</v>
       </c>
       <c r="B15" s="36"/>
       <c r="C15" s="26"/>
     </row>
     <row r="16" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A16" s="44">
+      <c r="A16" s="41">
         <v>14</v>
       </c>
       <c r="B16" s="36"/>
       <c r="C16" s="26"/>
     </row>
     <row r="17" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A17" s="44">
+      <c r="A17" s="41">
         <v>15</v>
       </c>
       <c r="B17" s="36"/>
       <c r="C17" s="26"/>
     </row>
     <row r="18" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A18" s="44"/>
+      <c r="A18" s="41"/>
       <c r="B18" s="36"/>
       <c r="C18" s="26"/>
     </row>
     <row r="19" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A19" s="44"/>
+      <c r="A19" s="41"/>
       <c r="B19" s="36"/>
       <c r="C19" s="26"/>
     </row>
     <row r="20" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A20" s="44"/>
+      <c r="A20" s="41"/>
       <c r="B20" s="36"/>
       <c r="C20" s="26"/>
     </row>
     <row r="21" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A21" s="44"/>
+      <c r="A21" s="41"/>
       <c r="B21" s="36"/>
       <c r="C21" s="26"/>
     </row>
     <row r="22" spans="1:3" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A22" s="41" t="s">
+      <c r="A22" s="38" t="s">
         <v>28</v>
       </c>
       <c r="B22" s="34"/>
     </row>
     <row r="23" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A23" s="45" t="s">
+      <c r="A23" s="42" t="s">
         <v>23</v>
       </c>
       <c r="B23" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="C23" s="43" t="s">
+      <c r="C23" s="40" t="s">
         <v>29</v>
       </c>
     </row>
@@ -2873,161 +2949,161 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="38" t="s">
         <v>22</v>
       </c>
       <c r="B1" s="34"/>
     </row>
     <row r="2" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="42" t="s">
+      <c r="A2" s="39" t="s">
         <v>23</v>
       </c>
       <c r="B2" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="43" t="s">
+      <c r="C2" s="40" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A3" s="44">
+      <c r="A3" s="41">
         <v>1</v>
       </c>
       <c r="B3" s="36"/>
       <c r="C3" s="26"/>
     </row>
     <row r="4" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A4" s="44">
+      <c r="A4" s="41">
         <v>2</v>
       </c>
       <c r="B4" s="36"/>
       <c r="C4" s="26"/>
     </row>
     <row r="5" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="44">
+      <c r="A5" s="41">
         <v>3</v>
       </c>
       <c r="B5" s="36"/>
       <c r="C5" s="26"/>
     </row>
     <row r="6" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A6" s="44">
+      <c r="A6" s="41">
         <v>4</v>
       </c>
       <c r="B6" s="36"/>
       <c r="C6" s="26"/>
     </row>
     <row r="7" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A7" s="44">
+      <c r="A7" s="41">
         <v>5</v>
       </c>
       <c r="B7" s="36"/>
       <c r="C7" s="26"/>
     </row>
     <row r="8" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A8" s="44">
+      <c r="A8" s="41">
         <v>6</v>
       </c>
       <c r="B8" s="36"/>
       <c r="C8" s="26"/>
     </row>
     <row r="9" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A9" s="44">
+      <c r="A9" s="41">
         <v>7</v>
       </c>
       <c r="B9" s="37"/>
       <c r="C9" s="26"/>
     </row>
     <row r="10" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A10" s="44">
+      <c r="A10" s="41">
         <v>8</v>
       </c>
       <c r="B10" s="36"/>
       <c r="C10" s="26"/>
     </row>
     <row r="11" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A11" s="44">
+      <c r="A11" s="41">
         <v>9</v>
       </c>
       <c r="B11" s="36"/>
       <c r="C11" s="26"/>
     </row>
     <row r="12" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A12" s="44">
+      <c r="A12" s="41">
         <v>10</v>
       </c>
       <c r="B12" s="36"/>
       <c r="C12" s="26"/>
     </row>
     <row r="13" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A13" s="44">
+      <c r="A13" s="41">
         <v>11</v>
       </c>
       <c r="B13" s="36"/>
       <c r="C13" s="26"/>
     </row>
     <row r="14" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A14" s="44">
+      <c r="A14" s="41">
         <v>12</v>
       </c>
       <c r="B14" s="36"/>
       <c r="C14" s="26"/>
     </row>
     <row r="15" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A15" s="44">
+      <c r="A15" s="41">
         <v>13</v>
       </c>
       <c r="B15" s="36"/>
       <c r="C15" s="26"/>
     </row>
     <row r="16" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A16" s="44">
+      <c r="A16" s="41">
         <v>14</v>
       </c>
       <c r="B16" s="36"/>
       <c r="C16" s="26"/>
     </row>
     <row r="17" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A17" s="44">
+      <c r="A17" s="41">
         <v>15</v>
       </c>
       <c r="B17" s="36"/>
       <c r="C17" s="26"/>
     </row>
     <row r="18" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A18" s="44"/>
+      <c r="A18" s="41"/>
       <c r="B18" s="36"/>
       <c r="C18" s="26"/>
     </row>
     <row r="19" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A19" s="44"/>
+      <c r="A19" s="41"/>
       <c r="B19" s="36"/>
       <c r="C19" s="26"/>
     </row>
     <row r="20" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A20" s="44"/>
+      <c r="A20" s="41"/>
       <c r="B20" s="36"/>
       <c r="C20" s="26"/>
     </row>
     <row r="21" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A21" s="44"/>
+      <c r="A21" s="41"/>
       <c r="B21" s="36"/>
       <c r="C21" s="26"/>
     </row>
     <row r="22" spans="1:3" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A22" s="41" t="s">
+      <c r="A22" s="38" t="s">
         <v>28</v>
       </c>
       <c r="B22" s="34"/>
     </row>
     <row r="23" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A23" s="45" t="s">
+      <c r="A23" s="42" t="s">
         <v>23</v>
       </c>
       <c r="B23" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="C23" s="43" t="s">
+      <c r="C23" s="40" t="s">
         <v>29</v>
       </c>
     </row>
@@ -3103,161 +3179,161 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="38" t="s">
         <v>22</v>
       </c>
       <c r="B1" s="34"/>
     </row>
     <row r="2" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="42" t="s">
+      <c r="A2" s="39" t="s">
         <v>23</v>
       </c>
       <c r="B2" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="43" t="s">
+      <c r="C2" s="40" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A3" s="44">
+      <c r="A3" s="41">
         <v>1</v>
       </c>
       <c r="B3" s="36"/>
       <c r="C3" s="26"/>
     </row>
     <row r="4" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A4" s="44">
+      <c r="A4" s="41">
         <v>2</v>
       </c>
       <c r="B4" s="36"/>
       <c r="C4" s="26"/>
     </row>
     <row r="5" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="44">
+      <c r="A5" s="41">
         <v>3</v>
       </c>
       <c r="B5" s="36"/>
       <c r="C5" s="26"/>
     </row>
     <row r="6" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A6" s="44">
+      <c r="A6" s="41">
         <v>4</v>
       </c>
       <c r="B6" s="36"/>
       <c r="C6" s="26"/>
     </row>
     <row r="7" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A7" s="44">
+      <c r="A7" s="41">
         <v>5</v>
       </c>
       <c r="B7" s="36"/>
       <c r="C7" s="26"/>
     </row>
     <row r="8" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A8" s="44">
+      <c r="A8" s="41">
         <v>6</v>
       </c>
       <c r="B8" s="36"/>
       <c r="C8" s="26"/>
     </row>
     <row r="9" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A9" s="44">
+      <c r="A9" s="41">
         <v>7</v>
       </c>
       <c r="B9" s="37"/>
       <c r="C9" s="26"/>
     </row>
     <row r="10" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A10" s="44">
+      <c r="A10" s="41">
         <v>8</v>
       </c>
       <c r="B10" s="36"/>
       <c r="C10" s="26"/>
     </row>
     <row r="11" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A11" s="44">
+      <c r="A11" s="41">
         <v>9</v>
       </c>
       <c r="B11" s="36"/>
       <c r="C11" s="26"/>
     </row>
     <row r="12" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A12" s="44">
+      <c r="A12" s="41">
         <v>10</v>
       </c>
       <c r="B12" s="36"/>
       <c r="C12" s="26"/>
     </row>
     <row r="13" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A13" s="44">
+      <c r="A13" s="41">
         <v>11</v>
       </c>
       <c r="B13" s="36"/>
       <c r="C13" s="26"/>
     </row>
     <row r="14" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A14" s="44">
+      <c r="A14" s="41">
         <v>12</v>
       </c>
       <c r="B14" s="36"/>
       <c r="C14" s="26"/>
     </row>
     <row r="15" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A15" s="44">
+      <c r="A15" s="41">
         <v>13</v>
       </c>
       <c r="B15" s="36"/>
       <c r="C15" s="26"/>
     </row>
     <row r="16" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A16" s="44">
+      <c r="A16" s="41">
         <v>14</v>
       </c>
       <c r="B16" s="36"/>
       <c r="C16" s="26"/>
     </row>
     <row r="17" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A17" s="44">
+      <c r="A17" s="41">
         <v>15</v>
       </c>
       <c r="B17" s="36"/>
       <c r="C17" s="26"/>
     </row>
     <row r="18" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A18" s="44"/>
+      <c r="A18" s="41"/>
       <c r="B18" s="36"/>
       <c r="C18" s="26"/>
     </row>
     <row r="19" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A19" s="44"/>
+      <c r="A19" s="41"/>
       <c r="B19" s="36"/>
       <c r="C19" s="26"/>
     </row>
     <row r="20" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A20" s="44"/>
+      <c r="A20" s="41"/>
       <c r="B20" s="36"/>
       <c r="C20" s="26"/>
     </row>
     <row r="21" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A21" s="44"/>
+      <c r="A21" s="41"/>
       <c r="B21" s="36"/>
       <c r="C21" s="26"/>
     </row>
     <row r="22" spans="1:3" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A22" s="41" t="s">
+      <c r="A22" s="38" t="s">
         <v>28</v>
       </c>
       <c r="B22" s="34"/>
     </row>
     <row r="23" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A23" s="45" t="s">
+      <c r="A23" s="42" t="s">
         <v>23</v>
       </c>
       <c r="B23" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="C23" s="43" t="s">
+      <c r="C23" s="40" t="s">
         <v>29</v>
       </c>
     </row>
@@ -4801,24 +4877,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="38" t="s">
         <v>22</v>
       </c>
       <c r="B1" s="34"/>
     </row>
     <row r="2" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="42" t="s">
+      <c r="A2" s="39" t="s">
         <v>23</v>
       </c>
       <c r="B2" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="43" t="s">
+      <c r="C2" s="40" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A3" s="44">
+      <c r="A3" s="41">
         <v>1</v>
       </c>
       <c r="B3" s="36" t="s">
@@ -4827,7 +4903,7 @@
       <c r="C3" s="26"/>
     </row>
     <row r="4" spans="1:3" ht="39" x14ac:dyDescent="0.25">
-      <c r="A4" s="44">
+      <c r="A4" s="41">
         <v>2</v>
       </c>
       <c r="B4" s="36" t="s">
@@ -4836,7 +4912,7 @@
       <c r="C4" s="26"/>
     </row>
     <row r="5" spans="1:3" ht="78" x14ac:dyDescent="0.25">
-      <c r="A5" s="44">
+      <c r="A5" s="41">
         <v>3</v>
       </c>
       <c r="B5" s="36" t="s">
@@ -4845,7 +4921,7 @@
       <c r="C5" s="26"/>
     </row>
     <row r="6" spans="1:3" ht="39" x14ac:dyDescent="0.25">
-      <c r="A6" s="44">
+      <c r="A6" s="41">
         <v>4</v>
       </c>
       <c r="B6" s="36" t="s">
@@ -4854,7 +4930,7 @@
       <c r="C6" s="26"/>
     </row>
     <row r="7" spans="1:3" ht="39" x14ac:dyDescent="0.25">
-      <c r="A7" s="44">
+      <c r="A7" s="41">
         <v>5</v>
       </c>
       <c r="B7" s="36" t="s">
@@ -4863,7 +4939,7 @@
       <c r="C7" s="26"/>
     </row>
     <row r="8" spans="1:3" ht="58.5" x14ac:dyDescent="0.25">
-      <c r="A8" s="44">
+      <c r="A8" s="41">
         <v>6</v>
       </c>
       <c r="B8" s="36" t="s">
@@ -4872,7 +4948,7 @@
       <c r="C8" s="26"/>
     </row>
     <row r="9" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A9" s="44">
+      <c r="A9" s="41">
         <v>7</v>
       </c>
       <c r="B9" s="37" t="s">
@@ -4881,7 +4957,7 @@
       <c r="C9" s="26"/>
     </row>
     <row r="10" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A10" s="44">
+      <c r="A10" s="41">
         <v>8</v>
       </c>
       <c r="B10" s="36" t="s">
@@ -4890,7 +4966,7 @@
       <c r="C10" s="26"/>
     </row>
     <row r="11" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A11" s="44">
+      <c r="A11" s="41">
         <v>9</v>
       </c>
       <c r="B11" s="36" t="s">
@@ -4899,7 +4975,7 @@
       <c r="C11" s="26"/>
     </row>
     <row r="12" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A12" s="44">
+      <c r="A12" s="41">
         <v>10</v>
       </c>
       <c r="B12" s="36" t="s">
@@ -4908,7 +4984,7 @@
       <c r="C12" s="26"/>
     </row>
     <row r="13" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A13" s="44">
+      <c r="A13" s="41">
         <v>11</v>
       </c>
       <c r="B13" s="36" t="s">
@@ -4917,7 +4993,7 @@
       <c r="C13" s="26"/>
     </row>
     <row r="14" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A14" s="44">
+      <c r="A14" s="41">
         <v>12</v>
       </c>
       <c r="B14" s="36" t="s">
@@ -4926,7 +5002,7 @@
       <c r="C14" s="26"/>
     </row>
     <row r="15" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A15" s="44">
+      <c r="A15" s="41">
         <v>13</v>
       </c>
       <c r="B15" s="36" t="s">
@@ -4935,7 +5011,7 @@
       <c r="C15" s="26"/>
     </row>
     <row r="16" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A16" s="44">
+      <c r="A16" s="41">
         <v>14</v>
       </c>
       <c r="B16" s="36" t="s">
@@ -4944,7 +5020,7 @@
       <c r="C16" s="26"/>
     </row>
     <row r="17" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A17" s="44">
+      <c r="A17" s="41">
         <v>15</v>
       </c>
       <c r="B17" s="36" t="s">
@@ -4953,73 +5029,73 @@
       <c r="C17" s="26"/>
     </row>
     <row r="18" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A18" s="44"/>
-      <c r="B18" s="47" t="s">
+      <c r="A18" s="41"/>
+      <c r="B18" s="44" t="s">
         <v>140</v>
       </c>
       <c r="C18" s="26"/>
     </row>
     <row r="19" spans="1:3" ht="39" x14ac:dyDescent="0.25">
-      <c r="A19" s="44"/>
-      <c r="B19" s="46" t="s">
+      <c r="A19" s="41"/>
+      <c r="B19" s="43" t="s">
         <v>141</v>
       </c>
       <c r="C19" s="26"/>
     </row>
     <row r="20" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A20" s="44"/>
+      <c r="A20" s="41"/>
       <c r="B20" s="36" t="s">
         <v>147</v>
       </c>
       <c r="C20" s="26"/>
     </row>
     <row r="21" spans="1:3" ht="78" x14ac:dyDescent="0.25">
-      <c r="A21" s="44"/>
+      <c r="A21" s="41"/>
       <c r="B21" s="36" t="s">
         <v>142</v>
       </c>
       <c r="C21" s="26"/>
     </row>
     <row r="22" spans="1:3" ht="39" x14ac:dyDescent="0.25">
-      <c r="A22" s="44"/>
+      <c r="A22" s="41"/>
       <c r="B22" s="36" t="s">
         <v>143</v>
       </c>
       <c r="C22" s="26"/>
     </row>
     <row r="23" spans="1:3" ht="39" x14ac:dyDescent="0.25">
-      <c r="A23" s="44"/>
+      <c r="A23" s="41"/>
       <c r="B23" s="36" t="s">
         <v>145</v>
       </c>
       <c r="C23" s="26"/>
     </row>
     <row r="24" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A24" s="44"/>
+      <c r="A24" s="41"/>
       <c r="B24" s="36" t="s">
         <v>146</v>
       </c>
       <c r="C24" s="26"/>
     </row>
     <row r="25" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A25" s="44"/>
+      <c r="A25" s="41"/>
       <c r="B25" s="36"/>
       <c r="C25" s="26"/>
     </row>
     <row r="26" spans="1:3" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A26" s="41" t="s">
+      <c r="A26" s="38" t="s">
         <v>28</v>
       </c>
       <c r="B26" s="34"/>
     </row>
     <row r="27" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A27" s="45" t="s">
+      <c r="A27" s="42" t="s">
         <v>23</v>
       </c>
       <c r="B27" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="C27" s="43" t="s">
+      <c r="C27" s="40" t="s">
         <v>29</v>
       </c>
     </row>

--- a/Source/Document/Meeting minutes/Meeting minute.xlsx
+++ b/Source/Document/Meeting minutes/Meeting minute.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="9"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="173">
   <si>
     <t>MEETING MINUTES</t>
   </si>
@@ -551,6 +551,27 @@
   </si>
   <si>
     <t>Button -&gt; send command to…</t>
+  </si>
+  <si>
+    <t>Nút View trên store owner có màu không xác định</t>
+  </si>
+  <si>
+    <t>Phần core của Hoàng là module để show sp theo mùa</t>
+  </si>
+  <si>
+    <t>Phần P cần sửa lại giao diện, chuyển search lên trên không dùng search chung trong table</t>
+  </si>
+  <si>
+    <t>Hàng hiếm để chữ call</t>
+  </si>
+  <si>
+    <t>Không nên để giá chênh lệch quá giá ký gửi, bất công cho người sử dụng</t>
+  </si>
+  <si>
+    <t>Order chỉ là để đặt gạch</t>
+  </si>
+  <si>
+    <t>Định Policy cho bán đồ cũ, trả tiền trực tiếp</t>
   </si>
 </sst>
 </file>
@@ -856,16 +877,16 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1176,7 +1197,7 @@
   <dimension ref="A1:AD12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1189,196 +1210,196 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="47"/>
-      <c r="C1" s="47"/>
-      <c r="D1" s="47"/>
-      <c r="E1" s="47"/>
-      <c r="F1" s="47"/>
-      <c r="G1" s="47"/>
-      <c r="H1" s="47"/>
-      <c r="I1" s="47"/>
-      <c r="J1" s="47"/>
-      <c r="K1" s="47"/>
-      <c r="L1" s="47"/>
-      <c r="M1" s="47"/>
-      <c r="N1" s="47"/>
-      <c r="O1" s="47"/>
-      <c r="P1" s="47"/>
-      <c r="Q1" s="47"/>
-      <c r="R1" s="47"/>
-      <c r="S1" s="47"/>
-      <c r="T1" s="47"/>
-      <c r="U1" s="47"/>
-      <c r="V1" s="47"/>
-      <c r="W1" s="47"/>
-      <c r="X1" s="47"/>
-      <c r="Y1" s="47"/>
-      <c r="Z1" s="47"/>
-      <c r="AA1" s="47"/>
-      <c r="AB1" s="47"/>
-      <c r="AC1" s="47"/>
-      <c r="AD1" s="47"/>
+      <c r="B1" s="45"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
+      <c r="F1" s="45"/>
+      <c r="G1" s="45"/>
+      <c r="H1" s="45"/>
+      <c r="I1" s="45"/>
+      <c r="J1" s="45"/>
+      <c r="K1" s="45"/>
+      <c r="L1" s="45"/>
+      <c r="M1" s="45"/>
+      <c r="N1" s="45"/>
+      <c r="O1" s="45"/>
+      <c r="P1" s="45"/>
+      <c r="Q1" s="45"/>
+      <c r="R1" s="45"/>
+      <c r="S1" s="45"/>
+      <c r="T1" s="45"/>
+      <c r="U1" s="45"/>
+      <c r="V1" s="45"/>
+      <c r="W1" s="45"/>
+      <c r="X1" s="45"/>
+      <c r="Y1" s="45"/>
+      <c r="Z1" s="45"/>
+      <c r="AA1" s="45"/>
+      <c r="AB1" s="45"/>
+      <c r="AC1" s="45"/>
+      <c r="AD1" s="45"/>
     </row>
     <row r="2" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="47"/>
-      <c r="B2" s="47"/>
-      <c r="C2" s="47"/>
-      <c r="D2" s="47"/>
-      <c r="E2" s="47"/>
-      <c r="F2" s="47"/>
-      <c r="G2" s="47"/>
-      <c r="H2" s="47"/>
-      <c r="I2" s="47"/>
-      <c r="J2" s="47"/>
-      <c r="K2" s="47"/>
-      <c r="L2" s="47"/>
-      <c r="M2" s="47"/>
-      <c r="N2" s="47"/>
-      <c r="O2" s="47"/>
-      <c r="P2" s="47"/>
-      <c r="Q2" s="47"/>
-      <c r="R2" s="47"/>
-      <c r="S2" s="47"/>
-      <c r="T2" s="47"/>
-      <c r="U2" s="47"/>
-      <c r="V2" s="47"/>
-      <c r="W2" s="47"/>
-      <c r="X2" s="47"/>
-      <c r="Y2" s="47"/>
-      <c r="Z2" s="47"/>
-      <c r="AA2" s="47"/>
-      <c r="AB2" s="47"/>
-      <c r="AC2" s="47"/>
-      <c r="AD2" s="47"/>
+      <c r="A2" s="45"/>
+      <c r="B2" s="45"/>
+      <c r="C2" s="45"/>
+      <c r="D2" s="45"/>
+      <c r="E2" s="45"/>
+      <c r="F2" s="45"/>
+      <c r="G2" s="45"/>
+      <c r="H2" s="45"/>
+      <c r="I2" s="45"/>
+      <c r="J2" s="45"/>
+      <c r="K2" s="45"/>
+      <c r="L2" s="45"/>
+      <c r="M2" s="45"/>
+      <c r="N2" s="45"/>
+      <c r="O2" s="45"/>
+      <c r="P2" s="45"/>
+      <c r="Q2" s="45"/>
+      <c r="R2" s="45"/>
+      <c r="S2" s="45"/>
+      <c r="T2" s="45"/>
+      <c r="U2" s="45"/>
+      <c r="V2" s="45"/>
+      <c r="W2" s="45"/>
+      <c r="X2" s="45"/>
+      <c r="Y2" s="45"/>
+      <c r="Z2" s="45"/>
+      <c r="AA2" s="45"/>
+      <c r="AB2" s="45"/>
+      <c r="AC2" s="45"/>
+      <c r="AD2" s="45"/>
     </row>
     <row r="3" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="47"/>
-      <c r="B3" s="47"/>
-      <c r="C3" s="47"/>
-      <c r="D3" s="47"/>
-      <c r="E3" s="47"/>
-      <c r="F3" s="47"/>
-      <c r="G3" s="47"/>
-      <c r="H3" s="47"/>
-      <c r="I3" s="47"/>
-      <c r="J3" s="47"/>
-      <c r="K3" s="47"/>
-      <c r="L3" s="47"/>
-      <c r="M3" s="47"/>
-      <c r="N3" s="47"/>
-      <c r="O3" s="47"/>
-      <c r="P3" s="47"/>
-      <c r="Q3" s="47"/>
-      <c r="R3" s="47"/>
-      <c r="S3" s="47"/>
-      <c r="T3" s="47"/>
-      <c r="U3" s="47"/>
-      <c r="V3" s="47"/>
-      <c r="W3" s="47"/>
-      <c r="X3" s="47"/>
-      <c r="Y3" s="47"/>
-      <c r="Z3" s="47"/>
-      <c r="AA3" s="47"/>
-      <c r="AB3" s="47"/>
-      <c r="AC3" s="47"/>
-      <c r="AD3" s="47"/>
+      <c r="A3" s="45"/>
+      <c r="B3" s="45"/>
+      <c r="C3" s="45"/>
+      <c r="D3" s="45"/>
+      <c r="E3" s="45"/>
+      <c r="F3" s="45"/>
+      <c r="G3" s="45"/>
+      <c r="H3" s="45"/>
+      <c r="I3" s="45"/>
+      <c r="J3" s="45"/>
+      <c r="K3" s="45"/>
+      <c r="L3" s="45"/>
+      <c r="M3" s="45"/>
+      <c r="N3" s="45"/>
+      <c r="O3" s="45"/>
+      <c r="P3" s="45"/>
+      <c r="Q3" s="45"/>
+      <c r="R3" s="45"/>
+      <c r="S3" s="45"/>
+      <c r="T3" s="45"/>
+      <c r="U3" s="45"/>
+      <c r="V3" s="45"/>
+      <c r="W3" s="45"/>
+      <c r="X3" s="45"/>
+      <c r="Y3" s="45"/>
+      <c r="Z3" s="45"/>
+      <c r="AA3" s="45"/>
+      <c r="AB3" s="45"/>
+      <c r="AC3" s="45"/>
+      <c r="AD3" s="45"/>
     </row>
     <row r="4" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="48"/>
-      <c r="B4" s="48"/>
-      <c r="C4" s="48"/>
-      <c r="D4" s="48"/>
-      <c r="E4" s="48"/>
-      <c r="F4" s="48"/>
-      <c r="G4" s="48"/>
-      <c r="H4" s="48"/>
-      <c r="I4" s="48"/>
-      <c r="J4" s="48"/>
-      <c r="K4" s="48"/>
-      <c r="L4" s="48"/>
-      <c r="M4" s="48"/>
-      <c r="N4" s="48"/>
-      <c r="O4" s="48"/>
-      <c r="P4" s="48"/>
-      <c r="Q4" s="48"/>
-      <c r="R4" s="48"/>
-      <c r="S4" s="48"/>
-      <c r="T4" s="48"/>
-      <c r="U4" s="48"/>
-      <c r="V4" s="48"/>
-      <c r="W4" s="48"/>
-      <c r="X4" s="48"/>
-      <c r="Y4" s="48"/>
-      <c r="Z4" s="48"/>
-      <c r="AA4" s="48"/>
-      <c r="AB4" s="48"/>
-      <c r="AC4" s="48"/>
-      <c r="AD4" s="48"/>
+      <c r="A4" s="46"/>
+      <c r="B4" s="46"/>
+      <c r="C4" s="46"/>
+      <c r="D4" s="46"/>
+      <c r="E4" s="46"/>
+      <c r="F4" s="46"/>
+      <c r="G4" s="46"/>
+      <c r="H4" s="46"/>
+      <c r="I4" s="46"/>
+      <c r="J4" s="46"/>
+      <c r="K4" s="46"/>
+      <c r="L4" s="46"/>
+      <c r="M4" s="46"/>
+      <c r="N4" s="46"/>
+      <c r="O4" s="46"/>
+      <c r="P4" s="46"/>
+      <c r="Q4" s="46"/>
+      <c r="R4" s="46"/>
+      <c r="S4" s="46"/>
+      <c r="T4" s="46"/>
+      <c r="U4" s="46"/>
+      <c r="V4" s="46"/>
+      <c r="W4" s="46"/>
+      <c r="X4" s="46"/>
+      <c r="Y4" s="46"/>
+      <c r="Z4" s="46"/>
+      <c r="AA4" s="46"/>
+      <c r="AB4" s="46"/>
+      <c r="AC4" s="46"/>
+      <c r="AD4" s="46"/>
     </row>
     <row r="5" spans="1:30" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>1</v>
       </c>
       <c r="B5" s="4"/>
-      <c r="C5" s="45" t="s">
+      <c r="C5" s="47" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="46"/>
-      <c r="E5" s="45" t="s">
+      <c r="D5" s="48"/>
+      <c r="E5" s="47" t="s">
         <v>12</v>
       </c>
-      <c r="F5" s="46"/>
-      <c r="G5" s="45" t="s">
+      <c r="F5" s="48"/>
+      <c r="G5" s="47" t="s">
         <v>13</v>
       </c>
-      <c r="H5" s="46"/>
-      <c r="I5" s="45" t="s">
+      <c r="H5" s="48"/>
+      <c r="I5" s="47" t="s">
         <v>14</v>
       </c>
-      <c r="J5" s="46"/>
-      <c r="K5" s="45" t="s">
+      <c r="J5" s="48"/>
+      <c r="K5" s="47" t="s">
         <v>15</v>
       </c>
-      <c r="L5" s="46"/>
-      <c r="M5" s="45" t="s">
+      <c r="L5" s="48"/>
+      <c r="M5" s="47" t="s">
         <v>16</v>
       </c>
-      <c r="N5" s="46"/>
-      <c r="O5" s="45" t="s">
+      <c r="N5" s="48"/>
+      <c r="O5" s="47" t="s">
         <v>17</v>
       </c>
-      <c r="P5" s="46"/>
-      <c r="Q5" s="45" t="s">
+      <c r="P5" s="48"/>
+      <c r="Q5" s="47" t="s">
         <v>18</v>
       </c>
-      <c r="R5" s="46"/>
-      <c r="S5" s="45" t="s">
+      <c r="R5" s="48"/>
+      <c r="S5" s="47" t="s">
         <v>19</v>
       </c>
-      <c r="T5" s="46"/>
-      <c r="U5" s="45" t="s">
+      <c r="T5" s="48"/>
+      <c r="U5" s="47" t="s">
         <v>148</v>
       </c>
-      <c r="V5" s="46"/>
-      <c r="W5" s="45" t="s">
+      <c r="V5" s="48"/>
+      <c r="W5" s="47" t="s">
         <v>149</v>
       </c>
-      <c r="X5" s="46"/>
-      <c r="Y5" s="45" t="s">
+      <c r="X5" s="48"/>
+      <c r="Y5" s="47" t="s">
         <v>150</v>
       </c>
-      <c r="Z5" s="46"/>
-      <c r="AA5" s="45" t="s">
+      <c r="Z5" s="48"/>
+      <c r="AA5" s="47" t="s">
         <v>151</v>
       </c>
-      <c r="AB5" s="46"/>
-      <c r="AC5" s="45" t="s">
+      <c r="AB5" s="48"/>
+      <c r="AC5" s="47" t="s">
         <v>152</v>
       </c>
-      <c r="AD5" s="46"/>
+      <c r="AD5" s="48"/>
     </row>
     <row r="6" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
@@ -1499,7 +1520,9 @@
       <c r="J8" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="K8" s="1"/>
+      <c r="K8" s="1" t="s">
+        <v>78</v>
+      </c>
       <c r="L8" s="1"/>
       <c r="M8" s="1"/>
       <c r="N8" s="1"/>
@@ -1551,7 +1574,9 @@
       <c r="J9" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="K9" s="1"/>
+      <c r="K9" s="1" t="s">
+        <v>78</v>
+      </c>
       <c r="L9" s="1"/>
       <c r="M9" s="1"/>
       <c r="N9" s="1"/>
@@ -1601,7 +1626,9 @@
       <c r="J10" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="K10" s="1"/>
+      <c r="K10" s="1" t="s">
+        <v>78</v>
+      </c>
       <c r="L10" s="1"/>
       <c r="M10" s="1"/>
       <c r="N10" s="1"/>
@@ -1651,7 +1678,9 @@
       <c r="J11" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="K11" s="1"/>
+      <c r="K11" s="1" t="s">
+        <v>78</v>
+      </c>
       <c r="L11" s="1"/>
       <c r="M11" s="1"/>
       <c r="N11" s="1"/>
@@ -1701,7 +1730,9 @@
       <c r="J12" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="K12" s="1"/>
+      <c r="K12" s="1" t="s">
+        <v>78</v>
+      </c>
       <c r="L12" s="1"/>
       <c r="M12" s="1"/>
       <c r="N12" s="1"/>
@@ -1759,8 +1790,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2016,8 +2047,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2049,49 +2080,63 @@
       <c r="A3" s="41">
         <v>1</v>
       </c>
-      <c r="B3" s="36"/>
+      <c r="B3" s="36" t="s">
+        <v>166</v>
+      </c>
       <c r="C3" s="26"/>
     </row>
-    <row r="4" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" ht="39" x14ac:dyDescent="0.25">
       <c r="A4" s="41">
         <v>2</v>
       </c>
-      <c r="B4" s="36"/>
+      <c r="B4" s="36" t="s">
+        <v>167</v>
+      </c>
       <c r="C4" s="26"/>
     </row>
-    <row r="5" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" ht="39" x14ac:dyDescent="0.25">
       <c r="A5" s="41">
         <v>3</v>
       </c>
-      <c r="B5" s="36"/>
+      <c r="B5" s="36" t="s">
+        <v>168</v>
+      </c>
       <c r="C5" s="26"/>
     </row>
     <row r="6" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A6" s="41">
         <v>4</v>
       </c>
-      <c r="B6" s="36"/>
+      <c r="B6" s="36" t="s">
+        <v>169</v>
+      </c>
       <c r="C6" s="26"/>
     </row>
-    <row r="7" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" ht="39" x14ac:dyDescent="0.25">
       <c r="A7" s="41">
         <v>5</v>
       </c>
-      <c r="B7" s="36"/>
+      <c r="B7" s="36" t="s">
+        <v>170</v>
+      </c>
       <c r="C7" s="26"/>
     </row>
     <row r="8" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A8" s="41">
         <v>6</v>
       </c>
-      <c r="B8" s="36"/>
+      <c r="B8" s="36" t="s">
+        <v>171</v>
+      </c>
       <c r="C8" s="26"/>
     </row>
     <row r="9" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A9" s="41">
         <v>7</v>
       </c>
-      <c r="B9" s="37"/>
+      <c r="B9" s="37" t="s">
+        <v>172</v>
+      </c>
       <c r="C9" s="26"/>
     </row>
     <row r="10" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">

--- a/Source/Document/Meeting minutes/Meeting minute.xlsx
+++ b/Source/Document/Meeting minutes/Meeting minute.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="10"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="175">
   <si>
     <t>MEETING MINUTES</t>
   </si>
@@ -572,6 +572,12 @@
   </si>
   <si>
     <t>Định Policy cho bán đồ cũ, trả tiền trực tiếp</t>
+  </si>
+  <si>
+    <t>Phuc</t>
+  </si>
+  <si>
+    <t>Hoang</t>
   </si>
 </sst>
 </file>
@@ -1196,8 +1202,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AD12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1206,7 +1212,9 @@
     <col min="2" max="2" width="10.7109375" style="3" customWidth="1"/>
     <col min="3" max="3" width="14.28515625" style="3" customWidth="1"/>
     <col min="4" max="4" width="13.42578125" style="3" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" style="3"/>
+    <col min="5" max="11" width="9.140625" style="3"/>
+    <col min="12" max="12" width="9.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1430,8 +1438,12 @@
       <c r="J6" s="6">
         <v>42069</v>
       </c>
-      <c r="K6" s="4"/>
-      <c r="L6" s="4"/>
+      <c r="K6" s="6">
+        <v>42222</v>
+      </c>
+      <c r="L6" s="6">
+        <v>42283</v>
+      </c>
       <c r="M6" s="4"/>
       <c r="N6" s="4"/>
       <c r="O6" s="8"/>
@@ -1780,6 +1792,8 @@
     <hyperlink ref="H6" location="W3_2!A1" display="27/5/2015"/>
     <hyperlink ref="I6" location="W4_1!A1" display="1/6/2015"/>
     <hyperlink ref="J6" location="W4_2!A1" display="3/6/2015"/>
+    <hyperlink ref="K6" location="W5_1!A1" display="8/6/2015"/>
+    <hyperlink ref="L6" location="W5_2!A1" display="10/6/2015"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2047,8 +2061,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2083,7 +2097,9 @@
       <c r="B3" s="36" t="s">
         <v>166</v>
       </c>
-      <c r="C3" s="26"/>
+      <c r="C3" s="26" t="s">
+        <v>173</v>
+      </c>
     </row>
     <row r="4" spans="1:3" ht="39" x14ac:dyDescent="0.25">
       <c r="A4" s="41">
@@ -2092,7 +2108,9 @@
       <c r="B4" s="36" t="s">
         <v>167</v>
       </c>
-      <c r="C4" s="26"/>
+      <c r="C4" s="26" t="s">
+        <v>174</v>
+      </c>
     </row>
     <row r="5" spans="1:3" ht="39" x14ac:dyDescent="0.25">
       <c r="A5" s="41">
@@ -2101,7 +2119,9 @@
       <c r="B5" s="36" t="s">
         <v>168</v>
       </c>
-      <c r="C5" s="26"/>
+      <c r="C5" s="26" t="s">
+        <v>173</v>
+      </c>
     </row>
     <row r="6" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A6" s="41">
@@ -2110,7 +2130,9 @@
       <c r="B6" s="36" t="s">
         <v>169</v>
       </c>
-      <c r="C6" s="26"/>
+      <c r="C6" s="26" t="s">
+        <v>174</v>
+      </c>
     </row>
     <row r="7" spans="1:3" ht="39" x14ac:dyDescent="0.25">
       <c r="A7" s="41">
@@ -2128,7 +2150,9 @@
       <c r="B8" s="36" t="s">
         <v>171</v>
       </c>
-      <c r="C8" s="26"/>
+      <c r="C8" s="26" t="s">
+        <v>174</v>
+      </c>
     </row>
     <row r="9" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A9" s="41">

--- a/Source/Document/Meeting minutes/Meeting minute.xlsx
+++ b/Source/Document/Meeting minutes/Meeting minute.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="10" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -23,13 +23,19 @@
     <sheet name="W6_2" sheetId="16" r:id="rId14"/>
     <sheet name="W7_1" sheetId="17" r:id="rId15"/>
     <sheet name="W7_2" sheetId="18" r:id="rId16"/>
+    <sheet name="W8_1" sheetId="19" r:id="rId17"/>
+    <sheet name="W8_2" sheetId="20" r:id="rId18"/>
+    <sheet name="W9_1" sheetId="21" r:id="rId19"/>
+    <sheet name="W9_2" sheetId="22" r:id="rId20"/>
+    <sheet name="W10_1" sheetId="23" r:id="rId21"/>
+    <sheet name="W10_2" sheetId="24" r:id="rId22"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="406" uniqueCount="188">
   <si>
     <t>MEETING MINUTES</t>
   </si>
@@ -578,6 +584,45 @@
   </si>
   <si>
     <t>Hoang</t>
+  </si>
+  <si>
+    <t>Nhập liệu mỗi ô phải có độ dài khác nhau</t>
+  </si>
+  <si>
+    <t>Nhấp redio button chọn store phải tự động bay qua trang tiếp theo. Đó là lí do có nút back</t>
+  </si>
+  <si>
+    <t>Request date trang details sao lại trống?</t>
+  </si>
+  <si>
+    <t>Phuc, Duc, Dan</t>
+  </si>
+  <si>
+    <t>Giao diện không đồng nhất giữa những phần liên quan</t>
+  </si>
+  <si>
+    <t>Send thông tin comfirm + giá cho customer (guest, member) về những món hàng họ ký gửi hoặc order</t>
+  </si>
+  <si>
+    <t>Hoang, Duc</t>
+  </si>
+  <si>
+    <t>Brand phải là dropdown list. Mỗi category có những brand khác nhau.</t>
+  </si>
+  <si>
+    <t>Chỉ lưu lại thông tin giải quyết tính tiền giữa store owner và khách hàng.</t>
+  </si>
+  <si>
+    <t>Sửa lại giao diện cho phù hợp</t>
+  </si>
+  <si>
+    <t>Ghép bài lại với nhau và chạy trên 1 máy</t>
+  </si>
+  <si>
+    <t>Thêm những trường cần thiết cho database: season, status</t>
+  </si>
+  <si>
+    <t>Status không dùng code cứng.</t>
   </si>
 </sst>
 </file>
@@ -1202,7 +1247,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AD12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
@@ -2313,10 +2358,10 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C33"/>
+  <dimension ref="A1:C34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2348,56 +2393,86 @@
       <c r="A3" s="41">
         <v>1</v>
       </c>
-      <c r="B3" s="36"/>
-      <c r="C3" s="26"/>
-    </row>
-    <row r="4" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="B3" s="36" t="s">
+        <v>175</v>
+      </c>
+      <c r="C3" s="26" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="39" x14ac:dyDescent="0.25">
       <c r="A4" s="41">
         <v>2</v>
       </c>
-      <c r="B4" s="36"/>
-      <c r="C4" s="26"/>
+      <c r="B4" s="36" t="s">
+        <v>176</v>
+      </c>
+      <c r="C4" s="26" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="5" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A5" s="41">
         <v>3</v>
       </c>
-      <c r="B5" s="36"/>
-      <c r="C5" s="26"/>
-    </row>
-    <row r="6" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="B5" s="36" t="s">
+        <v>177</v>
+      </c>
+      <c r="C5" s="26" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="39" x14ac:dyDescent="0.25">
       <c r="A6" s="41">
         <v>4</v>
       </c>
-      <c r="B6" s="36"/>
-      <c r="C6" s="26"/>
-    </row>
-    <row r="7" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="B6" s="36" t="s">
+        <v>179</v>
+      </c>
+      <c r="C6" s="26" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="39" x14ac:dyDescent="0.25">
       <c r="A7" s="41">
         <v>5</v>
       </c>
-      <c r="B7" s="36"/>
-      <c r="C7" s="26"/>
-    </row>
-    <row r="8" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="B7" s="36" t="s">
+        <v>182</v>
+      </c>
+      <c r="C7" s="26" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="39" x14ac:dyDescent="0.25">
       <c r="A8" s="41">
         <v>6</v>
       </c>
-      <c r="B8" s="36"/>
-      <c r="C8" s="26"/>
-    </row>
-    <row r="9" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="B8" s="36" t="s">
+        <v>180</v>
+      </c>
+      <c r="C8" s="26" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="39" x14ac:dyDescent="0.25">
       <c r="A9" s="41">
         <v>7</v>
       </c>
-      <c r="B9" s="37"/>
-      <c r="C9" s="26"/>
+      <c r="B9" s="37" t="s">
+        <v>183</v>
+      </c>
+      <c r="C9" s="26" t="s">
+        <v>174</v>
+      </c>
     </row>
     <row r="10" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A10" s="41">
         <v>8</v>
       </c>
-      <c r="B10" s="36"/>
+      <c r="B10" s="36" t="s">
+        <v>187</v>
+      </c>
       <c r="C10" s="26"/>
     </row>
     <row r="11" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
@@ -2488,17 +2563,23 @@
     </row>
     <row r="24" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A24" s="26"/>
-      <c r="B24" s="36"/>
+      <c r="B24" s="36" t="s">
+        <v>184</v>
+      </c>
       <c r="C24" s="26"/>
     </row>
-    <row r="25" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" ht="39" x14ac:dyDescent="0.25">
       <c r="A25" s="26"/>
-      <c r="B25" s="36"/>
+      <c r="B25" s="36" t="s">
+        <v>186</v>
+      </c>
       <c r="C25" s="26"/>
     </row>
     <row r="26" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A26" s="26"/>
-      <c r="B26" s="36"/>
+      <c r="B26" s="36" t="s">
+        <v>185</v>
+      </c>
       <c r="C26" s="26"/>
     </row>
     <row r="27" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
@@ -2535,6 +2616,11 @@
       <c r="A33" s="26"/>
       <c r="B33" s="36"/>
       <c r="C33" s="26"/>
+    </row>
+    <row r="34" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A34" s="26"/>
+      <c r="B34" s="36"/>
+      <c r="C34" s="26"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3236,7 +3322,697 @@
   <dimension ref="A1:C33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.85546875" style="32" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="64" style="32" customWidth="1"/>
+    <col min="3" max="3" width="27.42578125" style="32" customWidth="1"/>
+    <col min="4" max="16384" width="9.140625" style="32"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A1" s="38" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="34"/>
+    </row>
+    <row r="2" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="39" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" s="35" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" s="40" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A3" s="41">
+        <v>1</v>
+      </c>
+      <c r="B3" s="36"/>
+      <c r="C3" s="26"/>
+    </row>
+    <row r="4" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A4" s="41">
+        <v>2</v>
+      </c>
+      <c r="B4" s="36"/>
+      <c r="C4" s="26"/>
+    </row>
+    <row r="5" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A5" s="41">
+        <v>3</v>
+      </c>
+      <c r="B5" s="36"/>
+      <c r="C5" s="26"/>
+    </row>
+    <row r="6" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A6" s="41">
+        <v>4</v>
+      </c>
+      <c r="B6" s="36"/>
+      <c r="C6" s="26"/>
+    </row>
+    <row r="7" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A7" s="41">
+        <v>5</v>
+      </c>
+      <c r="B7" s="36"/>
+      <c r="C7" s="26"/>
+    </row>
+    <row r="8" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A8" s="41">
+        <v>6</v>
+      </c>
+      <c r="B8" s="36"/>
+      <c r="C8" s="26"/>
+    </row>
+    <row r="9" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A9" s="41">
+        <v>7</v>
+      </c>
+      <c r="B9" s="37"/>
+      <c r="C9" s="26"/>
+    </row>
+    <row r="10" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A10" s="41">
+        <v>8</v>
+      </c>
+      <c r="B10" s="36"/>
+      <c r="C10" s="26"/>
+    </row>
+    <row r="11" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A11" s="41">
+        <v>9</v>
+      </c>
+      <c r="B11" s="36"/>
+      <c r="C11" s="26"/>
+    </row>
+    <row r="12" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A12" s="41">
+        <v>10</v>
+      </c>
+      <c r="B12" s="36"/>
+      <c r="C12" s="26"/>
+    </row>
+    <row r="13" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A13" s="41">
+        <v>11</v>
+      </c>
+      <c r="B13" s="36"/>
+      <c r="C13" s="26"/>
+    </row>
+    <row r="14" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A14" s="41">
+        <v>12</v>
+      </c>
+      <c r="B14" s="36"/>
+      <c r="C14" s="26"/>
+    </row>
+    <row r="15" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A15" s="41">
+        <v>13</v>
+      </c>
+      <c r="B15" s="36"/>
+      <c r="C15" s="26"/>
+    </row>
+    <row r="16" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A16" s="41">
+        <v>14</v>
+      </c>
+      <c r="B16" s="36"/>
+      <c r="C16" s="26"/>
+    </row>
+    <row r="17" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A17" s="41">
+        <v>15</v>
+      </c>
+      <c r="B17" s="36"/>
+      <c r="C17" s="26"/>
+    </row>
+    <row r="18" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A18" s="41"/>
+      <c r="B18" s="36"/>
+      <c r="C18" s="26"/>
+    </row>
+    <row r="19" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A19" s="41"/>
+      <c r="B19" s="36"/>
+      <c r="C19" s="26"/>
+    </row>
+    <row r="20" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A20" s="41"/>
+      <c r="B20" s="36"/>
+      <c r="C20" s="26"/>
+    </row>
+    <row r="21" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A21" s="41"/>
+      <c r="B21" s="36"/>
+      <c r="C21" s="26"/>
+    </row>
+    <row r="22" spans="1:3" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A22" s="38" t="s">
+        <v>28</v>
+      </c>
+      <c r="B22" s="34"/>
+    </row>
+    <row r="23" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A23" s="42" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" s="35" t="s">
+        <v>24</v>
+      </c>
+      <c r="C23" s="40" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A24" s="26"/>
+      <c r="B24" s="36"/>
+      <c r="C24" s="26"/>
+    </row>
+    <row r="25" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A25" s="26"/>
+      <c r="B25" s="36"/>
+      <c r="C25" s="26"/>
+    </row>
+    <row r="26" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A26" s="26"/>
+      <c r="B26" s="36"/>
+      <c r="C26" s="26"/>
+    </row>
+    <row r="27" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A27" s="26"/>
+      <c r="B27" s="36"/>
+      <c r="C27" s="26"/>
+    </row>
+    <row r="28" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A28" s="26"/>
+      <c r="B28" s="36"/>
+      <c r="C28" s="26"/>
+    </row>
+    <row r="29" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A29" s="26"/>
+      <c r="B29" s="36"/>
+      <c r="C29" s="26"/>
+    </row>
+    <row r="30" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A30" s="26"/>
+      <c r="B30" s="36"/>
+      <c r="C30" s="26"/>
+    </row>
+    <row r="31" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A31" s="26"/>
+      <c r="B31" s="36"/>
+      <c r="C31" s="26"/>
+    </row>
+    <row r="32" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A32" s="26"/>
+      <c r="B32" s="36"/>
+      <c r="C32" s="26"/>
+    </row>
+    <row r="33" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A33" s="26"/>
+      <c r="B33" s="36"/>
+      <c r="C33" s="26"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C33"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.85546875" style="32" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="64" style="32" customWidth="1"/>
+    <col min="3" max="3" width="27.42578125" style="32" customWidth="1"/>
+    <col min="4" max="16384" width="9.140625" style="32"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A1" s="38" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="34"/>
+    </row>
+    <row r="2" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="39" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" s="35" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" s="40" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A3" s="41">
+        <v>1</v>
+      </c>
+      <c r="B3" s="36"/>
+      <c r="C3" s="26"/>
+    </row>
+    <row r="4" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A4" s="41">
+        <v>2</v>
+      </c>
+      <c r="B4" s="36"/>
+      <c r="C4" s="26"/>
+    </row>
+    <row r="5" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A5" s="41">
+        <v>3</v>
+      </c>
+      <c r="B5" s="36"/>
+      <c r="C5" s="26"/>
+    </row>
+    <row r="6" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A6" s="41">
+        <v>4</v>
+      </c>
+      <c r="B6" s="36"/>
+      <c r="C6" s="26"/>
+    </row>
+    <row r="7" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A7" s="41">
+        <v>5</v>
+      </c>
+      <c r="B7" s="36"/>
+      <c r="C7" s="26"/>
+    </row>
+    <row r="8" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A8" s="41">
+        <v>6</v>
+      </c>
+      <c r="B8" s="36"/>
+      <c r="C8" s="26"/>
+    </row>
+    <row r="9" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A9" s="41">
+        <v>7</v>
+      </c>
+      <c r="B9" s="37"/>
+      <c r="C9" s="26"/>
+    </row>
+    <row r="10" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A10" s="41">
+        <v>8</v>
+      </c>
+      <c r="B10" s="36"/>
+      <c r="C10" s="26"/>
+    </row>
+    <row r="11" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A11" s="41">
+        <v>9</v>
+      </c>
+      <c r="B11" s="36"/>
+      <c r="C11" s="26"/>
+    </row>
+    <row r="12" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A12" s="41">
+        <v>10</v>
+      </c>
+      <c r="B12" s="36"/>
+      <c r="C12" s="26"/>
+    </row>
+    <row r="13" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A13" s="41">
+        <v>11</v>
+      </c>
+      <c r="B13" s="36"/>
+      <c r="C13" s="26"/>
+    </row>
+    <row r="14" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A14" s="41">
+        <v>12</v>
+      </c>
+      <c r="B14" s="36"/>
+      <c r="C14" s="26"/>
+    </row>
+    <row r="15" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A15" s="41">
+        <v>13</v>
+      </c>
+      <c r="B15" s="36"/>
+      <c r="C15" s="26"/>
+    </row>
+    <row r="16" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A16" s="41">
+        <v>14</v>
+      </c>
+      <c r="B16" s="36"/>
+      <c r="C16" s="26"/>
+    </row>
+    <row r="17" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A17" s="41">
+        <v>15</v>
+      </c>
+      <c r="B17" s="36"/>
+      <c r="C17" s="26"/>
+    </row>
+    <row r="18" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A18" s="41"/>
+      <c r="B18" s="36"/>
+      <c r="C18" s="26"/>
+    </row>
+    <row r="19" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A19" s="41"/>
+      <c r="B19" s="36"/>
+      <c r="C19" s="26"/>
+    </row>
+    <row r="20" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A20" s="41"/>
+      <c r="B20" s="36"/>
+      <c r="C20" s="26"/>
+    </row>
+    <row r="21" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A21" s="41"/>
+      <c r="B21" s="36"/>
+      <c r="C21" s="26"/>
+    </row>
+    <row r="22" spans="1:3" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A22" s="38" t="s">
+        <v>28</v>
+      </c>
+      <c r="B22" s="34"/>
+    </row>
+    <row r="23" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A23" s="42" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" s="35" t="s">
+        <v>24</v>
+      </c>
+      <c r="C23" s="40" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A24" s="26"/>
+      <c r="B24" s="36"/>
+      <c r="C24" s="26"/>
+    </row>
+    <row r="25" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A25" s="26"/>
+      <c r="B25" s="36"/>
+      <c r="C25" s="26"/>
+    </row>
+    <row r="26" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A26" s="26"/>
+      <c r="B26" s="36"/>
+      <c r="C26" s="26"/>
+    </row>
+    <row r="27" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A27" s="26"/>
+      <c r="B27" s="36"/>
+      <c r="C27" s="26"/>
+    </row>
+    <row r="28" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A28" s="26"/>
+      <c r="B28" s="36"/>
+      <c r="C28" s="26"/>
+    </row>
+    <row r="29" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A29" s="26"/>
+      <c r="B29" s="36"/>
+      <c r="C29" s="26"/>
+    </row>
+    <row r="30" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A30" s="26"/>
+      <c r="B30" s="36"/>
+      <c r="C30" s="26"/>
+    </row>
+    <row r="31" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A31" s="26"/>
+      <c r="B31" s="36"/>
+      <c r="C31" s="26"/>
+    </row>
+    <row r="32" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A32" s="26"/>
+      <c r="B32" s="36"/>
+      <c r="C32" s="26"/>
+    </row>
+    <row r="33" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A33" s="26"/>
+      <c r="B33" s="36"/>
+      <c r="C33" s="26"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C33"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.85546875" style="32" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="64" style="32" customWidth="1"/>
+    <col min="3" max="3" width="27.42578125" style="32" customWidth="1"/>
+    <col min="4" max="16384" width="9.140625" style="32"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A1" s="38" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="34"/>
+    </row>
+    <row r="2" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="39" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" s="35" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" s="40" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A3" s="41">
+        <v>1</v>
+      </c>
+      <c r="B3" s="36"/>
+      <c r="C3" s="26"/>
+    </row>
+    <row r="4" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A4" s="41">
+        <v>2</v>
+      </c>
+      <c r="B4" s="36"/>
+      <c r="C4" s="26"/>
+    </row>
+    <row r="5" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A5" s="41">
+        <v>3</v>
+      </c>
+      <c r="B5" s="36"/>
+      <c r="C5" s="26"/>
+    </row>
+    <row r="6" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A6" s="41">
+        <v>4</v>
+      </c>
+      <c r="B6" s="36"/>
+      <c r="C6" s="26"/>
+    </row>
+    <row r="7" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A7" s="41">
+        <v>5</v>
+      </c>
+      <c r="B7" s="36"/>
+      <c r="C7" s="26"/>
+    </row>
+    <row r="8" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A8" s="41">
+        <v>6</v>
+      </c>
+      <c r="B8" s="36"/>
+      <c r="C8" s="26"/>
+    </row>
+    <row r="9" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A9" s="41">
+        <v>7</v>
+      </c>
+      <c r="B9" s="37"/>
+      <c r="C9" s="26"/>
+    </row>
+    <row r="10" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A10" s="41">
+        <v>8</v>
+      </c>
+      <c r="B10" s="36"/>
+      <c r="C10" s="26"/>
+    </row>
+    <row r="11" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A11" s="41">
+        <v>9</v>
+      </c>
+      <c r="B11" s="36"/>
+      <c r="C11" s="26"/>
+    </row>
+    <row r="12" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A12" s="41">
+        <v>10</v>
+      </c>
+      <c r="B12" s="36"/>
+      <c r="C12" s="26"/>
+    </row>
+    <row r="13" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A13" s="41">
+        <v>11</v>
+      </c>
+      <c r="B13" s="36"/>
+      <c r="C13" s="26"/>
+    </row>
+    <row r="14" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A14" s="41">
+        <v>12</v>
+      </c>
+      <c r="B14" s="36"/>
+      <c r="C14" s="26"/>
+    </row>
+    <row r="15" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A15" s="41">
+        <v>13</v>
+      </c>
+      <c r="B15" s="36"/>
+      <c r="C15" s="26"/>
+    </row>
+    <row r="16" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A16" s="41">
+        <v>14</v>
+      </c>
+      <c r="B16" s="36"/>
+      <c r="C16" s="26"/>
+    </row>
+    <row r="17" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A17" s="41">
+        <v>15</v>
+      </c>
+      <c r="B17" s="36"/>
+      <c r="C17" s="26"/>
+    </row>
+    <row r="18" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A18" s="41"/>
+      <c r="B18" s="36"/>
+      <c r="C18" s="26"/>
+    </row>
+    <row r="19" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A19" s="41"/>
+      <c r="B19" s="36"/>
+      <c r="C19" s="26"/>
+    </row>
+    <row r="20" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A20" s="41"/>
+      <c r="B20" s="36"/>
+      <c r="C20" s="26"/>
+    </row>
+    <row r="21" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A21" s="41"/>
+      <c r="B21" s="36"/>
+      <c r="C21" s="26"/>
+    </row>
+    <row r="22" spans="1:3" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A22" s="38" t="s">
+        <v>28</v>
+      </c>
+      <c r="B22" s="34"/>
+    </row>
+    <row r="23" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A23" s="42" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" s="35" t="s">
+        <v>24</v>
+      </c>
+      <c r="C23" s="40" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A24" s="26"/>
+      <c r="B24" s="36"/>
+      <c r="C24" s="26"/>
+    </row>
+    <row r="25" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A25" s="26"/>
+      <c r="B25" s="36"/>
+      <c r="C25" s="26"/>
+    </row>
+    <row r="26" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A26" s="26"/>
+      <c r="B26" s="36"/>
+      <c r="C26" s="26"/>
+    </row>
+    <row r="27" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A27" s="26"/>
+      <c r="B27" s="36"/>
+      <c r="C27" s="26"/>
+    </row>
+    <row r="28" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A28" s="26"/>
+      <c r="B28" s="36"/>
+      <c r="C28" s="26"/>
+    </row>
+    <row r="29" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A29" s="26"/>
+      <c r="B29" s="36"/>
+      <c r="C29" s="26"/>
+    </row>
+    <row r="30" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A30" s="26"/>
+      <c r="B30" s="36"/>
+      <c r="C30" s="26"/>
+    </row>
+    <row r="31" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A31" s="26"/>
+      <c r="B31" s="36"/>
+      <c r="C31" s="26"/>
+    </row>
+    <row r="32" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A32" s="26"/>
+      <c r="B32" s="36"/>
+      <c r="C32" s="26"/>
+    </row>
+    <row r="33" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A33" s="26"/>
+      <c r="B33" s="36"/>
+      <c r="C33" s="26"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C33"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3579,6 +4355,696 @@
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="26"/>
       <c r="B24" s="25"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C33"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.85546875" style="32" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="64" style="32" customWidth="1"/>
+    <col min="3" max="3" width="27.42578125" style="32" customWidth="1"/>
+    <col min="4" max="16384" width="9.140625" style="32"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A1" s="38" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="34"/>
+    </row>
+    <row r="2" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="39" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" s="35" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" s="40" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A3" s="41">
+        <v>1</v>
+      </c>
+      <c r="B3" s="36"/>
+      <c r="C3" s="26"/>
+    </row>
+    <row r="4" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A4" s="41">
+        <v>2</v>
+      </c>
+      <c r="B4" s="36"/>
+      <c r="C4" s="26"/>
+    </row>
+    <row r="5" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A5" s="41">
+        <v>3</v>
+      </c>
+      <c r="B5" s="36"/>
+      <c r="C5" s="26"/>
+    </row>
+    <row r="6" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A6" s="41">
+        <v>4</v>
+      </c>
+      <c r="B6" s="36"/>
+      <c r="C6" s="26"/>
+    </row>
+    <row r="7" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A7" s="41">
+        <v>5</v>
+      </c>
+      <c r="B7" s="36"/>
+      <c r="C7" s="26"/>
+    </row>
+    <row r="8" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A8" s="41">
+        <v>6</v>
+      </c>
+      <c r="B8" s="36"/>
+      <c r="C8" s="26"/>
+    </row>
+    <row r="9" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A9" s="41">
+        <v>7</v>
+      </c>
+      <c r="B9" s="37"/>
+      <c r="C9" s="26"/>
+    </row>
+    <row r="10" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A10" s="41">
+        <v>8</v>
+      </c>
+      <c r="B10" s="36"/>
+      <c r="C10" s="26"/>
+    </row>
+    <row r="11" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A11" s="41">
+        <v>9</v>
+      </c>
+      <c r="B11" s="36"/>
+      <c r="C11" s="26"/>
+    </row>
+    <row r="12" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A12" s="41">
+        <v>10</v>
+      </c>
+      <c r="B12" s="36"/>
+      <c r="C12" s="26"/>
+    </row>
+    <row r="13" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A13" s="41">
+        <v>11</v>
+      </c>
+      <c r="B13" s="36"/>
+      <c r="C13" s="26"/>
+    </row>
+    <row r="14" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A14" s="41">
+        <v>12</v>
+      </c>
+      <c r="B14" s="36"/>
+      <c r="C14" s="26"/>
+    </row>
+    <row r="15" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A15" s="41">
+        <v>13</v>
+      </c>
+      <c r="B15" s="36"/>
+      <c r="C15" s="26"/>
+    </row>
+    <row r="16" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A16" s="41">
+        <v>14</v>
+      </c>
+      <c r="B16" s="36"/>
+      <c r="C16" s="26"/>
+    </row>
+    <row r="17" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A17" s="41">
+        <v>15</v>
+      </c>
+      <c r="B17" s="36"/>
+      <c r="C17" s="26"/>
+    </row>
+    <row r="18" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A18" s="41"/>
+      <c r="B18" s="36"/>
+      <c r="C18" s="26"/>
+    </row>
+    <row r="19" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A19" s="41"/>
+      <c r="B19" s="36"/>
+      <c r="C19" s="26"/>
+    </row>
+    <row r="20" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A20" s="41"/>
+      <c r="B20" s="36"/>
+      <c r="C20" s="26"/>
+    </row>
+    <row r="21" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A21" s="41"/>
+      <c r="B21" s="36"/>
+      <c r="C21" s="26"/>
+    </row>
+    <row r="22" spans="1:3" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A22" s="38" t="s">
+        <v>28</v>
+      </c>
+      <c r="B22" s="34"/>
+    </row>
+    <row r="23" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A23" s="42" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" s="35" t="s">
+        <v>24</v>
+      </c>
+      <c r="C23" s="40" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A24" s="26"/>
+      <c r="B24" s="36"/>
+      <c r="C24" s="26"/>
+    </row>
+    <row r="25" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A25" s="26"/>
+      <c r="B25" s="36"/>
+      <c r="C25" s="26"/>
+    </row>
+    <row r="26" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A26" s="26"/>
+      <c r="B26" s="36"/>
+      <c r="C26" s="26"/>
+    </row>
+    <row r="27" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A27" s="26"/>
+      <c r="B27" s="36"/>
+      <c r="C27" s="26"/>
+    </row>
+    <row r="28" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A28" s="26"/>
+      <c r="B28" s="36"/>
+      <c r="C28" s="26"/>
+    </row>
+    <row r="29" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A29" s="26"/>
+      <c r="B29" s="36"/>
+      <c r="C29" s="26"/>
+    </row>
+    <row r="30" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A30" s="26"/>
+      <c r="B30" s="36"/>
+      <c r="C30" s="26"/>
+    </row>
+    <row r="31" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A31" s="26"/>
+      <c r="B31" s="36"/>
+      <c r="C31" s="26"/>
+    </row>
+    <row r="32" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A32" s="26"/>
+      <c r="B32" s="36"/>
+      <c r="C32" s="26"/>
+    </row>
+    <row r="33" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A33" s="26"/>
+      <c r="B33" s="36"/>
+      <c r="C33" s="26"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C33"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.85546875" style="32" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="64" style="32" customWidth="1"/>
+    <col min="3" max="3" width="27.42578125" style="32" customWidth="1"/>
+    <col min="4" max="16384" width="9.140625" style="32"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A1" s="38" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="34"/>
+    </row>
+    <row r="2" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="39" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" s="35" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" s="40" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A3" s="41">
+        <v>1</v>
+      </c>
+      <c r="B3" s="36"/>
+      <c r="C3" s="26"/>
+    </row>
+    <row r="4" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A4" s="41">
+        <v>2</v>
+      </c>
+      <c r="B4" s="36"/>
+      <c r="C4" s="26"/>
+    </row>
+    <row r="5" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A5" s="41">
+        <v>3</v>
+      </c>
+      <c r="B5" s="36"/>
+      <c r="C5" s="26"/>
+    </row>
+    <row r="6" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A6" s="41">
+        <v>4</v>
+      </c>
+      <c r="B6" s="36"/>
+      <c r="C6" s="26"/>
+    </row>
+    <row r="7" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A7" s="41">
+        <v>5</v>
+      </c>
+      <c r="B7" s="36"/>
+      <c r="C7" s="26"/>
+    </row>
+    <row r="8" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A8" s="41">
+        <v>6</v>
+      </c>
+      <c r="B8" s="36"/>
+      <c r="C8" s="26"/>
+    </row>
+    <row r="9" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A9" s="41">
+        <v>7</v>
+      </c>
+      <c r="B9" s="37"/>
+      <c r="C9" s="26"/>
+    </row>
+    <row r="10" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A10" s="41">
+        <v>8</v>
+      </c>
+      <c r="B10" s="36"/>
+      <c r="C10" s="26"/>
+    </row>
+    <row r="11" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A11" s="41">
+        <v>9</v>
+      </c>
+      <c r="B11" s="36"/>
+      <c r="C11" s="26"/>
+    </row>
+    <row r="12" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A12" s="41">
+        <v>10</v>
+      </c>
+      <c r="B12" s="36"/>
+      <c r="C12" s="26"/>
+    </row>
+    <row r="13" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A13" s="41">
+        <v>11</v>
+      </c>
+      <c r="B13" s="36"/>
+      <c r="C13" s="26"/>
+    </row>
+    <row r="14" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A14" s="41">
+        <v>12</v>
+      </c>
+      <c r="B14" s="36"/>
+      <c r="C14" s="26"/>
+    </row>
+    <row r="15" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A15" s="41">
+        <v>13</v>
+      </c>
+      <c r="B15" s="36"/>
+      <c r="C15" s="26"/>
+    </row>
+    <row r="16" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A16" s="41">
+        <v>14</v>
+      </c>
+      <c r="B16" s="36"/>
+      <c r="C16" s="26"/>
+    </row>
+    <row r="17" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A17" s="41">
+        <v>15</v>
+      </c>
+      <c r="B17" s="36"/>
+      <c r="C17" s="26"/>
+    </row>
+    <row r="18" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A18" s="41"/>
+      <c r="B18" s="36"/>
+      <c r="C18" s="26"/>
+    </row>
+    <row r="19" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A19" s="41"/>
+      <c r="B19" s="36"/>
+      <c r="C19" s="26"/>
+    </row>
+    <row r="20" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A20" s="41"/>
+      <c r="B20" s="36"/>
+      <c r="C20" s="26"/>
+    </row>
+    <row r="21" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A21" s="41"/>
+      <c r="B21" s="36"/>
+      <c r="C21" s="26"/>
+    </row>
+    <row r="22" spans="1:3" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A22" s="38" t="s">
+        <v>28</v>
+      </c>
+      <c r="B22" s="34"/>
+    </row>
+    <row r="23" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A23" s="42" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" s="35" t="s">
+        <v>24</v>
+      </c>
+      <c r="C23" s="40" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A24" s="26"/>
+      <c r="B24" s="36"/>
+      <c r="C24" s="26"/>
+    </row>
+    <row r="25" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A25" s="26"/>
+      <c r="B25" s="36"/>
+      <c r="C25" s="26"/>
+    </row>
+    <row r="26" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A26" s="26"/>
+      <c r="B26" s="36"/>
+      <c r="C26" s="26"/>
+    </row>
+    <row r="27" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A27" s="26"/>
+      <c r="B27" s="36"/>
+      <c r="C27" s="26"/>
+    </row>
+    <row r="28" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A28" s="26"/>
+      <c r="B28" s="36"/>
+      <c r="C28" s="26"/>
+    </row>
+    <row r="29" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A29" s="26"/>
+      <c r="B29" s="36"/>
+      <c r="C29" s="26"/>
+    </row>
+    <row r="30" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A30" s="26"/>
+      <c r="B30" s="36"/>
+      <c r="C30" s="26"/>
+    </row>
+    <row r="31" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A31" s="26"/>
+      <c r="B31" s="36"/>
+      <c r="C31" s="26"/>
+    </row>
+    <row r="32" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A32" s="26"/>
+      <c r="B32" s="36"/>
+      <c r="C32" s="26"/>
+    </row>
+    <row r="33" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A33" s="26"/>
+      <c r="B33" s="36"/>
+      <c r="C33" s="26"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C33"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.85546875" style="32" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="64" style="32" customWidth="1"/>
+    <col min="3" max="3" width="27.42578125" style="32" customWidth="1"/>
+    <col min="4" max="16384" width="9.140625" style="32"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A1" s="38" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="34"/>
+    </row>
+    <row r="2" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="39" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" s="35" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" s="40" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A3" s="41">
+        <v>1</v>
+      </c>
+      <c r="B3" s="36"/>
+      <c r="C3" s="26"/>
+    </row>
+    <row r="4" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A4" s="41">
+        <v>2</v>
+      </c>
+      <c r="B4" s="36"/>
+      <c r="C4" s="26"/>
+    </row>
+    <row r="5" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A5" s="41">
+        <v>3</v>
+      </c>
+      <c r="B5" s="36"/>
+      <c r="C5" s="26"/>
+    </row>
+    <row r="6" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A6" s="41">
+        <v>4</v>
+      </c>
+      <c r="B6" s="36"/>
+      <c r="C6" s="26"/>
+    </row>
+    <row r="7" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A7" s="41">
+        <v>5</v>
+      </c>
+      <c r="B7" s="36"/>
+      <c r="C7" s="26"/>
+    </row>
+    <row r="8" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A8" s="41">
+        <v>6</v>
+      </c>
+      <c r="B8" s="36"/>
+      <c r="C8" s="26"/>
+    </row>
+    <row r="9" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A9" s="41">
+        <v>7</v>
+      </c>
+      <c r="B9" s="37"/>
+      <c r="C9" s="26"/>
+    </row>
+    <row r="10" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A10" s="41">
+        <v>8</v>
+      </c>
+      <c r="B10" s="36"/>
+      <c r="C10" s="26"/>
+    </row>
+    <row r="11" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A11" s="41">
+        <v>9</v>
+      </c>
+      <c r="B11" s="36"/>
+      <c r="C11" s="26"/>
+    </row>
+    <row r="12" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A12" s="41">
+        <v>10</v>
+      </c>
+      <c r="B12" s="36"/>
+      <c r="C12" s="26"/>
+    </row>
+    <row r="13" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A13" s="41">
+        <v>11</v>
+      </c>
+      <c r="B13" s="36"/>
+      <c r="C13" s="26"/>
+    </row>
+    <row r="14" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A14" s="41">
+        <v>12</v>
+      </c>
+      <c r="B14" s="36"/>
+      <c r="C14" s="26"/>
+    </row>
+    <row r="15" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A15" s="41">
+        <v>13</v>
+      </c>
+      <c r="B15" s="36"/>
+      <c r="C15" s="26"/>
+    </row>
+    <row r="16" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A16" s="41">
+        <v>14</v>
+      </c>
+      <c r="B16" s="36"/>
+      <c r="C16" s="26"/>
+    </row>
+    <row r="17" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A17" s="41">
+        <v>15</v>
+      </c>
+      <c r="B17" s="36"/>
+      <c r="C17" s="26"/>
+    </row>
+    <row r="18" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A18" s="41"/>
+      <c r="B18" s="36"/>
+      <c r="C18" s="26"/>
+    </row>
+    <row r="19" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A19" s="41"/>
+      <c r="B19" s="36"/>
+      <c r="C19" s="26"/>
+    </row>
+    <row r="20" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A20" s="41"/>
+      <c r="B20" s="36"/>
+      <c r="C20" s="26"/>
+    </row>
+    <row r="21" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A21" s="41"/>
+      <c r="B21" s="36"/>
+      <c r="C21" s="26"/>
+    </row>
+    <row r="22" spans="1:3" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A22" s="38" t="s">
+        <v>28</v>
+      </c>
+      <c r="B22" s="34"/>
+    </row>
+    <row r="23" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A23" s="42" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" s="35" t="s">
+        <v>24</v>
+      </c>
+      <c r="C23" s="40" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A24" s="26"/>
+      <c r="B24" s="36"/>
+      <c r="C24" s="26"/>
+    </row>
+    <row r="25" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A25" s="26"/>
+      <c r="B25" s="36"/>
+      <c r="C25" s="26"/>
+    </row>
+    <row r="26" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A26" s="26"/>
+      <c r="B26" s="36"/>
+      <c r="C26" s="26"/>
+    </row>
+    <row r="27" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A27" s="26"/>
+      <c r="B27" s="36"/>
+      <c r="C27" s="26"/>
+    </row>
+    <row r="28" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A28" s="26"/>
+      <c r="B28" s="36"/>
+      <c r="C28" s="26"/>
+    </row>
+    <row r="29" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A29" s="26"/>
+      <c r="B29" s="36"/>
+      <c r="C29" s="26"/>
+    </row>
+    <row r="30" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A30" s="26"/>
+      <c r="B30" s="36"/>
+      <c r="C30" s="26"/>
+    </row>
+    <row r="31" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A31" s="26"/>
+      <c r="B31" s="36"/>
+      <c r="C31" s="26"/>
+    </row>
+    <row r="32" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A32" s="26"/>
+      <c r="B32" s="36"/>
+      <c r="C32" s="26"/>
+    </row>
+    <row r="33" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A33" s="26"/>
+      <c r="B33" s="36"/>
+      <c r="C33" s="26"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Source/Document/Meeting minutes/Meeting minute.xlsx
+++ b/Source/Document/Meeting minutes/Meeting minute.xlsx
@@ -589,9 +589,6 @@
     <t>Nhập liệu mỗi ô phải có độ dài khác nhau</t>
   </si>
   <si>
-    <t>Nhấp redio button chọn store phải tự động bay qua trang tiếp theo. Đó là lí do có nút back</t>
-  </si>
-  <si>
     <t>Request date trang details sao lại trống?</t>
   </si>
   <si>
@@ -623,6 +620,9 @@
   </si>
   <si>
     <t>Status không dùng code cứng.</t>
+  </si>
+  <si>
+    <t>Nhấp redio button chọn store phải tự động tới trang tiếp theo. Đó là lí do có nút back</t>
   </si>
 </sst>
 </file>
@@ -2360,8 +2360,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2405,7 +2405,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="36" t="s">
-        <v>176</v>
+        <v>187</v>
       </c>
       <c r="C4" s="26" t="s">
         <v>10</v>
@@ -2416,10 +2416,10 @@
         <v>3</v>
       </c>
       <c r="B5" s="36" t="s">
+        <v>176</v>
+      </c>
+      <c r="C5" s="26" t="s">
         <v>177</v>
-      </c>
-      <c r="C5" s="26" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="39" x14ac:dyDescent="0.25">
@@ -2427,10 +2427,10 @@
         <v>4</v>
       </c>
       <c r="B6" s="36" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C6" s="26" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="39" x14ac:dyDescent="0.25">
@@ -2438,7 +2438,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="36" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C7" s="26" t="s">
         <v>10</v>
@@ -2449,10 +2449,10 @@
         <v>6</v>
       </c>
       <c r="B8" s="36" t="s">
+        <v>179</v>
+      </c>
+      <c r="C8" s="26" t="s">
         <v>180</v>
-      </c>
-      <c r="C8" s="26" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="39" x14ac:dyDescent="0.25">
@@ -2460,7 +2460,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="37" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C9" s="26" t="s">
         <v>174</v>
@@ -2471,7 +2471,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="36" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C10" s="26"/>
     </row>
@@ -2564,21 +2564,21 @@
     <row r="24" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A24" s="26"/>
       <c r="B24" s="36" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C24" s="26"/>
     </row>
     <row r="25" spans="1:3" ht="39" x14ac:dyDescent="0.25">
       <c r="A25" s="26"/>
       <c r="B25" s="36" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C25" s="26"/>
     </row>
     <row r="26" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A26" s="26"/>
       <c r="B26" s="36" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C26" s="26"/>
     </row>

--- a/Source/Document/Meeting minutes/Meeting minute.xlsx
+++ b/Source/Document/Meeting minutes/Meeting minute.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="10" activeTab="11"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="406" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="416" uniqueCount="190">
   <si>
     <t>MEETING MINUTES</t>
   </si>
@@ -623,6 +623,12 @@
   </si>
   <si>
     <t>Nhấp redio button chọn store phải tự động tới trang tiếp theo. Đó là lí do có nút back</t>
+  </si>
+  <si>
+    <t>15/6/2015</t>
+  </si>
+  <si>
+    <t>17/6/2015</t>
   </si>
 </sst>
 </file>
@@ -1247,8 +1253,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AD12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1489,8 +1495,12 @@
       <c r="L6" s="6">
         <v>42283</v>
       </c>
-      <c r="M6" s="4"/>
-      <c r="N6" s="4"/>
+      <c r="M6" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="N6" s="4" t="s">
+        <v>189</v>
+      </c>
       <c r="O6" s="8"/>
       <c r="P6" s="8"/>
       <c r="Q6" s="8"/>
@@ -1581,8 +1591,12 @@
         <v>78</v>
       </c>
       <c r="L8" s="1"/>
-      <c r="M8" s="1"/>
-      <c r="N8" s="1"/>
+      <c r="M8" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="N8" s="1" t="s">
+        <v>78</v>
+      </c>
       <c r="O8" s="1"/>
       <c r="P8" s="1"/>
       <c r="Q8" s="1"/>
@@ -1635,8 +1649,12 @@
         <v>78</v>
       </c>
       <c r="L9" s="1"/>
-      <c r="M9" s="1"/>
-      <c r="N9" s="1"/>
+      <c r="M9" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="N9" s="1" t="s">
+        <v>78</v>
+      </c>
       <c r="O9" s="1"/>
       <c r="P9" s="1"/>
       <c r="Q9" s="1"/>
@@ -1739,8 +1757,12 @@
         <v>78</v>
       </c>
       <c r="L11" s="1"/>
-      <c r="M11" s="1"/>
-      <c r="N11" s="1"/>
+      <c r="M11" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="N11" s="1" t="s">
+        <v>78</v>
+      </c>
       <c r="O11" s="1"/>
       <c r="P11" s="1"/>
       <c r="Q11" s="1"/>
@@ -1791,8 +1813,12 @@
         <v>78</v>
       </c>
       <c r="L12" s="1"/>
-      <c r="M12" s="1"/>
-      <c r="N12" s="1"/>
+      <c r="M12" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="N12" s="1" t="s">
+        <v>78</v>
+      </c>
       <c r="O12" s="1"/>
       <c r="P12" s="1"/>
       <c r="Q12" s="1"/>
@@ -2360,7 +2386,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
@@ -2862,7 +2888,7 @@
   <dimension ref="A1:C33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Source/Document/Meeting minutes/Meeting minute.xlsx
+++ b/Source/Document/Meeting minutes/Meeting minute.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="4" activeTab="14"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="416" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="434" uniqueCount="204">
   <si>
     <t>MEETING MINUTES</t>
   </si>
@@ -629,6 +629,48 @@
   </si>
   <si>
     <t>17/6/2015</t>
+  </si>
+  <si>
+    <t>30/6/2015</t>
+  </si>
+  <si>
+    <t>hub</t>
+  </si>
+  <si>
+    <t>ngay giao hang +1 +3 today</t>
+  </si>
+  <si>
+    <t>sp tra ve tren 10sp</t>
+  </si>
+  <si>
+    <t>gia se duoc dinh tai thoi diem nhan hang</t>
+  </si>
+  <si>
+    <t>radio button chon roi` next</t>
+  </si>
+  <si>
+    <t>ghi product name, brand auto fill</t>
+  </si>
+  <si>
+    <t>onclose()</t>
+  </si>
+  <si>
+    <t>onload()</t>
+  </si>
+  <si>
+    <t>hoa don ki gui</t>
+  </si>
+  <si>
+    <t>tien tra khach hang phai tinh san</t>
+  </si>
+  <si>
+    <t>2 ngay sau tra max tien</t>
+  </si>
+  <si>
+    <t>***</t>
+  </si>
+  <si>
+    <t>----</t>
   </si>
 </sst>
 </file>
@@ -808,7 +850,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -945,6 +987,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1253,8 +1298,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AD12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O6" sqref="O6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1501,7 +1546,9 @@
       <c r="N6" s="4" t="s">
         <v>189</v>
       </c>
-      <c r="O6" s="8"/>
+      <c r="O6" s="8" t="s">
+        <v>190</v>
+      </c>
       <c r="P6" s="8"/>
       <c r="Q6" s="8"/>
       <c r="R6" s="8"/>
@@ -1597,7 +1644,9 @@
       <c r="N8" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="O8" s="1"/>
+      <c r="O8" s="1" t="s">
+        <v>78</v>
+      </c>
       <c r="P8" s="1"/>
       <c r="Q8" s="1"/>
       <c r="R8" s="1"/>
@@ -1655,7 +1704,9 @@
       <c r="N9" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="O9" s="1"/>
+      <c r="O9" s="1" t="s">
+        <v>78</v>
+      </c>
       <c r="P9" s="1"/>
       <c r="Q9" s="1"/>
       <c r="R9" s="1"/>
@@ -1763,7 +1814,9 @@
       <c r="N11" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="O11" s="1"/>
+      <c r="O11" s="1" t="s">
+        <v>78</v>
+      </c>
       <c r="P11" s="1"/>
       <c r="Q11" s="1"/>
       <c r="R11" s="1"/>
@@ -1819,7 +1872,9 @@
       <c r="N12" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="O12" s="1"/>
+      <c r="O12" s="1" t="s">
+        <v>78</v>
+      </c>
       <c r="P12" s="1"/>
       <c r="Q12" s="1"/>
       <c r="R12" s="1"/>
@@ -3115,10 +3170,10 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C33"/>
+  <dimension ref="A1:F33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3129,13 +3184,13 @@
     <col min="4" max="16384" width="9.140625" style="32"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A1" s="38" t="s">
         <v>22</v>
       </c>
       <c r="B1" s="34"/>
     </row>
-    <row r="2" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A2" s="39" t="s">
         <v>23</v>
       </c>
@@ -3146,98 +3201,126 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A3" s="41">
         <v>1</v>
       </c>
-      <c r="B3" s="36"/>
+      <c r="B3" s="36" t="s">
+        <v>191</v>
+      </c>
       <c r="C3" s="26"/>
-    </row>
-    <row r="4" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="F3" s="32" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A4" s="41">
         <v>2</v>
       </c>
-      <c r="B4" s="36"/>
+      <c r="B4" s="36" t="s">
+        <v>192</v>
+      </c>
       <c r="C4" s="26"/>
-    </row>
-    <row r="5" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="F4" s="32" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A5" s="41">
         <v>3</v>
       </c>
-      <c r="B5" s="36"/>
+      <c r="B5" s="36" t="s">
+        <v>193</v>
+      </c>
       <c r="C5" s="26"/>
     </row>
-    <row r="6" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A6" s="41">
         <v>4</v>
       </c>
-      <c r="B6" s="36"/>
+      <c r="B6" s="36" t="s">
+        <v>194</v>
+      </c>
       <c r="C6" s="26"/>
     </row>
-    <row r="7" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A7" s="41">
         <v>5</v>
       </c>
-      <c r="B7" s="36"/>
+      <c r="B7" s="36" t="s">
+        <v>195</v>
+      </c>
       <c r="C7" s="26"/>
     </row>
-    <row r="8" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A8" s="41">
         <v>6</v>
       </c>
-      <c r="B8" s="36"/>
-      <c r="C8" s="26"/>
-    </row>
-    <row r="9" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="B8" s="36" t="s">
+        <v>196</v>
+      </c>
+      <c r="C8" s="26" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A9" s="41">
         <v>7</v>
       </c>
-      <c r="B9" s="37"/>
-      <c r="C9" s="26"/>
-    </row>
-    <row r="10" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="B9" s="37" t="s">
+        <v>199</v>
+      </c>
+      <c r="C9" s="49" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A10" s="41">
         <v>8</v>
       </c>
-      <c r="B10" s="36"/>
+      <c r="B10" s="36" t="s">
+        <v>200</v>
+      </c>
       <c r="C10" s="26"/>
     </row>
-    <row r="11" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A11" s="41">
         <v>9</v>
       </c>
-      <c r="B11" s="36"/>
+      <c r="B11" s="36" t="s">
+        <v>201</v>
+      </c>
       <c r="C11" s="26"/>
     </row>
-    <row r="12" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A12" s="41">
         <v>10</v>
       </c>
       <c r="B12" s="36"/>
       <c r="C12" s="26"/>
     </row>
-    <row r="13" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A13" s="41">
         <v>11</v>
       </c>
       <c r="B13" s="36"/>
       <c r="C13" s="26"/>
     </row>
-    <row r="14" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A14" s="41">
         <v>12</v>
       </c>
       <c r="B14" s="36"/>
       <c r="C14" s="26"/>
     </row>
-    <row r="15" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A15" s="41">
         <v>13</v>
       </c>
       <c r="B15" s="36"/>
       <c r="C15" s="26"/>
     </row>
-    <row r="16" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A16" s="41">
         <v>14</v>
       </c>

--- a/Source/Document/Meeting minutes/Meeting minute.xlsx
+++ b/Source/Document/Meeting minutes/Meeting minute.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="4" activeTab="14"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="6" activeTab="16"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="434" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="472" uniqueCount="214">
   <si>
     <t>MEETING MINUTES</t>
   </si>
@@ -671,6 +671,36 @@
   </si>
   <si>
     <t>----</t>
+  </si>
+  <si>
+    <t>step_success: da duoc ky gui voi gia la …  . Cua hang se kiem tra va dinh gia chinh xac hon</t>
+  </si>
+  <si>
+    <t>step3: gia o day chi co gia tri tham khao. Chung toi se xem hang va dinh gia chinh xac</t>
+  </si>
+  <si>
+    <t>Đơn vị tính là 1000</t>
+  </si>
+  <si>
+    <t>Cho nhiều đứa order 1 món hàng. Khi người đầu tiên đặt hàng, set 1 ngày cho đặt tiếp sau đó không hiện web nữa</t>
+  </si>
+  <si>
+    <t>Schedule được kích hoạt vào 0h sáng mỗi ngày. Lấy h hiện hành của hệ thống.</t>
+  </si>
+  <si>
+    <t>Neu có ảnh amazon thi hien anh len tren step4</t>
+  </si>
+  <si>
+    <t>Đồng ý hay từ chối đều phải có confirm. Thêm cột reason lúc từ chối hàng</t>
+  </si>
+  <si>
+    <t>Trừ điểm nhóm trưởng vì có bug.</t>
+  </si>
+  <si>
+    <t>DanQT</t>
+  </si>
+  <si>
+    <t>Hoang, Dan</t>
   </si>
 </sst>
 </file>
@@ -976,6 +1006,9 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -987,9 +1020,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1314,196 +1344,196 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
-      <c r="F1" s="45"/>
-      <c r="G1" s="45"/>
-      <c r="H1" s="45"/>
-      <c r="I1" s="45"/>
-      <c r="J1" s="45"/>
-      <c r="K1" s="45"/>
-      <c r="L1" s="45"/>
-      <c r="M1" s="45"/>
-      <c r="N1" s="45"/>
-      <c r="O1" s="45"/>
-      <c r="P1" s="45"/>
-      <c r="Q1" s="45"/>
-      <c r="R1" s="45"/>
-      <c r="S1" s="45"/>
-      <c r="T1" s="45"/>
-      <c r="U1" s="45"/>
-      <c r="V1" s="45"/>
-      <c r="W1" s="45"/>
-      <c r="X1" s="45"/>
-      <c r="Y1" s="45"/>
-      <c r="Z1" s="45"/>
-      <c r="AA1" s="45"/>
-      <c r="AB1" s="45"/>
-      <c r="AC1" s="45"/>
-      <c r="AD1" s="45"/>
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="46"/>
+      <c r="H1" s="46"/>
+      <c r="I1" s="46"/>
+      <c r="J1" s="46"/>
+      <c r="K1" s="46"/>
+      <c r="L1" s="46"/>
+      <c r="M1" s="46"/>
+      <c r="N1" s="46"/>
+      <c r="O1" s="46"/>
+      <c r="P1" s="46"/>
+      <c r="Q1" s="46"/>
+      <c r="R1" s="46"/>
+      <c r="S1" s="46"/>
+      <c r="T1" s="46"/>
+      <c r="U1" s="46"/>
+      <c r="V1" s="46"/>
+      <c r="W1" s="46"/>
+      <c r="X1" s="46"/>
+      <c r="Y1" s="46"/>
+      <c r="Z1" s="46"/>
+      <c r="AA1" s="46"/>
+      <c r="AB1" s="46"/>
+      <c r="AC1" s="46"/>
+      <c r="AD1" s="46"/>
     </row>
     <row r="2" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="45"/>
-      <c r="B2" s="45"/>
-      <c r="C2" s="45"/>
-      <c r="D2" s="45"/>
-      <c r="E2" s="45"/>
-      <c r="F2" s="45"/>
-      <c r="G2" s="45"/>
-      <c r="H2" s="45"/>
-      <c r="I2" s="45"/>
-      <c r="J2" s="45"/>
-      <c r="K2" s="45"/>
-      <c r="L2" s="45"/>
-      <c r="M2" s="45"/>
-      <c r="N2" s="45"/>
-      <c r="O2" s="45"/>
-      <c r="P2" s="45"/>
-      <c r="Q2" s="45"/>
-      <c r="R2" s="45"/>
-      <c r="S2" s="45"/>
-      <c r="T2" s="45"/>
-      <c r="U2" s="45"/>
-      <c r="V2" s="45"/>
-      <c r="W2" s="45"/>
-      <c r="X2" s="45"/>
-      <c r="Y2" s="45"/>
-      <c r="Z2" s="45"/>
-      <c r="AA2" s="45"/>
-      <c r="AB2" s="45"/>
-      <c r="AC2" s="45"/>
-      <c r="AD2" s="45"/>
+      <c r="A2" s="46"/>
+      <c r="B2" s="46"/>
+      <c r="C2" s="46"/>
+      <c r="D2" s="46"/>
+      <c r="E2" s="46"/>
+      <c r="F2" s="46"/>
+      <c r="G2" s="46"/>
+      <c r="H2" s="46"/>
+      <c r="I2" s="46"/>
+      <c r="J2" s="46"/>
+      <c r="K2" s="46"/>
+      <c r="L2" s="46"/>
+      <c r="M2" s="46"/>
+      <c r="N2" s="46"/>
+      <c r="O2" s="46"/>
+      <c r="P2" s="46"/>
+      <c r="Q2" s="46"/>
+      <c r="R2" s="46"/>
+      <c r="S2" s="46"/>
+      <c r="T2" s="46"/>
+      <c r="U2" s="46"/>
+      <c r="V2" s="46"/>
+      <c r="W2" s="46"/>
+      <c r="X2" s="46"/>
+      <c r="Y2" s="46"/>
+      <c r="Z2" s="46"/>
+      <c r="AA2" s="46"/>
+      <c r="AB2" s="46"/>
+      <c r="AC2" s="46"/>
+      <c r="AD2" s="46"/>
     </row>
     <row r="3" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="45"/>
-      <c r="B3" s="45"/>
-      <c r="C3" s="45"/>
-      <c r="D3" s="45"/>
-      <c r="E3" s="45"/>
-      <c r="F3" s="45"/>
-      <c r="G3" s="45"/>
-      <c r="H3" s="45"/>
-      <c r="I3" s="45"/>
-      <c r="J3" s="45"/>
-      <c r="K3" s="45"/>
-      <c r="L3" s="45"/>
-      <c r="M3" s="45"/>
-      <c r="N3" s="45"/>
-      <c r="O3" s="45"/>
-      <c r="P3" s="45"/>
-      <c r="Q3" s="45"/>
-      <c r="R3" s="45"/>
-      <c r="S3" s="45"/>
-      <c r="T3" s="45"/>
-      <c r="U3" s="45"/>
-      <c r="V3" s="45"/>
-      <c r="W3" s="45"/>
-      <c r="X3" s="45"/>
-      <c r="Y3" s="45"/>
-      <c r="Z3" s="45"/>
-      <c r="AA3" s="45"/>
-      <c r="AB3" s="45"/>
-      <c r="AC3" s="45"/>
-      <c r="AD3" s="45"/>
+      <c r="A3" s="46"/>
+      <c r="B3" s="46"/>
+      <c r="C3" s="46"/>
+      <c r="D3" s="46"/>
+      <c r="E3" s="46"/>
+      <c r="F3" s="46"/>
+      <c r="G3" s="46"/>
+      <c r="H3" s="46"/>
+      <c r="I3" s="46"/>
+      <c r="J3" s="46"/>
+      <c r="K3" s="46"/>
+      <c r="L3" s="46"/>
+      <c r="M3" s="46"/>
+      <c r="N3" s="46"/>
+      <c r="O3" s="46"/>
+      <c r="P3" s="46"/>
+      <c r="Q3" s="46"/>
+      <c r="R3" s="46"/>
+      <c r="S3" s="46"/>
+      <c r="T3" s="46"/>
+      <c r="U3" s="46"/>
+      <c r="V3" s="46"/>
+      <c r="W3" s="46"/>
+      <c r="X3" s="46"/>
+      <c r="Y3" s="46"/>
+      <c r="Z3" s="46"/>
+      <c r="AA3" s="46"/>
+      <c r="AB3" s="46"/>
+      <c r="AC3" s="46"/>
+      <c r="AD3" s="46"/>
     </row>
     <row r="4" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="46"/>
-      <c r="B4" s="46"/>
-      <c r="C4" s="46"/>
-      <c r="D4" s="46"/>
-      <c r="E4" s="46"/>
-      <c r="F4" s="46"/>
-      <c r="G4" s="46"/>
-      <c r="H4" s="46"/>
-      <c r="I4" s="46"/>
-      <c r="J4" s="46"/>
-      <c r="K4" s="46"/>
-      <c r="L4" s="46"/>
-      <c r="M4" s="46"/>
-      <c r="N4" s="46"/>
-      <c r="O4" s="46"/>
-      <c r="P4" s="46"/>
-      <c r="Q4" s="46"/>
-      <c r="R4" s="46"/>
-      <c r="S4" s="46"/>
-      <c r="T4" s="46"/>
-      <c r="U4" s="46"/>
-      <c r="V4" s="46"/>
-      <c r="W4" s="46"/>
-      <c r="X4" s="46"/>
-      <c r="Y4" s="46"/>
-      <c r="Z4" s="46"/>
-      <c r="AA4" s="46"/>
-      <c r="AB4" s="46"/>
-      <c r="AC4" s="46"/>
-      <c r="AD4" s="46"/>
+      <c r="A4" s="47"/>
+      <c r="B4" s="47"/>
+      <c r="C4" s="47"/>
+      <c r="D4" s="47"/>
+      <c r="E4" s="47"/>
+      <c r="F4" s="47"/>
+      <c r="G4" s="47"/>
+      <c r="H4" s="47"/>
+      <c r="I4" s="47"/>
+      <c r="J4" s="47"/>
+      <c r="K4" s="47"/>
+      <c r="L4" s="47"/>
+      <c r="M4" s="47"/>
+      <c r="N4" s="47"/>
+      <c r="O4" s="47"/>
+      <c r="P4" s="47"/>
+      <c r="Q4" s="47"/>
+      <c r="R4" s="47"/>
+      <c r="S4" s="47"/>
+      <c r="T4" s="47"/>
+      <c r="U4" s="47"/>
+      <c r="V4" s="47"/>
+      <c r="W4" s="47"/>
+      <c r="X4" s="47"/>
+      <c r="Y4" s="47"/>
+      <c r="Z4" s="47"/>
+      <c r="AA4" s="47"/>
+      <c r="AB4" s="47"/>
+      <c r="AC4" s="47"/>
+      <c r="AD4" s="47"/>
     </row>
     <row r="5" spans="1:30" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>1</v>
       </c>
       <c r="B5" s="4"/>
-      <c r="C5" s="47" t="s">
+      <c r="C5" s="48" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="48"/>
-      <c r="E5" s="47" t="s">
+      <c r="D5" s="49"/>
+      <c r="E5" s="48" t="s">
         <v>12</v>
       </c>
-      <c r="F5" s="48"/>
-      <c r="G5" s="47" t="s">
+      <c r="F5" s="49"/>
+      <c r="G5" s="48" t="s">
         <v>13</v>
       </c>
-      <c r="H5" s="48"/>
-      <c r="I5" s="47" t="s">
+      <c r="H5" s="49"/>
+      <c r="I5" s="48" t="s">
         <v>14</v>
       </c>
-      <c r="J5" s="48"/>
-      <c r="K5" s="47" t="s">
+      <c r="J5" s="49"/>
+      <c r="K5" s="48" t="s">
         <v>15</v>
       </c>
-      <c r="L5" s="48"/>
-      <c r="M5" s="47" t="s">
+      <c r="L5" s="49"/>
+      <c r="M5" s="48" t="s">
         <v>16</v>
       </c>
-      <c r="N5" s="48"/>
-      <c r="O5" s="47" t="s">
+      <c r="N5" s="49"/>
+      <c r="O5" s="48" t="s">
         <v>17</v>
       </c>
-      <c r="P5" s="48"/>
-      <c r="Q5" s="47" t="s">
+      <c r="P5" s="49"/>
+      <c r="Q5" s="48" t="s">
         <v>18</v>
       </c>
-      <c r="R5" s="48"/>
-      <c r="S5" s="47" t="s">
+      <c r="R5" s="49"/>
+      <c r="S5" s="48" t="s">
         <v>19</v>
       </c>
-      <c r="T5" s="48"/>
-      <c r="U5" s="47" t="s">
+      <c r="T5" s="49"/>
+      <c r="U5" s="48" t="s">
         <v>148</v>
       </c>
-      <c r="V5" s="48"/>
-      <c r="W5" s="47" t="s">
+      <c r="V5" s="49"/>
+      <c r="W5" s="48" t="s">
         <v>149</v>
       </c>
-      <c r="X5" s="48"/>
-      <c r="Y5" s="47" t="s">
+      <c r="X5" s="49"/>
+      <c r="Y5" s="48" t="s">
         <v>150</v>
       </c>
-      <c r="Z5" s="48"/>
-      <c r="AA5" s="47" t="s">
+      <c r="Z5" s="49"/>
+      <c r="AA5" s="48" t="s">
         <v>151</v>
       </c>
-      <c r="AB5" s="48"/>
-      <c r="AC5" s="47" t="s">
+      <c r="AB5" s="49"/>
+      <c r="AC5" s="48" t="s">
         <v>152</v>
       </c>
-      <c r="AD5" s="48"/>
+      <c r="AD5" s="49"/>
     </row>
     <row r="6" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
@@ -3172,7 +3202,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
@@ -3270,7 +3300,7 @@
       <c r="B9" s="37" t="s">
         <v>199</v>
       </c>
-      <c r="C9" s="49" t="s">
+      <c r="C9" s="45" t="s">
         <v>203</v>
       </c>
     </row>
@@ -3660,8 +3690,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3693,57 +3723,87 @@
       <c r="A3" s="41">
         <v>1</v>
       </c>
-      <c r="B3" s="36"/>
-      <c r="C3" s="26"/>
-    </row>
-    <row r="4" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="B3" s="36" t="s">
+        <v>209</v>
+      </c>
+      <c r="C3" s="26" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="39" x14ac:dyDescent="0.25">
       <c r="A4" s="41">
         <v>2</v>
       </c>
-      <c r="B4" s="36"/>
-      <c r="C4" s="26"/>
-    </row>
-    <row r="5" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="B4" s="36" t="s">
+        <v>204</v>
+      </c>
+      <c r="C4" s="26" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="39" x14ac:dyDescent="0.25">
       <c r="A5" s="41">
         <v>3</v>
       </c>
-      <c r="B5" s="36"/>
-      <c r="C5" s="26"/>
+      <c r="B5" s="36" t="s">
+        <v>205</v>
+      </c>
+      <c r="C5" s="26" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="6" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A6" s="41">
         <v>4</v>
       </c>
-      <c r="B6" s="36"/>
+      <c r="B6" s="36" t="s">
+        <v>206</v>
+      </c>
       <c r="C6" s="26"/>
     </row>
-    <row r="7" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" ht="39" x14ac:dyDescent="0.25">
       <c r="A7" s="41">
         <v>5</v>
       </c>
-      <c r="B7" s="36"/>
-      <c r="C7" s="26"/>
-    </row>
-    <row r="8" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="B7" s="36" t="s">
+        <v>210</v>
+      </c>
+      <c r="C7" s="26" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="58.5" x14ac:dyDescent="0.25">
       <c r="A8" s="41">
         <v>6</v>
       </c>
-      <c r="B8" s="36"/>
-      <c r="C8" s="26"/>
-    </row>
-    <row r="9" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="B8" s="36" t="s">
+        <v>207</v>
+      </c>
+      <c r="C8" s="26" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="39" x14ac:dyDescent="0.25">
       <c r="A9" s="41">
         <v>7</v>
       </c>
-      <c r="B9" s="37"/>
-      <c r="C9" s="26"/>
+      <c r="B9" s="37" t="s">
+        <v>208</v>
+      </c>
+      <c r="C9" s="26" t="s">
+        <v>213</v>
+      </c>
     </row>
     <row r="10" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A10" s="41">
         <v>8</v>
       </c>
-      <c r="B10" s="36"/>
-      <c r="C10" s="26"/>
+      <c r="B10" s="36" t="s">
+        <v>211</v>
+      </c>
+      <c r="C10" s="26" t="s">
+        <v>212</v>
+      </c>
     </row>
     <row r="11" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A11" s="41">

--- a/Source/Document/Meeting minutes/Meeting minute.xlsx
+++ b/Source/Document/Meeting minutes/Meeting minute.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="6" activeTab="16"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="472" uniqueCount="214">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="483" uniqueCount="232">
   <si>
     <t>MEETING MINUTES</t>
   </si>
@@ -59,9 +59,6 @@
   </si>
   <si>
     <t>DanTQ</t>
-  </si>
-  <si>
-    <t>PhucTQ</t>
   </si>
   <si>
     <t>HoangNH</t>
@@ -701,6 +698,63 @@
   </si>
   <si>
     <t>Hoang, Dan</t>
+  </si>
+  <si>
+    <t>Consign_success: Giá ký gửi ước lượng là….</t>
+  </si>
+  <si>
+    <t>Duc</t>
+  </si>
+  <si>
+    <t>trên trang QL y/c ký gửi cho sửa thông tin cơ bản: tên, category, ngày hẹn, ngày lấy…</t>
+  </si>
+  <si>
+    <t>Giá mình nhận không phải là giá cao nhất thấp nhất.</t>
+  </si>
+  <si>
+    <t>Có thể dùng giá cap nhất làm giá nhận hàng</t>
+  </si>
+  <si>
+    <t>lúc nhận hàng rồi cho sửa tiếp</t>
+  </si>
+  <si>
+    <t>Khi nào cửa hàng mở lên cho giá thì mới send sms</t>
+  </si>
+  <si>
+    <t>Lúc order hàng hiện số người đang đặt món hàng này</t>
+  </si>
+  <si>
+    <t>Nhắn tin giá tiền cho người order, mỗi đứa có giá riêng. Giá có thể thương lượng. Nếu bạn muốn mua thì hãy đến cửa hàng xem và thương lượng. Sau 1 ngày cửa hàng sẽ xóa order của bạn. Ai đến trước thì bán cho người đó và xóa những người khác.</t>
+  </si>
+  <si>
+    <t>Lúc thanh toán tính toán số tiền doanh thu và số tiền cần trả. Nếu có tk thì gửi tiền cho người ký gửi ngay luôn</t>
+  </si>
+  <si>
+    <t>Tính toán tiền lời dựa trên tiền bán được và tiền</t>
+  </si>
+  <si>
+    <t>"Đã hết hạn ký gửi và  hàng của bạn vẫn chưa bán được. Vui lòng đn nhận lại hàng hoặc gia hạn hơn. Với mỗi ngày quá hạn chúng tôi sẽ tính tiền lưu kho"</t>
+  </si>
+  <si>
+    <t>Cho store trả hàng trên web mà ko cần người ký gửi request</t>
+  </si>
+  <si>
+    <t>Cho phép store nhập hàng trực tiếp trong "quản lý hàng ký gửi"</t>
+  </si>
+  <si>
+    <t>PHẢN BIỆN: lúc ký gửi bắt người ký gửi chấp nhận chỉ được y/c lấy lại hàng sau…. Ngày</t>
+  </si>
+  <si>
+    <t>Khi order xong thêm orderID cho người đặt hàng xem</t>
+  </si>
+  <si>
+    <t>Cho nhập ngày và giờ nhận</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PhucTQ </t>
+  </si>
+  <si>
+    <t>(drop)</t>
   </si>
 </sst>
 </file>
@@ -1328,8 +1382,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AD12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O6" sqref="O6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1479,59 +1533,59 @@
       </c>
       <c r="B5" s="4"/>
       <c r="C5" s="48" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D5" s="49"/>
       <c r="E5" s="48" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F5" s="49"/>
       <c r="G5" s="48" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H5" s="49"/>
       <c r="I5" s="48" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J5" s="49"/>
       <c r="K5" s="48" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L5" s="49"/>
       <c r="M5" s="48" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="N5" s="49"/>
       <c r="O5" s="48" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="P5" s="49"/>
       <c r="Q5" s="48" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="R5" s="49"/>
       <c r="S5" s="48" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="T5" s="49"/>
       <c r="U5" s="48" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="V5" s="49"/>
       <c r="W5" s="48" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="X5" s="49"/>
       <c r="Y5" s="48" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="Z5" s="49"/>
       <c r="AA5" s="48" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="AB5" s="49"/>
       <c r="AC5" s="48" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="AD5" s="49"/>
     </row>
@@ -1544,19 +1598,19 @@
         <v>42313</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G6" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="H6" s="7" t="s">
         <v>123</v>
-      </c>
-      <c r="H6" s="7" t="s">
-        <v>124</v>
       </c>
       <c r="I6" s="6">
         <v>42010</v>
@@ -1570,18 +1624,24 @@
       <c r="L6" s="6">
         <v>42283</v>
       </c>
-      <c r="M6" s="4" t="s">
+      <c r="M6" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="N6" s="7" t="s">
         <v>188</v>
       </c>
-      <c r="N6" s="4" t="s">
+      <c r="O6" s="7" t="s">
         <v>189</v>
       </c>
-      <c r="O6" s="8" t="s">
-        <v>190</v>
-      </c>
-      <c r="P6" s="8"/>
-      <c r="Q6" s="8"/>
-      <c r="R6" s="8"/>
+      <c r="P6" s="6">
+        <v>42042</v>
+      </c>
+      <c r="Q6" s="6">
+        <v>42192</v>
+      </c>
+      <c r="R6" s="6">
+        <v>42254</v>
+      </c>
       <c r="S6" s="8"/>
       <c r="T6" s="8"/>
       <c r="U6" s="8"/>
@@ -1616,10 +1676,18 @@
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
       <c r="N7" s="1"/>
-      <c r="O7" s="1"/>
-      <c r="P7" s="1"/>
-      <c r="Q7" s="1"/>
-      <c r="R7" s="1"/>
+      <c r="O7" s="1">
+        <v>113</v>
+      </c>
+      <c r="P7" s="1">
+        <v>113</v>
+      </c>
+      <c r="Q7" s="1">
+        <v>113</v>
+      </c>
+      <c r="R7" s="1">
+        <v>113</v>
+      </c>
       <c r="S7" s="1"/>
       <c r="T7" s="1"/>
       <c r="U7" s="1"/>
@@ -1641,45 +1709,53 @@
         <v>6</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="L8" s="1"/>
+        <v>77</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>77</v>
+      </c>
       <c r="M8" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="N8" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="O8" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="P8" s="1"/>
-      <c r="Q8" s="1"/>
-      <c r="R8" s="1"/>
+        <v>77</v>
+      </c>
+      <c r="P8" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q8" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="R8" s="1" t="s">
+        <v>77</v>
+      </c>
       <c r="S8" s="1"/>
       <c r="T8" s="1"/>
       <c r="U8" s="1"/>
@@ -1701,45 +1777,53 @@
         <v>7</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="L9" s="1"/>
+        <v>77</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>77</v>
+      </c>
       <c r="M9" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="N9" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="O9" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="P9" s="1"/>
-      <c r="Q9" s="1"/>
-      <c r="R9" s="1"/>
+        <v>77</v>
+      </c>
+      <c r="P9" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q9" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="R9" s="1" t="s">
+        <v>77</v>
+      </c>
       <c r="S9" s="1"/>
       <c r="T9" s="1"/>
       <c r="U9" s="1"/>
@@ -1756,36 +1840,38 @@
     <row r="10" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
       <c r="B10" s="1" t="s">
-        <v>8</v>
+        <v>230</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="L10" s="1"/>
+        <v>77</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>231</v>
+      </c>
       <c r="M10" s="1"/>
       <c r="N10" s="1"/>
       <c r="O10" s="1"/>
@@ -1808,48 +1894,56 @@
     <row r="11" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
       <c r="B11" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="L11" s="1"/>
+        <v>77</v>
+      </c>
+      <c r="L11" s="1" t="s">
+        <v>77</v>
+      </c>
       <c r="M11" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="N11" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="O11" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="P11" s="1"/>
-      <c r="Q11" s="1"/>
-      <c r="R11" s="1"/>
+        <v>77</v>
+      </c>
+      <c r="P11" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q11" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="R11" s="1" t="s">
+        <v>77</v>
+      </c>
       <c r="S11" s="1"/>
       <c r="T11" s="1"/>
       <c r="U11" s="1"/>
@@ -1866,48 +1960,56 @@
     <row r="12" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="B12" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="L12" s="1"/>
+        <v>77</v>
+      </c>
+      <c r="L12" s="1" t="s">
+        <v>77</v>
+      </c>
       <c r="M12" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="N12" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="O12" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="P12" s="1"/>
-      <c r="Q12" s="1"/>
-      <c r="R12" s="1"/>
+        <v>77</v>
+      </c>
+      <c r="P12" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q12" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="R12" s="1" t="s">
+        <v>77</v>
+      </c>
       <c r="S12" s="1"/>
       <c r="T12" s="1"/>
       <c r="U12" s="1"/>
@@ -1950,6 +2052,12 @@
     <hyperlink ref="J6" location="W4_2!A1" display="3/6/2015"/>
     <hyperlink ref="K6" location="W5_1!A1" display="8/6/2015"/>
     <hyperlink ref="L6" location="W5_2!A1" display="10/6/2015"/>
+    <hyperlink ref="M6" location="W6_1!A1" display="15/6/2015"/>
+    <hyperlink ref="N6" location="W6_2!A1" display="17/6/2015"/>
+    <hyperlink ref="O6" location="W7_1!A1" display="30/6/2015"/>
+    <hyperlink ref="P6" location="W7_2!A1" display="W7_2!A1"/>
+    <hyperlink ref="Q6" location="W8_1!A1" display="W8_1!A1"/>
+    <hyperlink ref="R6" location="W8_2!A1" display="W8_2!A1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1974,19 +2082,19 @@
   <sheetData>
     <row r="1" spans="1:3" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A1" s="38" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B1" s="34"/>
     </row>
     <row r="2" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A2" s="39" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" s="35" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="35" t="s">
+      <c r="C2" s="40" t="s">
         <v>24</v>
-      </c>
-      <c r="C2" s="40" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
@@ -1994,7 +2102,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="36" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C3" s="26"/>
     </row>
@@ -2003,7 +2111,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="43" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C4" s="26"/>
     </row>
@@ -2012,7 +2120,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="36" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C5" s="26"/>
     </row>
@@ -2021,7 +2129,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="36" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C6" s="26"/>
     </row>
@@ -2030,7 +2138,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="36" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C7" s="26"/>
     </row>
@@ -2039,7 +2147,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="37" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C8" s="26"/>
     </row>
@@ -2048,7 +2156,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="37" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C9" s="26"/>
     </row>
@@ -2057,7 +2165,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="36" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C10" s="26"/>
     </row>
@@ -2066,7 +2174,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="36" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C11" s="26"/>
     </row>
@@ -2075,7 +2183,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="36" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C12" s="26"/>
     </row>
@@ -2084,7 +2192,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="36" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C13" s="26"/>
     </row>
@@ -2093,7 +2201,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="36" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C14" s="26"/>
     </row>
@@ -2102,7 +2210,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="36" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C15" s="26"/>
     </row>
@@ -2142,19 +2250,19 @@
     </row>
     <row r="22" spans="1:3" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A22" s="38" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B22" s="34"/>
     </row>
     <row r="23" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A23" s="42" t="s">
+        <v>22</v>
+      </c>
+      <c r="B23" s="35" t="s">
         <v>23</v>
       </c>
-      <c r="B23" s="35" t="s">
-        <v>24</v>
-      </c>
       <c r="C23" s="40" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
@@ -2231,19 +2339,19 @@
   <sheetData>
     <row r="1" spans="1:3" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A1" s="38" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B1" s="34"/>
     </row>
     <row r="2" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A2" s="39" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" s="35" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="35" t="s">
+      <c r="C2" s="40" t="s">
         <v>24</v>
-      </c>
-      <c r="C2" s="40" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
@@ -2251,10 +2359,10 @@
         <v>1</v>
       </c>
       <c r="B3" s="36" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C3" s="26" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="39" x14ac:dyDescent="0.25">
@@ -2262,10 +2370,10 @@
         <v>2</v>
       </c>
       <c r="B4" s="36" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C4" s="26" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="39" x14ac:dyDescent="0.25">
@@ -2273,10 +2381,10 @@
         <v>3</v>
       </c>
       <c r="B5" s="36" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C5" s="26" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
@@ -2284,10 +2392,10 @@
         <v>4</v>
       </c>
       <c r="B6" s="36" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C6" s="26" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="39" x14ac:dyDescent="0.25">
@@ -2295,7 +2403,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="36" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C7" s="26"/>
     </row>
@@ -2304,10 +2412,10 @@
         <v>6</v>
       </c>
       <c r="B8" s="36" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C8" s="26" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
@@ -2315,7 +2423,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="37" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C9" s="26"/>
     </row>
@@ -2397,19 +2505,19 @@
     </row>
     <row r="22" spans="1:3" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A22" s="38" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B22" s="34"/>
     </row>
     <row r="23" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A23" s="42" t="s">
+        <v>22</v>
+      </c>
+      <c r="B23" s="35" t="s">
         <v>23</v>
       </c>
-      <c r="B23" s="35" t="s">
-        <v>24</v>
-      </c>
       <c r="C23" s="40" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
@@ -2471,9 +2579,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2485,19 +2591,19 @@
   <sheetData>
     <row r="1" spans="1:3" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A1" s="38" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B1" s="34"/>
     </row>
     <row r="2" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A2" s="39" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" s="35" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="35" t="s">
+      <c r="C2" s="40" t="s">
         <v>24</v>
-      </c>
-      <c r="C2" s="40" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
@@ -2505,10 +2611,10 @@
         <v>1</v>
       </c>
       <c r="B3" s="36" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C3" s="26" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="39" x14ac:dyDescent="0.25">
@@ -2516,10 +2622,10 @@
         <v>2</v>
       </c>
       <c r="B4" s="36" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C4" s="26" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
@@ -2527,10 +2633,10 @@
         <v>3</v>
       </c>
       <c r="B5" s="36" t="s">
+        <v>175</v>
+      </c>
+      <c r="C5" s="26" t="s">
         <v>176</v>
-      </c>
-      <c r="C5" s="26" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="39" x14ac:dyDescent="0.25">
@@ -2538,10 +2644,10 @@
         <v>4</v>
       </c>
       <c r="B6" s="36" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C6" s="26" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="39" x14ac:dyDescent="0.25">
@@ -2549,10 +2655,10 @@
         <v>5</v>
       </c>
       <c r="B7" s="36" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C7" s="26" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="39" x14ac:dyDescent="0.25">
@@ -2560,10 +2666,10 @@
         <v>6</v>
       </c>
       <c r="B8" s="36" t="s">
+        <v>178</v>
+      </c>
+      <c r="C8" s="26" t="s">
         <v>179</v>
-      </c>
-      <c r="C8" s="26" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="39" x14ac:dyDescent="0.25">
@@ -2571,10 +2677,10 @@
         <v>7</v>
       </c>
       <c r="B9" s="37" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C9" s="26" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
@@ -2582,7 +2688,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="36" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C10" s="26"/>
     </row>
@@ -2657,39 +2763,39 @@
     </row>
     <row r="22" spans="1:3" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A22" s="38" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B22" s="34"/>
     </row>
     <row r="23" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A23" s="42" t="s">
+        <v>22</v>
+      </c>
+      <c r="B23" s="35" t="s">
         <v>23</v>
       </c>
-      <c r="B23" s="35" t="s">
-        <v>24</v>
-      </c>
       <c r="C23" s="40" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A24" s="26"/>
       <c r="B24" s="36" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C24" s="26"/>
     </row>
     <row r="25" spans="1:3" ht="39" x14ac:dyDescent="0.25">
       <c r="A25" s="26"/>
       <c r="B25" s="36" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C25" s="26"/>
     </row>
     <row r="26" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A26" s="26"/>
       <c r="B26" s="36" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C26" s="26"/>
     </row>
@@ -2756,19 +2862,19 @@
   <sheetData>
     <row r="1" spans="1:3" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A1" s="38" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B1" s="34"/>
     </row>
     <row r="2" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A2" s="39" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" s="35" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="35" t="s">
+      <c r="C2" s="40" t="s">
         <v>24</v>
-      </c>
-      <c r="C2" s="40" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
@@ -2898,19 +3004,19 @@
     </row>
     <row r="22" spans="1:3" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A22" s="38" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B22" s="34"/>
     </row>
     <row r="23" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A23" s="42" t="s">
+        <v>22</v>
+      </c>
+      <c r="B23" s="35" t="s">
         <v>23</v>
       </c>
-      <c r="B23" s="35" t="s">
-        <v>24</v>
-      </c>
       <c r="C23" s="40" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
@@ -2986,19 +3092,19 @@
   <sheetData>
     <row r="1" spans="1:3" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A1" s="38" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B1" s="34"/>
     </row>
     <row r="2" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A2" s="39" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" s="35" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="35" t="s">
+      <c r="C2" s="40" t="s">
         <v>24</v>
-      </c>
-      <c r="C2" s="40" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
@@ -3128,19 +3234,19 @@
     </row>
     <row r="22" spans="1:3" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A22" s="38" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B22" s="34"/>
     </row>
     <row r="23" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A23" s="42" t="s">
+        <v>22</v>
+      </c>
+      <c r="B23" s="35" t="s">
         <v>23</v>
       </c>
-      <c r="B23" s="35" t="s">
-        <v>24</v>
-      </c>
       <c r="C23" s="40" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
@@ -3202,9 +3308,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -3216,19 +3320,19 @@
   <sheetData>
     <row r="1" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A1" s="38" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B1" s="34"/>
     </row>
     <row r="2" spans="1:6" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A2" s="39" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" s="35" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="35" t="s">
+      <c r="C2" s="40" t="s">
         <v>24</v>
-      </c>
-      <c r="C2" s="40" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="19.5" x14ac:dyDescent="0.25">
@@ -3236,11 +3340,11 @@
         <v>1</v>
       </c>
       <c r="B3" s="36" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C3" s="26"/>
       <c r="F3" s="32" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="19.5" x14ac:dyDescent="0.25">
@@ -3248,11 +3352,11 @@
         <v>2</v>
       </c>
       <c r="B4" s="36" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C4" s="26"/>
       <c r="F4" s="32" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="19.5" x14ac:dyDescent="0.25">
@@ -3260,7 +3364,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="36" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C5" s="26"/>
     </row>
@@ -3269,7 +3373,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="36" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C6" s="26"/>
     </row>
@@ -3278,7 +3382,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="36" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C7" s="26"/>
     </row>
@@ -3287,10 +3391,10 @@
         <v>6</v>
       </c>
       <c r="B8" s="36" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C8" s="26" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="19.5" x14ac:dyDescent="0.25">
@@ -3298,10 +3402,10 @@
         <v>7</v>
       </c>
       <c r="B9" s="37" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C9" s="45" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="19.5" x14ac:dyDescent="0.25">
@@ -3309,7 +3413,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="36" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C10" s="26"/>
     </row>
@@ -3318,7 +3422,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="36" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C11" s="26"/>
     </row>
@@ -3386,19 +3490,19 @@
     </row>
     <row r="22" spans="1:3" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A22" s="38" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B22" s="34"/>
     </row>
     <row r="23" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A23" s="42" t="s">
+        <v>22</v>
+      </c>
+      <c r="B23" s="35" t="s">
         <v>23</v>
       </c>
-      <c r="B23" s="35" t="s">
-        <v>24</v>
-      </c>
       <c r="C23" s="40" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
@@ -3474,19 +3578,19 @@
   <sheetData>
     <row r="1" spans="1:3" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A1" s="38" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B1" s="34"/>
     </row>
     <row r="2" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A2" s="39" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" s="35" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="35" t="s">
+      <c r="C2" s="40" t="s">
         <v>24</v>
-      </c>
-      <c r="C2" s="40" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
@@ -3616,19 +3720,19 @@
     </row>
     <row r="22" spans="1:3" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A22" s="38" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B22" s="34"/>
     </row>
     <row r="23" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A23" s="42" t="s">
+        <v>22</v>
+      </c>
+      <c r="B23" s="35" t="s">
         <v>23</v>
       </c>
-      <c r="B23" s="35" t="s">
-        <v>24</v>
-      </c>
       <c r="C23" s="40" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
@@ -3690,7 +3794,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
@@ -3704,19 +3808,19 @@
   <sheetData>
     <row r="1" spans="1:3" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A1" s="38" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B1" s="34"/>
     </row>
     <row r="2" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A2" s="39" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" s="35" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="35" t="s">
+      <c r="C2" s="40" t="s">
         <v>24</v>
-      </c>
-      <c r="C2" s="40" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
@@ -3724,10 +3828,10 @@
         <v>1</v>
       </c>
       <c r="B3" s="36" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C3" s="26" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="39" x14ac:dyDescent="0.25">
@@ -3735,10 +3839,10 @@
         <v>2</v>
       </c>
       <c r="B4" s="36" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C4" s="26" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="39" x14ac:dyDescent="0.25">
@@ -3746,10 +3850,10 @@
         <v>3</v>
       </c>
       <c r="B5" s="36" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C5" s="26" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
@@ -3757,7 +3861,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="36" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C6" s="26"/>
     </row>
@@ -3766,10 +3870,10 @@
         <v>5</v>
       </c>
       <c r="B7" s="36" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C7" s="26" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="58.5" x14ac:dyDescent="0.25">
@@ -3777,10 +3881,10 @@
         <v>6</v>
       </c>
       <c r="B8" s="36" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C8" s="26" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="39" x14ac:dyDescent="0.25">
@@ -3788,10 +3892,10 @@
         <v>7</v>
       </c>
       <c r="B9" s="37" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C9" s="26" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
@@ -3799,10 +3903,10 @@
         <v>8</v>
       </c>
       <c r="B10" s="36" t="s">
+        <v>210</v>
+      </c>
+      <c r="C10" s="26" t="s">
         <v>211</v>
-      </c>
-      <c r="C10" s="26" t="s">
-        <v>212</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
@@ -3876,19 +3980,19 @@
     </row>
     <row r="22" spans="1:3" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A22" s="38" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B22" s="34"/>
     </row>
     <row r="23" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A23" s="42" t="s">
+        <v>22</v>
+      </c>
+      <c r="B23" s="35" t="s">
         <v>23</v>
       </c>
-      <c r="B23" s="35" t="s">
-        <v>24</v>
-      </c>
       <c r="C23" s="40" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
@@ -3950,8 +4054,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3964,129 +4068,163 @@
   <sheetData>
     <row r="1" spans="1:3" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A1" s="38" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B1" s="34"/>
     </row>
     <row r="2" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A2" s="39" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" s="35" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="35" t="s">
+      <c r="C2" s="40" t="s">
         <v>24</v>
-      </c>
-      <c r="C2" s="40" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A3" s="41">
         <v>1</v>
       </c>
-      <c r="B3" s="36"/>
-      <c r="C3" s="26"/>
-    </row>
-    <row r="4" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="B3" s="36" t="s">
+        <v>213</v>
+      </c>
+      <c r="C3" s="26" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="39" x14ac:dyDescent="0.25">
       <c r="A4" s="41">
         <v>2</v>
       </c>
-      <c r="B4" s="36"/>
+      <c r="B4" s="36" t="s">
+        <v>215</v>
+      </c>
       <c r="C4" s="26"/>
     </row>
-    <row r="5" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" ht="39" x14ac:dyDescent="0.25">
       <c r="A5" s="41">
         <v>3</v>
       </c>
-      <c r="B5" s="36"/>
+      <c r="B5" s="36" t="s">
+        <v>216</v>
+      </c>
       <c r="C5" s="26"/>
     </row>
     <row r="6" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A6" s="41">
         <v>4</v>
       </c>
-      <c r="B6" s="36"/>
+      <c r="B6" s="36" t="s">
+        <v>217</v>
+      </c>
       <c r="C6" s="26"/>
     </row>
     <row r="7" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A7" s="41">
         <v>5</v>
       </c>
-      <c r="B7" s="36"/>
+      <c r="B7" s="36" t="s">
+        <v>218</v>
+      </c>
       <c r="C7" s="26"/>
     </row>
-    <row r="8" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" ht="39" x14ac:dyDescent="0.25">
       <c r="A8" s="41">
         <v>6</v>
       </c>
-      <c r="B8" s="36"/>
+      <c r="B8" s="36" t="s">
+        <v>228</v>
+      </c>
       <c r="C8" s="26"/>
     </row>
     <row r="9" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A9" s="41">
         <v>7</v>
       </c>
-      <c r="B9" s="37"/>
+      <c r="B9" s="37" t="s">
+        <v>219</v>
+      </c>
       <c r="C9" s="26"/>
     </row>
-    <row r="10" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" ht="39" x14ac:dyDescent="0.25">
       <c r="A10" s="41">
         <v>8</v>
       </c>
-      <c r="B10" s="36"/>
+      <c r="B10" s="36" t="s">
+        <v>220</v>
+      </c>
       <c r="C10" s="26"/>
     </row>
-    <row r="11" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" ht="117" x14ac:dyDescent="0.25">
       <c r="A11" s="41">
         <v>9</v>
       </c>
-      <c r="B11" s="36"/>
+      <c r="B11" s="36" t="s">
+        <v>221</v>
+      </c>
       <c r="C11" s="26"/>
     </row>
-    <row r="12" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" ht="58.5" x14ac:dyDescent="0.25">
       <c r="A12" s="41">
         <v>10</v>
       </c>
-      <c r="B12" s="36"/>
+      <c r="B12" s="36" t="s">
+        <v>222</v>
+      </c>
       <c r="C12" s="26"/>
     </row>
     <row r="13" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A13" s="41">
         <v>11</v>
       </c>
-      <c r="B13" s="36"/>
+      <c r="B13" s="36" t="s">
+        <v>223</v>
+      </c>
       <c r="C13" s="26"/>
     </row>
-    <row r="14" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" ht="78" x14ac:dyDescent="0.25">
       <c r="A14" s="41">
         <v>12</v>
       </c>
-      <c r="B14" s="36"/>
+      <c r="B14" s="36" t="s">
+        <v>224</v>
+      </c>
       <c r="C14" s="26"/>
     </row>
-    <row r="15" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" ht="39" x14ac:dyDescent="0.25">
       <c r="A15" s="41">
         <v>13</v>
       </c>
-      <c r="B15" s="36"/>
+      <c r="B15" s="36" t="s">
+        <v>225</v>
+      </c>
       <c r="C15" s="26"/>
     </row>
-    <row r="16" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" ht="39" x14ac:dyDescent="0.25">
       <c r="A16" s="41">
         <v>14</v>
       </c>
-      <c r="B16" s="36"/>
+      <c r="B16" s="36" t="s">
+        <v>226</v>
+      </c>
       <c r="C16" s="26"/>
     </row>
     <row r="17" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A17" s="41">
         <v>15</v>
       </c>
-      <c r="B17" s="36"/>
+      <c r="B17" s="36" t="s">
+        <v>229</v>
+      </c>
       <c r="C17" s="26"/>
     </row>
-    <row r="18" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" ht="39" x14ac:dyDescent="0.25">
       <c r="A18" s="41"/>
-      <c r="B18" s="36"/>
+      <c r="B18" s="36" t="s">
+        <v>227</v>
+      </c>
       <c r="C18" s="26"/>
     </row>
     <row r="19" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
@@ -4106,19 +4244,19 @@
     </row>
     <row r="22" spans="1:3" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A22" s="38" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B22" s="34"/>
     </row>
     <row r="23" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A23" s="42" t="s">
+        <v>22</v>
+      </c>
+      <c r="B23" s="35" t="s">
         <v>23</v>
       </c>
-      <c r="B23" s="35" t="s">
-        <v>24</v>
-      </c>
       <c r="C23" s="40" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
@@ -4194,19 +4332,19 @@
   <sheetData>
     <row r="1" spans="1:3" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A1" s="38" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B1" s="34"/>
     </row>
     <row r="2" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A2" s="39" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" s="35" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="35" t="s">
+      <c r="C2" s="40" t="s">
         <v>24</v>
-      </c>
-      <c r="C2" s="40" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
@@ -4336,19 +4474,19 @@
     </row>
     <row r="22" spans="1:3" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A22" s="38" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B22" s="34"/>
     </row>
     <row r="23" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A23" s="42" t="s">
+        <v>22</v>
+      </c>
+      <c r="B23" s="35" t="s">
         <v>23</v>
       </c>
-      <c r="B23" s="35" t="s">
-        <v>24</v>
-      </c>
       <c r="C23" s="40" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
@@ -4423,44 +4561,44 @@
   <sheetData>
     <row r="1" spans="1:2" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A1" s="29" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="25" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B2" s="25" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="25" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B3" s="25" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="25" t="s">
+        <v>58</v>
+      </c>
+      <c r="B4" s="25" t="s">
         <v>59</v>
-      </c>
-      <c r="B4" s="25" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="B5" s="25" t="s">
         <v>61</v>
-      </c>
-      <c r="B5" s="25" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="27" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -4485,7 +4623,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="27" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -4506,7 +4644,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="27" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
@@ -4548,19 +4686,19 @@
   <sheetData>
     <row r="1" spans="1:3" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A1" s="38" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B1" s="34"/>
     </row>
     <row r="2" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A2" s="39" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" s="35" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="35" t="s">
+      <c r="C2" s="40" t="s">
         <v>24</v>
-      </c>
-      <c r="C2" s="40" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
@@ -4690,19 +4828,19 @@
     </row>
     <row r="22" spans="1:3" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A22" s="38" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B22" s="34"/>
     </row>
     <row r="23" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A23" s="42" t="s">
+        <v>22</v>
+      </c>
+      <c r="B23" s="35" t="s">
         <v>23</v>
       </c>
-      <c r="B23" s="35" t="s">
-        <v>24</v>
-      </c>
       <c r="C23" s="40" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
@@ -4778,19 +4916,19 @@
   <sheetData>
     <row r="1" spans="1:3" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A1" s="38" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B1" s="34"/>
     </row>
     <row r="2" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A2" s="39" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" s="35" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="35" t="s">
+      <c r="C2" s="40" t="s">
         <v>24</v>
-      </c>
-      <c r="C2" s="40" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
@@ -4920,19 +5058,19 @@
     </row>
     <row r="22" spans="1:3" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A22" s="38" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B22" s="34"/>
     </row>
     <row r="23" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A23" s="42" t="s">
+        <v>22</v>
+      </c>
+      <c r="B23" s="35" t="s">
         <v>23</v>
       </c>
-      <c r="B23" s="35" t="s">
-        <v>24</v>
-      </c>
       <c r="C23" s="40" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
@@ -5008,19 +5146,19 @@
   <sheetData>
     <row r="1" spans="1:3" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A1" s="38" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B1" s="34"/>
     </row>
     <row r="2" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A2" s="39" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" s="35" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="35" t="s">
+      <c r="C2" s="40" t="s">
         <v>24</v>
-      </c>
-      <c r="C2" s="40" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
@@ -5150,19 +5288,19 @@
     </row>
     <row r="22" spans="1:3" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A22" s="38" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B22" s="34"/>
     </row>
     <row r="23" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A23" s="42" t="s">
+        <v>22</v>
+      </c>
+      <c r="B23" s="35" t="s">
         <v>23</v>
       </c>
-      <c r="B23" s="35" t="s">
-        <v>24</v>
-      </c>
       <c r="C23" s="40" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
@@ -5237,18 +5375,18 @@
   <sheetData>
     <row r="1" spans="1:3" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A1" s="11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:3" s="10" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A2" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="C2" s="14" t="s">
         <v>24</v>
-      </c>
-      <c r="C2" s="14" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="19.5" x14ac:dyDescent="0.3">
@@ -5256,10 +5394,10 @@
         <v>1</v>
       </c>
       <c r="B3" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" s="16" t="s">
         <v>26</v>
-      </c>
-      <c r="C3" s="16" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="19.5" x14ac:dyDescent="0.3">
@@ -5267,10 +5405,10 @@
         <v>2</v>
       </c>
       <c r="B4" s="16" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C4" s="16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="19.5" x14ac:dyDescent="0.3">
@@ -5278,7 +5416,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C5" s="16" t="s">
         <v>7</v>
@@ -5289,7 +5427,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C6" s="16"/>
     </row>
@@ -5298,10 +5436,10 @@
         <v>5</v>
       </c>
       <c r="B7" s="16" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C7" s="16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="19.5" x14ac:dyDescent="0.3">
@@ -5313,18 +5451,18 @@
     </row>
     <row r="10" spans="1:3" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A10" s="11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A11" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="B11" s="14" t="s">
-        <v>24</v>
-      </c>
       <c r="C11" s="14" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="19.5" x14ac:dyDescent="0.3">
@@ -5332,7 +5470,7 @@
         <v>1</v>
       </c>
       <c r="B12" s="16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C12" s="16"/>
     </row>
@@ -5341,7 +5479,7 @@
         <v>2</v>
       </c>
       <c r="B13" s="15" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C13" s="16"/>
     </row>
@@ -5350,7 +5488,7 @@
         <v>3</v>
       </c>
       <c r="B14" s="16" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C14" s="16" t="s">
         <v>6</v>
@@ -5385,18 +5523,18 @@
   <sheetData>
     <row r="1" spans="1:3" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A1" s="11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A2" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="21" t="s">
+      <c r="C2" s="14" t="s">
         <v>24</v>
-      </c>
-      <c r="C2" s="14" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="19.5" x14ac:dyDescent="0.3">
@@ -5404,10 +5542,10 @@
         <v>1</v>
       </c>
       <c r="B3" s="22" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C3" s="16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="39" x14ac:dyDescent="0.3">
@@ -5415,7 +5553,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="22" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C4" s="16"/>
     </row>
@@ -5424,7 +5562,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="22" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C5" s="16" t="s">
         <v>7</v>
@@ -5435,7 +5573,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="22" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C6" s="16"/>
     </row>
@@ -5444,7 +5582,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="22" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C7" s="16"/>
     </row>
@@ -5453,7 +5591,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="22" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C8" s="16"/>
     </row>
@@ -5462,14 +5600,14 @@
         <v>7</v>
       </c>
       <c r="B9" s="22" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C9" s="16"/>
     </row>
     <row r="10" spans="1:3" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A10" s="15"/>
       <c r="B10" s="22" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C10" s="16"/>
     </row>
@@ -5478,7 +5616,7 @@
         <v>7</v>
       </c>
       <c r="B11" s="22" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C11" s="16"/>
     </row>
@@ -5487,18 +5625,18 @@
     </row>
     <row r="13" spans="1:3" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A13" s="11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A14" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="B14" s="21" t="s">
-        <v>24</v>
-      </c>
       <c r="C14" s="14" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="19.5" x14ac:dyDescent="0.3">
@@ -5506,7 +5644,7 @@
         <v>1</v>
       </c>
       <c r="B15" s="22" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C15" s="16"/>
     </row>
@@ -5515,7 +5653,7 @@
         <v>3</v>
       </c>
       <c r="B16" s="22" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C16" s="16"/>
     </row>
@@ -5524,35 +5662,35 @@
         <v>2</v>
       </c>
       <c r="B17" s="23" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C17" s="16"/>
     </row>
     <row r="18" spans="1:3" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A18" s="16"/>
       <c r="B18" s="22" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C18" s="16"/>
     </row>
     <row r="19" spans="1:3" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A19" s="16"/>
       <c r="B19" s="22" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C19" s="16"/>
     </row>
     <row r="20" spans="1:3" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A20" s="16"/>
       <c r="B20" s="22" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C20" s="16"/>
     </row>
     <row r="21" spans="1:3" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A21" s="16"/>
       <c r="B21" s="22" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C21" s="16"/>
     </row>
@@ -5589,18 +5727,18 @@
   <sheetData>
     <row r="1" spans="1:3" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A1" s="11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A2" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="21" t="s">
+      <c r="C2" s="14" t="s">
         <v>24</v>
-      </c>
-      <c r="C2" s="14" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="39" x14ac:dyDescent="0.3">
@@ -5608,10 +5746,10 @@
         <v>1</v>
       </c>
       <c r="B3" s="22" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C3" s="16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="58.5" x14ac:dyDescent="0.3">
@@ -5619,10 +5757,10 @@
         <v>2</v>
       </c>
       <c r="B4" s="22" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C4" s="16" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="39" x14ac:dyDescent="0.3">
@@ -5630,10 +5768,10 @@
         <v>3</v>
       </c>
       <c r="B5" s="22" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C5" s="16" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="19.5" x14ac:dyDescent="0.3">
@@ -5641,10 +5779,10 @@
         <v>4</v>
       </c>
       <c r="B6" s="22" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C6" s="16" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="19.5" x14ac:dyDescent="0.3">
@@ -5652,10 +5790,10 @@
         <v>5</v>
       </c>
       <c r="B7" s="22" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C7" s="16" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="58.5" x14ac:dyDescent="0.3">
@@ -5663,10 +5801,10 @@
         <v>6</v>
       </c>
       <c r="B8" s="22" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C8" s="16" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="39" x14ac:dyDescent="0.3">
@@ -5674,10 +5812,10 @@
         <v>7</v>
       </c>
       <c r="B9" s="24" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C9" s="16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="19.5" x14ac:dyDescent="0.3">
@@ -5685,7 +5823,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="22" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C10" s="16"/>
     </row>
@@ -5694,10 +5832,10 @@
         <v>9</v>
       </c>
       <c r="B11" s="22" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C11" s="16" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="19.5" x14ac:dyDescent="0.3">
@@ -5705,10 +5843,10 @@
         <v>10</v>
       </c>
       <c r="B12" s="22" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C12" s="16" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="39" x14ac:dyDescent="0.3">
@@ -5716,10 +5854,10 @@
         <v>11</v>
       </c>
       <c r="B13" s="22" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C13" s="16" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="39" x14ac:dyDescent="0.3">
@@ -5727,10 +5865,10 @@
         <v>12</v>
       </c>
       <c r="B14" s="22" t="s">
+        <v>71</v>
+      </c>
+      <c r="C14" s="16" t="s">
         <v>72</v>
-      </c>
-      <c r="C14" s="16" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="19.5" x14ac:dyDescent="0.3">
@@ -5740,36 +5878,36 @@
     </row>
     <row r="16" spans="1:3" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A16" s="11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A17" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="B17" s="21" t="s">
-        <v>24</v>
-      </c>
       <c r="C17" s="14" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A18" s="16"/>
       <c r="B18" s="22" t="s">
+        <v>79</v>
+      </c>
+      <c r="C18" s="16" t="s">
         <v>80</v>
-      </c>
-      <c r="C18" s="16" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A19" s="16"/>
       <c r="B19" s="22" t="s">
+        <v>81</v>
+      </c>
+      <c r="C19" s="16" t="s">
         <v>82</v>
-      </c>
-      <c r="C19" s="16" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="19.5" x14ac:dyDescent="0.3">
@@ -5835,19 +5973,19 @@
   <sheetData>
     <row r="1" spans="1:3" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A1" s="11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B1" s="30"/>
     </row>
     <row r="2" spans="1:3" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A2" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="31" t="s">
+      <c r="C2" s="14" t="s">
         <v>24</v>
-      </c>
-      <c r="C2" s="14" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="19.5" x14ac:dyDescent="0.3">
@@ -5855,7 +5993,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="25" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C3" s="16"/>
     </row>
@@ -5864,7 +6002,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="25" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C4" s="16"/>
     </row>
@@ -5873,7 +6011,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="25" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C5" s="16"/>
     </row>
@@ -5882,7 +6020,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="25" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C6" s="16"/>
     </row>
@@ -5891,7 +6029,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="25" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C7" s="16"/>
     </row>
@@ -5900,7 +6038,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="25" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C8" s="16"/>
     </row>
@@ -5909,7 +6047,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="33" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C9" s="16"/>
     </row>
@@ -5918,7 +6056,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="25" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C10" s="16"/>
     </row>
@@ -5927,7 +6065,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="25" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C11" s="16"/>
     </row>
@@ -5936,7 +6074,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="25" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C12" s="16"/>
     </row>
@@ -5945,7 +6083,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="25" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C13" s="16"/>
     </row>
@@ -5954,28 +6092,28 @@
         <v>12</v>
       </c>
       <c r="B14" s="25" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C14" s="16"/>
     </row>
     <row r="15" spans="1:3" ht="39" x14ac:dyDescent="0.3">
       <c r="A15" s="15"/>
       <c r="B15" s="25" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C15" s="16"/>
     </row>
     <row r="16" spans="1:3" ht="39" x14ac:dyDescent="0.3">
       <c r="A16" s="15"/>
       <c r="B16" s="25" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C16" s="16"/>
     </row>
     <row r="17" spans="1:3" ht="39" x14ac:dyDescent="0.3">
       <c r="A17" s="15"/>
       <c r="B17" s="25" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C17" s="16"/>
     </row>
@@ -5996,19 +6134,19 @@
     </row>
     <row r="21" spans="1:3" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A21" s="11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B21" s="30"/>
     </row>
     <row r="22" spans="1:3" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A22" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B22" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="B22" s="31" t="s">
-        <v>24</v>
-      </c>
       <c r="C22" s="14" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="19.5" x14ac:dyDescent="0.3">
@@ -6084,19 +6222,19 @@
   <sheetData>
     <row r="1" spans="1:3" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A1" s="11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B1" s="30"/>
     </row>
     <row r="2" spans="1:3" ht="39" x14ac:dyDescent="0.3">
       <c r="A2" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="31" t="s">
+      <c r="C2" s="14" t="s">
         <v>24</v>
-      </c>
-      <c r="C2" s="14" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="19.5" x14ac:dyDescent="0.3">
@@ -6104,7 +6242,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="25" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C3" s="16"/>
     </row>
@@ -6113,7 +6251,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="25" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C4" s="16"/>
     </row>
@@ -6122,7 +6260,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="25" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C5" s="16"/>
     </row>
@@ -6131,7 +6269,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="25" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C6" s="16"/>
     </row>
@@ -6140,7 +6278,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="25" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C7" s="16"/>
     </row>
@@ -6149,7 +6287,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="25" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C8" s="16"/>
     </row>
@@ -6158,7 +6296,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="33" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C9" s="16"/>
     </row>
@@ -6167,7 +6305,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="25" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C10" s="16"/>
     </row>
@@ -6176,7 +6314,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="25" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C11" s="16"/>
     </row>
@@ -6185,7 +6323,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="25" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C12" s="16"/>
     </row>
@@ -6194,7 +6332,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="25" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C13" s="16"/>
     </row>
@@ -6203,7 +6341,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="25" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C14" s="16"/>
     </row>
@@ -6212,7 +6350,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="25" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C15" s="16"/>
     </row>
@@ -6221,7 +6359,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="25" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C16" s="16"/>
     </row>
@@ -6230,7 +6368,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="25" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C17" s="16"/>
     </row>
@@ -6239,7 +6377,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="25" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C18" s="16"/>
     </row>
@@ -6248,7 +6386,7 @@
         <v>17</v>
       </c>
       <c r="B19" s="25" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C19" s="16"/>
     </row>
@@ -6259,19 +6397,19 @@
     </row>
     <row r="21" spans="1:3" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A21" s="11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B21" s="30"/>
     </row>
     <row r="22" spans="1:3" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A22" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B22" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="B22" s="31" t="s">
-        <v>24</v>
-      </c>
       <c r="C22" s="14" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="19.5" x14ac:dyDescent="0.3">
@@ -6346,19 +6484,19 @@
   <sheetData>
     <row r="1" spans="1:3" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A1" s="11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B1" s="34"/>
     </row>
     <row r="2" spans="1:3" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A2" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" s="35" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="35" t="s">
+      <c r="C2" s="14" t="s">
         <v>24</v>
-      </c>
-      <c r="C2" s="14" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="19.5" x14ac:dyDescent="0.3">
@@ -6366,7 +6504,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="36" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C3" s="16"/>
     </row>
@@ -6375,7 +6513,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="36" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C4" s="16"/>
     </row>
@@ -6384,7 +6522,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="36" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C5" s="16"/>
     </row>
@@ -6494,19 +6632,19 @@
     </row>
     <row r="22" spans="1:3" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A22" s="11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B22" s="34"/>
     </row>
     <row r="23" spans="1:3" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A23" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B23" s="35" t="s">
         <v>23</v>
       </c>
-      <c r="B23" s="35" t="s">
-        <v>24</v>
-      </c>
       <c r="C23" s="14" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="19.5" x14ac:dyDescent="0.3">
@@ -6582,19 +6720,19 @@
   <sheetData>
     <row r="1" spans="1:3" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A1" s="38" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B1" s="34"/>
     </row>
     <row r="2" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A2" s="39" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" s="35" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="35" t="s">
+      <c r="C2" s="40" t="s">
         <v>24</v>
-      </c>
-      <c r="C2" s="40" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
@@ -6602,7 +6740,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="36" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C3" s="26"/>
     </row>
@@ -6611,7 +6749,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="36" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C4" s="26"/>
     </row>
@@ -6620,7 +6758,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="36" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C5" s="26"/>
     </row>
@@ -6629,7 +6767,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="36" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C6" s="26"/>
     </row>
@@ -6638,7 +6776,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="36" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C7" s="26"/>
     </row>
@@ -6647,7 +6785,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="36" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C8" s="26"/>
     </row>
@@ -6656,7 +6794,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="37" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C9" s="26"/>
     </row>
@@ -6665,7 +6803,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="36" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C10" s="26"/>
     </row>
@@ -6674,7 +6812,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="36" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C11" s="26"/>
     </row>
@@ -6683,7 +6821,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="36" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C12" s="26"/>
     </row>
@@ -6692,7 +6830,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="36" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C13" s="26"/>
     </row>
@@ -6701,7 +6839,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="36" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C14" s="26"/>
     </row>
@@ -6710,7 +6848,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="36" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C15" s="26"/>
     </row>
@@ -6719,7 +6857,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="36" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C16" s="26"/>
     </row>
@@ -6728,56 +6866,56 @@
         <v>15</v>
       </c>
       <c r="B17" s="36" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C17" s="26"/>
     </row>
     <row r="18" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A18" s="41"/>
       <c r="B18" s="44" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C18" s="26"/>
     </row>
     <row r="19" spans="1:3" ht="39" x14ac:dyDescent="0.25">
       <c r="A19" s="41"/>
       <c r="B19" s="43" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C19" s="26"/>
     </row>
     <row r="20" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A20" s="41"/>
       <c r="B20" s="36" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C20" s="26"/>
     </row>
     <row r="21" spans="1:3" ht="78" x14ac:dyDescent="0.25">
       <c r="A21" s="41"/>
       <c r="B21" s="36" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C21" s="26"/>
     </row>
     <row r="22" spans="1:3" ht="39" x14ac:dyDescent="0.25">
       <c r="A22" s="41"/>
       <c r="B22" s="36" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C22" s="26"/>
     </row>
     <row r="23" spans="1:3" ht="39" x14ac:dyDescent="0.25">
       <c r="A23" s="41"/>
       <c r="B23" s="36" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C23" s="26"/>
     </row>
     <row r="24" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A24" s="41"/>
       <c r="B24" s="36" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C24" s="26"/>
     </row>
@@ -6788,25 +6926,25 @@
     </row>
     <row r="26" spans="1:3" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A26" s="38" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B26" s="34"/>
     </row>
     <row r="27" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A27" s="42" t="s">
+        <v>22</v>
+      </c>
+      <c r="B27" s="35" t="s">
         <v>23</v>
       </c>
-      <c r="B27" s="35" t="s">
-        <v>24</v>
-      </c>
       <c r="C27" s="40" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A28" s="26"/>
       <c r="B28" s="36" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C28" s="26"/>
     </row>

--- a/Source/Document/Meeting minutes/Meeting minute.xlsx
+++ b/Source/Document/Meeting minutes/Meeting minute.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="9" activeTab="19"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="483" uniqueCount="232">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="502" uniqueCount="241">
   <si>
     <t>MEETING MINUTES</t>
   </si>
@@ -755,6 +755,33 @@
   </si>
   <si>
     <t>(drop)</t>
+  </si>
+  <si>
+    <t>Thêm đường link ngay trang consign_success.jsp</t>
+  </si>
+  <si>
+    <t>sửa lại lí do ký gửi ở request</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lúc lấy hàng, notify hàng nhận trong ngày. </t>
+  </si>
+  <si>
+    <t>thống kế số hàng nhận trong ngày trên tổng số món hàng phải nhận.</t>
+  </si>
+  <si>
+    <t>hoàng</t>
+  </si>
+  <si>
+    <t>Cho hiện những món hàng phải lấy trong ngày hôm nay. Lưu ds đó trong máy để lỡ mất mạng vẫn xem được.</t>
+  </si>
+  <si>
+    <t>Phải xem được đã lấy và chưa lấy cùng số lượng</t>
+  </si>
+  <si>
+    <t>Statictic phải có search theo ngày</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Statictic theo từng hạng mục khác nhau </t>
   </si>
 </sst>
 </file>
@@ -934,7 +961,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1074,6 +1101,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1382,8 +1412,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AD12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="T8" sqref="T8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1688,8 +1718,12 @@
       <c r="R7" s="1">
         <v>113</v>
       </c>
-      <c r="S7" s="1"/>
-      <c r="T7" s="1"/>
+      <c r="S7" s="1">
+        <v>115</v>
+      </c>
+      <c r="T7" s="1">
+        <v>115</v>
+      </c>
       <c r="U7" s="1"/>
       <c r="V7" s="1"/>
       <c r="W7" s="1"/>
@@ -1756,8 +1790,12 @@
       <c r="R8" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="S8" s="1"/>
-      <c r="T8" s="1"/>
+      <c r="S8" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="T8" s="1" t="s">
+        <v>77</v>
+      </c>
       <c r="U8" s="1"/>
       <c r="V8" s="1"/>
       <c r="W8" s="1"/>
@@ -1824,8 +1862,12 @@
       <c r="R9" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="S9" s="1"/>
-      <c r="T9" s="1"/>
+      <c r="S9" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="T9" s="1" t="s">
+        <v>77</v>
+      </c>
       <c r="U9" s="1"/>
       <c r="V9" s="1"/>
       <c r="W9" s="1"/>
@@ -1944,8 +1986,12 @@
       <c r="R11" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="S11" s="1"/>
-      <c r="T11" s="1"/>
+      <c r="S11" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="T11" s="1" t="s">
+        <v>77</v>
+      </c>
       <c r="U11" s="1"/>
       <c r="V11" s="1"/>
       <c r="W11" s="1"/>
@@ -2010,8 +2056,12 @@
       <c r="R12" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="S12" s="1"/>
-      <c r="T12" s="1"/>
+      <c r="S12" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="T12" s="1" t="s">
+        <v>77</v>
+      </c>
       <c r="U12" s="1"/>
       <c r="V12" s="1"/>
       <c r="W12" s="1"/>
@@ -4054,8 +4104,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C33"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4319,7 +4369,7 @@
   <dimension ref="A1:C33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4672,8 +4722,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4705,56 +4755,78 @@
       <c r="A3" s="41">
         <v>1</v>
       </c>
-      <c r="B3" s="36"/>
-      <c r="C3" s="26"/>
+      <c r="B3" s="44" t="s">
+        <v>232</v>
+      </c>
+      <c r="C3" s="50" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="4" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A4" s="41">
         <v>2</v>
       </c>
-      <c r="B4" s="36"/>
-      <c r="C4" s="26"/>
+      <c r="B4" s="44" t="s">
+        <v>233</v>
+      </c>
+      <c r="C4" s="50" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="5" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A5" s="41">
         <v>3</v>
       </c>
-      <c r="B5" s="36"/>
+      <c r="B5" s="36" t="s">
+        <v>234</v>
+      </c>
       <c r="C5" s="26"/>
     </row>
-    <row r="6" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" ht="58.5" x14ac:dyDescent="0.25">
       <c r="A6" s="41">
         <v>4</v>
       </c>
-      <c r="B6" s="36"/>
+      <c r="B6" s="36" t="s">
+        <v>237</v>
+      </c>
       <c r="C6" s="26"/>
     </row>
-    <row r="7" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" ht="39" x14ac:dyDescent="0.25">
       <c r="A7" s="41">
         <v>5</v>
       </c>
-      <c r="B7" s="36"/>
-      <c r="C7" s="26"/>
+      <c r="B7" s="36" t="s">
+        <v>235</v>
+      </c>
+      <c r="C7" s="26" t="s">
+        <v>236</v>
+      </c>
     </row>
     <row r="8" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A8" s="41">
         <v>6</v>
       </c>
-      <c r="B8" s="36"/>
+      <c r="B8" s="36" t="s">
+        <v>238</v>
+      </c>
       <c r="C8" s="26"/>
     </row>
     <row r="9" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A9" s="41">
         <v>7</v>
       </c>
-      <c r="B9" s="37"/>
+      <c r="B9" s="37" t="s">
+        <v>239</v>
+      </c>
       <c r="C9" s="26"/>
     </row>
     <row r="10" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A10" s="41">
         <v>8</v>
       </c>
-      <c r="B10" s="36"/>
+      <c r="B10" s="36" t="s">
+        <v>240</v>
+      </c>
       <c r="C10" s="26"/>
     </row>
     <row r="11" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
@@ -4895,6 +4967,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/Source/Document/Meeting minutes/Meeting minute.xlsx
+++ b/Source/Document/Meeting minutes/Meeting minute.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="9" activeTab="19"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="10" activeTab="20"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="502" uniqueCount="241">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="529" uniqueCount="260">
   <si>
     <t>MEETING MINUTES</t>
   </si>
@@ -782,6 +782,97 @@
   </si>
   <si>
     <t xml:space="preserve">Statictic theo từng hạng mục khác nhau </t>
+  </si>
+  <si>
+    <t>Tạo account member để tracking account</t>
+  </si>
+  <si>
+    <t>So sánh mô hình với chợ  tốt. Có gì khác biệt.</t>
+  </si>
+  <si>
+    <t>Tìm control khác cho chọn giờ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cho button trong trang request để chuyển qua chuyển lại giữa các bước </t>
+  </si>
+  <si>
+    <t>Báo vào cuối ngày món hàng ngày mai đi nhận hàng</t>
+  </si>
+  <si>
+    <t>Cho phép sửa ngày nhận trong yêu cầu đã duyệt</t>
+  </si>
+  <si>
+    <t>cho vòng tròn loading trong mobile lúc sync</t>
+  </si>
+  <si>
+    <t>hoang</t>
+  </si>
+  <si>
+    <t>dùng async trong android đồng bộ mỗi 15 phút 1 lần</t>
+  </si>
+  <si>
+    <t>coó history đã nhận, còn trang chính chỉ hiện trong ngày.</t>
+  </si>
+  <si>
+    <t>mobile gặp trực tiếp thì cho sửa thông tin sp cũng như khách hàng</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">đổi </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="15"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>giá thỏa thuận</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> thành </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="15"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>giá ký gửi tối đa</t>
+    </r>
+  </si>
+  <si>
+    <t>mobile gặp trực tiếp thì cho sửa thông tin sp cũng mobile: không kết nối mạng?</t>
+  </si>
+  <si>
+    <t>check coi tên sp có quá 50 hay không?</t>
+  </si>
+  <si>
+    <t>cho phép storeOwner sửa lại thông tin mùa màng trong sp trên web</t>
+  </si>
+  <si>
+    <t>dan</t>
+  </si>
+  <si>
+    <t>Cùng số đt thì ko cho order</t>
+  </si>
+  <si>
+    <t>Có nút check all trong hàng đc đặt</t>
+  </si>
+  <si>
+    <t>gửi giá chỉ áp dụng cho món hàng đặt biệt</t>
   </si>
 </sst>
 </file>
@@ -1090,6 +1181,9 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1101,9 +1195,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1428,196 +1519,196 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="46" t="s">
+      <c r="A1" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="46"/>
-      <c r="G1" s="46"/>
-      <c r="H1" s="46"/>
-      <c r="I1" s="46"/>
-      <c r="J1" s="46"/>
-      <c r="K1" s="46"/>
-      <c r="L1" s="46"/>
-      <c r="M1" s="46"/>
-      <c r="N1" s="46"/>
-      <c r="O1" s="46"/>
-      <c r="P1" s="46"/>
-      <c r="Q1" s="46"/>
-      <c r="R1" s="46"/>
-      <c r="S1" s="46"/>
-      <c r="T1" s="46"/>
-      <c r="U1" s="46"/>
-      <c r="V1" s="46"/>
-      <c r="W1" s="46"/>
-      <c r="X1" s="46"/>
-      <c r="Y1" s="46"/>
-      <c r="Z1" s="46"/>
-      <c r="AA1" s="46"/>
-      <c r="AB1" s="46"/>
-      <c r="AC1" s="46"/>
-      <c r="AD1" s="46"/>
+      <c r="B1" s="47"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="47"/>
+      <c r="F1" s="47"/>
+      <c r="G1" s="47"/>
+      <c r="H1" s="47"/>
+      <c r="I1" s="47"/>
+      <c r="J1" s="47"/>
+      <c r="K1" s="47"/>
+      <c r="L1" s="47"/>
+      <c r="M1" s="47"/>
+      <c r="N1" s="47"/>
+      <c r="O1" s="47"/>
+      <c r="P1" s="47"/>
+      <c r="Q1" s="47"/>
+      <c r="R1" s="47"/>
+      <c r="S1" s="47"/>
+      <c r="T1" s="47"/>
+      <c r="U1" s="47"/>
+      <c r="V1" s="47"/>
+      <c r="W1" s="47"/>
+      <c r="X1" s="47"/>
+      <c r="Y1" s="47"/>
+      <c r="Z1" s="47"/>
+      <c r="AA1" s="47"/>
+      <c r="AB1" s="47"/>
+      <c r="AC1" s="47"/>
+      <c r="AD1" s="47"/>
     </row>
     <row r="2" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="46"/>
-      <c r="B2" s="46"/>
-      <c r="C2" s="46"/>
-      <c r="D2" s="46"/>
-      <c r="E2" s="46"/>
-      <c r="F2" s="46"/>
-      <c r="G2" s="46"/>
-      <c r="H2" s="46"/>
-      <c r="I2" s="46"/>
-      <c r="J2" s="46"/>
-      <c r="K2" s="46"/>
-      <c r="L2" s="46"/>
-      <c r="M2" s="46"/>
-      <c r="N2" s="46"/>
-      <c r="O2" s="46"/>
-      <c r="P2" s="46"/>
-      <c r="Q2" s="46"/>
-      <c r="R2" s="46"/>
-      <c r="S2" s="46"/>
-      <c r="T2" s="46"/>
-      <c r="U2" s="46"/>
-      <c r="V2" s="46"/>
-      <c r="W2" s="46"/>
-      <c r="X2" s="46"/>
-      <c r="Y2" s="46"/>
-      <c r="Z2" s="46"/>
-      <c r="AA2" s="46"/>
-      <c r="AB2" s="46"/>
-      <c r="AC2" s="46"/>
-      <c r="AD2" s="46"/>
+      <c r="A2" s="47"/>
+      <c r="B2" s="47"/>
+      <c r="C2" s="47"/>
+      <c r="D2" s="47"/>
+      <c r="E2" s="47"/>
+      <c r="F2" s="47"/>
+      <c r="G2" s="47"/>
+      <c r="H2" s="47"/>
+      <c r="I2" s="47"/>
+      <c r="J2" s="47"/>
+      <c r="K2" s="47"/>
+      <c r="L2" s="47"/>
+      <c r="M2" s="47"/>
+      <c r="N2" s="47"/>
+      <c r="O2" s="47"/>
+      <c r="P2" s="47"/>
+      <c r="Q2" s="47"/>
+      <c r="R2" s="47"/>
+      <c r="S2" s="47"/>
+      <c r="T2" s="47"/>
+      <c r="U2" s="47"/>
+      <c r="V2" s="47"/>
+      <c r="W2" s="47"/>
+      <c r="X2" s="47"/>
+      <c r="Y2" s="47"/>
+      <c r="Z2" s="47"/>
+      <c r="AA2" s="47"/>
+      <c r="AB2" s="47"/>
+      <c r="AC2" s="47"/>
+      <c r="AD2" s="47"/>
     </row>
     <row r="3" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="46"/>
-      <c r="B3" s="46"/>
-      <c r="C3" s="46"/>
-      <c r="D3" s="46"/>
-      <c r="E3" s="46"/>
-      <c r="F3" s="46"/>
-      <c r="G3" s="46"/>
-      <c r="H3" s="46"/>
-      <c r="I3" s="46"/>
-      <c r="J3" s="46"/>
-      <c r="K3" s="46"/>
-      <c r="L3" s="46"/>
-      <c r="M3" s="46"/>
-      <c r="N3" s="46"/>
-      <c r="O3" s="46"/>
-      <c r="P3" s="46"/>
-      <c r="Q3" s="46"/>
-      <c r="R3" s="46"/>
-      <c r="S3" s="46"/>
-      <c r="T3" s="46"/>
-      <c r="U3" s="46"/>
-      <c r="V3" s="46"/>
-      <c r="W3" s="46"/>
-      <c r="X3" s="46"/>
-      <c r="Y3" s="46"/>
-      <c r="Z3" s="46"/>
-      <c r="AA3" s="46"/>
-      <c r="AB3" s="46"/>
-      <c r="AC3" s="46"/>
-      <c r="AD3" s="46"/>
+      <c r="A3" s="47"/>
+      <c r="B3" s="47"/>
+      <c r="C3" s="47"/>
+      <c r="D3" s="47"/>
+      <c r="E3" s="47"/>
+      <c r="F3" s="47"/>
+      <c r="G3" s="47"/>
+      <c r="H3" s="47"/>
+      <c r="I3" s="47"/>
+      <c r="J3" s="47"/>
+      <c r="K3" s="47"/>
+      <c r="L3" s="47"/>
+      <c r="M3" s="47"/>
+      <c r="N3" s="47"/>
+      <c r="O3" s="47"/>
+      <c r="P3" s="47"/>
+      <c r="Q3" s="47"/>
+      <c r="R3" s="47"/>
+      <c r="S3" s="47"/>
+      <c r="T3" s="47"/>
+      <c r="U3" s="47"/>
+      <c r="V3" s="47"/>
+      <c r="W3" s="47"/>
+      <c r="X3" s="47"/>
+      <c r="Y3" s="47"/>
+      <c r="Z3" s="47"/>
+      <c r="AA3" s="47"/>
+      <c r="AB3" s="47"/>
+      <c r="AC3" s="47"/>
+      <c r="AD3" s="47"/>
     </row>
     <row r="4" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="47"/>
-      <c r="B4" s="47"/>
-      <c r="C4" s="47"/>
-      <c r="D4" s="47"/>
-      <c r="E4" s="47"/>
-      <c r="F4" s="47"/>
-      <c r="G4" s="47"/>
-      <c r="H4" s="47"/>
-      <c r="I4" s="47"/>
-      <c r="J4" s="47"/>
-      <c r="K4" s="47"/>
-      <c r="L4" s="47"/>
-      <c r="M4" s="47"/>
-      <c r="N4" s="47"/>
-      <c r="O4" s="47"/>
-      <c r="P4" s="47"/>
-      <c r="Q4" s="47"/>
-      <c r="R4" s="47"/>
-      <c r="S4" s="47"/>
-      <c r="T4" s="47"/>
-      <c r="U4" s="47"/>
-      <c r="V4" s="47"/>
-      <c r="W4" s="47"/>
-      <c r="X4" s="47"/>
-      <c r="Y4" s="47"/>
-      <c r="Z4" s="47"/>
-      <c r="AA4" s="47"/>
-      <c r="AB4" s="47"/>
-      <c r="AC4" s="47"/>
-      <c r="AD4" s="47"/>
+      <c r="A4" s="48"/>
+      <c r="B4" s="48"/>
+      <c r="C4" s="48"/>
+      <c r="D4" s="48"/>
+      <c r="E4" s="48"/>
+      <c r="F4" s="48"/>
+      <c r="G4" s="48"/>
+      <c r="H4" s="48"/>
+      <c r="I4" s="48"/>
+      <c r="J4" s="48"/>
+      <c r="K4" s="48"/>
+      <c r="L4" s="48"/>
+      <c r="M4" s="48"/>
+      <c r="N4" s="48"/>
+      <c r="O4" s="48"/>
+      <c r="P4" s="48"/>
+      <c r="Q4" s="48"/>
+      <c r="R4" s="48"/>
+      <c r="S4" s="48"/>
+      <c r="T4" s="48"/>
+      <c r="U4" s="48"/>
+      <c r="V4" s="48"/>
+      <c r="W4" s="48"/>
+      <c r="X4" s="48"/>
+      <c r="Y4" s="48"/>
+      <c r="Z4" s="48"/>
+      <c r="AA4" s="48"/>
+      <c r="AB4" s="48"/>
+      <c r="AC4" s="48"/>
+      <c r="AD4" s="48"/>
     </row>
     <row r="5" spans="1:30" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>1</v>
       </c>
       <c r="B5" s="4"/>
-      <c r="C5" s="48" t="s">
+      <c r="C5" s="49" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="49"/>
-      <c r="E5" s="48" t="s">
+      <c r="D5" s="50"/>
+      <c r="E5" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="F5" s="49"/>
-      <c r="G5" s="48" t="s">
+      <c r="F5" s="50"/>
+      <c r="G5" s="49" t="s">
         <v>12</v>
       </c>
-      <c r="H5" s="49"/>
-      <c r="I5" s="48" t="s">
+      <c r="H5" s="50"/>
+      <c r="I5" s="49" t="s">
         <v>13</v>
       </c>
-      <c r="J5" s="49"/>
-      <c r="K5" s="48" t="s">
+      <c r="J5" s="50"/>
+      <c r="K5" s="49" t="s">
         <v>14</v>
       </c>
-      <c r="L5" s="49"/>
-      <c r="M5" s="48" t="s">
+      <c r="L5" s="50"/>
+      <c r="M5" s="49" t="s">
         <v>15</v>
       </c>
-      <c r="N5" s="49"/>
-      <c r="O5" s="48" t="s">
+      <c r="N5" s="50"/>
+      <c r="O5" s="49" t="s">
         <v>16</v>
       </c>
-      <c r="P5" s="49"/>
-      <c r="Q5" s="48" t="s">
+      <c r="P5" s="50"/>
+      <c r="Q5" s="49" t="s">
         <v>17</v>
       </c>
-      <c r="R5" s="49"/>
-      <c r="S5" s="48" t="s">
+      <c r="R5" s="50"/>
+      <c r="S5" s="49" t="s">
         <v>18</v>
       </c>
-      <c r="T5" s="49"/>
-      <c r="U5" s="48" t="s">
+      <c r="T5" s="50"/>
+      <c r="U5" s="49" t="s">
         <v>147</v>
       </c>
-      <c r="V5" s="49"/>
-      <c r="W5" s="48" t="s">
+      <c r="V5" s="50"/>
+      <c r="W5" s="49" t="s">
         <v>148</v>
       </c>
-      <c r="X5" s="49"/>
-      <c r="Y5" s="48" t="s">
+      <c r="X5" s="50"/>
+      <c r="Y5" s="49" t="s">
         <v>149</v>
       </c>
-      <c r="Z5" s="49"/>
-      <c r="AA5" s="48" t="s">
+      <c r="Z5" s="50"/>
+      <c r="AA5" s="49" t="s">
         <v>150</v>
       </c>
-      <c r="AB5" s="49"/>
-      <c r="AC5" s="48" t="s">
+      <c r="AB5" s="50"/>
+      <c r="AC5" s="49" t="s">
         <v>151</v>
       </c>
-      <c r="AD5" s="49"/>
+      <c r="AD5" s="50"/>
     </row>
     <row r="6" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
@@ -4722,8 +4813,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4758,7 +4849,7 @@
       <c r="B3" s="44" t="s">
         <v>232</v>
       </c>
-      <c r="C3" s="50" t="s">
+      <c r="C3" s="46" t="s">
         <v>72</v>
       </c>
     </row>
@@ -4769,7 +4860,7 @@
       <c r="B4" s="44" t="s">
         <v>233</v>
       </c>
-      <c r="C4" s="50" t="s">
+      <c r="C4" s="46" t="s">
         <v>72</v>
       </c>
     </row>
@@ -4975,8 +5066,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5008,116 +5099,170 @@
       <c r="A3" s="41">
         <v>1</v>
       </c>
-      <c r="B3" s="36"/>
-      <c r="C3" s="26"/>
+      <c r="B3" s="36" t="s">
+        <v>241</v>
+      </c>
+      <c r="C3" s="26" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="4" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A4" s="41">
         <v>2</v>
       </c>
-      <c r="B4" s="36"/>
+      <c r="B4" s="44" t="s">
+        <v>242</v>
+      </c>
       <c r="C4" s="26"/>
     </row>
     <row r="5" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A5" s="41">
         <v>3</v>
       </c>
-      <c r="B5" s="36"/>
-      <c r="C5" s="26"/>
-    </row>
-    <row r="6" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="B5" s="36" t="s">
+        <v>243</v>
+      </c>
+      <c r="C5" s="26" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="39" x14ac:dyDescent="0.25">
       <c r="A6" s="41">
         <v>4</v>
       </c>
-      <c r="B6" s="36"/>
-      <c r="C6" s="26"/>
-    </row>
-    <row r="7" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="B6" s="36" t="s">
+        <v>244</v>
+      </c>
+      <c r="C6" s="26" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="39" x14ac:dyDescent="0.25">
       <c r="A7" s="41">
         <v>5</v>
       </c>
-      <c r="B7" s="36"/>
+      <c r="B7" s="36" t="s">
+        <v>245</v>
+      </c>
       <c r="C7" s="26"/>
     </row>
     <row r="8" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A8" s="41">
         <v>6</v>
       </c>
-      <c r="B8" s="36"/>
-      <c r="C8" s="26"/>
+      <c r="B8" s="36" t="s">
+        <v>246</v>
+      </c>
+      <c r="C8" s="26" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="9" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A9" s="41">
         <v>7</v>
       </c>
-      <c r="B9" s="37"/>
-      <c r="C9" s="26"/>
-    </row>
-    <row r="10" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="B9" s="37" t="s">
+        <v>247</v>
+      </c>
+      <c r="C9" s="26" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="39" x14ac:dyDescent="0.25">
       <c r="A10" s="41">
         <v>8</v>
       </c>
-      <c r="B10" s="36"/>
+      <c r="B10" s="36" t="s">
+        <v>249</v>
+      </c>
       <c r="C10" s="26"/>
     </row>
-    <row r="11" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" ht="39" x14ac:dyDescent="0.25">
       <c r="A11" s="41">
         <v>9</v>
       </c>
-      <c r="B11" s="36"/>
-      <c r="C11" s="26"/>
-    </row>
-    <row r="12" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="B11" s="36" t="s">
+        <v>250</v>
+      </c>
+      <c r="C11" s="26" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="39" x14ac:dyDescent="0.25">
       <c r="A12" s="41">
         <v>10</v>
       </c>
-      <c r="B12" s="36"/>
+      <c r="B12" s="36" t="s">
+        <v>251</v>
+      </c>
       <c r="C12" s="26"/>
     </row>
     <row r="13" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A13" s="41">
         <v>11</v>
       </c>
-      <c r="B13" s="36"/>
+      <c r="B13" s="36" t="s">
+        <v>252</v>
+      </c>
       <c r="C13" s="26"/>
     </row>
-    <row r="14" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" ht="39" x14ac:dyDescent="0.25">
       <c r="A14" s="41">
         <v>12</v>
       </c>
-      <c r="B14" s="36"/>
-      <c r="C14" s="26"/>
+      <c r="B14" s="36" t="s">
+        <v>253</v>
+      </c>
+      <c r="C14" s="26" t="s">
+        <v>248</v>
+      </c>
     </row>
     <row r="15" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A15" s="41">
         <v>13</v>
       </c>
-      <c r="B15" s="36"/>
+      <c r="B15" s="36" t="s">
+        <v>254</v>
+      </c>
       <c r="C15" s="26"/>
     </row>
-    <row r="16" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" ht="39" x14ac:dyDescent="0.25">
       <c r="A16" s="41">
         <v>14</v>
       </c>
-      <c r="B16" s="36"/>
-      <c r="C16" s="26"/>
+      <c r="B16" s="36" t="s">
+        <v>255</v>
+      </c>
+      <c r="C16" s="26" t="s">
+        <v>256</v>
+      </c>
     </row>
     <row r="17" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A17" s="41">
         <v>15</v>
       </c>
-      <c r="B17" s="36"/>
+      <c r="B17" s="36" t="s">
+        <v>257</v>
+      </c>
       <c r="C17" s="26"/>
     </row>
     <row r="18" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A18" s="41"/>
-      <c r="B18" s="36"/>
-      <c r="C18" s="26"/>
+      <c r="B18" s="36" t="s">
+        <v>258</v>
+      </c>
+      <c r="C18" s="26" t="s">
+        <v>256</v>
+      </c>
     </row>
     <row r="19" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A19" s="41"/>
-      <c r="B19" s="36"/>
-      <c r="C19" s="26"/>
+      <c r="B19" s="36" t="s">
+        <v>259</v>
+      </c>
+      <c r="C19" s="26" t="s">
+        <v>256</v>
+      </c>
     </row>
     <row r="20" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A20" s="41"/>
@@ -5198,6 +5343,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/Source/Document/Meeting minutes/Meeting minute.xlsx
+++ b/Source/Document/Meeting minutes/Meeting minute.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="10" activeTab="20"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="11" activeTab="21"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="529" uniqueCount="260">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="538" uniqueCount="269">
   <si>
     <t>MEETING MINUTES</t>
   </si>
@@ -873,6 +873,33 @@
   </si>
   <si>
     <t>gửi giá chỉ áp dụng cho món hàng đặt biệt</t>
+  </si>
+  <si>
+    <t>Phân tích ưu khuyếtđiểm: Store phải giữ rất nhiều</t>
+  </si>
+  <si>
+    <t>Phân tích sự ảnh hưởng của người triển khai hệ thống: giữa chợ tốt và HPS. Điều kiện sở hữu.</t>
+  </si>
+  <si>
+    <t>Chợ tốt: đồ do người đăng giữ. HPS: đồ do store giữ</t>
+  </si>
+  <si>
+    <t>HPS: cần 1 chuyên gia</t>
+  </si>
+  <si>
+    <t>Tại sao người ta vẫn xài chợ tốt dù biết rõ không an toàn? Người dùng sẽ chọn ai giữa 2 trang web</t>
+  </si>
+  <si>
+    <t>Người dùng có dám đưa hàng cho store ko? Policy: đền bù hàng hóa nếu hư hỏng khi lưu kho.</t>
+  </si>
+  <si>
+    <t>Khi nhận hàng: cần có hợp đồng.</t>
+  </si>
+  <si>
+    <t>report 5:Toàn bộ test case cho quy trình.</t>
+  </si>
+  <si>
+    <t>Sản phẩm trong db phải có ít nhất 50sp</t>
   </si>
 </sst>
 </file>
@@ -5066,7 +5093,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
@@ -5351,8 +5378,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5384,63 +5411,81 @@
       <c r="A3" s="41">
         <v>1</v>
       </c>
-      <c r="B3" s="36"/>
+      <c r="B3" s="36" t="s">
+        <v>260</v>
+      </c>
       <c r="C3" s="26"/>
     </row>
-    <row r="4" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" ht="39" x14ac:dyDescent="0.25">
       <c r="A4" s="41">
         <v>2</v>
       </c>
-      <c r="B4" s="36"/>
+      <c r="B4" s="36" t="s">
+        <v>261</v>
+      </c>
       <c r="C4" s="26"/>
     </row>
-    <row r="5" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" ht="39" x14ac:dyDescent="0.25">
       <c r="A5" s="41">
         <v>3</v>
       </c>
-      <c r="B5" s="36"/>
+      <c r="B5" s="36" t="s">
+        <v>264</v>
+      </c>
       <c r="C5" s="26"/>
     </row>
-    <row r="6" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" ht="39" x14ac:dyDescent="0.25">
       <c r="A6" s="41">
         <v>4</v>
       </c>
-      <c r="B6" s="36"/>
+      <c r="B6" s="36" t="s">
+        <v>262</v>
+      </c>
       <c r="C6" s="26"/>
     </row>
     <row r="7" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A7" s="41">
         <v>5</v>
       </c>
-      <c r="B7" s="36"/>
+      <c r="B7" s="36" t="s">
+        <v>263</v>
+      </c>
       <c r="C7" s="26"/>
     </row>
-    <row r="8" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" ht="39" x14ac:dyDescent="0.25">
       <c r="A8" s="41">
         <v>6</v>
       </c>
-      <c r="B8" s="36"/>
+      <c r="B8" s="36" t="s">
+        <v>265</v>
+      </c>
       <c r="C8" s="26"/>
     </row>
     <row r="9" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A9" s="41">
         <v>7</v>
       </c>
-      <c r="B9" s="37"/>
+      <c r="B9" s="37" t="s">
+        <v>266</v>
+      </c>
       <c r="C9" s="26"/>
     </row>
     <row r="10" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A10" s="41">
         <v>8</v>
       </c>
-      <c r="B10" s="36"/>
+      <c r="B10" s="36" t="s">
+        <v>267</v>
+      </c>
       <c r="C10" s="26"/>
     </row>
     <row r="11" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A11" s="41">
         <v>9</v>
       </c>
-      <c r="B11" s="36"/>
+      <c r="B11" s="36" t="s">
+        <v>268</v>
+      </c>
       <c r="C11" s="26"/>
     </row>
     <row r="12" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">

--- a/Source/Document/Meeting minutes/Meeting minute.xlsx
+++ b/Source/Document/Meeting minutes/Meeting minute.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="11" activeTab="21"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="18" activeTab="22"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -29,13 +29,19 @@
     <sheet name="W9_2" sheetId="22" r:id="rId20"/>
     <sheet name="W10_1" sheetId="23" r:id="rId21"/>
     <sheet name="W10_2" sheetId="24" r:id="rId22"/>
+    <sheet name="W11_1" sheetId="25" r:id="rId23"/>
+    <sheet name="W12_2" sheetId="26" r:id="rId24"/>
+    <sheet name="W13_1" sheetId="27" r:id="rId25"/>
+    <sheet name="W13_2" sheetId="28" r:id="rId26"/>
+    <sheet name="W14_1" sheetId="29" r:id="rId27"/>
+    <sheet name="W14_2" sheetId="30" r:id="rId28"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="538" uniqueCount="269">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="610" uniqueCount="282">
   <si>
     <t>MEETING MINUTES</t>
   </si>
@@ -900,6 +906,45 @@
   </si>
   <si>
     <t>Sản phẩm trong db phải có ít nhất 50sp</t>
+  </si>
+  <si>
+    <t>27/7/2015</t>
+  </si>
+  <si>
+    <t>Cho chọn tự đem tới tận công ty</t>
+  </si>
+  <si>
+    <t>tìm hợp đồng dân sự</t>
+  </si>
+  <si>
+    <t>trên web yêu cầu đã duyệt sẽ chia 2 tab, tab tới cty dua hang va tab nvien di lay hang</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Khi nao tien den tay </t>
+  </si>
+  <si>
+    <t>thiet ke 1 receipt và 1 contract</t>
+  </si>
+  <si>
+    <t>show trên: món hàng mới gửi</t>
+  </si>
+  <si>
+    <t>mỗi sp chỉ có 1 trạng thái duy nhất</t>
+  </si>
+  <si>
+    <t>loi nhuan và doanh thu khác nhau phải tách biệt</t>
+  </si>
+  <si>
+    <t>Không cần phải chi tiết từng món hàng mà cần</t>
+  </si>
+  <si>
+    <t>javascript_neu ko co hinh thi hien no image</t>
+  </si>
+  <si>
+    <t>QC cho HPS</t>
+  </si>
+  <si>
+    <t>So sanh HPS Cam do. Hợp đồng dân sự</t>
   </si>
 </sst>
 </file>
@@ -1531,7 +1576,7 @@
   <dimension ref="A1:AD12"/>
   <sheetViews>
     <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="T8" sqref="T8"/>
+      <selection activeCell="W6" sqref="W6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1794,7 +1839,9 @@
       <c r="T6" s="8"/>
       <c r="U6" s="8"/>
       <c r="V6" s="8"/>
-      <c r="W6" s="8"/>
+      <c r="W6" s="7" t="s">
+        <v>269</v>
+      </c>
       <c r="X6" s="8"/>
       <c r="Y6" s="8"/>
       <c r="Z6" s="8"/>
@@ -1842,9 +1889,15 @@
       <c r="T7" s="1">
         <v>115</v>
       </c>
-      <c r="U7" s="1"/>
-      <c r="V7" s="1"/>
-      <c r="W7" s="1"/>
+      <c r="U7" s="1">
+        <v>115</v>
+      </c>
+      <c r="V7" s="1">
+        <v>115</v>
+      </c>
+      <c r="W7" s="1">
+        <v>115</v>
+      </c>
       <c r="X7" s="1"/>
       <c r="Y7" s="1"/>
       <c r="Z7" s="1"/>
@@ -1914,9 +1967,15 @@
       <c r="T8" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="U8" s="1"/>
-      <c r="V8" s="1"/>
-      <c r="W8" s="1"/>
+      <c r="U8" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="V8" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="W8" s="1" t="s">
+        <v>77</v>
+      </c>
       <c r="X8" s="1"/>
       <c r="Y8" s="1"/>
       <c r="Z8" s="1"/>
@@ -1986,9 +2045,15 @@
       <c r="T9" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="U9" s="1"/>
-      <c r="V9" s="1"/>
-      <c r="W9" s="1"/>
+      <c r="U9" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="V9" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="W9" s="1" t="s">
+        <v>77</v>
+      </c>
       <c r="X9" s="1"/>
       <c r="Y9" s="1"/>
       <c r="Z9" s="1"/>
@@ -2110,8 +2175,12 @@
       <c r="T11" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="U11" s="1"/>
-      <c r="V11" s="1"/>
+      <c r="U11" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="V11" s="1" t="s">
+        <v>77</v>
+      </c>
       <c r="W11" s="1"/>
       <c r="X11" s="1"/>
       <c r="Y11" s="1"/>
@@ -2180,9 +2249,15 @@
       <c r="T12" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="U12" s="1"/>
-      <c r="V12" s="1"/>
-      <c r="W12" s="1"/>
+      <c r="U12" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="V12" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="W12" s="1" t="s">
+        <v>77</v>
+      </c>
       <c r="X12" s="1"/>
       <c r="Y12" s="1"/>
       <c r="Z12" s="1"/>
@@ -2226,6 +2301,7 @@
     <hyperlink ref="P6" location="W7_2!A1" display="W7_2!A1"/>
     <hyperlink ref="Q6" location="W8_1!A1" display="W8_1!A1"/>
     <hyperlink ref="R6" location="W8_2!A1" display="W8_2!A1"/>
+    <hyperlink ref="W6" location="Sheet1!A1" display="27/7/2015"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -5378,8 +5454,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5486,6 +5562,1410 @@
       <c r="B11" s="36" t="s">
         <v>268</v>
       </c>
+      <c r="C11" s="26"/>
+    </row>
+    <row r="12" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A12" s="41">
+        <v>10</v>
+      </c>
+      <c r="B12" s="36"/>
+      <c r="C12" s="26"/>
+    </row>
+    <row r="13" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A13" s="41">
+        <v>11</v>
+      </c>
+      <c r="B13" s="36"/>
+      <c r="C13" s="26"/>
+    </row>
+    <row r="14" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A14" s="41">
+        <v>12</v>
+      </c>
+      <c r="B14" s="36"/>
+      <c r="C14" s="26"/>
+    </row>
+    <row r="15" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A15" s="41">
+        <v>13</v>
+      </c>
+      <c r="B15" s="36"/>
+      <c r="C15" s="26"/>
+    </row>
+    <row r="16" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A16" s="41">
+        <v>14</v>
+      </c>
+      <c r="B16" s="36"/>
+      <c r="C16" s="26"/>
+    </row>
+    <row r="17" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A17" s="41">
+        <v>15</v>
+      </c>
+      <c r="B17" s="36"/>
+      <c r="C17" s="26"/>
+    </row>
+    <row r="18" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A18" s="41"/>
+      <c r="B18" s="36"/>
+      <c r="C18" s="26"/>
+    </row>
+    <row r="19" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A19" s="41"/>
+      <c r="B19" s="36"/>
+      <c r="C19" s="26"/>
+    </row>
+    <row r="20" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A20" s="41"/>
+      <c r="B20" s="36"/>
+      <c r="C20" s="26"/>
+    </row>
+    <row r="21" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A21" s="41"/>
+      <c r="B21" s="36"/>
+      <c r="C21" s="26"/>
+    </row>
+    <row r="22" spans="1:3" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A22" s="38" t="s">
+        <v>27</v>
+      </c>
+      <c r="B22" s="34"/>
+    </row>
+    <row r="23" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A23" s="42" t="s">
+        <v>22</v>
+      </c>
+      <c r="B23" s="35" t="s">
+        <v>23</v>
+      </c>
+      <c r="C23" s="40" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A24" s="26"/>
+      <c r="B24" s="36"/>
+      <c r="C24" s="26"/>
+    </row>
+    <row r="25" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A25" s="26"/>
+      <c r="B25" s="36"/>
+      <c r="C25" s="26"/>
+    </row>
+    <row r="26" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A26" s="26"/>
+      <c r="B26" s="36"/>
+      <c r="C26" s="26"/>
+    </row>
+    <row r="27" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A27" s="26"/>
+      <c r="B27" s="36"/>
+      <c r="C27" s="26"/>
+    </row>
+    <row r="28" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A28" s="26"/>
+      <c r="B28" s="36"/>
+      <c r="C28" s="26"/>
+    </row>
+    <row r="29" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A29" s="26"/>
+      <c r="B29" s="36"/>
+      <c r="C29" s="26"/>
+    </row>
+    <row r="30" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A30" s="26"/>
+      <c r="B30" s="36"/>
+      <c r="C30" s="26"/>
+    </row>
+    <row r="31" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A31" s="26"/>
+      <c r="B31" s="36"/>
+      <c r="C31" s="26"/>
+    </row>
+    <row r="32" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A32" s="26"/>
+      <c r="B32" s="36"/>
+      <c r="C32" s="26"/>
+    </row>
+    <row r="33" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A33" s="26"/>
+      <c r="B33" s="36"/>
+      <c r="C33" s="26"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C33"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.85546875" style="32" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="64" style="32" customWidth="1"/>
+    <col min="3" max="3" width="27.42578125" style="32" customWidth="1"/>
+    <col min="4" max="16384" width="9.140625" style="32"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A1" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="34"/>
+    </row>
+    <row r="2" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="39" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" s="35" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" s="40" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A3" s="41">
+        <v>1</v>
+      </c>
+      <c r="B3" s="36" t="s">
+        <v>270</v>
+      </c>
+      <c r="C3" s="26"/>
+    </row>
+    <row r="4" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A4" s="41">
+        <v>2</v>
+      </c>
+      <c r="B4" s="36" t="s">
+        <v>271</v>
+      </c>
+      <c r="C4" s="26"/>
+    </row>
+    <row r="5" spans="1:3" ht="39" x14ac:dyDescent="0.25">
+      <c r="A5" s="41">
+        <v>3</v>
+      </c>
+      <c r="B5" s="36" t="s">
+        <v>272</v>
+      </c>
+      <c r="C5" s="26"/>
+    </row>
+    <row r="6" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A6" s="41">
+        <v>4</v>
+      </c>
+      <c r="B6" s="36" t="s">
+        <v>273</v>
+      </c>
+      <c r="C6" s="26"/>
+    </row>
+    <row r="7" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A7" s="41">
+        <v>5</v>
+      </c>
+      <c r="B7" s="36" t="s">
+        <v>274</v>
+      </c>
+      <c r="C7" s="26"/>
+    </row>
+    <row r="8" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A8" s="41">
+        <v>6</v>
+      </c>
+      <c r="B8" s="36" t="s">
+        <v>275</v>
+      </c>
+      <c r="C8" s="26"/>
+    </row>
+    <row r="9" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A9" s="41">
+        <v>7</v>
+      </c>
+      <c r="B9" s="37" t="s">
+        <v>276</v>
+      </c>
+      <c r="C9" s="26"/>
+    </row>
+    <row r="10" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A10" s="41">
+        <v>8</v>
+      </c>
+      <c r="B10" s="36" t="s">
+        <v>277</v>
+      </c>
+      <c r="C10" s="26"/>
+    </row>
+    <row r="11" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A11" s="41">
+        <v>9</v>
+      </c>
+      <c r="B11" s="36" t="s">
+        <v>278</v>
+      </c>
+      <c r="C11" s="26"/>
+    </row>
+    <row r="12" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A12" s="41">
+        <v>10</v>
+      </c>
+      <c r="B12" s="36" t="s">
+        <v>279</v>
+      </c>
+      <c r="C12" s="26"/>
+    </row>
+    <row r="13" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A13" s="41">
+        <v>11</v>
+      </c>
+      <c r="B13" s="36" t="s">
+        <v>280</v>
+      </c>
+      <c r="C13" s="26"/>
+    </row>
+    <row r="14" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A14" s="41">
+        <v>12</v>
+      </c>
+      <c r="B14" s="36" t="s">
+        <v>281</v>
+      </c>
+      <c r="C14" s="26"/>
+    </row>
+    <row r="15" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A15" s="41">
+        <v>13</v>
+      </c>
+      <c r="B15" s="36"/>
+      <c r="C15" s="26"/>
+    </row>
+    <row r="16" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A16" s="41">
+        <v>14</v>
+      </c>
+      <c r="B16" s="36"/>
+      <c r="C16" s="26"/>
+    </row>
+    <row r="17" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A17" s="41">
+        <v>15</v>
+      </c>
+      <c r="B17" s="36"/>
+      <c r="C17" s="26"/>
+    </row>
+    <row r="18" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A18" s="41"/>
+      <c r="B18" s="36"/>
+      <c r="C18" s="26"/>
+    </row>
+    <row r="19" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A19" s="41"/>
+      <c r="B19" s="36"/>
+      <c r="C19" s="26"/>
+    </row>
+    <row r="20" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A20" s="41"/>
+      <c r="B20" s="36"/>
+      <c r="C20" s="26"/>
+    </row>
+    <row r="21" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A21" s="41"/>
+      <c r="B21" s="36"/>
+      <c r="C21" s="26"/>
+    </row>
+    <row r="22" spans="1:3" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A22" s="38" t="s">
+        <v>27</v>
+      </c>
+      <c r="B22" s="34"/>
+    </row>
+    <row r="23" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A23" s="42" t="s">
+        <v>22</v>
+      </c>
+      <c r="B23" s="35" t="s">
+        <v>23</v>
+      </c>
+      <c r="C23" s="40" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A24" s="26"/>
+      <c r="B24" s="36"/>
+      <c r="C24" s="26"/>
+    </row>
+    <row r="25" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A25" s="26"/>
+      <c r="B25" s="36"/>
+      <c r="C25" s="26"/>
+    </row>
+    <row r="26" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A26" s="26"/>
+      <c r="B26" s="36"/>
+      <c r="C26" s="26"/>
+    </row>
+    <row r="27" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A27" s="26"/>
+      <c r="B27" s="36"/>
+      <c r="C27" s="26"/>
+    </row>
+    <row r="28" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A28" s="26"/>
+      <c r="B28" s="36"/>
+      <c r="C28" s="26"/>
+    </row>
+    <row r="29" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A29" s="26"/>
+      <c r="B29" s="36"/>
+      <c r="C29" s="26"/>
+    </row>
+    <row r="30" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A30" s="26"/>
+      <c r="B30" s="36"/>
+      <c r="C30" s="26"/>
+    </row>
+    <row r="31" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A31" s="26"/>
+      <c r="B31" s="36"/>
+      <c r="C31" s="26"/>
+    </row>
+    <row r="32" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A32" s="26"/>
+      <c r="B32" s="36"/>
+      <c r="C32" s="26"/>
+    </row>
+    <row r="33" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A33" s="26"/>
+      <c r="B33" s="36"/>
+      <c r="C33" s="26"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C33"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.85546875" style="32" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="64" style="32" customWidth="1"/>
+    <col min="3" max="3" width="27.42578125" style="32" customWidth="1"/>
+    <col min="4" max="16384" width="9.140625" style="32"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A1" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="34"/>
+    </row>
+    <row r="2" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="39" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" s="35" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" s="40" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A3" s="41">
+        <v>1</v>
+      </c>
+      <c r="B3" s="36"/>
+      <c r="C3" s="26"/>
+    </row>
+    <row r="4" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A4" s="41">
+        <v>2</v>
+      </c>
+      <c r="B4" s="36"/>
+      <c r="C4" s="26"/>
+    </row>
+    <row r="5" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A5" s="41">
+        <v>3</v>
+      </c>
+      <c r="B5" s="36"/>
+      <c r="C5" s="26"/>
+    </row>
+    <row r="6" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A6" s="41">
+        <v>4</v>
+      </c>
+      <c r="B6" s="36"/>
+      <c r="C6" s="26"/>
+    </row>
+    <row r="7" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A7" s="41">
+        <v>5</v>
+      </c>
+      <c r="B7" s="36"/>
+      <c r="C7" s="26"/>
+    </row>
+    <row r="8" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A8" s="41">
+        <v>6</v>
+      </c>
+      <c r="B8" s="36"/>
+      <c r="C8" s="26"/>
+    </row>
+    <row r="9" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A9" s="41">
+        <v>7</v>
+      </c>
+      <c r="B9" s="37"/>
+      <c r="C9" s="26"/>
+    </row>
+    <row r="10" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A10" s="41">
+        <v>8</v>
+      </c>
+      <c r="B10" s="36"/>
+      <c r="C10" s="26"/>
+    </row>
+    <row r="11" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A11" s="41">
+        <v>9</v>
+      </c>
+      <c r="B11" s="36"/>
+      <c r="C11" s="26"/>
+    </row>
+    <row r="12" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A12" s="41">
+        <v>10</v>
+      </c>
+      <c r="B12" s="36"/>
+      <c r="C12" s="26"/>
+    </row>
+    <row r="13" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A13" s="41">
+        <v>11</v>
+      </c>
+      <c r="B13" s="36"/>
+      <c r="C13" s="26"/>
+    </row>
+    <row r="14" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A14" s="41">
+        <v>12</v>
+      </c>
+      <c r="B14" s="36"/>
+      <c r="C14" s="26"/>
+    </row>
+    <row r="15" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A15" s="41">
+        <v>13</v>
+      </c>
+      <c r="B15" s="36"/>
+      <c r="C15" s="26"/>
+    </row>
+    <row r="16" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A16" s="41">
+        <v>14</v>
+      </c>
+      <c r="B16" s="36"/>
+      <c r="C16" s="26"/>
+    </row>
+    <row r="17" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A17" s="41">
+        <v>15</v>
+      </c>
+      <c r="B17" s="36"/>
+      <c r="C17" s="26"/>
+    </row>
+    <row r="18" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A18" s="41"/>
+      <c r="B18" s="36"/>
+      <c r="C18" s="26"/>
+    </row>
+    <row r="19" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A19" s="41"/>
+      <c r="B19" s="36"/>
+      <c r="C19" s="26"/>
+    </row>
+    <row r="20" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A20" s="41"/>
+      <c r="B20" s="36"/>
+      <c r="C20" s="26"/>
+    </row>
+    <row r="21" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A21" s="41"/>
+      <c r="B21" s="36"/>
+      <c r="C21" s="26"/>
+    </row>
+    <row r="22" spans="1:3" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A22" s="38" t="s">
+        <v>27</v>
+      </c>
+      <c r="B22" s="34"/>
+    </row>
+    <row r="23" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A23" s="42" t="s">
+        <v>22</v>
+      </c>
+      <c r="B23" s="35" t="s">
+        <v>23</v>
+      </c>
+      <c r="C23" s="40" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A24" s="26"/>
+      <c r="B24" s="36"/>
+      <c r="C24" s="26"/>
+    </row>
+    <row r="25" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A25" s="26"/>
+      <c r="B25" s="36"/>
+      <c r="C25" s="26"/>
+    </row>
+    <row r="26" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A26" s="26"/>
+      <c r="B26" s="36"/>
+      <c r="C26" s="26"/>
+    </row>
+    <row r="27" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A27" s="26"/>
+      <c r="B27" s="36"/>
+      <c r="C27" s="26"/>
+    </row>
+    <row r="28" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A28" s="26"/>
+      <c r="B28" s="36"/>
+      <c r="C28" s="26"/>
+    </row>
+    <row r="29" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A29" s="26"/>
+      <c r="B29" s="36"/>
+      <c r="C29" s="26"/>
+    </row>
+    <row r="30" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A30" s="26"/>
+      <c r="B30" s="36"/>
+      <c r="C30" s="26"/>
+    </row>
+    <row r="31" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A31" s="26"/>
+      <c r="B31" s="36"/>
+      <c r="C31" s="26"/>
+    </row>
+    <row r="32" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A32" s="26"/>
+      <c r="B32" s="36"/>
+      <c r="C32" s="26"/>
+    </row>
+    <row r="33" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A33" s="26"/>
+      <c r="B33" s="36"/>
+      <c r="C33" s="26"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C33"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.85546875" style="32" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="64" style="32" customWidth="1"/>
+    <col min="3" max="3" width="27.42578125" style="32" customWidth="1"/>
+    <col min="4" max="16384" width="9.140625" style="32"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A1" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="34"/>
+    </row>
+    <row r="2" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="39" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" s="35" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" s="40" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A3" s="41">
+        <v>1</v>
+      </c>
+      <c r="B3" s="36"/>
+      <c r="C3" s="26"/>
+    </row>
+    <row r="4" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A4" s="41">
+        <v>2</v>
+      </c>
+      <c r="B4" s="36"/>
+      <c r="C4" s="26"/>
+    </row>
+    <row r="5" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A5" s="41">
+        <v>3</v>
+      </c>
+      <c r="B5" s="36"/>
+      <c r="C5" s="26"/>
+    </row>
+    <row r="6" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A6" s="41">
+        <v>4</v>
+      </c>
+      <c r="B6" s="36"/>
+      <c r="C6" s="26"/>
+    </row>
+    <row r="7" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A7" s="41">
+        <v>5</v>
+      </c>
+      <c r="B7" s="36"/>
+      <c r="C7" s="26"/>
+    </row>
+    <row r="8" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A8" s="41">
+        <v>6</v>
+      </c>
+      <c r="B8" s="36"/>
+      <c r="C8" s="26"/>
+    </row>
+    <row r="9" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A9" s="41">
+        <v>7</v>
+      </c>
+      <c r="B9" s="37"/>
+      <c r="C9" s="26"/>
+    </row>
+    <row r="10" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A10" s="41">
+        <v>8</v>
+      </c>
+      <c r="B10" s="36"/>
+      <c r="C10" s="26"/>
+    </row>
+    <row r="11" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A11" s="41">
+        <v>9</v>
+      </c>
+      <c r="B11" s="36"/>
+      <c r="C11" s="26"/>
+    </row>
+    <row r="12" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A12" s="41">
+        <v>10</v>
+      </c>
+      <c r="B12" s="36"/>
+      <c r="C12" s="26"/>
+    </row>
+    <row r="13" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A13" s="41">
+        <v>11</v>
+      </c>
+      <c r="B13" s="36"/>
+      <c r="C13" s="26"/>
+    </row>
+    <row r="14" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A14" s="41">
+        <v>12</v>
+      </c>
+      <c r="B14" s="36"/>
+      <c r="C14" s="26"/>
+    </row>
+    <row r="15" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A15" s="41">
+        <v>13</v>
+      </c>
+      <c r="B15" s="36"/>
+      <c r="C15" s="26"/>
+    </row>
+    <row r="16" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A16" s="41">
+        <v>14</v>
+      </c>
+      <c r="B16" s="36"/>
+      <c r="C16" s="26"/>
+    </row>
+    <row r="17" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A17" s="41">
+        <v>15</v>
+      </c>
+      <c r="B17" s="36"/>
+      <c r="C17" s="26"/>
+    </row>
+    <row r="18" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A18" s="41"/>
+      <c r="B18" s="36"/>
+      <c r="C18" s="26"/>
+    </row>
+    <row r="19" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A19" s="41"/>
+      <c r="B19" s="36"/>
+      <c r="C19" s="26"/>
+    </row>
+    <row r="20" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A20" s="41"/>
+      <c r="B20" s="36"/>
+      <c r="C20" s="26"/>
+    </row>
+    <row r="21" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A21" s="41"/>
+      <c r="B21" s="36"/>
+      <c r="C21" s="26"/>
+    </row>
+    <row r="22" spans="1:3" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A22" s="38" t="s">
+        <v>27</v>
+      </c>
+      <c r="B22" s="34"/>
+    </row>
+    <row r="23" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A23" s="42" t="s">
+        <v>22</v>
+      </c>
+      <c r="B23" s="35" t="s">
+        <v>23</v>
+      </c>
+      <c r="C23" s="40" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A24" s="26"/>
+      <c r="B24" s="36"/>
+      <c r="C24" s="26"/>
+    </row>
+    <row r="25" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A25" s="26"/>
+      <c r="B25" s="36"/>
+      <c r="C25" s="26"/>
+    </row>
+    <row r="26" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A26" s="26"/>
+      <c r="B26" s="36"/>
+      <c r="C26" s="26"/>
+    </row>
+    <row r="27" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A27" s="26"/>
+      <c r="B27" s="36"/>
+      <c r="C27" s="26"/>
+    </row>
+    <row r="28" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A28" s="26"/>
+      <c r="B28" s="36"/>
+      <c r="C28" s="26"/>
+    </row>
+    <row r="29" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A29" s="26"/>
+      <c r="B29" s="36"/>
+      <c r="C29" s="26"/>
+    </row>
+    <row r="30" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A30" s="26"/>
+      <c r="B30" s="36"/>
+      <c r="C30" s="26"/>
+    </row>
+    <row r="31" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A31" s="26"/>
+      <c r="B31" s="36"/>
+      <c r="C31" s="26"/>
+    </row>
+    <row r="32" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A32" s="26"/>
+      <c r="B32" s="36"/>
+      <c r="C32" s="26"/>
+    </row>
+    <row r="33" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A33" s="26"/>
+      <c r="B33" s="36"/>
+      <c r="C33" s="26"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C33"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.85546875" style="32" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="64" style="32" customWidth="1"/>
+    <col min="3" max="3" width="27.42578125" style="32" customWidth="1"/>
+    <col min="4" max="16384" width="9.140625" style="32"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A1" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="34"/>
+    </row>
+    <row r="2" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="39" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" s="35" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" s="40" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A3" s="41">
+        <v>1</v>
+      </c>
+      <c r="B3" s="36"/>
+      <c r="C3" s="26"/>
+    </row>
+    <row r="4" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A4" s="41">
+        <v>2</v>
+      </c>
+      <c r="B4" s="36"/>
+      <c r="C4" s="26"/>
+    </row>
+    <row r="5" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A5" s="41">
+        <v>3</v>
+      </c>
+      <c r="B5" s="36"/>
+      <c r="C5" s="26"/>
+    </row>
+    <row r="6" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A6" s="41">
+        <v>4</v>
+      </c>
+      <c r="B6" s="36"/>
+      <c r="C6" s="26"/>
+    </row>
+    <row r="7" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A7" s="41">
+        <v>5</v>
+      </c>
+      <c r="B7" s="36"/>
+      <c r="C7" s="26"/>
+    </row>
+    <row r="8" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A8" s="41">
+        <v>6</v>
+      </c>
+      <c r="B8" s="36"/>
+      <c r="C8" s="26"/>
+    </row>
+    <row r="9" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A9" s="41">
+        <v>7</v>
+      </c>
+      <c r="B9" s="37"/>
+      <c r="C9" s="26"/>
+    </row>
+    <row r="10" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A10" s="41">
+        <v>8</v>
+      </c>
+      <c r="B10" s="36"/>
+      <c r="C10" s="26"/>
+    </row>
+    <row r="11" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A11" s="41">
+        <v>9</v>
+      </c>
+      <c r="B11" s="36"/>
+      <c r="C11" s="26"/>
+    </row>
+    <row r="12" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A12" s="41">
+        <v>10</v>
+      </c>
+      <c r="B12" s="36"/>
+      <c r="C12" s="26"/>
+    </row>
+    <row r="13" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A13" s="41">
+        <v>11</v>
+      </c>
+      <c r="B13" s="36"/>
+      <c r="C13" s="26"/>
+    </row>
+    <row r="14" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A14" s="41">
+        <v>12</v>
+      </c>
+      <c r="B14" s="36"/>
+      <c r="C14" s="26"/>
+    </row>
+    <row r="15" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A15" s="41">
+        <v>13</v>
+      </c>
+      <c r="B15" s="36"/>
+      <c r="C15" s="26"/>
+    </row>
+    <row r="16" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A16" s="41">
+        <v>14</v>
+      </c>
+      <c r="B16" s="36"/>
+      <c r="C16" s="26"/>
+    </row>
+    <row r="17" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A17" s="41">
+        <v>15</v>
+      </c>
+      <c r="B17" s="36"/>
+      <c r="C17" s="26"/>
+    </row>
+    <row r="18" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A18" s="41"/>
+      <c r="B18" s="36"/>
+      <c r="C18" s="26"/>
+    </row>
+    <row r="19" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A19" s="41"/>
+      <c r="B19" s="36"/>
+      <c r="C19" s="26"/>
+    </row>
+    <row r="20" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A20" s="41"/>
+      <c r="B20" s="36"/>
+      <c r="C20" s="26"/>
+    </row>
+    <row r="21" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A21" s="41"/>
+      <c r="B21" s="36"/>
+      <c r="C21" s="26"/>
+    </row>
+    <row r="22" spans="1:3" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A22" s="38" t="s">
+        <v>27</v>
+      </c>
+      <c r="B22" s="34"/>
+    </row>
+    <row r="23" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A23" s="42" t="s">
+        <v>22</v>
+      </c>
+      <c r="B23" s="35" t="s">
+        <v>23</v>
+      </c>
+      <c r="C23" s="40" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A24" s="26"/>
+      <c r="B24" s="36"/>
+      <c r="C24" s="26"/>
+    </row>
+    <row r="25" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A25" s="26"/>
+      <c r="B25" s="36"/>
+      <c r="C25" s="26"/>
+    </row>
+    <row r="26" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A26" s="26"/>
+      <c r="B26" s="36"/>
+      <c r="C26" s="26"/>
+    </row>
+    <row r="27" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A27" s="26"/>
+      <c r="B27" s="36"/>
+      <c r="C27" s="26"/>
+    </row>
+    <row r="28" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A28" s="26"/>
+      <c r="B28" s="36"/>
+      <c r="C28" s="26"/>
+    </row>
+    <row r="29" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A29" s="26"/>
+      <c r="B29" s="36"/>
+      <c r="C29" s="26"/>
+    </row>
+    <row r="30" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A30" s="26"/>
+      <c r="B30" s="36"/>
+      <c r="C30" s="26"/>
+    </row>
+    <row r="31" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A31" s="26"/>
+      <c r="B31" s="36"/>
+      <c r="C31" s="26"/>
+    </row>
+    <row r="32" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A32" s="26"/>
+      <c r="B32" s="36"/>
+      <c r="C32" s="26"/>
+    </row>
+    <row r="33" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A33" s="26"/>
+      <c r="B33" s="36"/>
+      <c r="C33" s="26"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C33"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.85546875" style="32" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="64" style="32" customWidth="1"/>
+    <col min="3" max="3" width="27.42578125" style="32" customWidth="1"/>
+    <col min="4" max="16384" width="9.140625" style="32"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A1" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="34"/>
+    </row>
+    <row r="2" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="39" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" s="35" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" s="40" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A3" s="41">
+        <v>1</v>
+      </c>
+      <c r="B3" s="36"/>
+      <c r="C3" s="26"/>
+    </row>
+    <row r="4" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A4" s="41">
+        <v>2</v>
+      </c>
+      <c r="B4" s="36"/>
+      <c r="C4" s="26"/>
+    </row>
+    <row r="5" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A5" s="41">
+        <v>3</v>
+      </c>
+      <c r="B5" s="36"/>
+      <c r="C5" s="26"/>
+    </row>
+    <row r="6" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A6" s="41">
+        <v>4</v>
+      </c>
+      <c r="B6" s="36"/>
+      <c r="C6" s="26"/>
+    </row>
+    <row r="7" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A7" s="41">
+        <v>5</v>
+      </c>
+      <c r="B7" s="36"/>
+      <c r="C7" s="26"/>
+    </row>
+    <row r="8" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A8" s="41">
+        <v>6</v>
+      </c>
+      <c r="B8" s="36"/>
+      <c r="C8" s="26"/>
+    </row>
+    <row r="9" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A9" s="41">
+        <v>7</v>
+      </c>
+      <c r="B9" s="37"/>
+      <c r="C9" s="26"/>
+    </row>
+    <row r="10" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A10" s="41">
+        <v>8</v>
+      </c>
+      <c r="B10" s="36"/>
+      <c r="C10" s="26"/>
+    </row>
+    <row r="11" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A11" s="41">
+        <v>9</v>
+      </c>
+      <c r="B11" s="36"/>
+      <c r="C11" s="26"/>
+    </row>
+    <row r="12" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A12" s="41">
+        <v>10</v>
+      </c>
+      <c r="B12" s="36"/>
+      <c r="C12" s="26"/>
+    </row>
+    <row r="13" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A13" s="41">
+        <v>11</v>
+      </c>
+      <c r="B13" s="36"/>
+      <c r="C13" s="26"/>
+    </row>
+    <row r="14" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A14" s="41">
+        <v>12</v>
+      </c>
+      <c r="B14" s="36"/>
+      <c r="C14" s="26"/>
+    </row>
+    <row r="15" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A15" s="41">
+        <v>13</v>
+      </c>
+      <c r="B15" s="36"/>
+      <c r="C15" s="26"/>
+    </row>
+    <row r="16" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A16" s="41">
+        <v>14</v>
+      </c>
+      <c r="B16" s="36"/>
+      <c r="C16" s="26"/>
+    </row>
+    <row r="17" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A17" s="41">
+        <v>15</v>
+      </c>
+      <c r="B17" s="36"/>
+      <c r="C17" s="26"/>
+    </row>
+    <row r="18" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A18" s="41"/>
+      <c r="B18" s="36"/>
+      <c r="C18" s="26"/>
+    </row>
+    <row r="19" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A19" s="41"/>
+      <c r="B19" s="36"/>
+      <c r="C19" s="26"/>
+    </row>
+    <row r="20" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A20" s="41"/>
+      <c r="B20" s="36"/>
+      <c r="C20" s="26"/>
+    </row>
+    <row r="21" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A21" s="41"/>
+      <c r="B21" s="36"/>
+      <c r="C21" s="26"/>
+    </row>
+    <row r="22" spans="1:3" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A22" s="38" t="s">
+        <v>27</v>
+      </c>
+      <c r="B22" s="34"/>
+    </row>
+    <row r="23" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A23" s="42" t="s">
+        <v>22</v>
+      </c>
+      <c r="B23" s="35" t="s">
+        <v>23</v>
+      </c>
+      <c r="C23" s="40" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A24" s="26"/>
+      <c r="B24" s="36"/>
+      <c r="C24" s="26"/>
+    </row>
+    <row r="25" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A25" s="26"/>
+      <c r="B25" s="36"/>
+      <c r="C25" s="26"/>
+    </row>
+    <row r="26" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A26" s="26"/>
+      <c r="B26" s="36"/>
+      <c r="C26" s="26"/>
+    </row>
+    <row r="27" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A27" s="26"/>
+      <c r="B27" s="36"/>
+      <c r="C27" s="26"/>
+    </row>
+    <row r="28" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A28" s="26"/>
+      <c r="B28" s="36"/>
+      <c r="C28" s="26"/>
+    </row>
+    <row r="29" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A29" s="26"/>
+      <c r="B29" s="36"/>
+      <c r="C29" s="26"/>
+    </row>
+    <row r="30" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A30" s="26"/>
+      <c r="B30" s="36"/>
+      <c r="C30" s="26"/>
+    </row>
+    <row r="31" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A31" s="26"/>
+      <c r="B31" s="36"/>
+      <c r="C31" s="26"/>
+    </row>
+    <row r="32" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A32" s="26"/>
+      <c r="B32" s="36"/>
+      <c r="C32" s="26"/>
+    </row>
+    <row r="33" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A33" s="26"/>
+      <c r="B33" s="36"/>
+      <c r="C33" s="26"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C33"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.85546875" style="32" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="64" style="32" customWidth="1"/>
+    <col min="3" max="3" width="27.42578125" style="32" customWidth="1"/>
+    <col min="4" max="16384" width="9.140625" style="32"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A1" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="34"/>
+    </row>
+    <row r="2" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="39" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" s="35" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" s="40" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A3" s="41">
+        <v>1</v>
+      </c>
+      <c r="B3" s="36"/>
+      <c r="C3" s="26"/>
+    </row>
+    <row r="4" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A4" s="41">
+        <v>2</v>
+      </c>
+      <c r="B4" s="36"/>
+      <c r="C4" s="26"/>
+    </row>
+    <row r="5" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A5" s="41">
+        <v>3</v>
+      </c>
+      <c r="B5" s="36"/>
+      <c r="C5" s="26"/>
+    </row>
+    <row r="6" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A6" s="41">
+        <v>4</v>
+      </c>
+      <c r="B6" s="36"/>
+      <c r="C6" s="26"/>
+    </row>
+    <row r="7" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A7" s="41">
+        <v>5</v>
+      </c>
+      <c r="B7" s="36"/>
+      <c r="C7" s="26"/>
+    </row>
+    <row r="8" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A8" s="41">
+        <v>6</v>
+      </c>
+      <c r="B8" s="36"/>
+      <c r="C8" s="26"/>
+    </row>
+    <row r="9" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A9" s="41">
+        <v>7</v>
+      </c>
+      <c r="B9" s="37"/>
+      <c r="C9" s="26"/>
+    </row>
+    <row r="10" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A10" s="41">
+        <v>8</v>
+      </c>
+      <c r="B10" s="36"/>
+      <c r="C10" s="26"/>
+    </row>
+    <row r="11" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A11" s="41">
+        <v>9</v>
+      </c>
+      <c r="B11" s="36"/>
       <c r="C11" s="26"/>
     </row>
     <row r="12" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">

--- a/Source/Document/Meeting minutes/Meeting minute.xlsx
+++ b/Source/Document/Meeting minutes/Meeting minute.xlsx
@@ -917,9 +917,6 @@
     <t>tìm hợp đồng dân sự</t>
   </si>
   <si>
-    <t>trên web yêu cầu đã duyệt sẽ chia 2 tab, tab tới cty dua hang va tab nvien di lay hang</t>
-  </si>
-  <si>
     <t xml:space="preserve">Khi nao tien den tay </t>
   </si>
   <si>
@@ -935,9 +932,6 @@
     <t>loi nhuan và doanh thu khác nhau phải tách biệt</t>
   </si>
   <si>
-    <t>Không cần phải chi tiết từng món hàng mà cần</t>
-  </si>
-  <si>
     <t>javascript_neu ko co hinh thi hien no image</t>
   </si>
   <si>
@@ -945,6 +939,12 @@
   </si>
   <si>
     <t>So sanh HPS Cam do. Hợp đồng dân sự</t>
+  </si>
+  <si>
+    <t>trên web yêu cầu đã duyệt có tới cty dua hang va tab nvien di lay hang</t>
+  </si>
+  <si>
+    <t>Không cần phải chi tiết từng món hàng</t>
   </si>
 </sst>
 </file>
@@ -5703,7 +5703,7 @@
   <dimension ref="A1:C33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5754,7 +5754,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="36" t="s">
-        <v>272</v>
+        <v>280</v>
       </c>
       <c r="C5" s="26"/>
     </row>
@@ -5763,7 +5763,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="36" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C6" s="26"/>
     </row>
@@ -5772,7 +5772,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="36" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C7" s="26"/>
     </row>
@@ -5781,7 +5781,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="36" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C8" s="26"/>
     </row>
@@ -5790,7 +5790,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="37" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C9" s="26"/>
     </row>
@@ -5799,7 +5799,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="36" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C10" s="26"/>
     </row>
@@ -5808,7 +5808,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="36" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="C11" s="26"/>
     </row>
@@ -5817,7 +5817,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="36" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="C12" s="26"/>
     </row>
@@ -5826,7 +5826,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="36" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="C13" s="26"/>
     </row>
@@ -5835,7 +5835,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="36" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="C14" s="26"/>
     </row>

--- a/Source/Document/Meeting minutes/Meeting minute.xlsx
+++ b/Source/Document/Meeting minutes/Meeting minute.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="18" activeTab="22"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="13" activeTab="23"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="610" uniqueCount="282">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="615" uniqueCount="283">
   <si>
     <t>MEETING MINUTES</t>
   </si>
@@ -945,6 +945,9 @@
   </si>
   <si>
     <t>Không cần phải chi tiết từng món hàng</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dân mua 3g. </t>
   </si>
 </sst>
 </file>
@@ -1576,7 +1579,7 @@
   <dimension ref="A1:AD12"/>
   <sheetViews>
     <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="W6" sqref="W6"/>
+      <selection activeCell="X6" sqref="X6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1587,7 +1590,9 @@
     <col min="4" max="4" width="13.42578125" style="3" customWidth="1"/>
     <col min="5" max="11" width="9.140625" style="3"/>
     <col min="12" max="12" width="9.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="3"/>
+    <col min="13" max="23" width="9.140625" style="3"/>
+    <col min="24" max="24" width="10.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1842,7 +1847,9 @@
       <c r="W6" s="7" t="s">
         <v>269</v>
       </c>
-      <c r="X6" s="8"/>
+      <c r="X6" s="6">
+        <v>42216</v>
+      </c>
       <c r="Y6" s="8"/>
       <c r="Z6" s="8"/>
       <c r="AA6" s="8"/>
@@ -1898,7 +1905,9 @@
       <c r="W7" s="1">
         <v>115</v>
       </c>
-      <c r="X7" s="1"/>
+      <c r="X7" s="1">
+        <v>115</v>
+      </c>
       <c r="Y7" s="1"/>
       <c r="Z7" s="1"/>
       <c r="AA7" s="1"/>
@@ -1976,7 +1985,9 @@
       <c r="W8" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="X8" s="1"/>
+      <c r="X8" s="1" t="s">
+        <v>77</v>
+      </c>
       <c r="Y8" s="1"/>
       <c r="Z8" s="1"/>
       <c r="AA8" s="1"/>
@@ -2054,7 +2065,9 @@
       <c r="W9" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="X9" s="1"/>
+      <c r="X9" s="1" t="s">
+        <v>77</v>
+      </c>
       <c r="Y9" s="1"/>
       <c r="Z9" s="1"/>
       <c r="AA9" s="1"/>
@@ -2182,7 +2195,9 @@
         <v>77</v>
       </c>
       <c r="W11" s="1"/>
-      <c r="X11" s="1"/>
+      <c r="X11" s="1" t="s">
+        <v>77</v>
+      </c>
       <c r="Y11" s="1"/>
       <c r="Z11" s="1"/>
       <c r="AA11" s="1"/>
@@ -2258,7 +2273,9 @@
       <c r="W12" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="X12" s="1"/>
+      <c r="X12" s="1" t="s">
+        <v>77</v>
+      </c>
       <c r="Y12" s="1"/>
       <c r="Z12" s="1"/>
       <c r="AA12" s="1"/>
@@ -2302,6 +2319,7 @@
     <hyperlink ref="Q6" location="W8_1!A1" display="W8_1!A1"/>
     <hyperlink ref="R6" location="W8_2!A1" display="W8_2!A1"/>
     <hyperlink ref="W6" location="Sheet1!A1" display="27/7/2015"/>
+    <hyperlink ref="X6" location="W12_2!A1" display="31/7/2015"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -5702,7 +5720,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
@@ -5956,8 +5974,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5989,7 +6007,9 @@
       <c r="A3" s="41">
         <v>1</v>
       </c>
-      <c r="B3" s="36"/>
+      <c r="B3" s="36" t="s">
+        <v>282</v>
+      </c>
       <c r="C3" s="26"/>
     </row>
     <row r="4" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
@@ -7705,7 +7725,7 @@
   <dimension ref="A1:C32"/>
   <sheetViews>
     <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7970,7 +7990,7 @@
       </c>
       <c r="B1" s="30"/>
     </row>
-    <row r="2" spans="1:3" ht="39" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A2" s="13" t="s">
         <v>22</v>
       </c>

--- a/Source/Document/Meeting minutes/Meeting minute.xlsx
+++ b/Source/Document/Meeting minutes/Meeting minute.xlsx
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="615" uniqueCount="283">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="623" uniqueCount="291">
   <si>
     <t>MEETING MINUTES</t>
   </si>
@@ -948,6 +948,30 @@
   </si>
   <si>
     <t xml:space="preserve">dân mua 3g. </t>
+  </si>
+  <si>
+    <t>Loại  và hàng cùng hàng</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hàng đặt biệt để </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Không cho sửa dữ liệu trên </t>
+  </si>
+  <si>
+    <t>Filter từ ngày đến ngày</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Xuống database kiểm tra </t>
+  </si>
+  <si>
+    <t>Ngày hôm nay thì không cho đổi hàng</t>
+  </si>
+  <si>
+    <t>Lưu ngày đồng bộ hàng hóa</t>
+  </si>
+  <si>
+    <t>Demo sp</t>
   </si>
 </sst>
 </file>
@@ -5975,7 +5999,7 @@
   <dimension ref="A1:C33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6016,56 +6040,72 @@
       <c r="A4" s="41">
         <v>2</v>
       </c>
-      <c r="B4" s="36"/>
+      <c r="B4" s="36" t="s">
+        <v>283</v>
+      </c>
       <c r="C4" s="26"/>
     </row>
     <row r="5" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A5" s="41">
         <v>3</v>
       </c>
-      <c r="B5" s="36"/>
+      <c r="B5" s="36" t="s">
+        <v>284</v>
+      </c>
       <c r="C5" s="26"/>
     </row>
     <row r="6" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A6" s="41">
         <v>4</v>
       </c>
-      <c r="B6" s="36"/>
+      <c r="B6" s="36" t="s">
+        <v>285</v>
+      </c>
       <c r="C6" s="26"/>
     </row>
     <row r="7" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A7" s="41">
         <v>5</v>
       </c>
-      <c r="B7" s="36"/>
+      <c r="B7" s="36" t="s">
+        <v>286</v>
+      </c>
       <c r="C7" s="26"/>
     </row>
     <row r="8" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A8" s="41">
         <v>6</v>
       </c>
-      <c r="B8" s="36"/>
+      <c r="B8" s="36" t="s">
+        <v>287</v>
+      </c>
       <c r="C8" s="26"/>
     </row>
     <row r="9" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A9" s="41">
         <v>7</v>
       </c>
-      <c r="B9" s="37"/>
+      <c r="B9" s="37" t="s">
+        <v>288</v>
+      </c>
       <c r="C9" s="26"/>
     </row>
     <row r="10" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A10" s="41">
         <v>8</v>
       </c>
-      <c r="B10" s="36"/>
+      <c r="B10" s="36" t="s">
+        <v>289</v>
+      </c>
       <c r="C10" s="26"/>
     </row>
     <row r="11" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A11" s="41">
         <v>9</v>
       </c>
-      <c r="B11" s="36"/>
+      <c r="B11" s="36" t="s">
+        <v>290</v>
+      </c>
       <c r="C11" s="26"/>
     </row>
     <row r="12" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">

--- a/Source/Document/Meeting minutes/Meeting minute.xlsx
+++ b/Source/Document/Meeting minutes/Meeting minute.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="13" activeTab="23"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="17" activeTab="25"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="623" uniqueCount="291">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="629" uniqueCount="297">
   <si>
     <t>MEETING MINUTES</t>
   </si>
@@ -972,6 +972,24 @@
   </si>
   <si>
     <t>Demo sp</t>
+  </si>
+  <si>
+    <t>hiển thị ngày bán và ngày trả tiền…</t>
+  </si>
+  <si>
+    <t>Policy là một dữ liệu tĩnh -&gt; phải cho sửa.</t>
+  </si>
+  <si>
+    <t>Mai bảo vệ thử. 7h có mặt</t>
+  </si>
+  <si>
+    <t>Thống kê làm một trang: load hết dữ liệu và cho xem chi tiết</t>
+  </si>
+  <si>
+    <t>Sửa lại giao diện mà con người hay sử dụng</t>
+  </si>
+  <si>
+    <t>Sửa: Sản phẩm đã đặt và đã bán</t>
   </si>
 </sst>
 </file>
@@ -5998,7 +6016,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
@@ -6247,7 +6265,7 @@
   <dimension ref="A1:C33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6476,8 +6494,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6509,42 +6527,54 @@
       <c r="A3" s="41">
         <v>1</v>
       </c>
-      <c r="B3" s="36"/>
+      <c r="B3" s="36" t="s">
+        <v>291</v>
+      </c>
       <c r="C3" s="26"/>
     </row>
     <row r="4" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A4" s="41">
         <v>2</v>
       </c>
-      <c r="B4" s="36"/>
+      <c r="B4" s="36" t="s">
+        <v>292</v>
+      </c>
       <c r="C4" s="26"/>
     </row>
     <row r="5" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A5" s="41">
         <v>3</v>
       </c>
-      <c r="B5" s="36"/>
+      <c r="B5" s="36" t="s">
+        <v>293</v>
+      </c>
       <c r="C5" s="26"/>
     </row>
-    <row r="6" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" ht="39" x14ac:dyDescent="0.25">
       <c r="A6" s="41">
         <v>4</v>
       </c>
-      <c r="B6" s="36"/>
+      <c r="B6" s="36" t="s">
+        <v>294</v>
+      </c>
       <c r="C6" s="26"/>
     </row>
     <row r="7" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A7" s="41">
         <v>5</v>
       </c>
-      <c r="B7" s="36"/>
+      <c r="B7" s="43" t="s">
+        <v>295</v>
+      </c>
       <c r="C7" s="26"/>
     </row>
     <row r="8" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A8" s="41">
         <v>6</v>
       </c>
-      <c r="B8" s="36"/>
+      <c r="B8" s="36" t="s">
+        <v>296</v>
+      </c>
       <c r="C8" s="26"/>
     </row>
     <row r="9" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
@@ -6611,22 +6641,30 @@
       <c r="C17" s="26"/>
     </row>
     <row r="18" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A18" s="41"/>
+      <c r="A18" s="41">
+        <v>16</v>
+      </c>
       <c r="B18" s="36"/>
       <c r="C18" s="26"/>
     </row>
     <row r="19" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A19" s="41"/>
+      <c r="A19" s="41">
+        <v>17</v>
+      </c>
       <c r="B19" s="36"/>
       <c r="C19" s="26"/>
     </row>
     <row r="20" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A20" s="41"/>
+      <c r="A20" s="41">
+        <v>18</v>
+      </c>
       <c r="B20" s="36"/>
       <c r="C20" s="26"/>
     </row>
     <row r="21" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A21" s="41"/>
+      <c r="A21" s="41">
+        <v>19</v>
+      </c>
       <c r="B21" s="36"/>
       <c r="C21" s="26"/>
     </row>
@@ -6648,12 +6686,16 @@
       </c>
     </row>
     <row r="24" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A24" s="26"/>
+      <c r="A24" s="26">
+        <v>1</v>
+      </c>
       <c r="B24" s="36"/>
       <c r="C24" s="26"/>
     </row>
     <row r="25" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A25" s="26"/>
+      <c r="A25" s="26">
+        <v>2</v>
+      </c>
       <c r="B25" s="36"/>
       <c r="C25" s="26"/>
     </row>
@@ -6699,6 +6741,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/Source/Document/Meeting minutes/Meeting minute.xlsx
+++ b/Source/Document/Meeting minutes/Meeting minute.xlsx
@@ -6495,7 +6495,7 @@
   <dimension ref="A1:C33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Source/Document/Meeting minutes/Meeting minute.xlsx
+++ b/Source/Document/Meeting minutes/Meeting minute.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="17" activeTab="25"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="18" activeTab="22"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="629" uniqueCount="297">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="639" uniqueCount="307">
   <si>
     <t>MEETING MINUTES</t>
   </si>
@@ -990,6 +990,116 @@
   </si>
   <si>
     <t>Sửa: Sản phẩm đã đặt và đã bán</t>
+  </si>
+  <si>
+    <r>
+      <t>Dùng "</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="15"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>chúng tôi</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>" khi thuyết trình</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Thuyết trình toàn bộ bằng </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="15"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>tiếng Việt</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Chạy demo </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="15"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>KHÔNG</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> dùng Cốc Cốc, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="15"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">NÊN </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>sử dụng bằng ẩn danh hoặc trình duyệt khác. Dùng nhiều trình duyệt và giới thiệu rõ màn hình này là thuộc role nào</t>
+    </r>
+  </si>
+  <si>
+    <t>Không nói "để về em xem xét" -&gt; dùng "tôi đã sai", "tôi chưa làm nghĩ tới trường hợp đó", "nhóm tôi chưa làm chức năng này, nhưng nếu làm như thế chúng tôi sẽ làm thế này..."</t>
+  </si>
+  <si>
+    <t>Nếu câu hỏi khó và dài, phải hỏi lại câu hỏi rõ ràng mới trả lời -&gt; kéo thời gian và làm rõ câu hỏi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hoàng </t>
+  </si>
+  <si>
+    <t>Làm Cookie (có session) cho khách ký gửi</t>
+  </si>
+  <si>
+    <t>INTRODUCTION -&gt;  PROBLEM -&gt; SOLUTION (DATA SOURCE) -&gt; SCENARIOR (PREPARE- SEARCH ROUTE -&gt; ALGORITHM) -&gt; DEFINATION -&gt; SUMMARY-&gt; FUTURE PLAN</t>
+  </si>
+  <si>
+    <t>SLIDE: Mình làm mọi thứ bằg tay NHƯ THẾ NÀO? Trả lời câu hỏi: "HOW"</t>
+  </si>
+  <si>
+    <t>Không nói công nghệ sử dụng.</t>
   </si>
 </sst>
 </file>
@@ -5762,14 +5872,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.85546875" style="32" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="64" style="32" customWidth="1"/>
+    <col min="2" max="2" width="91.7109375" style="32" customWidth="1"/>
     <col min="3" max="3" width="27.42578125" style="32" customWidth="1"/>
     <col min="4" max="16384" width="9.140625" style="32"/>
   </cols>
@@ -5903,7 +6013,9 @@
       <c r="A15" s="41">
         <v>13</v>
       </c>
-      <c r="B15" s="36"/>
+      <c r="B15" s="36" t="s">
+        <v>303</v>
+      </c>
       <c r="C15" s="26"/>
     </row>
     <row r="16" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
@@ -5913,21 +6025,27 @@
       <c r="B16" s="36"/>
       <c r="C16" s="26"/>
     </row>
-    <row r="17" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" ht="58.5" x14ac:dyDescent="0.25">
       <c r="A17" s="41">
         <v>15</v>
       </c>
-      <c r="B17" s="36"/>
+      <c r="B17" s="36" t="s">
+        <v>304</v>
+      </c>
       <c r="C17" s="26"/>
     </row>
     <row r="18" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A18" s="41"/>
-      <c r="B18" s="36"/>
+      <c r="B18" s="36" t="s">
+        <v>305</v>
+      </c>
       <c r="C18" s="26"/>
     </row>
     <row r="19" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A19" s="41"/>
-      <c r="B19" s="36"/>
+      <c r="B19" s="36" t="s">
+        <v>306</v>
+      </c>
       <c r="C19" s="26"/>
     </row>
     <row r="20" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
@@ -6494,7 +6612,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
@@ -6750,7 +6868,7 @@
   <dimension ref="A1:C33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6782,42 +6900,54 @@
       <c r="A3" s="41">
         <v>1</v>
       </c>
-      <c r="B3" s="36"/>
+      <c r="B3" s="36" t="s">
+        <v>297</v>
+      </c>
       <c r="C3" s="26"/>
     </row>
     <row r="4" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A4" s="41">
         <v>2</v>
       </c>
-      <c r="B4" s="36"/>
+      <c r="B4" s="36" t="s">
+        <v>298</v>
+      </c>
       <c r="C4" s="26"/>
     </row>
-    <row r="5" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" ht="78" x14ac:dyDescent="0.25">
       <c r="A5" s="41">
         <v>3</v>
       </c>
-      <c r="B5" s="36"/>
+      <c r="B5" s="36" t="s">
+        <v>299</v>
+      </c>
       <c r="C5" s="26"/>
     </row>
-    <row r="6" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" ht="78" x14ac:dyDescent="0.25">
       <c r="A6" s="41">
         <v>4</v>
       </c>
-      <c r="B6" s="36"/>
+      <c r="B6" s="36" t="s">
+        <v>300</v>
+      </c>
       <c r="C6" s="26"/>
     </row>
-    <row r="7" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" ht="39" x14ac:dyDescent="0.25">
       <c r="A7" s="41">
         <v>5</v>
       </c>
-      <c r="B7" s="36"/>
+      <c r="B7" s="36" t="s">
+        <v>301</v>
+      </c>
       <c r="C7" s="26"/>
     </row>
     <row r="8" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A8" s="41">
         <v>6</v>
       </c>
-      <c r="B8" s="36"/>
+      <c r="B8" s="36" t="s">
+        <v>302</v>
+      </c>
       <c r="C8" s="26"/>
     </row>
     <row r="9" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
@@ -6972,6 +7102,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
